--- a/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
+++ b/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\Documents\test-open\Doppler\270ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{909807A9-2F1B-4B1C-AF48-8A643AAC5862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F485A4C-C2B8-445C-B4C4-B4E02532E034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7D1A221-8E2E-4AB0-B486-D617078FF2BE}"/>
   </bookViews>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E811F4-564C-477F-B01D-DCC0A23183EF}">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J247" sqref="J247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -556,9 +556,8 @@
       <c r="G2" s="1">
         <v>-50</v>
       </c>
-      <c r="H2" s="1">
-        <f>H33</f>
-        <v>341.83996241778891</v>
+      <c r="H2">
+        <v>79.401798999999997</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -586,9 +585,8 @@
       <c r="G3" s="1">
         <v>-50</v>
       </c>
-      <c r="H3" s="1">
-        <f>H32</f>
-        <v>324.92796742875043</v>
+      <c r="H3">
+        <v>98.197162000000006</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
@@ -616,8 +614,8 @@
       <c r="G4" s="1">
         <v>-50</v>
       </c>
-      <c r="H4" s="8">
-        <v>308.0159724397119</v>
+      <c r="H4">
+        <v>117.15275800000001</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -645,8 +643,8 @@
       <c r="G5" s="1">
         <v>-50</v>
       </c>
-      <c r="H5" s="8">
-        <v>291.10397745067337</v>
+      <c r="H5">
+        <v>136.211127</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -674,8 +672,8 @@
       <c r="G6" s="1">
         <v>-50</v>
       </c>
-      <c r="H6" s="8">
-        <v>274.19198246163484</v>
+      <c r="H6">
+        <v>155.31156999999999</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -703,8 +701,8 @@
       <c r="G7" s="1">
         <v>-50</v>
       </c>
-      <c r="H7" s="8">
-        <v>257.2799874725963</v>
+      <c r="H7">
+        <v>174.39016699999999</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -732,8 +730,8 @@
       <c r="G8" s="1">
         <v>-50</v>
       </c>
-      <c r="H8" s="8">
-        <v>240.3679924835578</v>
+      <c r="H8">
+        <v>193.38274000000001</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -761,8 +759,8 @@
       <c r="G9" s="1">
         <v>-50</v>
       </c>
-      <c r="H9" s="8">
-        <v>223.45599749451929</v>
+      <c r="H9">
+        <v>212.22472200000001</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -790,8 +788,8 @@
       <c r="G10" s="1">
         <v>-50</v>
       </c>
-      <c r="H10" s="8">
-        <v>206.54400250548076</v>
+      <c r="H10">
+        <v>230.851799</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -819,8 +817,8 @@
       <c r="G11" s="1">
         <v>-50</v>
       </c>
-      <c r="H11" s="8">
-        <v>189.63200751644223</v>
+      <c r="H11">
+        <v>249.20207300000001</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -848,8 +846,8 @@
       <c r="G12" s="1">
         <v>-50</v>
       </c>
-      <c r="H12" s="8">
-        <v>172.7200125274037</v>
+      <c r="H12">
+        <v>267.21680199999997</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -877,8 +875,8 @@
       <c r="G13" s="1">
         <v>-50</v>
       </c>
-      <c r="H13" s="8">
-        <v>155.80801753836516</v>
+      <c r="H13">
+        <v>284.84103099999999</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
@@ -906,8 +904,8 @@
       <c r="G14" s="1">
         <v>-50</v>
       </c>
-      <c r="H14" s="8">
-        <v>138.89602254932666</v>
+      <c r="H14">
+        <v>302.02355999999997</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -935,8 +933,8 @@
       <c r="G15" s="1">
         <v>-50</v>
       </c>
-      <c r="H15" s="8">
-        <v>121.98402756028813</v>
+      <c r="H15">
+        <v>318.720102</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -964,8 +962,8 @@
       <c r="G16" s="1">
         <v>-50</v>
       </c>
-      <c r="H16" s="8">
-        <v>105.07203257124961</v>
+      <c r="H16">
+        <v>334.89155799999997</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -993,8 +991,8 @@
       <c r="G17" s="1">
         <v>-50</v>
       </c>
-      <c r="H17" s="8">
-        <v>88.160037582211089</v>
+      <c r="H17">
+        <v>350.50418999999999</v>
       </c>
       <c r="I17" s="1">
         <v>1</v>
@@ -1022,8 +1020,8 @@
       <c r="G18" s="8">
         <v>-40</v>
       </c>
-      <c r="H18" s="8">
-        <v>88.160037582211089</v>
+      <c r="H18">
+        <v>350.50418999999999</v>
       </c>
       <c r="I18" s="8">
         <v>1</v>
@@ -1051,8 +1049,8 @@
       <c r="G19" s="8">
         <v>-40</v>
       </c>
-      <c r="H19" s="8">
-        <v>105.07203257124961</v>
+      <c r="H19">
+        <v>334.89155799999997</v>
       </c>
       <c r="I19" s="8">
         <v>1</v>
@@ -1080,8 +1078,8 @@
       <c r="G20" s="8">
         <v>-40</v>
       </c>
-      <c r="H20" s="8">
-        <v>121.98402756028813</v>
+      <c r="H20">
+        <v>318.720102</v>
       </c>
       <c r="I20" s="8">
         <v>1</v>
@@ -1109,8 +1107,8 @@
       <c r="G21" s="8">
         <v>-40</v>
       </c>
-      <c r="H21" s="8">
-        <v>138.89602254932666</v>
+      <c r="H21">
+        <v>302.02355999999997</v>
       </c>
       <c r="I21" s="8">
         <v>1</v>
@@ -1138,8 +1136,8 @@
       <c r="G22" s="8">
         <v>-40</v>
       </c>
-      <c r="H22" s="8">
-        <v>155.80801753836516</v>
+      <c r="H22">
+        <v>284.84103099999999</v>
       </c>
       <c r="I22" s="8">
         <v>1</v>
@@ -1167,8 +1165,8 @@
       <c r="G23" s="8">
         <v>-40</v>
       </c>
-      <c r="H23" s="8">
-        <v>172.7200125274037</v>
+      <c r="H23">
+        <v>267.21680199999997</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -1196,8 +1194,8 @@
       <c r="G24" s="8">
         <v>-40</v>
       </c>
-      <c r="H24" s="8">
-        <v>189.63200751644223</v>
+      <c r="H24">
+        <v>249.20207300000001</v>
       </c>
       <c r="I24" s="8">
         <v>1</v>
@@ -1225,8 +1223,8 @@
       <c r="G25" s="8">
         <v>-40</v>
       </c>
-      <c r="H25" s="8">
-        <v>206.54400250548076</v>
+      <c r="H25">
+        <v>230.851799</v>
       </c>
       <c r="I25" s="8">
         <v>1</v>
@@ -1254,8 +1252,8 @@
       <c r="G26" s="8">
         <v>-40</v>
       </c>
-      <c r="H26" s="8">
-        <v>223.45599749451929</v>
+      <c r="H26">
+        <v>212.22472200000001</v>
       </c>
       <c r="I26" s="8">
         <v>1</v>
@@ -1283,8 +1281,8 @@
       <c r="G27" s="8">
         <v>-40</v>
       </c>
-      <c r="H27" s="8">
-        <v>240.3679924835578</v>
+      <c r="H27">
+        <v>193.38274000000001</v>
       </c>
       <c r="I27" s="8">
         <v>1</v>
@@ -1312,8 +1310,8 @@
       <c r="G28" s="8">
         <v>-40</v>
       </c>
-      <c r="H28" s="8">
-        <v>257.2799874725963</v>
+      <c r="H28">
+        <v>174.39016699999999</v>
       </c>
       <c r="I28" s="8">
         <v>1</v>
@@ -1341,8 +1339,8 @@
       <c r="G29" s="8">
         <v>-40</v>
       </c>
-      <c r="H29" s="8">
-        <v>274.19198246163484</v>
+      <c r="H29">
+        <v>155.31156999999999</v>
       </c>
       <c r="I29" s="8">
         <v>1</v>
@@ -1370,8 +1368,8 @@
       <c r="G30" s="8">
         <v>-40</v>
       </c>
-      <c r="H30" s="8">
-        <v>291.10397745067337</v>
+      <c r="H30">
+        <v>136.211127</v>
       </c>
       <c r="I30" s="8">
         <v>1</v>
@@ -1399,8 +1397,8 @@
       <c r="G31" s="8">
         <v>-40</v>
       </c>
-      <c r="H31" s="8">
-        <v>308.0159724397119</v>
+      <c r="H31">
+        <v>117.15275800000001</v>
       </c>
       <c r="I31" s="8">
         <v>1</v>
@@ -1428,8 +1426,8 @@
       <c r="G32" s="8">
         <v>-40</v>
       </c>
-      <c r="H32" s="8">
-        <v>324.92796742875043</v>
+      <c r="H32">
+        <v>98.197162000000006</v>
       </c>
       <c r="I32" s="8">
         <v>1</v>
@@ -1457,8 +1455,8 @@
       <c r="G33" s="8">
         <v>-40</v>
       </c>
-      <c r="H33" s="8">
-        <v>341.83996241778891</v>
+      <c r="H33">
+        <v>79.401798999999997</v>
       </c>
       <c r="I33" s="8">
         <v>1</v>
@@ -1486,8 +1484,8 @@
       <c r="G34" s="1">
         <v>-30</v>
       </c>
-      <c r="H34" s="1">
-        <v>319.14285714285711</v>
+      <c r="H34">
+        <v>89.659206999999995</v>
       </c>
       <c r="I34" s="1">
         <v>1</v>
@@ -1515,8 +1513,8 @@
       <c r="G35" s="1">
         <v>-30</v>
       </c>
-      <c r="H35" s="1">
-        <v>311.42857142857144</v>
+      <c r="H35">
+        <v>99.367991000000004</v>
       </c>
       <c r="I35" s="1">
         <v>1</v>
@@ -1544,8 +1542,8 @@
       <c r="G36" s="1">
         <v>-30</v>
       </c>
-      <c r="H36" s="1">
-        <v>303.71428571428572</v>
+      <c r="H36">
+        <v>109.11838</v>
       </c>
       <c r="I36" s="1">
         <v>1</v>
@@ -1573,8 +1571,8 @@
       <c r="G37" s="1">
         <v>-30</v>
       </c>
-      <c r="H37" s="1">
-        <v>296</v>
+      <c r="H37">
+        <v>118.902579</v>
       </c>
       <c r="I37" s="1">
         <v>1</v>
@@ -1602,8 +1600,8 @@
       <c r="G38" s="1">
         <v>-30</v>
       </c>
-      <c r="H38" s="1">
-        <v>288.28571428571428</v>
+      <c r="H38">
+        <v>128.71271400000001</v>
       </c>
       <c r="I38" s="1">
         <v>1</v>
@@ -1631,8 +1629,8 @@
       <c r="G39" s="1">
         <v>-30</v>
       </c>
-      <c r="H39" s="1">
-        <v>280.57142857142856</v>
+      <c r="H39">
+        <v>138.540685</v>
       </c>
       <c r="I39" s="1">
         <v>1</v>
@@ -1660,8 +1658,8 @@
       <c r="G40" s="1">
         <v>-30</v>
       </c>
-      <c r="H40" s="1">
-        <v>272.85714285714289</v>
+      <c r="H40">
+        <v>148.37740400000001</v>
       </c>
       <c r="I40" s="1">
         <v>1</v>
@@ -1689,8 +1687,8 @@
       <c r="G41" s="1">
         <v>-30</v>
       </c>
-      <c r="H41" s="1">
-        <v>265.14285714285711</v>
+      <c r="H41">
+        <v>158.21461400000001</v>
       </c>
       <c r="I41" s="1">
         <v>1</v>
@@ -1718,8 +1716,8 @@
       <c r="G42" s="1">
         <v>-30</v>
       </c>
-      <c r="H42" s="1">
-        <v>257.42857142857144</v>
+      <c r="H42">
+        <v>168.04382200000001</v>
       </c>
       <c r="I42" s="1">
         <v>1</v>
@@ -1747,8 +1745,8 @@
       <c r="G43" s="1">
         <v>-30</v>
       </c>
-      <c r="H43" s="1">
-        <v>249.71428571428572</v>
+      <c r="H43">
+        <v>177.85565600000001</v>
       </c>
       <c r="I43" s="1">
         <v>1</v>
@@ -1776,8 +1774,8 @@
       <c r="G44" s="1">
         <v>-30</v>
       </c>
-      <c r="H44" s="1">
-        <v>241.99999999999997</v>
+      <c r="H44">
+        <v>187.641516</v>
       </c>
       <c r="I44" s="1">
         <v>0</v>
@@ -1805,8 +1803,8 @@
       <c r="G45" s="1">
         <v>-30</v>
       </c>
-      <c r="H45" s="1">
-        <v>234.28571428571431</v>
+      <c r="H45">
+        <v>197.39288099999999</v>
       </c>
       <c r="I45" s="1">
         <v>1</v>
@@ -1834,8 +1832,8 @@
       <c r="G46" s="1">
         <v>-30</v>
       </c>
-      <c r="H46" s="1">
-        <v>226.57142857142858</v>
+      <c r="H46">
+        <v>207.10028700000001</v>
       </c>
       <c r="I46" s="1">
         <v>1</v>
@@ -1863,8 +1861,8 @@
       <c r="G47" s="1">
         <v>-30</v>
       </c>
-      <c r="H47" s="1">
-        <v>218.85714285714286</v>
+      <c r="H47">
+        <v>216.75528600000001</v>
       </c>
       <c r="I47" s="1">
         <v>1</v>
@@ -1892,8 +1890,8 @@
       <c r="G48" s="1">
         <v>-30</v>
       </c>
-      <c r="H48" s="1">
-        <v>211.14285714285714</v>
+      <c r="H48">
+        <v>226.349369</v>
       </c>
       <c r="I48" s="1">
         <v>0</v>
@@ -1921,8 +1919,8 @@
       <c r="G49" s="1">
         <v>-30</v>
       </c>
-      <c r="H49" s="1">
-        <v>203.42857142857144</v>
+      <c r="H49">
+        <v>235.87411599999999</v>
       </c>
       <c r="I49" s="1">
         <v>1</v>
@@ -1950,8 +1948,8 @@
       <c r="G50" s="1">
         <v>-30</v>
       </c>
-      <c r="H50" s="1">
-        <v>195.71428571428572</v>
+      <c r="H50">
+        <v>245.320797</v>
       </c>
       <c r="I50" s="1">
         <v>1</v>
@@ -1979,8 +1977,8 @@
       <c r="G51" s="1">
         <v>-30</v>
       </c>
-      <c r="H51" s="1">
-        <v>188</v>
+      <c r="H51">
+        <v>254.68179599999999</v>
       </c>
       <c r="I51" s="1">
         <v>1</v>
@@ -2008,8 +2006,8 @@
       <c r="G52" s="1">
         <v>-30</v>
       </c>
-      <c r="H52" s="1">
-        <v>180.28571428571428</v>
+      <c r="H52">
+        <v>263.949275</v>
       </c>
       <c r="I52" s="1">
         <v>1</v>
@@ -2037,8 +2035,8 @@
       <c r="G53" s="1">
         <v>-30</v>
       </c>
-      <c r="H53" s="1">
-        <v>172.57142857142856</v>
+      <c r="H53">
+        <v>273.11551600000001</v>
       </c>
       <c r="I53" s="1">
         <v>1</v>
@@ -2066,8 +2064,8 @@
       <c r="G54" s="1">
         <v>-30</v>
       </c>
-      <c r="H54" s="1">
-        <v>164.85714285714286</v>
+      <c r="H54">
+        <v>282.17324600000001</v>
       </c>
       <c r="I54" s="1">
         <v>1</v>
@@ -2095,8 +2093,8 @@
       <c r="G55" s="1">
         <v>-30</v>
       </c>
-      <c r="H55" s="1">
-        <v>157.14285714285717</v>
+      <c r="H55">
+        <v>291.11581999999999</v>
       </c>
       <c r="I55" s="1">
         <v>1</v>
@@ -2124,8 +2122,8 @@
       <c r="G56" s="1">
         <v>-30</v>
       </c>
-      <c r="H56" s="1">
-        <v>149.42857142857144</v>
+      <c r="H56">
+        <v>299.93727799999999</v>
       </c>
       <c r="I56" s="1">
         <v>1</v>
@@ -2153,8 +2151,8 @@
       <c r="G57" s="1">
         <v>-30</v>
       </c>
-      <c r="H57" s="1">
-        <v>141.71428571428572</v>
+      <c r="H57">
+        <v>308.63055600000001</v>
       </c>
       <c r="I57" s="1">
         <v>1</v>
@@ -2182,8 +2180,8 @@
       <c r="G58" s="1">
         <v>-30</v>
       </c>
-      <c r="H58" s="1">
-        <v>134</v>
+      <c r="H58">
+        <v>317.19049799999999</v>
       </c>
       <c r="I58" s="1">
         <v>1</v>
@@ -2211,8 +2209,8 @@
       <c r="G59" s="1">
         <v>-30</v>
       </c>
-      <c r="H59" s="1">
-        <v>126.28571428571428</v>
+      <c r="H59">
+        <v>325.61242600000003</v>
       </c>
       <c r="I59" s="1">
         <v>1</v>
@@ -2240,8 +2238,8 @@
       <c r="G60" s="1">
         <v>-30</v>
       </c>
-      <c r="H60" s="1">
-        <v>118.57142857142858</v>
+      <c r="H60">
+        <v>333.89049799999998</v>
       </c>
       <c r="I60" s="1">
         <v>1</v>
@@ -2269,8 +2267,8 @@
       <c r="G61" s="1">
         <v>-30</v>
       </c>
-      <c r="H61" s="1">
-        <v>110.85714285714286</v>
+      <c r="H61">
+        <v>342.02119699999997</v>
       </c>
       <c r="I61" s="1">
         <v>1</v>
@@ -2298,8 +2296,8 @@
       <c r="G62" s="8">
         <v>-20</v>
       </c>
-      <c r="H62" s="8">
-        <v>87.714285714285708</v>
+      <c r="H62">
+        <v>350.000024</v>
       </c>
       <c r="I62" s="8">
         <v>1</v>
@@ -2327,8 +2325,8 @@
       <c r="G63" s="8">
         <v>-20</v>
       </c>
-      <c r="H63" s="8">
-        <v>95.428571428571416</v>
+      <c r="H63">
+        <v>342.02119699999997</v>
       </c>
       <c r="I63" s="8">
         <v>1</v>
@@ -2356,8 +2354,8 @@
       <c r="G64" s="8">
         <v>-20</v>
       </c>
-      <c r="H64" s="8">
-        <v>103.14285714285715</v>
+      <c r="H64">
+        <v>333.89049799999998</v>
       </c>
       <c r="I64" s="8">
         <v>1</v>
@@ -2385,8 +2383,8 @@
       <c r="G65" s="8">
         <v>-20</v>
       </c>
-      <c r="H65" s="8">
-        <v>110.85714285714286</v>
+      <c r="H65">
+        <v>325.61242600000003</v>
       </c>
       <c r="I65" s="8">
         <v>1</v>
@@ -2414,8 +2412,8 @@
       <c r="G66" s="8">
         <v>-20</v>
       </c>
-      <c r="H66" s="8">
-        <v>118.57142857142858</v>
+      <c r="H66">
+        <v>317.19049799999999</v>
       </c>
       <c r="I66" s="8">
         <v>1</v>
@@ -2443,8 +2441,8 @@
       <c r="G67" s="8">
         <v>-20</v>
       </c>
-      <c r="H67" s="8">
-        <v>126.28571428571428</v>
+      <c r="H67">
+        <v>308.63055600000001</v>
       </c>
       <c r="I67" s="8">
         <v>1</v>
@@ -2472,8 +2470,8 @@
       <c r="G68" s="8">
         <v>-20</v>
       </c>
-      <c r="H68" s="8">
-        <v>134</v>
+      <c r="H68">
+        <v>299.93727799999999</v>
       </c>
       <c r="I68" s="8">
         <v>1</v>
@@ -2501,8 +2499,8 @@
       <c r="G69" s="8">
         <v>-20</v>
       </c>
-      <c r="H69" s="8">
-        <v>141.71428571428572</v>
+      <c r="H69">
+        <v>291.11581999999999</v>
       </c>
       <c r="I69" s="8">
         <v>1</v>
@@ -2530,8 +2528,8 @@
       <c r="G70" s="8">
         <v>-20</v>
       </c>
-      <c r="H70" s="8">
-        <v>149.42857142857144</v>
+      <c r="H70">
+        <v>282.17324600000001</v>
       </c>
       <c r="I70" s="8">
         <v>1</v>
@@ -2559,8 +2557,8 @@
       <c r="G71" s="8">
         <v>-20</v>
       </c>
-      <c r="H71" s="8">
-        <v>157.14285714285717</v>
+      <c r="H71">
+        <v>273.11551600000001</v>
       </c>
       <c r="I71" s="8">
         <v>1</v>
@@ -2588,8 +2586,8 @@
       <c r="G72" s="8">
         <v>-20</v>
       </c>
-      <c r="H72" s="8">
-        <v>164.85714285714286</v>
+      <c r="H72">
+        <v>263.949275</v>
       </c>
       <c r="I72" s="8">
         <v>1</v>
@@ -2617,8 +2615,8 @@
       <c r="G73" s="8">
         <v>-20</v>
       </c>
-      <c r="H73" s="8">
-        <v>172.57142857142856</v>
+      <c r="H73">
+        <v>254.68179599999999</v>
       </c>
       <c r="I73" s="8">
         <v>1</v>
@@ -2646,8 +2644,8 @@
       <c r="G74" s="8">
         <v>-20</v>
       </c>
-      <c r="H74" s="8">
-        <v>180.28571428571428</v>
+      <c r="H74">
+        <v>245.320797</v>
       </c>
       <c r="I74" s="8">
         <v>1</v>
@@ -2675,8 +2673,8 @@
       <c r="G75" s="8">
         <v>-20</v>
       </c>
-      <c r="H75" s="8">
-        <v>188</v>
+      <c r="H75">
+        <v>235.87411599999999</v>
       </c>
       <c r="I75" s="8">
         <v>1</v>
@@ -2704,8 +2702,8 @@
       <c r="G76" s="8">
         <v>-20</v>
       </c>
-      <c r="H76" s="8">
-        <v>195.71428571428572</v>
+      <c r="H76">
+        <v>226.349369</v>
       </c>
       <c r="I76" s="8">
         <v>1</v>
@@ -2733,8 +2731,8 @@
       <c r="G77" s="8">
         <v>-20</v>
       </c>
-      <c r="H77" s="8">
-        <v>203.42857142857144</v>
+      <c r="H77">
+        <v>216.75528600000001</v>
       </c>
       <c r="I77" s="8">
         <v>1</v>
@@ -2762,8 +2760,8 @@
       <c r="G78" s="8">
         <v>-20</v>
       </c>
-      <c r="H78" s="8">
-        <v>211.14285714285714</v>
+      <c r="H78">
+        <v>207.10028700000001</v>
       </c>
       <c r="I78" s="8">
         <v>1</v>
@@ -2791,8 +2789,8 @@
       <c r="G79" s="8">
         <v>-20</v>
       </c>
-      <c r="H79" s="8">
-        <v>218.85714285714286</v>
+      <c r="H79">
+        <v>197.39288099999999</v>
       </c>
       <c r="I79" s="8">
         <v>1</v>
@@ -2820,8 +2818,8 @@
       <c r="G80" s="8">
         <v>-20</v>
       </c>
-      <c r="H80" s="8">
-        <v>226.57142857142858</v>
+      <c r="H80">
+        <v>187.641516</v>
       </c>
       <c r="I80" s="8">
         <v>1</v>
@@ -2849,8 +2847,8 @@
       <c r="G81" s="8">
         <v>-20</v>
       </c>
-      <c r="H81" s="8">
-        <v>234.28571428571431</v>
+      <c r="H81">
+        <v>177.85565600000001</v>
       </c>
       <c r="I81" s="8">
         <v>1</v>
@@ -2878,8 +2876,8 @@
       <c r="G82" s="8">
         <v>-20</v>
       </c>
-      <c r="H82" s="8">
-        <v>241.99999999999997</v>
+      <c r="H82">
+        <v>168.04382200000001</v>
       </c>
       <c r="I82" s="8">
         <v>1</v>
@@ -2907,8 +2905,8 @@
       <c r="G83" s="8">
         <v>-20</v>
       </c>
-      <c r="H83" s="8">
-        <v>249.71428571428572</v>
+      <c r="H83">
+        <v>158.21461400000001</v>
       </c>
       <c r="I83" s="8">
         <v>1</v>
@@ -2936,8 +2934,8 @@
       <c r="G84" s="8">
         <v>-20</v>
       </c>
-      <c r="H84" s="8">
-        <v>257.42857142857144</v>
+      <c r="H84">
+        <v>148.37740400000001</v>
       </c>
       <c r="I84" s="8">
         <v>1</v>
@@ -2965,8 +2963,8 @@
       <c r="G85" s="8">
         <v>-20</v>
       </c>
-      <c r="H85" s="8">
-        <v>265.14285714285711</v>
+      <c r="H85">
+        <v>138.540685</v>
       </c>
       <c r="I85" s="8">
         <v>1</v>
@@ -2994,8 +2992,8 @@
       <c r="G86" s="8">
         <v>-20</v>
       </c>
-      <c r="H86" s="8">
-        <v>272.85714285714289</v>
+      <c r="H86">
+        <v>128.71271400000001</v>
       </c>
       <c r="I86" s="8">
         <v>1</v>
@@ -3023,8 +3021,8 @@
       <c r="G87" s="8">
         <v>-20</v>
       </c>
-      <c r="H87" s="8">
-        <v>280.57142857142856</v>
+      <c r="H87">
+        <v>118.902579</v>
       </c>
       <c r="I87" s="8">
         <v>1</v>
@@ -3052,8 +3050,8 @@
       <c r="G88" s="8">
         <v>-20</v>
       </c>
-      <c r="H88" s="8">
-        <v>288.28571428571428</v>
+      <c r="H88">
+        <v>109.11838</v>
       </c>
       <c r="I88" s="8">
         <v>1</v>
@@ -3081,8 +3079,8 @@
       <c r="G89" s="8">
         <v>-20</v>
       </c>
-      <c r="H89" s="8">
-        <v>296</v>
+      <c r="H89">
+        <v>99.367991000000004</v>
       </c>
       <c r="I89" s="8">
         <v>1</v>
@@ -3110,8 +3108,8 @@
       <c r="G90" s="8">
         <v>-20</v>
       </c>
-      <c r="H90" s="8">
-        <v>303.71428571428572</v>
+      <c r="H90">
+        <v>89.659206999999995</v>
       </c>
       <c r="I90" s="8">
         <v>1</v>
@@ -3139,8 +3137,8 @@
       <c r="G91" s="8">
         <v>-20</v>
       </c>
-      <c r="H91" s="8">
-        <v>311.42857142857144</v>
+      <c r="H91">
+        <v>80.000005999999999</v>
       </c>
       <c r="I91" s="8">
         <v>1</v>
@@ -3168,8 +3166,8 @@
       <c r="G92" s="1">
         <v>-10</v>
       </c>
-      <c r="H92" s="1">
-        <v>326.85714285714289</v>
+      <c r="H92">
+        <v>80.000005999999999</v>
       </c>
       <c r="I92" s="1">
         <v>1</v>
@@ -3197,8 +3195,8 @@
       <c r="G93" s="1">
         <v>-10</v>
       </c>
-      <c r="H93" s="1">
-        <v>319.14285714285711</v>
+      <c r="H93">
+        <v>89.659206999999995</v>
       </c>
       <c r="I93" s="1">
         <v>1</v>
@@ -3226,8 +3224,8 @@
       <c r="G94" s="1">
         <v>-10</v>
       </c>
-      <c r="H94" s="1">
-        <v>311.42857142857144</v>
+      <c r="H94">
+        <v>99.367991000000004</v>
       </c>
       <c r="I94" s="1">
         <v>1</v>
@@ -3255,8 +3253,8 @@
       <c r="G95" s="1">
         <v>-10</v>
       </c>
-      <c r="H95" s="1">
-        <v>303.71428571428572</v>
+      <c r="H95">
+        <v>109.11838</v>
       </c>
       <c r="I95" s="1">
         <v>1</v>
@@ -3284,8 +3282,8 @@
       <c r="G96" s="1">
         <v>-10</v>
       </c>
-      <c r="H96" s="1">
-        <v>296</v>
+      <c r="H96">
+        <v>118.902579</v>
       </c>
       <c r="I96" s="1">
         <v>1</v>
@@ -3313,8 +3311,8 @@
       <c r="G97" s="1">
         <v>-10</v>
       </c>
-      <c r="H97" s="1">
-        <v>288.28571428571428</v>
+      <c r="H97">
+        <v>128.71271400000001</v>
       </c>
       <c r="I97" s="1">
         <v>1</v>
@@ -3342,8 +3340,8 @@
       <c r="G98" s="1">
         <v>-10</v>
       </c>
-      <c r="H98" s="1">
-        <v>280.57142857142856</v>
+      <c r="H98">
+        <v>138.540685</v>
       </c>
       <c r="I98" s="1">
         <v>1</v>
@@ -3371,8 +3369,8 @@
       <c r="G99" s="1">
         <v>-10</v>
       </c>
-      <c r="H99" s="1">
-        <v>272.85714285714289</v>
+      <c r="H99">
+        <v>148.37740400000001</v>
       </c>
       <c r="I99" s="1">
         <v>1</v>
@@ -3400,8 +3398,8 @@
       <c r="G100" s="1">
         <v>-10</v>
       </c>
-      <c r="H100" s="1">
-        <v>265.14285714285711</v>
+      <c r="H100">
+        <v>158.21461400000001</v>
       </c>
       <c r="I100" s="1">
         <v>1</v>
@@ -3429,8 +3427,8 @@
       <c r="G101" s="1">
         <v>-10</v>
       </c>
-      <c r="H101" s="1">
-        <v>257.42857142857144</v>
+      <c r="H101">
+        <v>168.04382200000001</v>
       </c>
       <c r="I101" s="1">
         <v>1</v>
@@ -3458,8 +3456,8 @@
       <c r="G102" s="1">
         <v>-10</v>
       </c>
-      <c r="H102" s="1">
-        <v>249.71428571428572</v>
+      <c r="H102">
+        <v>177.85565600000001</v>
       </c>
       <c r="I102" s="1">
         <v>1</v>
@@ -3487,8 +3485,8 @@
       <c r="G103" s="1">
         <v>-10</v>
       </c>
-      <c r="H103" s="1">
-        <v>241.99999999999997</v>
+      <c r="H103">
+        <v>187.641516</v>
       </c>
       <c r="I103" s="1">
         <v>1</v>
@@ -3516,8 +3514,8 @@
       <c r="G104" s="1">
         <v>-10</v>
       </c>
-      <c r="H104" s="1">
-        <v>234.28571428571431</v>
+      <c r="H104">
+        <v>197.39288099999999</v>
       </c>
       <c r="I104" s="1">
         <v>1</v>
@@ -3545,8 +3543,8 @@
       <c r="G105" s="1">
         <v>-10</v>
       </c>
-      <c r="H105" s="1">
-        <v>226.57142857142858</v>
+      <c r="H105">
+        <v>207.10028700000001</v>
       </c>
       <c r="I105" s="1">
         <v>1</v>
@@ -3574,8 +3572,8 @@
       <c r="G106" s="1">
         <v>-10</v>
       </c>
-      <c r="H106" s="1">
-        <v>218.85714285714286</v>
+      <c r="H106">
+        <v>216.75528600000001</v>
       </c>
       <c r="I106" s="1">
         <v>1</v>
@@ -3603,8 +3601,8 @@
       <c r="G107" s="1">
         <v>-10</v>
       </c>
-      <c r="H107" s="1">
-        <v>211.14285714285714</v>
+      <c r="H107">
+        <v>226.349369</v>
       </c>
       <c r="I107" s="1">
         <v>1</v>
@@ -3632,8 +3630,8 @@
       <c r="G108" s="1">
         <v>-10</v>
       </c>
-      <c r="H108" s="1">
-        <v>203.42857142857144</v>
+      <c r="H108">
+        <v>235.87411599999999</v>
       </c>
       <c r="I108" s="1">
         <v>1</v>
@@ -3661,8 +3659,8 @@
       <c r="G109" s="1">
         <v>-10</v>
       </c>
-      <c r="H109" s="1">
-        <v>195.71428571428572</v>
+      <c r="H109">
+        <v>245.320797</v>
       </c>
       <c r="I109" s="1">
         <v>1</v>
@@ -3690,8 +3688,8 @@
       <c r="G110" s="1">
         <v>-10</v>
       </c>
-      <c r="H110" s="1">
-        <v>188</v>
+      <c r="H110">
+        <v>254.68179599999999</v>
       </c>
       <c r="I110" s="1">
         <v>1</v>
@@ -3719,8 +3717,8 @@
       <c r="G111" s="1">
         <v>-10</v>
       </c>
-      <c r="H111" s="1">
-        <v>180.28571428571428</v>
+      <c r="H111">
+        <v>263.949275</v>
       </c>
       <c r="I111" s="1">
         <v>1</v>
@@ -3748,8 +3746,8 @@
       <c r="G112" s="1">
         <v>-10</v>
       </c>
-      <c r="H112" s="1">
-        <v>172.57142857142856</v>
+      <c r="H112">
+        <v>273.11551600000001</v>
       </c>
       <c r="I112" s="1">
         <v>1</v>
@@ -3777,8 +3775,8 @@
       <c r="G113" s="1">
         <v>-10</v>
       </c>
-      <c r="H113" s="1">
-        <v>164.85714285714286</v>
+      <c r="H113">
+        <v>282.17324600000001</v>
       </c>
       <c r="I113" s="1">
         <v>1</v>
@@ -3806,8 +3804,8 @@
       <c r="G114" s="1">
         <v>-10</v>
       </c>
-      <c r="H114" s="1">
-        <v>157.14285714285717</v>
+      <c r="H114">
+        <v>291.11581999999999</v>
       </c>
       <c r="I114" s="1">
         <v>1</v>
@@ -3835,8 +3833,8 @@
       <c r="G115" s="1">
         <v>-10</v>
       </c>
-      <c r="H115" s="1">
-        <v>149.42857142857144</v>
+      <c r="H115">
+        <v>299.93727799999999</v>
       </c>
       <c r="I115" s="1">
         <v>1</v>
@@ -3864,8 +3862,8 @@
       <c r="G116" s="1">
         <v>-10</v>
       </c>
-      <c r="H116" s="1">
-        <v>141.71428571428572</v>
+      <c r="H116">
+        <v>308.63055600000001</v>
       </c>
       <c r="I116" s="1">
         <v>1</v>
@@ -3893,8 +3891,8 @@
       <c r="G117" s="1">
         <v>-10</v>
       </c>
-      <c r="H117" s="1">
-        <v>134</v>
+      <c r="H117">
+        <v>317.19049799999999</v>
       </c>
       <c r="I117" s="1">
         <v>1</v>
@@ -3922,8 +3920,8 @@
       <c r="G118" s="1">
         <v>-10</v>
       </c>
-      <c r="H118" s="1">
-        <v>126.28571428571428</v>
+      <c r="H118">
+        <v>325.61242600000003</v>
       </c>
       <c r="I118" s="1">
         <v>1</v>
@@ -3951,8 +3949,8 @@
       <c r="G119" s="1">
         <v>-10</v>
       </c>
-      <c r="H119" s="1">
-        <v>118.57142857142858</v>
+      <c r="H119">
+        <v>333.89049799999998</v>
       </c>
       <c r="I119" s="1">
         <v>1</v>
@@ -3980,8 +3978,8 @@
       <c r="G120" s="1">
         <v>-10</v>
       </c>
-      <c r="H120" s="1">
-        <v>110.85714285714286</v>
+      <c r="H120">
+        <v>342.02119699999997</v>
       </c>
       <c r="I120" s="1">
         <v>1</v>
@@ -4009,8 +4007,8 @@
       <c r="G121" s="1">
         <v>-10</v>
       </c>
-      <c r="H121" s="1">
-        <v>103.14285714285715</v>
+      <c r="H121">
+        <v>350.000024</v>
       </c>
       <c r="I121" s="1">
         <v>1</v>
@@ -4038,8 +4036,8 @@
       <c r="G122" s="8">
         <v>0</v>
       </c>
-      <c r="H122" s="8">
-        <v>103.14285714285715</v>
+      <c r="H122">
+        <v>350.000024</v>
       </c>
       <c r="I122" s="8">
         <v>1</v>
@@ -4067,8 +4065,8 @@
       <c r="G123" s="8">
         <v>0</v>
       </c>
-      <c r="H123" s="8">
-        <v>110.85714285714286</v>
+      <c r="H123">
+        <v>342.02119699999997</v>
       </c>
       <c r="I123" s="8">
         <v>1</v>
@@ -4096,8 +4094,8 @@
       <c r="G124" s="8">
         <v>0</v>
       </c>
-      <c r="H124" s="8">
-        <v>118.57142857142858</v>
+      <c r="H124">
+        <v>333.89049799999998</v>
       </c>
       <c r="I124" s="8">
         <v>1</v>
@@ -4125,8 +4123,8 @@
       <c r="G125" s="8">
         <v>0</v>
       </c>
-      <c r="H125" s="8">
-        <v>126.28571428571428</v>
+      <c r="H125">
+        <v>325.61242600000003</v>
       </c>
       <c r="I125" s="8">
         <v>1</v>
@@ -4154,8 +4152,8 @@
       <c r="G126" s="8">
         <v>0</v>
       </c>
-      <c r="H126" s="8">
-        <v>134</v>
+      <c r="H126">
+        <v>317.19049799999999</v>
       </c>
       <c r="I126" s="8">
         <v>1</v>
@@ -4183,8 +4181,8 @@
       <c r="G127" s="8">
         <v>0</v>
       </c>
-      <c r="H127" s="8">
-        <v>141.71428571428572</v>
+      <c r="H127">
+        <v>308.63055600000001</v>
       </c>
       <c r="I127" s="8">
         <v>1</v>
@@ -4212,8 +4210,8 @@
       <c r="G128" s="8">
         <v>0</v>
       </c>
-      <c r="H128" s="8">
-        <v>149.42857142857144</v>
+      <c r="H128">
+        <v>299.93727799999999</v>
       </c>
       <c r="I128" s="8">
         <v>1</v>
@@ -4241,8 +4239,8 @@
       <c r="G129" s="8">
         <v>0</v>
       </c>
-      <c r="H129" s="8">
-        <v>157.14285714285717</v>
+      <c r="H129">
+        <v>291.11581999999999</v>
       </c>
       <c r="I129" s="8">
         <v>1</v>
@@ -4270,8 +4268,8 @@
       <c r="G130" s="8">
         <v>0</v>
       </c>
-      <c r="H130" s="8">
-        <v>164.85714285714286</v>
+      <c r="H130">
+        <v>282.17324600000001</v>
       </c>
       <c r="I130" s="8">
         <v>1</v>
@@ -4299,8 +4297,8 @@
       <c r="G131" s="8">
         <v>0</v>
       </c>
-      <c r="H131" s="8">
-        <v>172.57142857142856</v>
+      <c r="H131">
+        <v>273.11551600000001</v>
       </c>
       <c r="I131" s="8">
         <v>1</v>
@@ -4328,8 +4326,8 @@
       <c r="G132" s="8">
         <v>0</v>
       </c>
-      <c r="H132" s="8">
-        <v>180.28571428571428</v>
+      <c r="H132">
+        <v>263.949275</v>
       </c>
       <c r="I132" s="8">
         <v>1</v>
@@ -4357,8 +4355,8 @@
       <c r="G133" s="8">
         <v>0</v>
       </c>
-      <c r="H133" s="8">
-        <v>188</v>
+      <c r="H133">
+        <v>254.68179599999999</v>
       </c>
       <c r="I133" s="8">
         <v>1</v>
@@ -4386,8 +4384,8 @@
       <c r="G134" s="8">
         <v>0</v>
       </c>
-      <c r="H134" s="8">
-        <v>195.71428571428572</v>
+      <c r="H134">
+        <v>245.320797</v>
       </c>
       <c r="I134" s="8">
         <v>1</v>
@@ -4415,8 +4413,8 @@
       <c r="G135" s="8">
         <v>0</v>
       </c>
-      <c r="H135" s="8">
-        <v>203.42857142857144</v>
+      <c r="H135">
+        <v>235.87411599999999</v>
       </c>
       <c r="I135" s="8">
         <v>1</v>
@@ -4444,8 +4442,8 @@
       <c r="G136" s="8">
         <v>0</v>
       </c>
-      <c r="H136" s="8">
-        <v>211.14285714285714</v>
+      <c r="H136">
+        <v>226.349369</v>
       </c>
       <c r="I136" s="8">
         <v>1</v>
@@ -4473,8 +4471,8 @@
       <c r="G137" s="8">
         <v>0</v>
       </c>
-      <c r="H137" s="8">
-        <v>218.85714285714286</v>
+      <c r="H137">
+        <v>216.75528600000001</v>
       </c>
       <c r="I137" s="8">
         <v>1</v>
@@ -4502,8 +4500,8 @@
       <c r="G138" s="8">
         <v>0</v>
       </c>
-      <c r="H138" s="8">
-        <v>226.57142857142858</v>
+      <c r="H138">
+        <v>207.10028700000001</v>
       </c>
       <c r="I138" s="8">
         <v>1</v>
@@ -4531,8 +4529,8 @@
       <c r="G139" s="8">
         <v>0</v>
       </c>
-      <c r="H139" s="8">
-        <v>234.28571428571431</v>
+      <c r="H139">
+        <v>197.39288099999999</v>
       </c>
       <c r="I139" s="8">
         <v>1</v>
@@ -4560,8 +4558,8 @@
       <c r="G140" s="8">
         <v>0</v>
       </c>
-      <c r="H140" s="8">
-        <v>241.99999999999997</v>
+      <c r="H140">
+        <v>187.641516</v>
       </c>
       <c r="I140" s="8">
         <v>1</v>
@@ -4589,8 +4587,8 @@
       <c r="G141" s="8">
         <v>0</v>
       </c>
-      <c r="H141" s="8">
-        <v>249.71428571428572</v>
+      <c r="H141">
+        <v>177.85565600000001</v>
       </c>
       <c r="I141" s="8">
         <v>1</v>
@@ -4618,8 +4616,8 @@
       <c r="G142" s="8">
         <v>0</v>
       </c>
-      <c r="H142" s="8">
-        <v>257.42857142857144</v>
+      <c r="H142">
+        <v>168.04382200000001</v>
       </c>
       <c r="I142" s="8">
         <v>1</v>
@@ -4647,8 +4645,8 @@
       <c r="G143" s="8">
         <v>0</v>
       </c>
-      <c r="H143" s="8">
-        <v>265.14285714285711</v>
+      <c r="H143">
+        <v>158.21461400000001</v>
       </c>
       <c r="I143" s="8">
         <v>1</v>
@@ -4676,8 +4674,8 @@
       <c r="G144" s="8">
         <v>0</v>
       </c>
-      <c r="H144" s="8">
-        <v>272.85714285714289</v>
+      <c r="H144">
+        <v>148.37740400000001</v>
       </c>
       <c r="I144" s="8">
         <v>1</v>
@@ -4705,8 +4703,8 @@
       <c r="G145" s="8">
         <v>0</v>
       </c>
-      <c r="H145" s="8">
-        <v>280.57142857142856</v>
+      <c r="H145">
+        <v>138.540685</v>
       </c>
       <c r="I145" s="8">
         <v>1</v>
@@ -4734,8 +4732,8 @@
       <c r="G146" s="8">
         <v>0</v>
       </c>
-      <c r="H146" s="8">
-        <v>288.28571428571428</v>
+      <c r="H146">
+        <v>128.71271400000001</v>
       </c>
       <c r="I146" s="8">
         <v>1</v>
@@ -4763,8 +4761,8 @@
       <c r="G147" s="8">
         <v>0</v>
       </c>
-      <c r="H147" s="8">
-        <v>296</v>
+      <c r="H147">
+        <v>118.902579</v>
       </c>
       <c r="I147" s="8">
         <v>1</v>
@@ -4792,8 +4790,8 @@
       <c r="G148" s="8">
         <v>0</v>
       </c>
-      <c r="H148" s="8">
-        <v>303.71428571428572</v>
+      <c r="H148">
+        <v>109.11838</v>
       </c>
       <c r="I148" s="8">
         <v>1</v>
@@ -4821,8 +4819,8 @@
       <c r="G149" s="8">
         <v>0</v>
       </c>
-      <c r="H149" s="8">
-        <v>311.42857142857144</v>
+      <c r="H149">
+        <v>99.367991000000004</v>
       </c>
       <c r="I149" s="8">
         <v>1</v>
@@ -4850,8 +4848,8 @@
       <c r="G150" s="8">
         <v>0</v>
       </c>
-      <c r="H150" s="8">
-        <v>319.14285714285711</v>
+      <c r="H150">
+        <v>89.659206999999995</v>
       </c>
       <c r="I150" s="8">
         <v>1</v>
@@ -4879,8 +4877,8 @@
       <c r="G151" s="8">
         <v>0</v>
       </c>
-      <c r="H151" s="8">
-        <v>326.85714285714289</v>
+      <c r="H151">
+        <v>80.000005999999999</v>
       </c>
       <c r="I151" s="8">
         <v>1</v>
@@ -4908,8 +4906,8 @@
       <c r="G152" s="3">
         <v>10</v>
       </c>
-      <c r="H152" s="3">
-        <v>326.85714285714289</v>
+      <c r="H152">
+        <v>80.000005999999999</v>
       </c>
       <c r="I152" s="3">
         <v>1</v>
@@ -4937,8 +4935,8 @@
       <c r="G153" s="3">
         <v>10</v>
       </c>
-      <c r="H153" s="3">
-        <v>319.14285714285711</v>
+      <c r="H153">
+        <v>89.659206999999995</v>
       </c>
       <c r="I153" s="3">
         <v>1</v>
@@ -4966,8 +4964,8 @@
       <c r="G154" s="3">
         <v>10</v>
       </c>
-      <c r="H154" s="3">
-        <v>311.42857142857144</v>
+      <c r="H154">
+        <v>99.367991000000004</v>
       </c>
       <c r="I154" s="3">
         <v>1</v>
@@ -4995,8 +4993,8 @@
       <c r="G155" s="3">
         <v>10</v>
       </c>
-      <c r="H155" s="3">
-        <v>303.71428571428572</v>
+      <c r="H155">
+        <v>109.11838</v>
       </c>
       <c r="I155" s="3">
         <v>1</v>
@@ -5024,8 +5022,8 @@
       <c r="G156" s="3">
         <v>10</v>
       </c>
-      <c r="H156" s="3">
-        <v>296</v>
+      <c r="H156">
+        <v>118.902579</v>
       </c>
       <c r="I156" s="3">
         <v>1</v>
@@ -5053,8 +5051,8 @@
       <c r="G157" s="3">
         <v>10</v>
       </c>
-      <c r="H157" s="3">
-        <v>288.28571428571428</v>
+      <c r="H157">
+        <v>128.71271400000001</v>
       </c>
       <c r="I157" s="3">
         <v>1</v>
@@ -5082,8 +5080,8 @@
       <c r="G158" s="3">
         <v>10</v>
       </c>
-      <c r="H158" s="3">
-        <v>280.57142857142856</v>
+      <c r="H158">
+        <v>138.540685</v>
       </c>
       <c r="I158" s="3">
         <v>1</v>
@@ -5111,8 +5109,8 @@
       <c r="G159" s="3">
         <v>10</v>
       </c>
-      <c r="H159" s="3">
-        <v>272.85714285714289</v>
+      <c r="H159">
+        <v>148.37740400000001</v>
       </c>
       <c r="I159" s="3">
         <v>1</v>
@@ -5140,8 +5138,8 @@
       <c r="G160" s="3">
         <v>10</v>
       </c>
-      <c r="H160" s="3">
-        <v>265.14285714285711</v>
+      <c r="H160">
+        <v>158.21461400000001</v>
       </c>
       <c r="I160" s="3">
         <v>1</v>
@@ -5169,8 +5167,8 @@
       <c r="G161" s="3">
         <v>10</v>
       </c>
-      <c r="H161" s="3">
-        <v>257.42857142857144</v>
+      <c r="H161">
+        <v>168.04382200000001</v>
       </c>
       <c r="I161" s="3">
         <v>1</v>
@@ -5198,8 +5196,8 @@
       <c r="G162" s="3">
         <v>10</v>
       </c>
-      <c r="H162" s="3">
-        <v>249.71428571428572</v>
+      <c r="H162">
+        <v>177.85565600000001</v>
       </c>
       <c r="I162" s="3">
         <v>1</v>
@@ -5227,8 +5225,8 @@
       <c r="G163" s="3">
         <v>10</v>
       </c>
-      <c r="H163" s="3">
-        <v>241.99999999999997</v>
+      <c r="H163">
+        <v>187.641516</v>
       </c>
       <c r="I163" s="3">
         <v>1</v>
@@ -5256,8 +5254,8 @@
       <c r="G164" s="3">
         <v>10</v>
       </c>
-      <c r="H164" s="3">
-        <v>234.28571428571431</v>
+      <c r="H164">
+        <v>197.39288099999999</v>
       </c>
       <c r="I164" s="3">
         <v>1</v>
@@ -5285,8 +5283,8 @@
       <c r="G165" s="3">
         <v>10</v>
       </c>
-      <c r="H165" s="3">
-        <v>226.57142857142858</v>
+      <c r="H165">
+        <v>207.10028700000001</v>
       </c>
       <c r="I165" s="3">
         <v>1</v>
@@ -5314,8 +5312,8 @@
       <c r="G166" s="3">
         <v>10</v>
       </c>
-      <c r="H166" s="3">
-        <v>218.85714285714286</v>
+      <c r="H166">
+        <v>216.75528600000001</v>
       </c>
       <c r="I166" s="3">
         <v>1</v>
@@ -5343,8 +5341,8 @@
       <c r="G167" s="3">
         <v>10</v>
       </c>
-      <c r="H167" s="3">
-        <v>211.14285714285714</v>
+      <c r="H167">
+        <v>226.349369</v>
       </c>
       <c r="I167" s="3">
         <v>1</v>
@@ -5372,8 +5370,8 @@
       <c r="G168" s="3">
         <v>10</v>
       </c>
-      <c r="H168" s="3">
-        <v>203.42857142857144</v>
+      <c r="H168">
+        <v>235.87411599999999</v>
       </c>
       <c r="I168" s="3">
         <v>1</v>
@@ -5401,8 +5399,8 @@
       <c r="G169" s="3">
         <v>10</v>
       </c>
-      <c r="H169" s="3">
-        <v>195.71428571428572</v>
+      <c r="H169">
+        <v>245.320797</v>
       </c>
       <c r="I169" s="3">
         <v>1</v>
@@ -5430,8 +5428,8 @@
       <c r="G170" s="3">
         <v>10</v>
       </c>
-      <c r="H170" s="3">
-        <v>188</v>
+      <c r="H170">
+        <v>254.68179599999999</v>
       </c>
       <c r="I170" s="3">
         <v>1</v>
@@ -5459,8 +5457,8 @@
       <c r="G171" s="3">
         <v>10</v>
       </c>
-      <c r="H171" s="3">
-        <v>180.28571428571428</v>
+      <c r="H171">
+        <v>263.949275</v>
       </c>
       <c r="I171" s="3">
         <v>1</v>
@@ -5488,8 +5486,8 @@
       <c r="G172" s="3">
         <v>10</v>
       </c>
-      <c r="H172" s="3">
-        <v>172.57142857142856</v>
+      <c r="H172">
+        <v>273.11551600000001</v>
       </c>
       <c r="I172" s="3">
         <v>1</v>
@@ -5517,8 +5515,8 @@
       <c r="G173" s="3">
         <v>10</v>
       </c>
-      <c r="H173" s="3">
-        <v>164.85714285714286</v>
+      <c r="H173">
+        <v>282.17324600000001</v>
       </c>
       <c r="I173" s="3">
         <v>1</v>
@@ -5546,8 +5544,8 @@
       <c r="G174" s="3">
         <v>10</v>
       </c>
-      <c r="H174" s="3">
-        <v>157.14285714285717</v>
+      <c r="H174">
+        <v>291.11581999999999</v>
       </c>
       <c r="I174" s="3">
         <v>1</v>
@@ -5575,8 +5573,8 @@
       <c r="G175" s="3">
         <v>10</v>
       </c>
-      <c r="H175" s="3">
-        <v>149.42857142857144</v>
+      <c r="H175">
+        <v>299.93727799999999</v>
       </c>
       <c r="I175" s="3">
         <v>1</v>
@@ -5604,8 +5602,8 @@
       <c r="G176" s="3">
         <v>10</v>
       </c>
-      <c r="H176" s="3">
-        <v>141.71428571428572</v>
+      <c r="H176">
+        <v>308.63055600000001</v>
       </c>
       <c r="I176" s="3">
         <v>1</v>
@@ -5633,8 +5631,8 @@
       <c r="G177" s="3">
         <v>10</v>
       </c>
-      <c r="H177" s="3">
-        <v>134</v>
+      <c r="H177">
+        <v>317.19049799999999</v>
       </c>
       <c r="I177" s="3">
         <v>1</v>
@@ -5662,8 +5660,8 @@
       <c r="G178" s="3">
         <v>10</v>
       </c>
-      <c r="H178" s="3">
-        <v>126.28571428571428</v>
+      <c r="H178">
+        <v>325.61242600000003</v>
       </c>
       <c r="I178" s="3">
         <v>1</v>
@@ -5691,8 +5689,8 @@
       <c r="G179" s="3">
         <v>10</v>
       </c>
-      <c r="H179" s="3">
-        <v>118.57142857142858</v>
+      <c r="H179">
+        <v>333.89049799999998</v>
       </c>
       <c r="I179" s="3">
         <v>1</v>
@@ -5720,8 +5718,8 @@
       <c r="G180" s="3">
         <v>10</v>
       </c>
-      <c r="H180" s="3">
-        <v>110.85714285714286</v>
+      <c r="H180">
+        <v>342.02119699999997</v>
       </c>
       <c r="I180" s="3">
         <v>1</v>
@@ -5749,8 +5747,8 @@
       <c r="G181" s="3">
         <v>10</v>
       </c>
-      <c r="H181" s="3">
-        <v>103.14285714285715</v>
+      <c r="H181">
+        <v>350.000024</v>
       </c>
       <c r="I181" s="3">
         <v>1</v>
@@ -5778,8 +5776,8 @@
       <c r="G182" s="8">
         <v>20</v>
       </c>
-      <c r="H182" s="8">
-        <v>103.14285714285715</v>
+      <c r="H182">
+        <v>350.000024</v>
       </c>
       <c r="I182" s="8">
         <v>1</v>
@@ -5807,8 +5805,8 @@
       <c r="G183" s="8">
         <v>20</v>
       </c>
-      <c r="H183" s="8">
-        <v>110.85714285714286</v>
+      <c r="H183">
+        <v>342.02119699999997</v>
       </c>
       <c r="I183" s="8">
         <v>1</v>
@@ -5836,8 +5834,8 @@
       <c r="G184" s="8">
         <v>20</v>
       </c>
-      <c r="H184" s="8">
-        <v>118.57142857142858</v>
+      <c r="H184">
+        <v>333.89049799999998</v>
       </c>
       <c r="I184" s="8">
         <v>1</v>
@@ -5865,8 +5863,8 @@
       <c r="G185" s="8">
         <v>20</v>
       </c>
-      <c r="H185" s="8">
-        <v>126.28571428571428</v>
+      <c r="H185">
+        <v>325.61242600000003</v>
       </c>
       <c r="I185" s="8">
         <v>1</v>
@@ -5894,8 +5892,8 @@
       <c r="G186" s="8">
         <v>20</v>
       </c>
-      <c r="H186" s="8">
-        <v>134</v>
+      <c r="H186">
+        <v>317.19049799999999</v>
       </c>
       <c r="I186" s="8">
         <v>1</v>
@@ -5923,8 +5921,8 @@
       <c r="G187" s="8">
         <v>20</v>
       </c>
-      <c r="H187" s="8">
-        <v>141.71428571428572</v>
+      <c r="H187">
+        <v>308.63055600000001</v>
       </c>
       <c r="I187" s="8">
         <v>1</v>
@@ -5952,8 +5950,8 @@
       <c r="G188" s="8">
         <v>20</v>
       </c>
-      <c r="H188" s="8">
-        <v>149.42857142857144</v>
+      <c r="H188">
+        <v>299.93727799999999</v>
       </c>
       <c r="I188" s="8">
         <v>1</v>
@@ -5981,8 +5979,8 @@
       <c r="G189" s="8">
         <v>20</v>
       </c>
-      <c r="H189" s="8">
-        <v>157.14285714285717</v>
+      <c r="H189">
+        <v>291.11581999999999</v>
       </c>
       <c r="I189" s="8">
         <v>1</v>
@@ -6010,8 +6008,8 @@
       <c r="G190" s="8">
         <v>20</v>
       </c>
-      <c r="H190" s="8">
-        <v>164.85714285714286</v>
+      <c r="H190">
+        <v>282.17324600000001</v>
       </c>
       <c r="I190" s="8">
         <v>1</v>
@@ -6039,8 +6037,8 @@
       <c r="G191" s="8">
         <v>20</v>
       </c>
-      <c r="H191" s="8">
-        <v>172.57142857142856</v>
+      <c r="H191">
+        <v>273.11551600000001</v>
       </c>
       <c r="I191" s="8">
         <v>1</v>
@@ -6068,8 +6066,8 @@
       <c r="G192" s="8">
         <v>20</v>
       </c>
-      <c r="H192" s="8">
-        <v>180.28571428571428</v>
+      <c r="H192">
+        <v>263.949275</v>
       </c>
       <c r="I192" s="8">
         <v>1</v>
@@ -6097,8 +6095,8 @@
       <c r="G193" s="8">
         <v>20</v>
       </c>
-      <c r="H193" s="8">
-        <v>188</v>
+      <c r="H193">
+        <v>254.68179599999999</v>
       </c>
       <c r="I193" s="8">
         <v>1</v>
@@ -6126,8 +6124,8 @@
       <c r="G194" s="8">
         <v>20</v>
       </c>
-      <c r="H194" s="8">
-        <v>195.71428571428572</v>
+      <c r="H194">
+        <v>245.320797</v>
       </c>
       <c r="I194" s="8">
         <v>1</v>
@@ -6155,8 +6153,8 @@
       <c r="G195" s="8">
         <v>20</v>
       </c>
-      <c r="H195" s="8">
-        <v>203.42857142857144</v>
+      <c r="H195">
+        <v>235.87411599999999</v>
       </c>
       <c r="I195" s="8">
         <v>1</v>
@@ -6184,8 +6182,8 @@
       <c r="G196" s="8">
         <v>20</v>
       </c>
-      <c r="H196" s="8">
-        <v>211.14285714285714</v>
+      <c r="H196">
+        <v>226.349369</v>
       </c>
       <c r="I196" s="8">
         <v>1</v>
@@ -6213,8 +6211,8 @@
       <c r="G197" s="8">
         <v>20</v>
       </c>
-      <c r="H197" s="8">
-        <v>218.85714285714286</v>
+      <c r="H197">
+        <v>216.75528600000001</v>
       </c>
       <c r="I197" s="8">
         <v>1</v>
@@ -6242,8 +6240,8 @@
       <c r="G198" s="8">
         <v>20</v>
       </c>
-      <c r="H198" s="8">
-        <v>226.57142857142858</v>
+      <c r="H198">
+        <v>207.10028700000001</v>
       </c>
       <c r="I198" s="8">
         <v>1</v>
@@ -6271,8 +6269,8 @@
       <c r="G199" s="8">
         <v>20</v>
       </c>
-      <c r="H199" s="8">
-        <v>234.28571428571431</v>
+      <c r="H199">
+        <v>197.39288099999999</v>
       </c>
       <c r="I199" s="8">
         <v>1</v>
@@ -6300,8 +6298,8 @@
       <c r="G200" s="8">
         <v>20</v>
       </c>
-      <c r="H200" s="8">
-        <v>241.99999999999997</v>
+      <c r="H200">
+        <v>187.641516</v>
       </c>
       <c r="I200" s="8">
         <v>1</v>
@@ -6329,8 +6327,8 @@
       <c r="G201" s="8">
         <v>20</v>
       </c>
-      <c r="H201" s="8">
-        <v>249.71428571428572</v>
+      <c r="H201">
+        <v>177.85565600000001</v>
       </c>
       <c r="I201" s="8">
         <v>1</v>
@@ -6358,8 +6356,8 @@
       <c r="G202" s="8">
         <v>20</v>
       </c>
-      <c r="H202" s="8">
-        <v>257.42857142857144</v>
+      <c r="H202">
+        <v>168.04382200000001</v>
       </c>
       <c r="I202" s="8">
         <v>1</v>
@@ -6387,8 +6385,8 @@
       <c r="G203" s="8">
         <v>20</v>
       </c>
-      <c r="H203" s="8">
-        <v>265.14285714285711</v>
+      <c r="H203">
+        <v>158.21461400000001</v>
       </c>
       <c r="I203" s="8">
         <v>1</v>
@@ -6416,8 +6414,8 @@
       <c r="G204" s="8">
         <v>20</v>
       </c>
-      <c r="H204" s="8">
-        <v>272.85714285714289</v>
+      <c r="H204">
+        <v>148.37740400000001</v>
       </c>
       <c r="I204" s="8">
         <v>1</v>
@@ -6445,8 +6443,8 @@
       <c r="G205" s="8">
         <v>20</v>
       </c>
-      <c r="H205" s="8">
-        <v>280.57142857142856</v>
+      <c r="H205">
+        <v>138.540685</v>
       </c>
       <c r="I205" s="8">
         <v>1</v>
@@ -6474,8 +6472,8 @@
       <c r="G206" s="8">
         <v>20</v>
       </c>
-      <c r="H206" s="8">
-        <v>288.28571428571428</v>
+      <c r="H206">
+        <v>128.71271400000001</v>
       </c>
       <c r="I206" s="8">
         <v>1</v>
@@ -6503,8 +6501,8 @@
       <c r="G207" s="8">
         <v>20</v>
       </c>
-      <c r="H207" s="8">
-        <v>296</v>
+      <c r="H207">
+        <v>118.902579</v>
       </c>
       <c r="I207" s="8">
         <v>1</v>
@@ -6532,8 +6530,8 @@
       <c r="G208" s="8">
         <v>20</v>
       </c>
-      <c r="H208" s="8">
-        <v>303.71428571428572</v>
+      <c r="H208">
+        <v>109.11838</v>
       </c>
       <c r="I208" s="8">
         <v>1</v>
@@ -6561,8 +6559,8 @@
       <c r="G209" s="8">
         <v>20</v>
       </c>
-      <c r="H209" s="8">
-        <v>311.42857142857144</v>
+      <c r="H209">
+        <v>99.367991000000004</v>
       </c>
       <c r="I209" s="8">
         <v>1</v>
@@ -6590,8 +6588,8 @@
       <c r="G210" s="8">
         <v>20</v>
       </c>
-      <c r="H210" s="8">
-        <v>319.14285714285711</v>
+      <c r="H210">
+        <v>89.659206999999995</v>
       </c>
       <c r="I210" s="8">
         <v>1</v>
@@ -6619,8 +6617,8 @@
       <c r="G211" s="8">
         <v>20</v>
       </c>
-      <c r="H211" s="8">
-        <v>326.85714285714289</v>
+      <c r="H211">
+        <v>80.000005999999999</v>
       </c>
       <c r="I211" s="8">
         <v>1</v>
@@ -6648,8 +6646,8 @@
       <c r="G212" s="1">
         <v>30</v>
       </c>
-      <c r="H212" s="1">
-        <v>319.14285714285711</v>
+      <c r="H212">
+        <v>89.659206999999995</v>
       </c>
       <c r="I212" s="1">
         <v>1</v>
@@ -6677,8 +6675,8 @@
       <c r="G213" s="1">
         <v>30</v>
       </c>
-      <c r="H213" s="1">
-        <v>311.42857142857144</v>
+      <c r="H213">
+        <v>99.367991000000004</v>
       </c>
       <c r="I213" s="1">
         <v>1</v>
@@ -6706,8 +6704,8 @@
       <c r="G214" s="1">
         <v>30</v>
       </c>
-      <c r="H214" s="1">
-        <v>303.71428571428572</v>
+      <c r="H214">
+        <v>109.11838</v>
       </c>
       <c r="I214" s="1">
         <v>1</v>
@@ -6735,8 +6733,8 @@
       <c r="G215" s="1">
         <v>30</v>
       </c>
-      <c r="H215" s="1">
-        <v>296</v>
+      <c r="H215">
+        <v>118.902579</v>
       </c>
       <c r="I215" s="1">
         <v>1</v>
@@ -6764,8 +6762,8 @@
       <c r="G216" s="1">
         <v>30</v>
       </c>
-      <c r="H216" s="1">
-        <v>288.28571428571428</v>
+      <c r="H216">
+        <v>128.71271400000001</v>
       </c>
       <c r="I216" s="1">
         <v>1</v>
@@ -6793,8 +6791,8 @@
       <c r="G217" s="1">
         <v>30</v>
       </c>
-      <c r="H217" s="1">
-        <v>280.57142857142856</v>
+      <c r="H217">
+        <v>138.540685</v>
       </c>
       <c r="I217" s="1">
         <v>1</v>
@@ -6822,8 +6820,8 @@
       <c r="G218" s="1">
         <v>30</v>
       </c>
-      <c r="H218" s="1">
-        <v>272.85714285714289</v>
+      <c r="H218">
+        <v>148.37740400000001</v>
       </c>
       <c r="I218" s="1">
         <v>1</v>
@@ -6851,8 +6849,8 @@
       <c r="G219" s="1">
         <v>30</v>
       </c>
-      <c r="H219" s="1">
-        <v>265.14285714285711</v>
+      <c r="H219">
+        <v>158.21461400000001</v>
       </c>
       <c r="I219" s="1">
         <v>1</v>
@@ -6880,8 +6878,8 @@
       <c r="G220" s="1">
         <v>30</v>
       </c>
-      <c r="H220" s="1">
-        <v>257.42857142857144</v>
+      <c r="H220">
+        <v>168.04382200000001</v>
       </c>
       <c r="I220" s="1">
         <v>1</v>
@@ -6909,8 +6907,8 @@
       <c r="G221" s="1">
         <v>30</v>
       </c>
-      <c r="H221" s="1">
-        <v>249.71428571428572</v>
+      <c r="H221">
+        <v>177.85565600000001</v>
       </c>
       <c r="I221" s="1">
         <v>1</v>
@@ -6938,8 +6936,8 @@
       <c r="G222" s="1">
         <v>30</v>
       </c>
-      <c r="H222" s="1">
-        <v>241.99999999999997</v>
+      <c r="H222">
+        <v>187.641516</v>
       </c>
       <c r="I222" s="1">
         <v>1</v>
@@ -6967,8 +6965,8 @@
       <c r="G223" s="1">
         <v>30</v>
       </c>
-      <c r="H223" s="1">
-        <v>234.28571428571431</v>
+      <c r="H223">
+        <v>197.39288099999999</v>
       </c>
       <c r="I223" s="1">
         <v>1</v>
@@ -6996,8 +6994,8 @@
       <c r="G224" s="1">
         <v>30</v>
       </c>
-      <c r="H224" s="1">
-        <v>226.57142857142858</v>
+      <c r="H224">
+        <v>207.10028700000001</v>
       </c>
       <c r="I224" s="1">
         <v>1</v>
@@ -7025,8 +7023,8 @@
       <c r="G225" s="1">
         <v>30</v>
       </c>
-      <c r="H225" s="1">
-        <v>218.85714285714286</v>
+      <c r="H225">
+        <v>216.75528600000001</v>
       </c>
       <c r="I225" s="1">
         <v>1</v>
@@ -7054,8 +7052,8 @@
       <c r="G226" s="1">
         <v>30</v>
       </c>
-      <c r="H226" s="1">
-        <v>211.14285714285714</v>
+      <c r="H226">
+        <v>226.349369</v>
       </c>
       <c r="I226" s="1">
         <v>1</v>
@@ -7083,8 +7081,8 @@
       <c r="G227" s="1">
         <v>30</v>
       </c>
-      <c r="H227" s="1">
-        <v>203.42857142857144</v>
+      <c r="H227">
+        <v>235.87411599999999</v>
       </c>
       <c r="I227" s="1">
         <v>1</v>
@@ -7112,8 +7110,8 @@
       <c r="G228" s="1">
         <v>30</v>
       </c>
-      <c r="H228" s="1">
-        <v>195.71428571428572</v>
+      <c r="H228">
+        <v>245.320797</v>
       </c>
       <c r="I228" s="1">
         <v>1</v>
@@ -7141,8 +7139,8 @@
       <c r="G229" s="1">
         <v>30</v>
       </c>
-      <c r="H229" s="1">
-        <v>188</v>
+      <c r="H229">
+        <v>254.68179599999999</v>
       </c>
       <c r="I229" s="1">
         <v>1</v>
@@ -7170,8 +7168,8 @@
       <c r="G230" s="1">
         <v>30</v>
       </c>
-      <c r="H230" s="1">
-        <v>180.28571428571428</v>
+      <c r="H230">
+        <v>263.949275</v>
       </c>
       <c r="I230" s="1">
         <v>1</v>
@@ -7199,8 +7197,8 @@
       <c r="G231" s="1">
         <v>30</v>
       </c>
-      <c r="H231" s="1">
-        <v>172.57142857142856</v>
+      <c r="H231">
+        <v>273.11551600000001</v>
       </c>
       <c r="I231" s="1">
         <v>1</v>
@@ -7228,8 +7226,8 @@
       <c r="G232" s="1">
         <v>30</v>
       </c>
-      <c r="H232" s="1">
-        <v>164.85714285714286</v>
+      <c r="H232">
+        <v>282.17324600000001</v>
       </c>
       <c r="I232" s="1">
         <v>1</v>
@@ -7257,8 +7255,8 @@
       <c r="G233" s="1">
         <v>30</v>
       </c>
-      <c r="H233" s="1">
-        <v>157.14285714285717</v>
+      <c r="H233">
+        <v>291.11581999999999</v>
       </c>
       <c r="I233" s="1">
         <v>1</v>
@@ -7286,8 +7284,8 @@
       <c r="G234" s="1">
         <v>30</v>
       </c>
-      <c r="H234" s="1">
-        <v>149.42857142857144</v>
+      <c r="H234">
+        <v>299.93727799999999</v>
       </c>
       <c r="I234" s="1">
         <v>1</v>
@@ -7315,8 +7313,8 @@
       <c r="G235" s="1">
         <v>30</v>
       </c>
-      <c r="H235" s="1">
-        <v>141.71428571428572</v>
+      <c r="H235">
+        <v>308.63055600000001</v>
       </c>
       <c r="I235" s="1">
         <v>1</v>
@@ -7344,8 +7342,8 @@
       <c r="G236" s="1">
         <v>30</v>
       </c>
-      <c r="H236" s="1">
-        <v>134</v>
+      <c r="H236">
+        <v>317.19049799999999</v>
       </c>
       <c r="I236" s="1">
         <v>1</v>
@@ -7373,8 +7371,8 @@
       <c r="G237" s="1">
         <v>30</v>
       </c>
-      <c r="H237" s="1">
-        <v>126.28571428571428</v>
+      <c r="H237">
+        <v>325.61242600000003</v>
       </c>
       <c r="I237" s="1">
         <v>1</v>
@@ -7402,8 +7400,8 @@
       <c r="G238" s="1">
         <v>30</v>
       </c>
-      <c r="H238" s="1">
-        <v>118.57142857142858</v>
+      <c r="H238">
+        <v>333.89049799999998</v>
       </c>
       <c r="I238" s="1">
         <v>1</v>
@@ -7431,8 +7429,8 @@
       <c r="G239" s="1">
         <v>30</v>
       </c>
-      <c r="H239" s="1">
-        <v>110.85714285714286</v>
+      <c r="H239">
+        <v>342.02119699999997</v>
       </c>
       <c r="I239" s="1">
         <v>1</v>
@@ -7460,8 +7458,8 @@
       <c r="G240" s="3">
         <v>40</v>
       </c>
-      <c r="H240" s="3">
-        <v>88.160037582211089</v>
+      <c r="H240">
+        <v>350.50418999999999</v>
       </c>
       <c r="I240" s="3">
         <v>1</v>
@@ -7489,8 +7487,8 @@
       <c r="G241" s="3">
         <v>40</v>
       </c>
-      <c r="H241" s="3">
-        <v>105.07203257124961</v>
+      <c r="H241">
+        <v>334.89155799999997</v>
       </c>
       <c r="I241" s="3">
         <v>1</v>
@@ -7518,8 +7516,8 @@
       <c r="G242" s="3">
         <v>40</v>
       </c>
-      <c r="H242" s="3">
-        <v>121.98402756028813</v>
+      <c r="H242">
+        <v>318.720102</v>
       </c>
       <c r="I242" s="3">
         <v>1</v>
@@ -7547,8 +7545,8 @@
       <c r="G243" s="3">
         <v>40</v>
       </c>
-      <c r="H243" s="3">
-        <v>138.89602254932666</v>
+      <c r="H243">
+        <v>302.02355999999997</v>
       </c>
       <c r="I243" s="3">
         <v>1</v>
@@ -7576,8 +7574,8 @@
       <c r="G244" s="3">
         <v>40</v>
       </c>
-      <c r="H244" s="3">
-        <v>155.80801753836516</v>
+      <c r="H244">
+        <v>284.84103099999999</v>
       </c>
       <c r="I244" s="3">
         <v>1</v>
@@ -7605,8 +7603,8 @@
       <c r="G245" s="3">
         <v>40</v>
       </c>
-      <c r="H245" s="3">
-        <v>172.7200125274037</v>
+      <c r="H245">
+        <v>267.21680199999997</v>
       </c>
       <c r="I245" s="3">
         <v>1</v>
@@ -7634,8 +7632,8 @@
       <c r="G246" s="3">
         <v>40</v>
       </c>
-      <c r="H246" s="3">
-        <v>189.63200751644223</v>
+      <c r="H246">
+        <v>249.20207300000001</v>
       </c>
       <c r="I246" s="3">
         <v>1</v>
@@ -7663,8 +7661,8 @@
       <c r="G247" s="3">
         <v>40</v>
       </c>
-      <c r="H247" s="3">
-        <v>206.54400250548076</v>
+      <c r="H247">
+        <v>230.851799</v>
       </c>
       <c r="I247" s="3">
         <v>1</v>
@@ -7692,8 +7690,8 @@
       <c r="G248" s="3">
         <v>40</v>
       </c>
-      <c r="H248" s="3">
-        <v>223.45599749451929</v>
+      <c r="H248">
+        <v>212.22472200000001</v>
       </c>
       <c r="I248" s="3">
         <v>1</v>
@@ -7721,8 +7719,8 @@
       <c r="G249" s="3">
         <v>40</v>
       </c>
-      <c r="H249" s="3">
-        <v>240.3679924835578</v>
+      <c r="H249">
+        <v>193.38274000000001</v>
       </c>
       <c r="I249" s="3">
         <v>1</v>
@@ -7750,8 +7748,8 @@
       <c r="G250" s="3">
         <v>40</v>
       </c>
-      <c r="H250" s="3">
-        <v>257.2799874725963</v>
+      <c r="H250">
+        <v>174.39016699999999</v>
       </c>
       <c r="I250" s="3">
         <v>1</v>
@@ -7779,8 +7777,8 @@
       <c r="G251" s="3">
         <v>40</v>
       </c>
-      <c r="H251" s="3">
-        <v>274.19198246163484</v>
+      <c r="H251">
+        <v>155.31156999999999</v>
       </c>
       <c r="I251" s="3">
         <v>1</v>
@@ -7808,8 +7806,8 @@
       <c r="G252" s="3">
         <v>40</v>
       </c>
-      <c r="H252" s="3">
-        <v>291.10397745067337</v>
+      <c r="H252">
+        <v>136.211127</v>
       </c>
       <c r="I252" s="3">
         <v>1</v>
@@ -7837,8 +7835,8 @@
       <c r="G253" s="3">
         <v>40</v>
       </c>
-      <c r="H253" s="3">
-        <v>308.0159724397119</v>
+      <c r="H253">
+        <v>117.15275800000001</v>
       </c>
       <c r="I253" s="3">
         <v>1</v>
@@ -7866,8 +7864,8 @@
       <c r="G254" s="3">
         <v>40</v>
       </c>
-      <c r="H254" s="3">
-        <v>324.92796742875043</v>
+      <c r="H254">
+        <v>98.197162000000006</v>
       </c>
       <c r="I254" s="3">
         <v>1</v>
@@ -7895,8 +7893,8 @@
       <c r="G255" s="3">
         <v>40</v>
       </c>
-      <c r="H255" s="3">
-        <v>341.83996241778891</v>
+      <c r="H255">
+        <v>79.401798999999997</v>
       </c>
       <c r="I255" s="3">
         <v>1</v>
@@ -7924,8 +7922,8 @@
       <c r="G256" s="1">
         <v>50</v>
       </c>
-      <c r="H256" s="1">
-        <v>341.83996241778891</v>
+      <c r="H256">
+        <v>79.401798999999997</v>
       </c>
       <c r="I256" s="1">
         <v>1</v>
@@ -7953,8 +7951,8 @@
       <c r="G257" s="1">
         <v>50</v>
       </c>
-      <c r="H257" s="1">
-        <v>324.92796742875043</v>
+      <c r="H257">
+        <v>98.197162000000006</v>
       </c>
       <c r="I257" s="1">
         <v>1</v>
@@ -7982,8 +7980,8 @@
       <c r="G258" s="1">
         <v>50</v>
       </c>
-      <c r="H258" s="1">
-        <v>308.0159724397119</v>
+      <c r="H258">
+        <v>117.15275800000001</v>
       </c>
       <c r="I258" s="1">
         <v>1</v>
@@ -8011,8 +8009,8 @@
       <c r="G259" s="1">
         <v>50</v>
       </c>
-      <c r="H259" s="1">
-        <v>291.10397745067337</v>
+      <c r="H259">
+        <v>136.211127</v>
       </c>
       <c r="I259" s="1">
         <v>1</v>
@@ -8040,8 +8038,8 @@
       <c r="G260" s="1">
         <v>50</v>
       </c>
-      <c r="H260" s="1">
-        <v>274.19198246163484</v>
+      <c r="H260">
+        <v>155.31156999999999</v>
       </c>
       <c r="I260" s="1">
         <v>1</v>
@@ -8069,8 +8067,8 @@
       <c r="G261" s="1">
         <v>50</v>
       </c>
-      <c r="H261" s="1">
-        <v>257.2799874725963</v>
+      <c r="H261">
+        <v>174.39016699999999</v>
       </c>
       <c r="I261" s="1">
         <v>1</v>
@@ -8098,8 +8096,8 @@
       <c r="G262" s="1">
         <v>50</v>
       </c>
-      <c r="H262" s="1">
-        <v>240.3679924835578</v>
+      <c r="H262">
+        <v>193.38274000000001</v>
       </c>
       <c r="I262" s="1">
         <v>1</v>
@@ -8127,8 +8125,8 @@
       <c r="G263" s="1">
         <v>50</v>
       </c>
-      <c r="H263" s="1">
-        <v>223.45599749451929</v>
+      <c r="H263">
+        <v>212.22472200000001</v>
       </c>
       <c r="I263" s="1">
         <v>1</v>
@@ -8156,8 +8154,8 @@
       <c r="G264" s="1">
         <v>50</v>
       </c>
-      <c r="H264" s="1">
-        <v>206.54400250548076</v>
+      <c r="H264">
+        <v>230.851799</v>
       </c>
       <c r="I264" s="1">
         <v>1</v>
@@ -8185,8 +8183,8 @@
       <c r="G265" s="1">
         <v>50</v>
       </c>
-      <c r="H265" s="1">
-        <v>189.63200751644223</v>
+      <c r="H265">
+        <v>249.20207300000001</v>
       </c>
       <c r="I265" s="1">
         <v>1</v>
@@ -8214,8 +8212,8 @@
       <c r="G266" s="1">
         <v>50</v>
       </c>
-      <c r="H266" s="1">
-        <v>172.7200125274037</v>
+      <c r="H266">
+        <v>267.21680199999997</v>
       </c>
       <c r="I266" s="1">
         <v>1</v>
@@ -8243,8 +8241,8 @@
       <c r="G267" s="1">
         <v>50</v>
       </c>
-      <c r="H267" s="1">
-        <v>155.80801753836516</v>
+      <c r="H267">
+        <v>284.84103099999999</v>
       </c>
       <c r="I267" s="1">
         <v>1</v>
@@ -8272,8 +8270,8 @@
       <c r="G268" s="1">
         <v>50</v>
       </c>
-      <c r="H268" s="1">
-        <v>138.89602254932666</v>
+      <c r="H268">
+        <v>302.02355999999997</v>
       </c>
       <c r="I268" s="1">
         <v>1</v>
@@ -8301,8 +8299,8 @@
       <c r="G269" s="1">
         <v>50</v>
       </c>
-      <c r="H269" s="1">
-        <v>121.98402756028813</v>
+      <c r="H269">
+        <v>318.720102</v>
       </c>
       <c r="I269" s="1">
         <v>1</v>
@@ -8330,8 +8328,8 @@
       <c r="G270" s="1">
         <v>50</v>
       </c>
-      <c r="H270" s="1">
-        <v>105.07203257124961</v>
+      <c r="H270">
+        <v>334.89155799999997</v>
       </c>
       <c r="I270" s="1">
         <v>1</v>
@@ -8359,14 +8357,17 @@
       <c r="G271" s="1">
         <v>50</v>
       </c>
-      <c r="H271" s="1">
-        <v>88.160037582211089</v>
+      <c r="H271">
+        <v>350.50418999999999</v>
       </c>
       <c r="I271" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H240:H255">
+    <sortCondition descending="1" ref="H240:H255"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
+++ b/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\Documents\test-open\Doppler\270ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F485A4C-C2B8-445C-B4C4-B4E02532E034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25330107-56DD-4315-AA75-9024838C051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7D1A221-8E2E-4AB0-B486-D617078FF2BE}"/>
   </bookViews>
   <sheets>
-    <sheet name="230918" sheetId="1" r:id="rId1"/>
+    <sheet name="230917" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -499,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E811F4-564C-477F-B01D-DCC0A23183EF}">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J247" sqref="J247"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -751,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -925,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -954,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="8">
         <v>2</v>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="8">
         <v>2</v>
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="8">
         <v>2</v>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="8">
         <v>2</v>
@@ -1128,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
         <v>2</v>
@@ -1157,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="8">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
         <v>2</v>
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="8">
         <v>2</v>
@@ -1244,7 +1244,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
         <v>2</v>
@@ -1273,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="8">
         <v>2</v>
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
         <v>2</v>
@@ -1331,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="8">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8">
         <v>2</v>
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="8">
         <v>2</v>
@@ -1418,7 +1418,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="8">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="8">
         <v>2</v>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
@@ -1563,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="E40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -1737,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="E43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
       <c r="E44" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -1795,7 +1795,7 @@
         <v>1</v>
       </c>
       <c r="E45" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="E47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="E48" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -1969,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -1998,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="E54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -2085,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="E55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="E56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -2172,7 +2172,7 @@
         <v>1</v>
       </c>
       <c r="E58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
@@ -2201,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="E59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
         <v>3</v>
@@ -2259,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="E62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" s="8">
         <v>4</v>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
       <c r="E63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" s="8">
         <v>4</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" s="8">
         <v>4</v>
@@ -2375,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" s="8">
         <v>4</v>
@@ -2404,7 +2404,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="8">
         <v>4</v>
@@ -2433,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="E67" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" s="8">
         <v>4</v>
@@ -2462,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="E68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" s="8">
         <v>4</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="E69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" s="8">
         <v>4</v>
@@ -2520,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70" s="8">
         <v>4</v>
@@ -2549,7 +2549,7 @@
         <v>1</v>
       </c>
       <c r="E71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" s="8">
         <v>4</v>
@@ -2578,7 +2578,7 @@
         <v>1</v>
       </c>
       <c r="E72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" s="8">
         <v>4</v>
@@ -2607,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" s="8">
         <v>4</v>
@@ -2636,7 +2636,7 @@
         <v>1</v>
       </c>
       <c r="E74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" s="8">
         <v>4</v>
@@ -2665,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" s="8">
         <v>4</v>
@@ -2694,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" s="8">
         <v>4</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="E77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" s="8">
         <v>4</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78" s="8">
         <v>4</v>
@@ -2781,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="E79" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" s="8">
         <v>4</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="E80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" s="8">
         <v>4</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="E81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" s="8">
         <v>4</v>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" s="8">
         <v>4</v>
@@ -2897,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="E83" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" s="8">
         <v>4</v>
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="E84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" s="8">
         <v>4</v>
@@ -2955,7 +2955,7 @@
         <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" s="8">
         <v>4</v>
@@ -2984,7 +2984,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" s="8">
         <v>4</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="E87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" s="8">
         <v>4</v>
@@ -3042,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="E88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" s="8">
         <v>4</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" s="8">
         <v>4</v>
@@ -3100,7 +3100,7 @@
         <v>1</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" s="8">
         <v>4</v>
@@ -3129,7 +3129,7 @@
         <v>1</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="8">
         <v>4</v>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="E92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="E94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94" s="1">
         <v>5</v>
@@ -3245,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="E96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" s="1">
         <v>5</v>
@@ -3303,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="E97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3332,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="E98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" s="1">
         <v>5</v>
@@ -3361,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
       <c r="E100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3419,7 +3419,7 @@
         <v>1</v>
       </c>
       <c r="E101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="E103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" s="1">
         <v>5</v>
@@ -3506,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="E104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" s="1">
         <v>5</v>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
       <c r="E105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="1">
         <v>5</v>
@@ -3564,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3593,7 +3593,7 @@
         <v>1</v>
       </c>
       <c r="E107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3622,7 +3622,7 @@
         <v>1</v>
       </c>
       <c r="E108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" s="1">
         <v>5</v>
@@ -3651,7 +3651,7 @@
         <v>1</v>
       </c>
       <c r="E109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" s="1">
         <v>5</v>
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="E110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" s="1">
         <v>5</v>
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3767,7 +3767,7 @@
         <v>1</v>
       </c>
       <c r="E113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" s="1">
         <v>5</v>
@@ -3796,7 +3796,7 @@
         <v>1</v>
       </c>
       <c r="E114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -3825,7 +3825,7 @@
         <v>1</v>
       </c>
       <c r="E115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" s="1">
         <v>5</v>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
       <c r="E116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="E117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3912,7 +3912,7 @@
         <v>1</v>
       </c>
       <c r="E118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3941,7 +3941,7 @@
         <v>1</v>
       </c>
       <c r="E119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3999,7 +3999,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121" s="1">
         <v>5</v>
@@ -4028,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122" s="8">
         <v>6</v>
@@ -4057,7 +4057,7 @@
         <v>1</v>
       </c>
       <c r="E123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" s="8">
         <v>6</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="E124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F124" s="8">
         <v>6</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="E125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" s="8">
         <v>6</v>
@@ -4144,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="E126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F126" s="8">
         <v>6</v>
@@ -4173,7 +4173,7 @@
         <v>1</v>
       </c>
       <c r="E127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" s="8">
         <v>6</v>
@@ -4202,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="E128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" s="8">
         <v>6</v>
@@ -4231,7 +4231,7 @@
         <v>1</v>
       </c>
       <c r="E129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" s="8">
         <v>6</v>
@@ -4260,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="E130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" s="8">
         <v>6</v>
@@ -4289,7 +4289,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" s="8">
         <v>6</v>
@@ -4318,7 +4318,7 @@
         <v>1</v>
       </c>
       <c r="E132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="8">
         <v>6</v>
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
       <c r="E133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" s="8">
         <v>6</v>
@@ -4376,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="E134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" s="8">
         <v>6</v>
@@ -4405,7 +4405,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" s="8">
         <v>6</v>
@@ -4434,7 +4434,7 @@
         <v>1</v>
       </c>
       <c r="E136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" s="8">
         <v>6</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="E137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" s="8">
         <v>6</v>
@@ -4492,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="E138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138" s="8">
         <v>6</v>
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="E139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" s="8">
         <v>6</v>
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="E140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" s="8">
         <v>6</v>
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
       <c r="E141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" s="8">
         <v>6</v>
@@ -4608,7 +4608,7 @@
         <v>1</v>
       </c>
       <c r="E142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" s="8">
         <v>6</v>
@@ -4637,7 +4637,7 @@
         <v>1</v>
       </c>
       <c r="E143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F143" s="8">
         <v>6</v>
@@ -4666,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="E144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" s="8">
         <v>6</v>
@@ -4695,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="E145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145" s="8">
         <v>6</v>
@@ -4724,7 +4724,7 @@
         <v>1</v>
       </c>
       <c r="E146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" s="8">
         <v>6</v>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="E147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" s="8">
         <v>6</v>
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" s="8">
         <v>6</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="E149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" s="8">
         <v>6</v>
@@ -4840,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="E150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" s="8">
         <v>6</v>
@@ -4869,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="E151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151" s="8">
         <v>6</v>
@@ -4898,7 +4898,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" s="3">
         <v>7</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" s="3">
         <v>7</v>
@@ -4956,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="E154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" s="3">
         <v>7</v>
@@ -4985,7 +4985,7 @@
         <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" s="3">
         <v>7</v>
@@ -5014,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F156" s="3">
         <v>7</v>
@@ -5043,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157" s="3">
         <v>7</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="3">
         <v>7</v>
@@ -5101,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" s="3">
         <v>7</v>
@@ -5130,7 +5130,7 @@
         <v>1</v>
       </c>
       <c r="E160" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" s="3">
         <v>7</v>
@@ -5159,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="E161" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" s="3">
         <v>7</v>
@@ -5188,7 +5188,7 @@
         <v>1</v>
       </c>
       <c r="E162" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" s="3">
         <v>7</v>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="E163" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" s="3">
         <v>7</v>
@@ -5246,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="E164" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" s="3">
         <v>7</v>
@@ -5275,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="E165" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F165" s="3">
         <v>7</v>
@@ -5304,7 +5304,7 @@
         <v>1</v>
       </c>
       <c r="E166" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F166" s="3">
         <v>7</v>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="E167" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167" s="3">
         <v>7</v>
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="E168" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" s="3">
         <v>7</v>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="E169" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" s="3">
         <v>7</v>
@@ -5420,7 +5420,7 @@
         <v>1</v>
       </c>
       <c r="E170" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170" s="3">
         <v>7</v>
@@ -5449,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="E171" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" s="3">
         <v>7</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="E172" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" s="3">
         <v>7</v>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="E173" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" s="3">
         <v>7</v>
@@ -5536,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="E174" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" s="3">
         <v>7</v>
@@ -5565,7 +5565,7 @@
         <v>1</v>
       </c>
       <c r="E175" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" s="3">
         <v>7</v>
@@ -5594,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176" s="3">
         <v>7</v>
@@ -5623,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="E177" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" s="3">
         <v>7</v>
@@ -5652,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="E178" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178" s="3">
         <v>7</v>
@@ -5681,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" s="3">
         <v>7</v>
@@ -5710,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="E180" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F180" s="3">
         <v>7</v>
@@ -5739,7 +5739,7 @@
         <v>1</v>
       </c>
       <c r="E181" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F181" s="3">
         <v>7</v>
@@ -5768,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="E182" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182" s="8">
         <v>8</v>
@@ -5797,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="E183" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" s="8">
         <v>8</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="E184" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" s="8">
         <v>8</v>
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="E185" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" s="8">
         <v>8</v>
@@ -5884,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="E186" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186" s="8">
         <v>8</v>
@@ -5913,7 +5913,7 @@
         <v>1</v>
       </c>
       <c r="E187" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F187" s="8">
         <v>8</v>
@@ -5942,7 +5942,7 @@
         <v>1</v>
       </c>
       <c r="E188" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" s="8">
         <v>8</v>
@@ -5971,7 +5971,7 @@
         <v>1</v>
       </c>
       <c r="E189" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" s="8">
         <v>8</v>
@@ -6000,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="E190" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F190" s="8">
         <v>8</v>
@@ -6029,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="E191" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" s="8">
         <v>8</v>
@@ -6058,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="E192" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192" s="8">
         <v>8</v>
@@ -6087,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="E193" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" s="8">
         <v>8</v>
@@ -6116,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="E194" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194" s="8">
         <v>8</v>
@@ -6145,7 +6145,7 @@
         <v>1</v>
       </c>
       <c r="E195" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" s="8">
         <v>8</v>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="E196" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" s="8">
         <v>8</v>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="E197" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197" s="8">
         <v>8</v>
@@ -6232,7 +6232,7 @@
         <v>1</v>
       </c>
       <c r="E198" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" s="8">
         <v>8</v>
@@ -6261,7 +6261,7 @@
         <v>1</v>
       </c>
       <c r="E199" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" s="8">
         <v>8</v>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="E200" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" s="8">
         <v>8</v>
@@ -6319,7 +6319,7 @@
         <v>1</v>
       </c>
       <c r="E201" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" s="8">
         <v>8</v>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="E202" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202" s="8">
         <v>8</v>
@@ -6377,7 +6377,7 @@
         <v>1</v>
       </c>
       <c r="E203" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F203" s="8">
         <v>8</v>
@@ -6406,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="E204" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204" s="8">
         <v>8</v>
@@ -6435,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="E205" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="8">
         <v>8</v>
@@ -6464,7 +6464,7 @@
         <v>1</v>
       </c>
       <c r="E206" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" s="8">
         <v>8</v>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="E207" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" s="8">
         <v>8</v>
@@ -6522,7 +6522,7 @@
         <v>1</v>
       </c>
       <c r="E208" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" s="8">
         <v>8</v>
@@ -6551,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="E209" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" s="8">
         <v>8</v>
@@ -6580,7 +6580,7 @@
         <v>1</v>
       </c>
       <c r="E210" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210" s="8">
         <v>8</v>
@@ -6609,7 +6609,7 @@
         <v>1</v>
       </c>
       <c r="E211" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211" s="8">
         <v>8</v>
@@ -6638,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" s="1">
         <v>9</v>
@@ -6667,7 +6667,7 @@
         <v>1</v>
       </c>
       <c r="E213" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F213" s="1">
         <v>9</v>
@@ -6696,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="E214" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214" s="1">
         <v>9</v>
@@ -6725,7 +6725,7 @@
         <v>1</v>
       </c>
       <c r="E215" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215" s="1">
         <v>9</v>
@@ -6754,7 +6754,7 @@
         <v>1</v>
       </c>
       <c r="E216" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F216" s="1">
         <v>9</v>
@@ -6783,7 +6783,7 @@
         <v>1</v>
       </c>
       <c r="E217" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F217" s="1">
         <v>9</v>
@@ -6812,7 +6812,7 @@
         <v>1</v>
       </c>
       <c r="E218" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" s="1">
         <v>9</v>
@@ -6841,7 +6841,7 @@
         <v>1</v>
       </c>
       <c r="E219" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" s="1">
         <v>9</v>
@@ -6870,7 +6870,7 @@
         <v>1</v>
       </c>
       <c r="E220" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F220" s="1">
         <v>9</v>
@@ -6899,7 +6899,7 @@
         <v>1</v>
       </c>
       <c r="E221" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F221" s="1">
         <v>9</v>
@@ -6928,7 +6928,7 @@
         <v>1</v>
       </c>
       <c r="E222" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222" s="1">
         <v>9</v>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
       <c r="E223" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F223" s="1">
         <v>9</v>
@@ -6986,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="E224" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F224" s="1">
         <v>9</v>
@@ -7015,7 +7015,7 @@
         <v>1</v>
       </c>
       <c r="E225" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" s="1">
         <v>9</v>
@@ -7044,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="E226" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F226" s="1">
         <v>9</v>
@@ -7073,7 +7073,7 @@
         <v>1</v>
       </c>
       <c r="E227" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227" s="1">
         <v>9</v>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="E228" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F228" s="1">
         <v>9</v>
@@ -7131,7 +7131,7 @@
         <v>1</v>
       </c>
       <c r="E229" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F229" s="1">
         <v>9</v>
@@ -7160,7 +7160,7 @@
         <v>1</v>
       </c>
       <c r="E230" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F230" s="1">
         <v>9</v>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
       <c r="E231" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" s="1">
         <v>9</v>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="E232" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F232" s="1">
         <v>9</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="E233" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233" s="1">
         <v>9</v>
@@ -7276,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F234" s="1">
         <v>9</v>
@@ -7305,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235" s="1">
         <v>9</v>
@@ -7334,7 +7334,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236" s="1">
         <v>9</v>
@@ -7363,7 +7363,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F237" s="1">
         <v>9</v>
@@ -7392,7 +7392,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F238" s="1">
         <v>9</v>
@@ -7421,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" s="1">
         <v>9</v>
@@ -7450,7 +7450,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240" s="3">
         <v>10</v>
@@ -7479,7 +7479,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241" s="3">
         <v>10</v>
@@ -7508,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F242" s="3">
         <v>10</v>
@@ -7537,7 +7537,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" s="3">
         <v>10</v>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244" s="3">
         <v>10</v>
@@ -7595,7 +7595,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245" s="3">
         <v>10</v>
@@ -7624,7 +7624,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" s="3">
         <v>10</v>
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="E247" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247" s="3">
         <v>10</v>
@@ -7682,7 +7682,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248" s="3">
         <v>10</v>
@@ -7711,7 +7711,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249" s="3">
         <v>10</v>
@@ -7740,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="E250" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250" s="3">
         <v>10</v>
@@ -7769,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251" s="3">
         <v>10</v>
@@ -7798,7 +7798,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252" s="3">
         <v>10</v>
@@ -7827,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253" s="3">
         <v>10</v>
@@ -7856,7 +7856,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F254" s="3">
         <v>10</v>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
       <c r="E255" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255" s="3">
         <v>10</v>
@@ -7914,7 +7914,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256" s="1">
         <v>11</v>
@@ -7943,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257" s="1">
         <v>11</v>
@@ -7972,7 +7972,7 @@
         <v>1</v>
       </c>
       <c r="E258" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F258" s="1">
         <v>11</v>
@@ -8001,7 +8001,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F259" s="1">
         <v>11</v>
@@ -8030,7 +8030,7 @@
         <v>1</v>
       </c>
       <c r="E260" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F260" s="1">
         <v>11</v>
@@ -8059,7 +8059,7 @@
         <v>1</v>
       </c>
       <c r="E261" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F261" s="1">
         <v>11</v>
@@ -8088,7 +8088,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" s="1">
         <v>11</v>
@@ -8117,7 +8117,7 @@
         <v>1</v>
       </c>
       <c r="E263" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F263" s="1">
         <v>11</v>
@@ -8146,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" s="1">
         <v>11</v>
@@ -8175,7 +8175,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" s="1">
         <v>11</v>
@@ -8204,7 +8204,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F266" s="1">
         <v>11</v>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="E267" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F267" s="1">
         <v>11</v>
@@ -8262,7 +8262,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F268" s="1">
         <v>11</v>
@@ -8291,7 +8291,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F269" s="1">
         <v>11</v>
@@ -8320,7 +8320,7 @@
         <v>1</v>
       </c>
       <c r="E270" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F270" s="1">
         <v>11</v>
@@ -8349,7 +8349,7 @@
         <v>1</v>
       </c>
       <c r="E271" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F271" s="1">
         <v>11</v>

--- a/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
+++ b/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\Documents\test-open\Doppler\270ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25330107-56DD-4315-AA75-9024838C051E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE493D91-44E2-4E83-A66C-34611CAEF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7D1A221-8E2E-4AB0-B486-D617078FF2BE}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -183,6 +180,7 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -500,7 +498,7 @@
   <dimension ref="A1:I271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E271"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -541,14 +539,14 @@
       <c r="B2" s="2">
         <v>973.61741424802108</v>
       </c>
-      <c r="C2" s="1">
-        <v>237.33333333333314</v>
+      <c r="C2" s="9">
+        <v>237.32579837796641</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
+      <c r="E2" s="9">
+        <v>6.0869975702923362</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -570,14 +568,14 @@
       <c r="B3" s="2">
         <v>960.12137203166219</v>
       </c>
-      <c r="C3" s="1">
-        <v>237.33333333333326</v>
+      <c r="C3" s="9">
+        <v>237.32146161795174</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
+      <c r="E3" s="9">
+        <v>6.7599802573405867</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -599,14 +597,14 @@
       <c r="B4" s="2">
         <v>945.27572559366763</v>
       </c>
-      <c r="C4" s="1">
-        <v>235.52910052910045</v>
+      <c r="C4" s="9">
+        <v>235.52445497339443</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
+      <c r="E4" s="9">
+        <v>6.1627855385750792</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -628,14 +626,14 @@
       <c r="B5" s="2">
         <v>930.43007915567318</v>
       </c>
-      <c r="C5" s="1">
-        <v>239.13756613756604</v>
+      <c r="C5" s="9">
+        <v>239.11764594069109</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
+      <c r="E5" s="9">
+        <v>5.8520681593229371</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -657,14 +655,14 @@
       <c r="B6" s="2">
         <v>900.73878627968361</v>
       </c>
-      <c r="C6" s="1">
-        <v>235.52910052910042</v>
+      <c r="C6" s="9">
+        <v>235.51802686623023</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
+      <c r="E6" s="9">
+        <v>5.7194928522284849</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -686,14 +684,14 @@
       <c r="B7" s="2">
         <v>884.54353562005304</v>
       </c>
-      <c r="C7" s="1">
-        <v>237.33333333333323</v>
+      <c r="C7" s="9">
+        <v>237.31561021096718</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>0</v>
+      <c r="E7" s="9">
+        <v>5.8709179010895367</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -715,14 +713,14 @@
       <c r="B8" s="2">
         <v>866.99868073878656</v>
       </c>
-      <c r="C8" s="1">
-        <v>235.52910052910042</v>
+      <c r="C8" s="9">
+        <v>235.51857208289277</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8" s="9">
+        <v>5.7315190102841793</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -744,14 +742,14 @@
       <c r="B9" s="2">
         <v>852.15303430079177</v>
       </c>
-      <c r="C9" s="1">
-        <v>233.72486772486764</v>
+      <c r="C9" s="9">
+        <v>233.71981104332474</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
+      <c r="E9" s="9">
+        <v>5.7680114766595416</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -773,14 +771,14 @@
       <c r="B10" s="2">
         <v>837.3073878627971</v>
       </c>
-      <c r="C10" s="1">
-        <v>235.52910052910042</v>
+      <c r="C10" s="9">
+        <v>235.5155862277129</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>0</v>
+      <c r="E10" s="9">
+        <v>5.7179088128275941</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -802,14 +800,14 @@
       <c r="B11" s="2">
         <v>823.81134564643821</v>
       </c>
-      <c r="C11" s="1">
-        <v>235.52910052910042</v>
+      <c r="C11" s="9">
+        <v>235.51347776099806</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
+      <c r="E11" s="9">
+        <v>5.5527989842995344</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -831,14 +829,14 @@
       <c r="B12" s="2">
         <v>806.26649076517185</v>
       </c>
-      <c r="C12" s="1">
-        <v>233.72486772486764</v>
+      <c r="C12" s="9">
+        <v>233.71706579846557</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>0</v>
+      <c r="E12" s="9">
+        <v>5.4871379198604382</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -860,14 +858,14 @@
       <c r="B13" s="2">
         <v>792.77044854881296</v>
       </c>
-      <c r="C13" s="1">
-        <v>231.92063492063482</v>
+      <c r="C13" s="9">
+        <v>231.91601101096239</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>0</v>
+      <c r="E13" s="9">
+        <v>5.3877207457341116</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -889,14 +887,14 @@
       <c r="B14" s="2">
         <v>777.92480211081829</v>
       </c>
-      <c r="C14" s="1">
-        <v>231.92063492063482</v>
+      <c r="C14" s="9">
+        <v>231.91406709098771</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
+      <c r="E14" s="9">
+        <v>5.3013715419820757</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -918,14 +916,14 @@
       <c r="B15" s="2">
         <v>763.07915567282339</v>
       </c>
-      <c r="C15" s="1">
-        <v>230.11640211640201</v>
+      <c r="C15" s="9">
+        <v>230.11545640196152</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>0</v>
+      <c r="E15" s="9">
+        <v>5.399237608619968</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -947,14 +945,14 @@
       <c r="B16" s="2">
         <v>746.88390501319293</v>
       </c>
-      <c r="C16" s="1">
-        <v>231.92063492063482</v>
+      <c r="C16" s="9">
+        <v>231.9128351645237</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>0</v>
+      <c r="E16" s="9">
+        <v>5.1275132322049606</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -976,14 +974,14 @@
       <c r="B17" s="2">
         <v>733.38786279683404</v>
       </c>
-      <c r="C17" s="1">
-        <v>231.92063492063482</v>
+      <c r="C17" s="9">
+        <v>231.91021106867549</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1">
-        <v>0</v>
+      <c r="E17" s="9">
+        <v>5.2817202357814432</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -998,467 +996,467 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="8">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>717.19261213720324</v>
       </c>
-      <c r="C18" s="8">
-        <v>230.11640211640201</v>
+      <c r="C18" s="9">
+        <v>230.11295960937309</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="E18" s="9">
+        <v>4.9617863111505862</v>
+      </c>
+      <c r="F18" s="7">
         <v>2</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="7">
         <v>-40</v>
       </c>
       <c r="H18">
         <v>350.50418999999999</v>
       </c>
-      <c r="I18" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="8">
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>702.34696569920868</v>
       </c>
-      <c r="C19" s="8">
-        <v>230.11640211640201</v>
+      <c r="C19" s="9">
+        <v>230.11344085977782</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
+      <c r="E19" s="9">
+        <v>4.8439279803030022</v>
+      </c>
+      <c r="F19" s="7">
         <v>2</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="7">
         <v>-40</v>
       </c>
       <c r="H19">
         <v>334.89155799999997</v>
       </c>
-      <c r="I19" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="8">
+      <c r="I19" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>686.15171503957811</v>
       </c>
-      <c r="C20" s="8">
-        <v>231.92063492063482</v>
+      <c r="C20" s="9">
+        <v>231.90953289555603</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="E20" s="9">
+        <v>5.0745468402272706</v>
+      </c>
+      <c r="F20" s="7">
         <v>2</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="7">
         <v>-40</v>
       </c>
       <c r="H20">
         <v>318.720102</v>
       </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="8">
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>672.65567282321922</v>
       </c>
-      <c r="C21" s="8">
-        <v>230.11640211640213</v>
+      <c r="C21" s="9">
+        <v>230.10957270244091</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
+      <c r="E21" s="9">
+        <v>4.8062949281594092</v>
+      </c>
+      <c r="F21" s="7">
         <v>2</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="7">
         <v>-40</v>
       </c>
       <c r="H21">
         <v>302.02355999999997</v>
       </c>
-      <c r="I21" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="8">
+      <c r="I21" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>655.11081794195275</v>
       </c>
-      <c r="C22" s="8">
-        <v>230.11640211640201</v>
+      <c r="C22" s="9">
+        <v>230.10834445449905</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="E22" s="9">
+        <v>4.769780975965543</v>
+      </c>
+      <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="7">
         <v>-40</v>
       </c>
       <c r="H22">
         <v>284.84103099999999</v>
       </c>
-      <c r="I22" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="8">
+      <c r="I22" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>640.26517150395784</v>
       </c>
-      <c r="C23" s="8">
-        <v>231.92063492063494</v>
+      <c r="C23" s="9">
+        <v>231.90586369085293</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" s="9">
+        <v>4.6903228140630544</v>
+      </c>
+      <c r="F23" s="7">
         <v>2</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="7">
         <v>-40</v>
       </c>
       <c r="H23">
         <v>267.21680199999997</v>
       </c>
-      <c r="I23" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="8">
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>625.4195250659634</v>
       </c>
-      <c r="C24" s="8">
-        <v>231.92063492063482</v>
+      <c r="C24" s="9">
+        <v>231.90526851767106</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="E24" s="9">
+        <v>4.5905680715753512</v>
+      </c>
+      <c r="F24" s="7">
         <v>2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="7">
         <v>-40</v>
       </c>
       <c r="H24">
         <v>249.20207300000001</v>
       </c>
-      <c r="I24" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="8">
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="8">
         <v>611.92348284960462</v>
       </c>
-      <c r="C25" s="8">
-        <v>228.3121693121692</v>
+      <c r="C25" s="9">
+        <v>228.30931547938667</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="E25" s="9">
+        <v>4.729907236096099</v>
+      </c>
+      <c r="F25" s="7">
         <v>2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="7">
         <v>-40</v>
       </c>
       <c r="H25">
         <v>230.851799</v>
       </c>
-      <c r="I25" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="8">
+      <c r="I25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="8">
         <v>595.72823218997382</v>
       </c>
-      <c r="C26" s="8">
-        <v>230.11640211640201</v>
+      <c r="C26" s="9">
+        <v>230.10533585709595</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="E26" s="9">
+        <v>4.3892627635174479</v>
+      </c>
+      <c r="F26" s="7">
         <v>2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="7">
         <v>-40</v>
       </c>
       <c r="H26">
         <v>212.22472200000001</v>
       </c>
-      <c r="I26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="8">
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
-      <c r="B27" s="9">
+      <c r="B27" s="8">
         <v>582.23218997361494</v>
       </c>
-      <c r="C27" s="8">
-        <v>228.3121693121692</v>
+      <c r="C27" s="9">
+        <v>228.30713562833148</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
+      <c r="E27" s="9">
+        <v>5.0648721772163565</v>
+      </c>
+      <c r="F27" s="7">
         <v>2</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="7">
         <v>-40</v>
       </c>
       <c r="H27">
         <v>193.38274000000001</v>
       </c>
-      <c r="I27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="8">
+      <c r="I27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="8">
         <v>566.03693931398425</v>
       </c>
-      <c r="C28" s="8">
-        <v>226.50793650793651</v>
+      <c r="C28" s="9">
+        <v>226.50892759957685</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E28" s="9">
+        <v>4.4703809477953067</v>
+      </c>
+      <c r="F28" s="7">
         <v>2</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="7">
         <v>-40</v>
       </c>
       <c r="H28">
         <v>174.39016699999999</v>
       </c>
-      <c r="I28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
+      <c r="I28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
+      <c r="B29" s="8">
         <v>548.49208443271777</v>
       </c>
-      <c r="C29" s="8">
-        <v>228.3121693121692</v>
+      <c r="C29" s="9">
+        <v>228.30484080909184</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
       </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
+      <c r="E29" s="9">
+        <v>5.2402549199387281</v>
+      </c>
+      <c r="F29" s="7">
         <v>2</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="7">
         <v>-40</v>
       </c>
       <c r="H29">
         <v>155.31156999999999</v>
       </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
+      <c r="I29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="8">
         <v>534.996042216359</v>
       </c>
-      <c r="C30" s="8">
-        <v>226.50793650793639</v>
+      <c r="C30" s="9">
+        <v>226.50741369970967</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E30" s="9">
+        <v>4.3615448902297986</v>
+      </c>
+      <c r="F30" s="7">
         <v>2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="7">
         <v>-40</v>
       </c>
       <c r="H30">
         <v>136.211127</v>
       </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="8">
+      <c r="I30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="8">
         <v>520.15039577836433</v>
       </c>
-      <c r="C31" s="8">
-        <v>228.3121693121692</v>
+      <c r="C31" s="9">
+        <v>228.30508287810824</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
-      <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
+      <c r="E31" s="9">
+        <v>4.3881196234682882</v>
+      </c>
+      <c r="F31" s="7">
         <v>2</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="7">
         <v>-40</v>
       </c>
       <c r="H31">
         <v>117.15275800000001</v>
       </c>
-      <c r="I31" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="8">
+      <c r="I31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="8">
         <v>503.95514511873364</v>
       </c>
-      <c r="C32" s="8">
-        <v>226.50793650793639</v>
+      <c r="C32" s="9">
+        <v>226.5065334901368</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
+      <c r="E32" s="9">
+        <v>4.3240228745561682</v>
+      </c>
+      <c r="F32" s="7">
         <v>2</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="7">
         <v>-40</v>
       </c>
       <c r="H32">
         <v>98.197162000000006</v>
       </c>
-      <c r="I32" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="8">
+      <c r="I32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33" s="8">
         <v>490.45910290237487</v>
       </c>
-      <c r="C33" s="8">
-        <v>226.50793650793651</v>
+      <c r="C33" s="9">
+        <v>226.50477782126961</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="E33" s="9">
+        <v>4.9999057766571982</v>
+      </c>
+      <c r="F33" s="7">
         <v>2</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="7">
         <v>-40</v>
       </c>
       <c r="H33">
         <v>79.401798999999997</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="7">
         <v>1</v>
       </c>
     </row>
@@ -1469,14 +1467,14 @@
       <c r="B34" s="2">
         <v>474.26385224274418</v>
       </c>
-      <c r="C34" s="1">
-        <v>228.3121693121692</v>
+      <c r="C34" s="9">
+        <v>228.30225725107937</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
+      <c r="E34" s="9">
+        <v>4.2576680052762272</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -1498,14 +1496,14 @@
       <c r="B35" s="2">
         <v>460.7678100263854</v>
       </c>
-      <c r="C35" s="1">
-        <v>226.50793650793651</v>
+      <c r="C35" s="9">
+        <v>226.50392070919372</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
-      <c r="E35" s="1">
-        <v>0</v>
+      <c r="E35" s="9">
+        <v>4.2628817052710097</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
@@ -1527,14 +1525,14 @@
       <c r="B36" s="2">
         <v>444.57255936675472</v>
       </c>
-      <c r="C36" s="1">
-        <v>226.50793650793639</v>
+      <c r="C36" s="9">
+        <v>226.50285411899767</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
+      <c r="E36" s="9">
+        <v>4.319724315208969</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
@@ -1556,14 +1554,14 @@
       <c r="B37" s="2">
         <v>429.72691292876004</v>
       </c>
-      <c r="C37" s="1">
-        <v>228.3121693121692</v>
+      <c r="C37" s="9">
+        <v>228.29965043958953</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
       </c>
-      <c r="E37" s="1">
-        <v>0</v>
+      <c r="E37" s="9">
+        <v>4.1250355851898624</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
@@ -1585,14 +1583,14 @@
       <c r="B38" s="2">
         <v>414.88126649076537</v>
       </c>
-      <c r="C38" s="1">
-        <v>226.50793650793639</v>
+      <c r="C38" s="9">
+        <v>226.50055228271367</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
+      <c r="E38" s="9">
+        <v>4.5214045427923413</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
@@ -1614,14 +1612,14 @@
       <c r="B39" s="2">
         <v>400.03562005277058</v>
       </c>
-      <c r="C39" s="1">
-        <v>228.31216931216932</v>
+      <c r="C39" s="9">
+        <v>228.29864651943842</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
-      <c r="E39" s="1">
-        <v>0</v>
+      <c r="E39" s="9">
+        <v>4.133334606768206</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
@@ -1643,14 +1641,14 @@
       <c r="B40" s="2">
         <v>385.18997361477591</v>
       </c>
-      <c r="C40" s="1">
-        <v>224.7037037037037</v>
+      <c r="C40" s="9">
+        <v>224.70277109134065</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
-      <c r="E40" s="1">
-        <v>0</v>
+      <c r="E40" s="9">
+        <v>4.3425983691894992</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -1672,14 +1670,14 @@
       <c r="B41" s="2">
         <v>368.99472295514522</v>
       </c>
-      <c r="C41" s="1">
-        <v>224.7037037037037</v>
+      <c r="C41" s="9">
+        <v>224.70182049413802</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
+      <c r="E41" s="9">
+        <v>4.2344146856334994</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -1701,14 +1699,14 @@
       <c r="B42" s="2">
         <v>352.79947229551465</v>
       </c>
-      <c r="C42" s="1">
-        <v>226.50793650793651</v>
+      <c r="C42" s="9">
+        <v>226.49886645080301</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
-      <c r="E42" s="1">
-        <v>0</v>
+      <c r="E42" s="9">
+        <v>4.354676856530264</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -1730,14 +1728,14 @@
       <c r="B43" s="2">
         <v>337.95382585751997</v>
       </c>
-      <c r="C43" s="1">
-        <v>222.89947089947088</v>
+      <c r="C43" s="9">
+        <v>222.90327721739266</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
-      <c r="E43" s="1">
-        <v>0</v>
+      <c r="E43" s="9">
+        <v>4.2663055359840421</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
@@ -1759,14 +1757,14 @@
       <c r="B44" s="2">
         <v>324.45778364116109</v>
       </c>
-      <c r="C44" s="1">
-        <v>226.50793650793651</v>
+      <c r="C44" s="9">
+        <v>226.49349197757851</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
+      <c r="E44" s="9">
+        <v>10.352165798982782</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -1788,14 +1786,14 @@
       <c r="B45" s="2">
         <v>309.61213720316641</v>
       </c>
-      <c r="C45" s="1">
-        <v>225.17647058823533</v>
+      <c r="C45" s="9">
+        <v>225.1711145232324</v>
       </c>
       <c r="D45" s="1">
         <v>1</v>
       </c>
-      <c r="E45" s="1">
-        <v>0</v>
+      <c r="E45" s="9">
+        <v>4.2813932469823399</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -1817,14 +1815,14 @@
       <c r="B46" s="2">
         <v>293.41688654353584</v>
       </c>
-      <c r="C46" s="1">
-        <v>227</v>
+      <c r="C46" s="9">
+        <v>226.98678756863455</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
-      <c r="E46" s="1">
-        <v>0</v>
+      <c r="E46" s="9">
+        <v>4.3591635513598392</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
@@ -1846,14 +1844,14 @@
       <c r="B47" s="2">
         <v>277.22163588390515</v>
       </c>
-      <c r="C47" s="1">
-        <v>225.17647058823533</v>
+      <c r="C47" s="9">
+        <v>225.16964249432965</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
-      <c r="E47" s="1">
-        <v>0</v>
+      <c r="E47" s="9">
+        <v>4.3900103231106078</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
@@ -1875,14 +1873,14 @@
       <c r="B48" s="2">
         <v>263.72559366754615</v>
       </c>
-      <c r="C48" s="1">
-        <v>225.17647058823533</v>
+      <c r="C48" s="9">
+        <v>225.1656980524275</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
-      <c r="E48" s="1">
-        <v>0</v>
+      <c r="E48" s="9">
+        <v>7.8387610462924098</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -1904,14 +1902,14 @@
       <c r="B49" s="2">
         <v>232.68469656992099</v>
       </c>
-      <c r="C49" s="1">
-        <v>225.1764705882353</v>
+      <c r="C49" s="9">
+        <v>225.17061077125084</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
+      <c r="E49" s="9">
+        <v>4.4449774526720791</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
@@ -1933,14 +1931,14 @@
       <c r="B50" s="2">
         <v>216.48944591029033</v>
       </c>
-      <c r="C50" s="1">
-        <v>223.35294117647058</v>
+      <c r="C50" s="9">
+        <v>223.35253525271548</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
-      <c r="E50" s="1">
-        <v>0</v>
+      <c r="E50" s="9">
+        <v>4.7898703319096176</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -1962,14 +1960,14 @@
       <c r="B51" s="2">
         <v>200.29419525065987</v>
       </c>
-      <c r="C51" s="1">
-        <v>223.35294117647069</v>
+      <c r="C51" s="9">
+        <v>223.35106432596956</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
-      <c r="E51" s="1">
-        <v>0</v>
+      <c r="E51" s="9">
+        <v>4.6598336634621962</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -1991,14 +1989,14 @@
       <c r="B52" s="2">
         <v>186.79815303430098</v>
       </c>
-      <c r="C52" s="1">
-        <v>223.35294117647064</v>
+      <c r="C52" s="9">
+        <v>223.35040702673496</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
-      <c r="E52" s="1">
-        <v>0</v>
+      <c r="E52" s="9">
+        <v>4.9547155755982368</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -2020,14 +2018,14 @@
       <c r="B53" s="2">
         <v>170.60290237467029</v>
       </c>
-      <c r="C53" s="1">
-        <v>225.17647058823539</v>
+      <c r="C53" s="9">
+        <v>225.16798832155246</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
       </c>
-      <c r="E53" s="1">
-        <v>0</v>
+      <c r="E53" s="9">
+        <v>4.8434235248811364</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -2049,14 +2047,14 @@
       <c r="B54" s="2">
         <v>157.10686015831129</v>
       </c>
-      <c r="C54" s="1">
-        <v>221.52941176470586</v>
+      <c r="C54" s="9">
+        <v>221.53459642891687</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
       </c>
-      <c r="E54" s="1">
-        <v>0</v>
+      <c r="E54" s="9">
+        <v>4.8358132750765117</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -2078,14 +2076,14 @@
       <c r="B55" s="2">
         <v>123.36675461741436</v>
       </c>
-      <c r="C55" s="1">
-        <v>225.17647058823533</v>
+      <c r="C55" s="9">
+        <v>225.16718219622362</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
-      <c r="E55" s="1">
-        <v>0</v>
+      <c r="E55" s="9">
+        <v>4.8010053660134338</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -2107,14 +2105,14 @@
       <c r="B56" s="2">
         <v>108.52110817941946</v>
       </c>
-      <c r="C56" s="1">
-        <v>225.1764705882353</v>
+      <c r="C56" s="9">
+        <v>225.16849366097915</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
-      <c r="E56" s="1">
-        <v>0</v>
+      <c r="E56" s="9">
+        <v>5.1307644004070339</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -2136,14 +2134,14 @@
       <c r="B57" s="2">
         <v>92.325857519788883</v>
       </c>
-      <c r="C57" s="1">
-        <v>223.35294117647067</v>
+      <c r="C57" s="9">
+        <v>223.35014410900601</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
-      <c r="E57" s="1">
-        <v>0</v>
+      <c r="E57" s="9">
+        <v>5.2495996036891786</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -2165,14 +2163,14 @@
       <c r="B58" s="2">
         <v>78.829815303429996</v>
       </c>
-      <c r="C58" s="1">
-        <v>225.17647058823536</v>
+      <c r="C58" s="9">
+        <v>225.16878904855082</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
-      <c r="E58" s="1">
-        <v>0</v>
+      <c r="E58" s="9">
+        <v>5.1617792857872891</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
@@ -2194,14 +2192,14 @@
       <c r="B59" s="2">
         <v>63.984168865435322</v>
       </c>
-      <c r="C59" s="1">
-        <v>225.17647058823533</v>
+      <c r="C59" s="9">
+        <v>225.16815331510043</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
-      <c r="E59" s="1">
-        <v>0</v>
+      <c r="E59" s="9">
+        <v>4.9606856034550129</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -2223,14 +2221,14 @@
       <c r="B60" s="2">
         <v>47.788918205804748</v>
       </c>
-      <c r="C60" s="1">
-        <v>223.35294117647061</v>
+      <c r="C60" s="9">
+        <v>223.35075262007319</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
-      <c r="E60" s="1">
-        <v>0</v>
+      <c r="E60" s="9">
+        <v>5.2894599859748821</v>
       </c>
       <c r="F60" s="1">
         <v>3</v>
@@ -2252,14 +2250,14 @@
       <c r="B61" s="2">
         <v>35.642480211081875</v>
       </c>
-      <c r="C61" s="1">
-        <v>223.35294117647061</v>
+      <c r="C61" s="9">
+        <v>223.35074092797061</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
-      <c r="E61" s="1">
-        <v>0</v>
+      <c r="E61" s="9">
+        <v>5.5953949290118272</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
@@ -2274,873 +2272,873 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8">
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="7">
         <v>61</v>
       </c>
-      <c r="B62" s="9">
+      <c r="B62" s="8">
         <v>992.51187335092402</v>
       </c>
-      <c r="C62" s="8">
-        <v>374.70588235294122</v>
+      <c r="C62" s="9">
+        <v>374.69984475021965</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
-      <c r="E62" s="1">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
+      <c r="E62" s="9">
+        <v>5.7798756180648878</v>
+      </c>
+      <c r="F62" s="7">
         <v>4</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G62" s="7">
         <v>-20</v>
       </c>
       <c r="H62">
         <v>350.000024</v>
       </c>
-      <c r="I62" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="8">
+      <c r="I62" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="9">
+      <c r="B63" s="8">
         <v>974.96701846965743</v>
       </c>
-      <c r="C63" s="8">
-        <v>371.05882352941182</v>
+      <c r="C63" s="9">
+        <v>371.06706506215232</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
       </c>
-      <c r="E63" s="1">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
+      <c r="E63" s="9">
+        <v>6.2725639630022147</v>
+      </c>
+      <c r="F63" s="7">
         <v>4</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G63" s="7">
         <v>-20</v>
       </c>
       <c r="H63">
         <v>342.02119699999997</v>
       </c>
-      <c r="I63" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="8">
+      <c r="I63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="7">
         <v>63</v>
       </c>
-      <c r="B64" s="9">
+      <c r="B64" s="8">
         <v>961.47097625329866</v>
       </c>
-      <c r="C64" s="8">
-        <v>372.88235294117646</v>
+      <c r="C64" s="9">
+        <v>372.88132790003681</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
-      <c r="E64" s="1">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
+      <c r="E64" s="9">
+        <v>6.1355239721793096</v>
+      </c>
+      <c r="F64" s="7">
         <v>4</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G64" s="7">
         <v>-20</v>
       </c>
       <c r="H64">
         <v>333.89049799999998</v>
       </c>
-      <c r="I64" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="8">
+      <c r="I64" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="9">
+      <c r="B65" s="8">
         <v>946.62532981530399</v>
       </c>
-      <c r="C65" s="8">
-        <v>374.70588235294122</v>
+      <c r="C65" s="9">
+        <v>374.69578342121486</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
-      <c r="E65" s="1">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
+      <c r="E65" s="9">
+        <v>6.0240596567397127</v>
+      </c>
+      <c r="F65" s="7">
         <v>4</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="7">
         <v>-20</v>
       </c>
       <c r="H65">
         <v>325.61242600000003</v>
       </c>
-      <c r="I65" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="8">
+      <c r="I65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="7">
         <v>65</v>
       </c>
-      <c r="B66" s="9">
+      <c r="B66" s="8">
         <v>930.43007915567341</v>
       </c>
-      <c r="C66" s="8">
-        <v>372.88235294117646</v>
+      <c r="C66" s="9">
+        <v>372.88104795121092</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
-      <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="8">
+      <c r="E66" s="9">
+        <v>5.7173318623101519</v>
+      </c>
+      <c r="F66" s="7">
         <v>4</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G66" s="7">
         <v>-20</v>
       </c>
       <c r="H66">
         <v>317.19049799999999</v>
       </c>
-      <c r="I66" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8">
+      <c r="I66" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="7">
         <v>66</v>
       </c>
-      <c r="B67" s="9">
+      <c r="B67" s="8">
         <v>899.38918205804794</v>
       </c>
-      <c r="C67" s="8">
-        <v>372.88235294117652</v>
+      <c r="C67" s="9">
+        <v>372.87695855875461</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
-      <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
+      <c r="E67" s="9">
+        <v>5.7943726607357249</v>
+      </c>
+      <c r="F67" s="7">
         <v>4</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G67" s="7">
         <v>-20</v>
       </c>
       <c r="H67">
         <v>308.63055600000001</v>
       </c>
-      <c r="I67" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="8">
+      <c r="I67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="7">
         <v>67</v>
       </c>
-      <c r="B68" s="9">
+      <c r="B68" s="8">
         <v>885.89313984168916</v>
       </c>
-      <c r="C68" s="8">
-        <v>369.23529411764707</v>
+      <c r="C68" s="9">
+        <v>369.23932978624896</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
-      <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
+      <c r="E68" s="9">
+        <v>5.791463441393935</v>
+      </c>
+      <c r="F68" s="7">
         <v>4</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68" s="7">
         <v>-20</v>
       </c>
       <c r="H68">
         <v>299.93727799999999</v>
       </c>
-      <c r="I68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="8">
+      <c r="I68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="7">
         <v>68</v>
       </c>
-      <c r="B69" s="9">
+      <c r="B69" s="8">
         <v>871.04749340369449</v>
       </c>
-      <c r="C69" s="8">
-        <v>371.05882352941182</v>
+      <c r="C69" s="9">
+        <v>371.05415204384133</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
-      <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
+      <c r="E69" s="9">
+        <v>5.6130365933281263</v>
+      </c>
+      <c r="F69" s="7">
         <v>4</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69" s="7">
         <v>-20</v>
       </c>
       <c r="H69">
         <v>291.11581999999999</v>
       </c>
-      <c r="I69" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="8">
+      <c r="I69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="7">
         <v>69</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="8">
         <v>856.2018469656997</v>
       </c>
-      <c r="C70" s="8">
-        <v>371.05882352941182</v>
+      <c r="C70" s="9">
+        <v>371.05388610368516</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
-      <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
+      <c r="E70" s="9">
+        <v>5.8549663828433527</v>
+      </c>
+      <c r="F70" s="7">
         <v>4</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70" s="7">
         <v>-20</v>
       </c>
       <c r="H70">
         <v>282.17324600000001</v>
       </c>
-      <c r="I70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="8">
+      <c r="I70" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="7">
         <v>70</v>
       </c>
-      <c r="B71" s="9">
+      <c r="B71" s="8">
         <v>840.0065963060689</v>
       </c>
-      <c r="C71" s="8">
-        <v>369.23529411764713</v>
+      <c r="C71" s="9">
+        <v>369.23627363765888</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
-      <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
+      <c r="E71" s="9">
+        <v>5.6796060153216237</v>
+      </c>
+      <c r="F71" s="7">
         <v>4</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71" s="7">
         <v>-20</v>
       </c>
       <c r="H71">
         <v>273.11551600000001</v>
       </c>
-      <c r="I71" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="8">
+      <c r="I71" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="7">
         <v>71</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B72" s="8">
         <v>825.16094986807434</v>
       </c>
-      <c r="C72" s="8">
-        <v>371.05882352941182</v>
+      <c r="C72" s="9">
+        <v>371.05178678809489</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
-      <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
+      <c r="E72" s="9">
+        <v>5.5363273705678484</v>
+      </c>
+      <c r="F72" s="7">
         <v>4</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72" s="7">
         <v>-20</v>
       </c>
       <c r="H72">
         <v>263.949275</v>
       </c>
-      <c r="I72" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="8">
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="7">
         <v>72</v>
       </c>
-      <c r="B73" s="9">
+      <c r="B73" s="8">
         <v>808.96569920844365</v>
       </c>
-      <c r="C73" s="8">
-        <v>369.23529411764707</v>
+      <c r="C73" s="9">
+        <v>369.23373531419281</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
-      <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
+      <c r="E73" s="9">
+        <v>5.475213428436164</v>
+      </c>
+      <c r="F73" s="7">
         <v>4</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73" s="7">
         <v>-20</v>
       </c>
       <c r="H73">
         <v>254.68179599999999</v>
       </c>
-      <c r="I73" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="8">
+      <c r="I73" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="7">
         <v>73</v>
       </c>
-      <c r="B74" s="9">
+      <c r="B74" s="8">
         <v>794.12005277044886</v>
       </c>
-      <c r="C74" s="8">
-        <v>369.23529411764713</v>
+      <c r="C74" s="9">
+        <v>369.23270844614319</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
       </c>
-      <c r="E74" s="1">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
+      <c r="E74" s="9">
+        <v>5.5180620916790737</v>
+      </c>
+      <c r="F74" s="7">
         <v>4</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74" s="7">
         <v>-20</v>
       </c>
       <c r="H74">
         <v>245.320797</v>
       </c>
-      <c r="I74" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="8">
+      <c r="I74" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="7">
         <v>74</v>
       </c>
-      <c r="B75" s="9">
+      <c r="B75" s="8">
         <v>777.92480211081829</v>
       </c>
-      <c r="C75" s="8">
-        <v>371.05882352941182</v>
+      <c r="C75" s="9">
+        <v>371.05016058297019</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
-      <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
+      <c r="E75" s="9">
+        <v>5.3349980173594576</v>
+      </c>
+      <c r="F75" s="7">
         <v>4</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75" s="7">
         <v>-20</v>
       </c>
       <c r="H75">
         <v>235.87411599999999</v>
       </c>
-      <c r="I75" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="8">
+      <c r="I75" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="7">
         <v>75</v>
       </c>
-      <c r="B76" s="9">
+      <c r="B76" s="8">
         <v>763.07915567282362</v>
       </c>
-      <c r="C76" s="8">
-        <v>369.23529411764713</v>
+      <c r="C76" s="9">
+        <v>369.23260284807463</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
       </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
+      <c r="E76" s="9">
+        <v>5.4905714404893233</v>
+      </c>
+      <c r="F76" s="7">
         <v>4</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76" s="7">
         <v>-20</v>
       </c>
       <c r="H76">
         <v>226.349369</v>
       </c>
-      <c r="I76" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="8">
+      <c r="I76" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="7">
         <v>76</v>
       </c>
-      <c r="B77" s="9">
+      <c r="B77" s="8">
         <v>749.58311345646484</v>
       </c>
-      <c r="C77" s="8">
-        <v>371.05882352941177</v>
+      <c r="C77" s="9">
+        <v>371.04272885455032</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
       </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
+      <c r="E77" s="9">
+        <v>5.309448341199948</v>
+      </c>
+      <c r="F77" s="7">
         <v>4</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77" s="7">
         <v>-20</v>
       </c>
       <c r="H77">
         <v>216.75528600000001</v>
       </c>
-      <c r="I77" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A78" s="8">
+      <c r="I77" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A78" s="7">
         <v>77</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="8">
         <v>734.73746701847017</v>
       </c>
-      <c r="C78" s="8">
-        <v>369.23529411764707</v>
+      <c r="C78" s="9">
+        <v>369.22695800258055</v>
       </c>
       <c r="D78" s="1">
         <v>1</v>
       </c>
-      <c r="E78" s="1">
-        <v>0</v>
-      </c>
-      <c r="F78" s="8">
+      <c r="E78" s="9">
+        <v>5.2301206169022443</v>
+      </c>
+      <c r="F78" s="7">
         <v>4</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78" s="7">
         <v>-20</v>
       </c>
       <c r="H78">
         <v>207.10028700000001</v>
       </c>
-      <c r="I78" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="8">
+      <c r="I78" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A79" s="7">
         <v>78</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79" s="8">
         <v>717.19261213720347</v>
       </c>
-      <c r="C79" s="8">
-        <v>367.41176470588238</v>
+      <c r="C79" s="9">
+        <v>367.41017452641233</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
       </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
-      <c r="F79" s="8">
+      <c r="E79" s="9">
+        <v>5.3682306851111097</v>
+      </c>
+      <c r="F79" s="7">
         <v>4</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79" s="7">
         <v>-20</v>
       </c>
       <c r="H79">
         <v>197.39288099999999</v>
       </c>
-      <c r="I79" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A80" s="8">
+      <c r="I79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A80" s="7">
         <v>79</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B80" s="8">
         <v>702.34696569920879</v>
       </c>
-      <c r="C80" s="8">
-        <v>369.23529411764707</v>
+      <c r="C80" s="9">
+        <v>369.22738837214399</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
       </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
-      <c r="F80" s="8">
+      <c r="E80" s="9">
+        <v>5.1708676052962304</v>
+      </c>
+      <c r="F80" s="7">
         <v>4</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="7">
         <v>-20</v>
       </c>
       <c r="H80">
         <v>187.641516</v>
       </c>
-      <c r="I80" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="8">
+      <c r="I80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A81" s="7">
         <v>80</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="8">
         <v>688.85092348284979</v>
       </c>
-      <c r="C81" s="8">
-        <v>369.23529411764713</v>
+      <c r="C81" s="9">
+        <v>369.2232780448627</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
       </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="8">
+      <c r="E81" s="9">
+        <v>5.1301963838657718</v>
+      </c>
+      <c r="F81" s="7">
         <v>4</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81" s="7">
         <v>-20</v>
       </c>
       <c r="H81">
         <v>177.85565600000001</v>
       </c>
-      <c r="I81" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A82" s="8">
+      <c r="I81" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A82" s="7">
         <v>81</v>
       </c>
-      <c r="B82" s="9">
+      <c r="B82" s="8">
         <v>674.00527704485535</v>
       </c>
-      <c r="C82" s="8">
-        <v>367.41176470588243</v>
+      <c r="C82" s="9">
+        <v>367.4077794019712</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
       </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="8">
+      <c r="E82" s="9">
+        <v>5.2146467180145626</v>
+      </c>
+      <c r="F82" s="7">
         <v>4</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82" s="7">
         <v>-20</v>
       </c>
       <c r="H82">
         <v>168.04382200000001</v>
       </c>
-      <c r="I82" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A83" s="8">
+      <c r="I82" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A83" s="7">
         <v>82</v>
       </c>
-      <c r="B83" s="9">
+      <c r="B83" s="8">
         <v>656.46042216358876</v>
       </c>
-      <c r="C83" s="8">
-        <v>367.41176470588238</v>
+      <c r="C83" s="9">
+        <v>367.40674235112965</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
       </c>
-      <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="8">
+      <c r="E83" s="9">
+        <v>5.2340266715081496</v>
+      </c>
+      <c r="F83" s="7">
         <v>4</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="7">
         <v>-20</v>
       </c>
       <c r="H83">
         <v>158.21461400000001</v>
       </c>
-      <c r="I83" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A84" s="8">
+      <c r="I83" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A84" s="7">
         <v>83</v>
       </c>
-      <c r="B84" s="9">
+      <c r="B84" s="8">
         <v>642.96437994722987</v>
       </c>
-      <c r="C84" s="8">
-        <v>369.23529411764707</v>
+      <c r="C84" s="9">
+        <v>369.22194020482618</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
       </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="8">
+      <c r="E84" s="9">
+        <v>5.0129618654645727</v>
+      </c>
+      <c r="F84" s="7">
         <v>4</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84" s="7">
         <v>-20</v>
       </c>
       <c r="H84">
         <v>148.37740400000001</v>
       </c>
-      <c r="I84" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A85" s="8">
+      <c r="I84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A85" s="7">
         <v>84</v>
       </c>
-      <c r="B85" s="9">
+      <c r="B85" s="8">
         <v>628.1187335092352</v>
       </c>
-      <c r="C85" s="8">
-        <v>367.41176470588238</v>
+      <c r="C85" s="9">
+        <v>367.40478033651561</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
       </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="8">
+      <c r="E85" s="9">
+        <v>5.0549288776286962</v>
+      </c>
+      <c r="F85" s="7">
         <v>4</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85" s="7">
         <v>-20</v>
       </c>
       <c r="H85">
         <v>138.540685</v>
       </c>
-      <c r="I85" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A86" s="8">
+      <c r="I85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A86" s="7">
         <v>85</v>
       </c>
-      <c r="B86" s="9">
+      <c r="B86" s="8">
         <v>609.22427440633271</v>
       </c>
-      <c r="C86" s="8">
-        <v>365.58823529411768</v>
+      <c r="C86" s="9">
+        <v>365.58948435285913</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
       </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="8">
+      <c r="E86" s="9">
+        <v>5.6687383591670155</v>
+      </c>
+      <c r="F86" s="7">
         <v>4</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86" s="7">
         <v>-20</v>
       </c>
       <c r="H86">
         <v>128.71271400000001</v>
       </c>
-      <c r="I86" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A87" s="8">
+      <c r="I86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A87" s="7">
         <v>86</v>
       </c>
-      <c r="B87" s="9">
+      <c r="B87" s="8">
         <v>595.72823218997405</v>
       </c>
-      <c r="C87" s="8">
-        <v>367.41176470588238</v>
+      <c r="C87" s="9">
+        <v>367.40329313058305</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
       </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="8">
+      <c r="E87" s="9">
+        <v>4.9871832082213556</v>
+      </c>
+      <c r="F87" s="7">
         <v>4</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87" s="7">
         <v>-20</v>
       </c>
       <c r="H87">
         <v>118.902579</v>
       </c>
-      <c r="I87" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="8">
+      <c r="I87" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="7">
         <v>87</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="8">
         <v>582.23218997361505</v>
       </c>
-      <c r="C88" s="8">
-        <v>365.58823529411762</v>
+      <c r="C88" s="9">
+        <v>365.58623327378052</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
       </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="8">
+      <c r="E88" s="9">
+        <v>4.9872093427561754</v>
+      </c>
+      <c r="F88" s="7">
         <v>4</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88" s="7">
         <v>-20</v>
       </c>
       <c r="H88">
         <v>109.11838</v>
       </c>
-      <c r="I88" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="8">
+      <c r="I88" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="7">
         <v>88</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="8">
         <v>566.03693931398448</v>
       </c>
-      <c r="C89" s="8">
-        <v>365.58823529411762</v>
+      <c r="C89" s="9">
+        <v>365.58440591936085</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
       </c>
-      <c r="E89" s="1">
-        <v>0</v>
-      </c>
-      <c r="F89" s="8">
+      <c r="E89" s="9">
+        <v>4.9690535909390388</v>
+      </c>
+      <c r="F89" s="7">
         <v>4</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89" s="7">
         <v>-20</v>
       </c>
       <c r="H89">
         <v>99.367991000000004</v>
       </c>
-      <c r="I89" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="8">
+      <c r="I89" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A90" s="7">
         <v>89</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="8">
         <v>551.19129287598969</v>
       </c>
-      <c r="C90" s="8">
-        <v>365.58823529411762</v>
+      <c r="C90" s="9">
+        <v>365.58396758224353</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
       </c>
-      <c r="E90" s="1">
-        <v>0</v>
-      </c>
-      <c r="F90" s="8">
+      <c r="E90" s="9">
+        <v>4.5544159825435839</v>
+      </c>
+      <c r="F90" s="7">
         <v>4</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G90" s="7">
         <v>-20</v>
       </c>
       <c r="H90">
         <v>89.659206999999995</v>
       </c>
-      <c r="I90" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A91" s="8">
+      <c r="I90" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A91" s="7">
         <v>90</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="8">
         <v>537.69525065963103</v>
       </c>
-      <c r="C91" s="8">
-        <v>367.41176470588243</v>
+      <c r="C91" s="9">
+        <v>367.40020667366446</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
       </c>
-      <c r="E91" s="1">
-        <v>0</v>
-      </c>
-      <c r="F91" s="8">
+      <c r="E91" s="9">
+        <v>5.259484628119985</v>
+      </c>
+      <c r="F91" s="7">
         <v>4</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G91" s="7">
         <v>-20</v>
       </c>
       <c r="H91">
         <v>80.000005999999999</v>
       </c>
-      <c r="I91" s="8">
+      <c r="I91" s="7">
         <v>1</v>
       </c>
     </row>
@@ -3151,14 +3149,14 @@
       <c r="B92" s="2">
         <v>506.65435356200567</v>
       </c>
-      <c r="C92" s="1">
-        <v>367.41176470588238</v>
+      <c r="C92" s="9">
+        <v>367.40139110980897</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
       </c>
-      <c r="E92" s="1">
-        <v>0</v>
+      <c r="E92" s="9">
+        <v>4.841843713329034</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -3180,14 +3178,14 @@
       <c r="B93" s="2">
         <v>489.10949868073908</v>
       </c>
-      <c r="C93" s="1">
-        <v>363.76470588235298</v>
+      <c r="C93" s="9">
+        <v>363.76594273370461</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
       </c>
-      <c r="E93" s="1">
-        <v>0</v>
+      <c r="E93" s="9">
+        <v>4.9398785779138459</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -3209,14 +3207,14 @@
       <c r="B94" s="2">
         <v>476.96306068601609</v>
       </c>
-      <c r="C94" s="1">
-        <v>365.58823529411768</v>
+      <c r="C94" s="9">
+        <v>365.58236343472174</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
       </c>
-      <c r="E94" s="1">
-        <v>0</v>
+      <c r="E94" s="9">
+        <v>4.8403399296662686</v>
       </c>
       <c r="F94" s="1">
         <v>5</v>
@@ -3238,14 +3236,14 @@
       <c r="B95" s="2">
         <v>460.76781002638552</v>
       </c>
-      <c r="C95" s="1">
-        <v>367.41176470588243</v>
+      <c r="C95" s="9">
+        <v>367.40224590316336</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
       </c>
-      <c r="E95" s="1">
-        <v>0</v>
+      <c r="E95" s="9">
+        <v>5.6398803681206875</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3267,14 +3265,14 @@
       <c r="B96" s="2">
         <v>443.22295514511904</v>
       </c>
-      <c r="C96" s="1">
-        <v>365.58823529411774</v>
+      <c r="C96" s="9">
+        <v>365.5826097198036</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
       </c>
-      <c r="E96" s="1">
-        <v>0</v>
+      <c r="E96" s="9">
+        <v>5.2618242816127312</v>
       </c>
       <c r="F96" s="1">
         <v>5</v>
@@ -3296,14 +3294,14 @@
       <c r="B97" s="2">
         <v>431.07651715039606</v>
       </c>
-      <c r="C97" s="1">
-        <v>365.58823529411768</v>
+      <c r="C97" s="9">
+        <v>365.58093788747908</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
       </c>
-      <c r="E97" s="1">
-        <v>0</v>
+      <c r="E97" s="9">
+        <v>4.9861190708302026</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3325,14 +3323,14 @@
       <c r="B98" s="2">
         <v>414.88126649076537</v>
       </c>
-      <c r="C98" s="1">
-        <v>365.58823529411774</v>
+      <c r="C98" s="9">
+        <v>365.5792770093027</v>
       </c>
       <c r="D98" s="1">
         <v>1</v>
       </c>
-      <c r="E98" s="1">
-        <v>0</v>
+      <c r="E98" s="9">
+        <v>4.8824420348010511</v>
       </c>
       <c r="F98" s="1">
         <v>5</v>
@@ -3354,14 +3352,14 @@
       <c r="B99" s="2">
         <v>398.6860158311348</v>
       </c>
-      <c r="C99" s="1">
-        <v>363.76470588235298</v>
+      <c r="C99" s="9">
+        <v>363.76472844502257</v>
       </c>
       <c r="D99" s="1">
         <v>1</v>
       </c>
-      <c r="E99" s="1">
-        <v>0</v>
+      <c r="E99" s="9">
+        <v>5.2103151942116677</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3383,14 +3381,14 @@
       <c r="B100" s="2">
         <v>368.99472295514533</v>
       </c>
-      <c r="C100" s="1">
-        <v>367.41176470588238</v>
+      <c r="C100" s="9">
+        <v>367.3983490349101</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
-      <c r="E100" s="1">
-        <v>0</v>
+      <c r="E100" s="9">
+        <v>5.1321809606823754</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3412,14 +3410,14 @@
       <c r="B101" s="2">
         <v>352.79947229551476</v>
       </c>
-      <c r="C101" s="1">
-        <v>365.58823529411774</v>
+      <c r="C101" s="9">
+        <v>365.57841340564937</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
-      <c r="E101" s="1">
-        <v>0</v>
+      <c r="E101" s="9">
+        <v>4.9744376049580854</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3441,14 +3439,14 @@
       <c r="B102" s="2">
         <v>339.30343007915587</v>
       </c>
-      <c r="C102" s="1">
-        <v>365.58823529411768</v>
+      <c r="C102" s="9">
+        <v>365.57785889245918</v>
       </c>
       <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="E102" s="1">
-        <v>0</v>
+      <c r="E102" s="9">
+        <v>5.0601008230031788</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3470,14 +3468,14 @@
       <c r="B103" s="2">
         <v>323.1081794195253</v>
       </c>
-      <c r="C103" s="1">
-        <v>367.41176470588238</v>
+      <c r="C103" s="9">
+        <v>367.39231789135863</v>
       </c>
       <c r="D103" s="1">
         <v>1</v>
       </c>
-      <c r="E103" s="1">
-        <v>0</v>
+      <c r="E103" s="9">
+        <v>4.5227988950966287</v>
       </c>
       <c r="F103" s="1">
         <v>5</v>
@@ -3499,14 +3497,14 @@
       <c r="B104" s="2">
         <v>308.2625329815304</v>
       </c>
-      <c r="C104" s="1">
-        <v>365.58823529411768</v>
+      <c r="C104" s="9">
+        <v>365.57673812087808</v>
       </c>
       <c r="D104" s="1">
         <v>1</v>
       </c>
-      <c r="E104" s="1">
-        <v>0</v>
+      <c r="E104" s="9">
+        <v>5.1700891707414982</v>
       </c>
       <c r="F104" s="1">
         <v>5</v>
@@ -3528,14 +3526,14 @@
       <c r="B105" s="2">
         <v>292.06728232189994</v>
       </c>
-      <c r="C105" s="1">
-        <v>363.76470588235293</v>
+      <c r="C105" s="9">
+        <v>363.75948614872357</v>
       </c>
       <c r="D105" s="1">
         <v>1</v>
       </c>
-      <c r="E105" s="1">
-        <v>0</v>
+      <c r="E105" s="9">
+        <v>5.2453316589665508</v>
       </c>
       <c r="F105" s="1">
         <v>5</v>
@@ -3557,14 +3555,14 @@
       <c r="B106" s="2">
         <v>278.57124010554105</v>
       </c>
-      <c r="C106" s="1">
-        <v>363.76470588235298</v>
+      <c r="C106" s="9">
+        <v>363.7588659918805</v>
       </c>
       <c r="D106" s="1">
         <v>1</v>
       </c>
-      <c r="E106" s="1">
-        <v>0</v>
+      <c r="E106" s="9">
+        <v>5.1998829896178247</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3586,14 +3584,14 @@
       <c r="B107" s="2">
         <v>262.37598944591036</v>
       </c>
-      <c r="C107" s="1">
-        <v>361.94117647058829</v>
+      <c r="C107" s="9">
+        <v>361.93987459553398</v>
       </c>
       <c r="D107" s="1">
         <v>1</v>
       </c>
-      <c r="E107" s="1">
-        <v>0</v>
+      <c r="E107" s="9">
+        <v>4.852440035006957</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3615,14 +3613,14 @@
       <c r="B108" s="2">
         <v>246.18073878627976</v>
       </c>
-      <c r="C108" s="1">
-        <v>360.11764705882354</v>
+      <c r="C108" s="9">
+        <v>360.12166594511507</v>
       </c>
       <c r="D108" s="1">
         <v>1</v>
       </c>
-      <c r="E108" s="1">
-        <v>0</v>
+      <c r="E108" s="9">
+        <v>5.0418770611114763</v>
       </c>
       <c r="F108" s="1">
         <v>5</v>
@@ -3644,14 +3642,14 @@
       <c r="B109" s="2">
         <v>231.33509234828509</v>
       </c>
-      <c r="C109" s="1">
-        <v>363.76470588235298</v>
+      <c r="C109" s="9">
+        <v>363.75983239870004</v>
       </c>
       <c r="D109" s="1">
         <v>1</v>
       </c>
-      <c r="E109" s="1">
-        <v>0</v>
+      <c r="E109" s="9">
+        <v>5.2332657241841165</v>
       </c>
       <c r="F109" s="1">
         <v>5</v>
@@ -3673,14 +3671,14 @@
       <c r="B110" s="2">
         <v>216.48944591029044</v>
       </c>
-      <c r="C110" s="1">
-        <v>361.94117647058829</v>
+      <c r="C110" s="9">
+        <v>361.94178438087727</v>
       </c>
       <c r="D110" s="1">
         <v>1</v>
       </c>
-      <c r="E110" s="1">
-        <v>0</v>
+      <c r="E110" s="9">
+        <v>5.3182965598797187</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3702,14 +3700,14 @@
       <c r="B111" s="2">
         <v>184.09894459102907</v>
       </c>
-      <c r="C111" s="1">
-        <v>361.94117647058823</v>
+      <c r="C111" s="9">
+        <v>361.9415331593641</v>
       </c>
       <c r="D111" s="1">
         <v>1</v>
       </c>
-      <c r="E111" s="1">
-        <v>0</v>
+      <c r="E111" s="9">
+        <v>5.807930730603454</v>
       </c>
       <c r="F111" s="1">
         <v>5</v>
@@ -3731,14 +3729,14 @@
       <c r="B112" s="2">
         <v>170.60290237467041</v>
       </c>
-      <c r="C112" s="1">
-        <v>361.94117647058835</v>
+      <c r="C112" s="9">
+        <v>361.93997526177907</v>
       </c>
       <c r="D112" s="1">
         <v>1</v>
       </c>
-      <c r="E112" s="1">
-        <v>0</v>
+      <c r="E112" s="9">
+        <v>5.1825236064842537</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3760,14 +3758,14 @@
       <c r="B113" s="2">
         <v>153.05804749340371</v>
       </c>
-      <c r="C113" s="1">
-        <v>360.11764705882354</v>
+      <c r="C113" s="9">
+        <v>360.12387770573605</v>
       </c>
       <c r="D113" s="1">
         <v>1</v>
       </c>
-      <c r="E113" s="1">
-        <v>0</v>
+      <c r="E113" s="9">
+        <v>5.8859040578235993</v>
       </c>
       <c r="F113" s="1">
         <v>5</v>
@@ -3789,14 +3787,14 @@
       <c r="B114" s="2">
         <v>138.21240105540892</v>
       </c>
-      <c r="C114" s="1">
-        <v>361.94117647058835</v>
+      <c r="C114" s="9">
+        <v>361.93686273769492</v>
       </c>
       <c r="D114" s="1">
         <v>1</v>
       </c>
-      <c r="E114" s="1">
-        <v>0</v>
+      <c r="E114" s="9">
+        <v>5.1495823375013563</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -3818,14 +3816,14 @@
       <c r="B115" s="2">
         <v>123.36675461741424</v>
       </c>
-      <c r="C115" s="1">
-        <v>365.58823529411768</v>
+      <c r="C115" s="9">
+        <v>365.57297654146339</v>
       </c>
       <c r="D115" s="1">
         <v>1</v>
       </c>
-      <c r="E115" s="1">
-        <v>0</v>
+      <c r="E115" s="9">
+        <v>5.5000531090649227</v>
       </c>
       <c r="F115" s="1">
         <v>5</v>
@@ -3847,14 +3845,14 @@
       <c r="B116" s="2">
         <v>108.52110817941946</v>
       </c>
-      <c r="C116" s="1">
-        <v>363.76470588235298</v>
+      <c r="C116" s="9">
+        <v>363.75803496553783</v>
       </c>
       <c r="D116" s="1">
         <v>1</v>
       </c>
-      <c r="E116" s="1">
-        <v>0</v>
+      <c r="E116" s="9">
+        <v>5.6533462198931037</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3876,14 +3874,14 @@
       <c r="B117" s="2">
         <v>93.675461741424897</v>
       </c>
-      <c r="C117" s="1">
-        <v>361.94117647058829</v>
+      <c r="C117" s="9">
+        <v>361.94298885984392</v>
       </c>
       <c r="D117" s="1">
         <v>1</v>
       </c>
-      <c r="E117" s="1">
-        <v>0</v>
+      <c r="E117" s="9">
+        <v>5.6849071742262414</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3905,14 +3903,14 @@
       <c r="B118" s="2">
         <v>77.480211081794323</v>
       </c>
-      <c r="C118" s="1">
-        <v>363.76470588235293</v>
+      <c r="C118" s="9">
+        <v>363.76037477542195</v>
       </c>
       <c r="D118" s="1">
         <v>1</v>
       </c>
-      <c r="E118" s="1">
-        <v>0</v>
+      <c r="E118" s="9">
+        <v>5.7589793705646342</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3934,14 +3932,14 @@
       <c r="B119" s="2">
         <v>63.984168865435322</v>
       </c>
-      <c r="C119" s="1">
-        <v>363.76470588235298</v>
+      <c r="C119" s="9">
+        <v>363.75986432157845</v>
       </c>
       <c r="D119" s="1">
         <v>1</v>
       </c>
-      <c r="E119" s="1">
-        <v>0</v>
+      <c r="E119" s="9">
+        <v>5.6220556573730178</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3963,14 +3961,14 @@
       <c r="B120" s="2">
         <v>49.138522427440648</v>
       </c>
-      <c r="C120" s="1">
-        <v>365.58823529411774</v>
+      <c r="C120" s="9">
+        <v>365.5770942480159</v>
       </c>
       <c r="D120" s="1">
         <v>1</v>
       </c>
-      <c r="E120" s="1">
-        <v>0</v>
+      <c r="E120" s="9">
+        <v>5.4706787669299715</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3992,14 +3990,14 @@
       <c r="B121" s="2">
         <v>32.943271767810074</v>
       </c>
-      <c r="C121" s="1">
-        <v>361.94117647058823</v>
+      <c r="C121" s="9">
+        <v>361.94060915156695</v>
       </c>
       <c r="D121" s="1">
         <v>1</v>
       </c>
-      <c r="E121" s="1">
-        <v>0</v>
+      <c r="E121" s="9">
+        <v>5.3551671703472392</v>
       </c>
       <c r="F121" s="1">
         <v>5</v>
@@ -4014,891 +4012,891 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="8">
+    <row r="122" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="7">
         <v>121</v>
       </c>
-      <c r="B122" s="9">
+      <c r="B122" s="8">
         <v>976.31662269129322</v>
       </c>
-      <c r="C122" s="8">
-        <v>515.11764705882354</v>
+      <c r="C122" s="9">
+        <v>515.10480172481221</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
       </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-      <c r="F122" s="8">
+      <c r="E122" s="9">
+        <v>6.1445441215461294</v>
+      </c>
+      <c r="F122" s="7">
         <v>6</v>
       </c>
-      <c r="G122" s="8">
+      <c r="G122" s="7">
         <v>0</v>
       </c>
       <c r="H122">
         <v>350.000024</v>
       </c>
-      <c r="I122" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="8">
+      <c r="I122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="7">
         <v>122</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="8">
         <v>962.82058047493456</v>
       </c>
-      <c r="C123" s="8">
-        <v>511.47058823529414</v>
+      <c r="C123" s="9">
+        <v>511.46765276464544</v>
       </c>
       <c r="D123" s="1">
         <v>1</v>
       </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
-      <c r="F123" s="8">
+      <c r="E123" s="9">
+        <v>6.0744617923413182</v>
+      </c>
+      <c r="F123" s="7">
         <v>6</v>
       </c>
-      <c r="G123" s="8">
+      <c r="G123" s="7">
         <v>0</v>
       </c>
       <c r="H123">
         <v>342.02119699999997</v>
       </c>
-      <c r="I123" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="8">
+      <c r="I123" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="7">
         <v>123</v>
       </c>
-      <c r="B124" s="9">
+      <c r="B124" s="8">
         <v>946.62532981530387</v>
       </c>
-      <c r="C124" s="8">
-        <v>511.47058823529414</v>
+      <c r="C124" s="9">
+        <v>511.4669010778382</v>
       </c>
       <c r="D124" s="1">
         <v>1</v>
       </c>
-      <c r="E124" s="1">
-        <v>0</v>
-      </c>
-      <c r="F124" s="8">
+      <c r="E124" s="9">
+        <v>5.8475021019389732</v>
+      </c>
+      <c r="F124" s="7">
         <v>6</v>
       </c>
-      <c r="G124" s="8">
+      <c r="G124" s="7">
         <v>0</v>
       </c>
       <c r="H124">
         <v>333.89049799999998</v>
       </c>
-      <c r="I124" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="8">
+      <c r="I124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="7">
         <v>124</v>
       </c>
-      <c r="B125" s="9">
+      <c r="B125" s="8">
         <v>933.1292875989451</v>
       </c>
-      <c r="C125" s="8">
-        <v>511.4705882352942</v>
+      <c r="C125" s="9">
+        <v>511.46483277812126</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
-      <c r="E125" s="1">
-        <v>0</v>
-      </c>
-      <c r="F125" s="8">
+      <c r="E125" s="9">
+        <v>5.9062229073728894</v>
+      </c>
+      <c r="F125" s="7">
         <v>6</v>
       </c>
-      <c r="G125" s="8">
+      <c r="G125" s="7">
         <v>0</v>
       </c>
       <c r="H125">
         <v>325.61242600000003</v>
       </c>
-      <c r="I125" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="8">
+      <c r="I125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="7">
         <v>125</v>
       </c>
-      <c r="B126" s="9">
+      <c r="B126" s="8">
         <v>918.28364116095042</v>
       </c>
-      <c r="C126" s="8">
-        <v>511.4705882352942</v>
+      <c r="C126" s="9">
+        <v>511.46134288317205</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
       </c>
-      <c r="E126" s="1">
-        <v>0</v>
-      </c>
-      <c r="F126" s="8">
+      <c r="E126" s="9">
+        <v>5.7822011506912405</v>
+      </c>
+      <c r="F126" s="7">
         <v>6</v>
       </c>
-      <c r="G126" s="8">
+      <c r="G126" s="7">
         <v>0</v>
       </c>
       <c r="H126">
         <v>317.19049799999999</v>
       </c>
-      <c r="I126" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A127" s="8">
+      <c r="I126" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="7">
         <v>126</v>
       </c>
-      <c r="B127" s="9">
+      <c r="B127" s="8">
         <v>900.73878627968384</v>
       </c>
-      <c r="C127" s="8">
-        <v>511.47058823529414</v>
+      <c r="C127" s="9">
+        <v>511.46271658022931</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
       </c>
-      <c r="E127" s="1">
-        <v>0</v>
-      </c>
-      <c r="F127" s="8">
+      <c r="E127" s="9">
+        <v>5.9040918271876093</v>
+      </c>
+      <c r="F127" s="7">
         <v>6</v>
       </c>
-      <c r="G127" s="8">
+      <c r="G127" s="7">
         <v>0</v>
       </c>
       <c r="H127">
         <v>308.63055600000001</v>
       </c>
-      <c r="I127" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A128" s="8">
+      <c r="I127" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="7">
         <v>127</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="8">
         <v>885.89313984168916</v>
       </c>
-      <c r="C128" s="8">
-        <v>509.64705882352945</v>
+      <c r="C128" s="9">
+        <v>509.64424726973732</v>
       </c>
       <c r="D128" s="1">
         <v>1</v>
       </c>
-      <c r="E128" s="1">
-        <v>0</v>
-      </c>
-      <c r="F128" s="8">
+      <c r="E128" s="9">
+        <v>5.9692814195965465</v>
+      </c>
+      <c r="F128" s="7">
         <v>6</v>
       </c>
-      <c r="G128" s="8">
+      <c r="G128" s="7">
         <v>0</v>
       </c>
       <c r="H128">
         <v>299.93727799999999</v>
       </c>
-      <c r="I128" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A129" s="8">
+      <c r="I128" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A129" s="7">
         <v>128</v>
       </c>
-      <c r="B129" s="9">
+      <c r="B129" s="8">
         <v>873.74670184696618</v>
       </c>
-      <c r="C129" s="8">
-        <v>507.82352941176475</v>
+      <c r="C129" s="9">
+        <v>507.82251106330602</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
-      <c r="E129" s="1">
-        <v>0</v>
-      </c>
-      <c r="F129" s="8">
+      <c r="E129" s="9">
+        <v>6.0785929344791656</v>
+      </c>
+      <c r="F129" s="7">
         <v>6</v>
       </c>
-      <c r="G129" s="8">
+      <c r="G129" s="7">
         <v>0</v>
       </c>
       <c r="H129">
         <v>291.11581999999999</v>
       </c>
-      <c r="I129" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="8">
+      <c r="I129" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A130" s="7">
         <v>129</v>
       </c>
-      <c r="B130" s="9">
+      <c r="B130" s="8">
         <v>856.20184696569959</v>
       </c>
-      <c r="C130" s="8">
-        <v>509.64705882352945</v>
+      <c r="C130" s="9">
+        <v>509.64015676978067</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
-      <c r="E130" s="1">
-        <v>0</v>
-      </c>
-      <c r="F130" s="8">
+      <c r="E130" s="9">
+        <v>5.7763422872356429</v>
+      </c>
+      <c r="F130" s="7">
         <v>6</v>
       </c>
-      <c r="G130" s="8">
+      <c r="G130" s="7">
         <v>0</v>
       </c>
       <c r="H130">
         <v>282.17324600000001</v>
       </c>
-      <c r="I130" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A131" s="8">
+      <c r="I130" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A131" s="7">
         <v>130</v>
       </c>
-      <c r="B131" s="9">
+      <c r="B131" s="8">
         <v>841.35620052770491</v>
       </c>
-      <c r="C131" s="8">
-        <v>509.64705882352951</v>
+      <c r="C131" s="9">
+        <v>509.63980252673218</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
-      <c r="E131" s="1">
-        <v>0</v>
-      </c>
-      <c r="F131" s="8">
+      <c r="E131" s="9">
+        <v>5.8778744709153283</v>
+      </c>
+      <c r="F131" s="7">
         <v>6</v>
       </c>
-      <c r="G131" s="8">
+      <c r="G131" s="7">
         <v>0</v>
       </c>
       <c r="H131">
         <v>273.11551600000001</v>
       </c>
-      <c r="I131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A132" s="8">
+      <c r="I131" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A132" s="7">
         <v>131</v>
       </c>
-      <c r="B132" s="9">
+      <c r="B132" s="8">
         <v>825.16094986807434</v>
       </c>
-      <c r="C132" s="8">
-        <v>509.64705882352951</v>
+      <c r="C132" s="9">
+        <v>509.63927722258984</v>
       </c>
       <c r="D132" s="1">
         <v>1</v>
       </c>
-      <c r="E132" s="1">
-        <v>0</v>
-      </c>
-      <c r="F132" s="8">
+      <c r="E132" s="9">
+        <v>5.890021999984822</v>
+      </c>
+      <c r="F132" s="7">
         <v>6</v>
       </c>
-      <c r="G132" s="8">
+      <c r="G132" s="7">
         <v>0</v>
       </c>
       <c r="H132">
         <v>263.949275</v>
       </c>
-      <c r="I132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A133" s="8">
+      <c r="I132" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A133" s="7">
         <v>132</v>
       </c>
-      <c r="B133" s="9">
+      <c r="B133" s="8">
         <v>808.96569920844365</v>
       </c>
-      <c r="C133" s="8">
-        <v>509.64705882352945</v>
+      <c r="C133" s="9">
+        <v>509.63809188696098</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
       </c>
-      <c r="E133" s="1">
-        <v>0</v>
-      </c>
-      <c r="F133" s="8">
+      <c r="E133" s="9">
+        <v>5.8852139952195346</v>
+      </c>
+      <c r="F133" s="7">
         <v>6</v>
       </c>
-      <c r="G133" s="8">
+      <c r="G133" s="7">
         <v>0</v>
       </c>
       <c r="H133">
         <v>254.68179599999999</v>
       </c>
-      <c r="I133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A134" s="8">
+      <c r="I133" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A134" s="7">
         <v>133</v>
       </c>
-      <c r="B134" s="9">
+      <c r="B134" s="8">
         <v>794.12005277044909</v>
       </c>
-      <c r="C134" s="8">
-        <v>507.82352941176475</v>
+      <c r="C134" s="9">
+        <v>507.82044215047949</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
-      <c r="E134" s="1">
-        <v>0</v>
-      </c>
-      <c r="F134" s="8">
+      <c r="E134" s="9">
+        <v>5.8148516969506439</v>
+      </c>
+      <c r="F134" s="7">
         <v>6</v>
       </c>
-      <c r="G134" s="8">
+      <c r="G134" s="7">
         <v>0</v>
       </c>
       <c r="H134">
         <v>245.320797</v>
       </c>
-      <c r="I134" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A135" s="8">
+      <c r="I134" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A135" s="7">
         <v>134</v>
       </c>
-      <c r="B135" s="9">
+      <c r="B135" s="8">
         <v>779.27440633245419</v>
       </c>
-      <c r="C135" s="8">
-        <v>509.64705882352951</v>
+      <c r="C135" s="9">
+        <v>509.63534153553076</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
-      <c r="E135" s="1">
-        <v>0</v>
-      </c>
-      <c r="F135" s="8">
+      <c r="E135" s="9">
+        <v>5.7067577667764899</v>
+      </c>
+      <c r="F135" s="7">
         <v>6</v>
       </c>
-      <c r="G135" s="8">
+      <c r="G135" s="7">
         <v>0</v>
       </c>
       <c r="H135">
         <v>235.87411599999999</v>
       </c>
-      <c r="I135" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A136" s="8">
+      <c r="I135" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A136" s="7">
         <v>135</v>
       </c>
-      <c r="B136" s="9">
+      <c r="B136" s="8">
         <v>763.07915567282362</v>
       </c>
-      <c r="C136" s="8">
-        <v>507.82352941176475</v>
+      <c r="C136" s="9">
+        <v>507.81706577895432</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
-      <c r="E136" s="1">
-        <v>0</v>
-      </c>
-      <c r="F136" s="8">
+      <c r="E136" s="9">
+        <v>5.5812059232808009</v>
+      </c>
+      <c r="F136" s="7">
         <v>6</v>
       </c>
-      <c r="G136" s="8">
+      <c r="G136" s="7">
         <v>0</v>
       </c>
       <c r="H136">
         <v>226.349369</v>
       </c>
-      <c r="I136" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="8">
+      <c r="I136" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A137" s="7">
         <v>136</v>
       </c>
-      <c r="B137" s="9">
+      <c r="B137" s="8">
         <v>749.58311345646484</v>
       </c>
-      <c r="C137" s="8">
-        <v>506</v>
+      <c r="C137" s="9">
+        <v>505.99770154874057</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
       </c>
-      <c r="E137" s="1">
-        <v>0</v>
-      </c>
-      <c r="F137" s="8">
+      <c r="E137" s="9">
+        <v>5.4790088696307233</v>
+      </c>
+      <c r="F137" s="7">
         <v>6</v>
       </c>
-      <c r="G137" s="8">
+      <c r="G137" s="7">
         <v>0</v>
       </c>
       <c r="H137">
         <v>216.75528600000001</v>
       </c>
-      <c r="I137" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A138" s="8">
+      <c r="I137" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A138" s="7">
         <v>137</v>
       </c>
-      <c r="B138" s="9">
+      <c r="B138" s="8">
         <v>733.41171263171645</v>
       </c>
-      <c r="C138" s="8">
-        <v>507.43681762879498</v>
+      <c r="C138" s="9">
+        <v>507.42994470830195</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
       </c>
-      <c r="E138" s="1">
-        <v>0</v>
-      </c>
-      <c r="F138" s="8">
+      <c r="E138" s="9">
+        <v>5.8280229705181963</v>
+      </c>
+      <c r="F138" s="7">
         <v>6</v>
       </c>
-      <c r="G138" s="8">
+      <c r="G138" s="7">
         <v>0</v>
       </c>
       <c r="H138">
         <v>207.10028700000001</v>
       </c>
-      <c r="I138" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A139" s="8">
+      <c r="I138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A139" s="7">
         <v>138</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139" s="8">
         <v>719.91567041535768</v>
       </c>
-      <c r="C139" s="8">
-        <v>503.78975880526559</v>
+      <c r="C139" s="9">
+        <v>503.79391923631533</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
-      <c r="E139" s="1">
-        <v>0</v>
-      </c>
-      <c r="F139" s="8">
+      <c r="E139" s="9">
+        <v>5.7462403154205877</v>
+      </c>
+      <c r="F139" s="7">
         <v>6</v>
       </c>
-      <c r="G139" s="8">
+      <c r="G139" s="7">
         <v>0</v>
       </c>
       <c r="H139">
         <v>197.39288099999999</v>
       </c>
-      <c r="I139" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A140" s="8">
+      <c r="I139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A140" s="7">
         <v>139</v>
       </c>
-      <c r="B140" s="9">
+      <c r="B140" s="8">
         <v>705.07002397736301</v>
       </c>
-      <c r="C140" s="8">
-        <v>505.61328821703023</v>
+      <c r="C140" s="9">
+        <v>505.6092845986733</v>
       </c>
       <c r="D140" s="1">
         <v>1</v>
       </c>
-      <c r="E140" s="1">
-        <v>0</v>
-      </c>
-      <c r="F140" s="8">
+      <c r="E140" s="9">
+        <v>5.6900558209867134</v>
+      </c>
+      <c r="F140" s="7">
         <v>6</v>
       </c>
-      <c r="G140" s="8">
+      <c r="G140" s="7">
         <v>0</v>
       </c>
       <c r="H140">
         <v>187.641516</v>
       </c>
-      <c r="I140" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A141" s="8">
+      <c r="I140" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A141" s="7">
         <v>140</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B141" s="8">
         <v>688.87477331773243</v>
       </c>
-      <c r="C141" s="8">
-        <v>507.43681762879498</v>
+      <c r="C141" s="9">
+        <v>507.4259247048343</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
-      <c r="E141" s="1">
-        <v>0</v>
-      </c>
-      <c r="F141" s="8">
+      <c r="E141" s="9">
+        <v>5.4505521913121449</v>
+      </c>
+      <c r="F141" s="7">
         <v>6</v>
       </c>
-      <c r="G141" s="8">
+      <c r="G141" s="7">
         <v>0</v>
       </c>
       <c r="H141">
         <v>177.85565600000001</v>
       </c>
-      <c r="I141" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A142" s="8">
+      <c r="I141" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A142" s="7">
         <v>141</v>
       </c>
-      <c r="B142" s="9">
+      <c r="B142" s="8">
         <v>675.37873110137343</v>
       </c>
-      <c r="C142" s="8">
-        <v>505.61328821703023</v>
+      <c r="C142" s="9">
+        <v>505.6073889492186</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
       </c>
-      <c r="E142" s="1">
-        <v>0</v>
-      </c>
-      <c r="F142" s="8">
+      <c r="E142" s="9">
+        <v>5.4714257683079035</v>
+      </c>
+      <c r="F142" s="7">
         <v>6</v>
       </c>
-      <c r="G142" s="8">
+      <c r="G142" s="7">
         <v>0</v>
       </c>
       <c r="H142">
         <v>168.04382200000001</v>
       </c>
-      <c r="I142" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="8">
+      <c r="I142" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A143" s="7">
         <v>142</v>
       </c>
-      <c r="B143" s="9">
+      <c r="B143" s="8">
         <v>659.18348044174286</v>
       </c>
-      <c r="C143" s="8">
-        <v>505.61328821703023</v>
+      <c r="C143" s="9">
+        <v>505.60713743009535</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
       </c>
-      <c r="E143" s="1">
-        <v>0</v>
-      </c>
-      <c r="F143" s="8">
+      <c r="E143" s="9">
+        <v>5.5561214401047447</v>
+      </c>
+      <c r="F143" s="7">
         <v>6</v>
       </c>
-      <c r="G143" s="8">
+      <c r="G143" s="7">
         <v>0</v>
       </c>
       <c r="H143">
         <v>158.21461400000001</v>
       </c>
-      <c r="I143" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A144" s="8">
+      <c r="I143" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A144" s="7">
         <v>143</v>
       </c>
-      <c r="B144" s="9">
+      <c r="B144" s="8">
         <v>644.33783400374818</v>
       </c>
-      <c r="C144" s="8">
-        <v>503.78975880526559</v>
+      <c r="C144" s="9">
+        <v>503.78908724623773</v>
       </c>
       <c r="D144" s="1">
         <v>1</v>
       </c>
-      <c r="E144" s="1">
-        <v>0</v>
-      </c>
-      <c r="F144" s="8">
+      <c r="E144" s="9">
+        <v>5.5383593004783362</v>
+      </c>
+      <c r="F144" s="7">
         <v>6</v>
       </c>
-      <c r="G144" s="8">
+      <c r="G144" s="7">
         <v>0</v>
       </c>
       <c r="H144">
         <v>148.37740400000001</v>
       </c>
-      <c r="I144" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A145" s="8">
+      <c r="I144" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A145" s="7">
         <v>144</v>
       </c>
-      <c r="B145" s="9">
+      <c r="B145" s="8">
         <v>629.49218756575351</v>
       </c>
-      <c r="C145" s="8">
-        <v>503.78975880526559</v>
+      <c r="C145" s="9">
+        <v>503.78861184228151</v>
       </c>
       <c r="D145" s="1">
         <v>1</v>
       </c>
-      <c r="E145" s="1">
-        <v>0</v>
-      </c>
-      <c r="F145" s="8">
+      <c r="E145" s="9">
+        <v>5.3146106205185566</v>
+      </c>
+      <c r="F145" s="7">
         <v>6</v>
       </c>
-      <c r="G145" s="8">
+      <c r="G145" s="7">
         <v>0</v>
       </c>
       <c r="H145">
         <v>138.540685</v>
       </c>
-      <c r="I145" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A146" s="8">
+      <c r="I145" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="9">
+      <c r="B146" s="8">
         <v>597.10168624649214</v>
       </c>
-      <c r="C146" s="8">
-        <v>505.61328821703023</v>
+      <c r="C146" s="9">
+        <v>505.60432985684884</v>
       </c>
       <c r="D146" s="1">
         <v>1</v>
       </c>
-      <c r="E146" s="1">
-        <v>0</v>
-      </c>
-      <c r="F146" s="8">
+      <c r="E146" s="9">
+        <v>5.4819254653852463</v>
+      </c>
+      <c r="F146" s="7">
         <v>6</v>
       </c>
-      <c r="G146" s="8">
+      <c r="G146" s="7">
         <v>0</v>
       </c>
       <c r="H146">
         <v>128.71271400000001</v>
       </c>
-      <c r="I146" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A147" s="8">
+      <c r="I146" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="9">
+      <c r="B147" s="8">
         <v>579.55683136522566</v>
       </c>
-      <c r="C147" s="8">
-        <v>503.78975880526559</v>
+      <c r="C147" s="9">
+        <v>503.78677445327128</v>
       </c>
       <c r="D147" s="1">
         <v>1</v>
       </c>
-      <c r="E147" s="1">
-        <v>0</v>
-      </c>
-      <c r="F147" s="8">
+      <c r="E147" s="9">
+        <v>5.4811575786477267</v>
+      </c>
+      <c r="F147" s="7">
         <v>6</v>
       </c>
-      <c r="G147" s="8">
+      <c r="G147" s="7">
         <v>0</v>
       </c>
       <c r="H147">
         <v>118.902579</v>
       </c>
-      <c r="I147" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A148" s="8">
+      <c r="I147" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="9">
+      <c r="B148" s="8">
         <v>566.06078914886689</v>
       </c>
-      <c r="C148" s="8">
-        <v>503.78975880526559</v>
+      <c r="C148" s="9">
+        <v>503.78489596972361</v>
       </c>
       <c r="D148" s="1">
         <v>1</v>
       </c>
-      <c r="E148" s="1">
-        <v>0</v>
-      </c>
-      <c r="F148" s="8">
+      <c r="E148" s="9">
+        <v>5.3291813206343335</v>
+      </c>
+      <c r="F148" s="7">
         <v>6</v>
       </c>
-      <c r="G148" s="8">
+      <c r="G148" s="7">
         <v>0</v>
       </c>
       <c r="H148">
         <v>109.11838</v>
       </c>
-      <c r="I148" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A149" s="8">
+      <c r="I148" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="9">
+      <c r="B149" s="8">
         <v>552.564746932508</v>
       </c>
-      <c r="C149" s="8">
-        <v>503.78975880526559</v>
+      <c r="C149" s="9">
+        <v>503.78375951234875</v>
       </c>
       <c r="D149" s="1">
         <v>1</v>
       </c>
-      <c r="E149" s="1">
-        <v>0</v>
-      </c>
-      <c r="F149" s="8">
+      <c r="E149" s="9">
+        <v>5.3872203735684616</v>
+      </c>
+      <c r="F149" s="7">
         <v>6</v>
       </c>
-      <c r="G149" s="8">
+      <c r="G149" s="7">
         <v>0</v>
       </c>
       <c r="H149">
         <v>99.367991000000004</v>
       </c>
-      <c r="I149" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A150" s="8">
+      <c r="I149" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="9">
+      <c r="B150" s="8">
         <v>537.71910049451333</v>
       </c>
-      <c r="C150" s="8">
-        <v>503.78975880526559</v>
+      <c r="C150" s="9">
+        <v>503.7829278961176</v>
       </c>
       <c r="D150" s="1">
         <v>1</v>
       </c>
-      <c r="E150" s="1">
-        <v>0</v>
-      </c>
-      <c r="F150" s="8">
+      <c r="E150" s="9">
+        <v>5.2425747785742089</v>
+      </c>
+      <c r="F150" s="7">
         <v>6</v>
       </c>
-      <c r="G150" s="8">
+      <c r="G150" s="7">
         <v>0</v>
       </c>
       <c r="H150">
         <v>89.659206999999995</v>
       </c>
-      <c r="I150" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A151" s="8">
+      <c r="I150" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="9">
+      <c r="B151" s="8">
         <v>521.52384983488264</v>
       </c>
-      <c r="C151" s="8">
-        <v>501.96622939350084</v>
+      <c r="C151" s="9">
+        <v>501.96482859112973</v>
       </c>
       <c r="D151" s="1">
         <v>1</v>
       </c>
-      <c r="E151" s="1">
-        <v>0</v>
-      </c>
-      <c r="F151" s="8">
+      <c r="E151" s="9">
+        <v>5.1413708639784996</v>
+      </c>
+      <c r="F151" s="7">
         <v>6</v>
       </c>
-      <c r="G151" s="8">
+      <c r="G151" s="7">
         <v>0</v>
       </c>
       <c r="H151">
         <v>80.000005999999999</v>
       </c>
-      <c r="I151" s="8">
+      <c r="I151" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="7">
+      <c r="B152" s="6">
         <v>993.88532740744222</v>
       </c>
-      <c r="C152" s="6">
-        <v>649.67211174644194</v>
+      <c r="C152" s="9">
+        <v>649.67044848296143</v>
       </c>
       <c r="D152" s="1">
         <v>1</v>
       </c>
-      <c r="E152" s="1">
-        <v>0</v>
+      <c r="E152" s="9">
+        <v>5.8327627476879362</v>
       </c>
       <c r="F152" s="3">
         <v>7</v>
@@ -4914,20 +4912,20 @@
       </c>
     </row>
     <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="7">
+      <c r="B153" s="6">
         <v>979.03968096944755</v>
       </c>
-      <c r="C153" s="6">
-        <v>649.67211174644194</v>
+      <c r="C153" s="9">
+        <v>649.67028565427142</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
       </c>
-      <c r="E153" s="1">
-        <v>0</v>
+      <c r="E153" s="9">
+        <v>5.7919899526010559</v>
       </c>
       <c r="F153" s="3">
         <v>7</v>
@@ -4943,20 +4941,20 @@
       </c>
     </row>
     <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="7">
+      <c r="B154" s="6">
         <v>947.99878387182218</v>
       </c>
-      <c r="C154" s="6">
-        <v>651.49564115820681</v>
+      <c r="C154" s="9">
+        <v>651.48445055304649</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
       </c>
-      <c r="E154" s="1">
-        <v>0</v>
+      <c r="E154" s="9">
+        <v>5.9182770619013301</v>
       </c>
       <c r="F154" s="3">
         <v>7</v>
@@ -4972,20 +4970,20 @@
       </c>
     </row>
     <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="7">
+      <c r="B155" s="6">
         <v>931.80353321219161</v>
       </c>
-      <c r="C155" s="6">
-        <v>651.49564115820681</v>
+      <c r="C155" s="9">
+        <v>651.48991934678463</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
       </c>
-      <c r="E155" s="1">
-        <v>0</v>
+      <c r="E155" s="9">
+        <v>7.4327272048532844</v>
       </c>
       <c r="F155" s="3">
         <v>7</v>
@@ -5001,20 +4999,20 @@
       </c>
     </row>
     <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="7">
+      <c r="B156" s="6">
         <v>916.95788677419682</v>
       </c>
-      <c r="C156" s="6">
-        <v>649.67211174644194</v>
+      <c r="C156" s="9">
+        <v>649.66472348634795</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
       </c>
-      <c r="E156" s="1">
-        <v>0</v>
+      <c r="E156" s="9">
+        <v>5.9178623728870754</v>
       </c>
       <c r="F156" s="3">
         <v>7</v>
@@ -5030,20 +5028,20 @@
       </c>
     </row>
     <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="7">
+      <c r="B157" s="6">
         <v>903.46184455783805</v>
       </c>
-      <c r="C157" s="6">
-        <v>646.02505292291266</v>
+      <c r="C157" s="9">
+        <v>646.03098671670966</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
       </c>
-      <c r="E157" s="1">
-        <v>0</v>
+      <c r="E157" s="9">
+        <v>6.2076929932944083</v>
       </c>
       <c r="F157" s="3">
         <v>7</v>
@@ -5059,20 +5057,20 @@
       </c>
     </row>
     <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="7">
+      <c r="B158" s="6">
         <v>887.26659389820736</v>
       </c>
-      <c r="C158" s="6">
-        <v>647.8485823346773</v>
+      <c r="C158" s="9">
+        <v>647.84635528910837</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
       </c>
-      <c r="E158" s="1">
-        <v>0</v>
+      <c r="E158" s="9">
+        <v>5.8486026887289055</v>
       </c>
       <c r="F158" s="3">
         <v>7</v>
@@ -5088,20 +5086,20 @@
       </c>
     </row>
     <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <v>871.07134323857679</v>
       </c>
-      <c r="C159" s="6">
-        <v>646.02505292291266</v>
+      <c r="C159" s="9">
+        <v>646.02846505095874</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
       </c>
-      <c r="E159" s="1">
-        <v>0</v>
+      <c r="E159" s="9">
+        <v>5.9782212421251506</v>
       </c>
       <c r="F159" s="3">
         <v>7</v>
@@ -5117,20 +5115,20 @@
       </c>
     </row>
     <row r="160" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="7">
+      <c r="B160" s="6">
         <v>856.225696800582</v>
       </c>
-      <c r="C160" s="6">
-        <v>649.67211174644194</v>
+      <c r="C160" s="9">
+        <v>649.66129453791666</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
       </c>
-      <c r="E160" s="1">
-        <v>0</v>
+      <c r="E160" s="9">
+        <v>5.9928580459318104</v>
       </c>
       <c r="F160" s="3">
         <v>7</v>
@@ -5146,20 +5144,20 @@
       </c>
     </row>
     <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="7">
+      <c r="B161" s="6">
         <v>842.72965458422323</v>
       </c>
-      <c r="C161" s="6">
-        <v>647.8485823346773</v>
+      <c r="C161" s="9">
+        <v>647.83906875552282</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
       </c>
-      <c r="E161" s="1">
-        <v>0</v>
+      <c r="E161" s="9">
+        <v>6.2935168645417319</v>
       </c>
       <c r="F161" s="3">
         <v>7</v>
@@ -5175,20 +5173,20 @@
       </c>
     </row>
     <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="7">
+      <c r="B162" s="6">
         <v>825.18479970295675</v>
       </c>
-      <c r="C162" s="6">
-        <v>646.02505292291266</v>
+      <c r="C162" s="9">
+        <v>646.02267582378488</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
       </c>
-      <c r="E162" s="1">
-        <v>0</v>
+      <c r="E162" s="9">
+        <v>5.9682843504328602</v>
       </c>
       <c r="F162" s="3">
         <v>7</v>
@@ -5204,20 +5202,20 @@
       </c>
     </row>
     <row r="163" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="7">
+      <c r="B163" s="6">
         <v>811.68875748659786</v>
       </c>
-      <c r="C163" s="6">
-        <v>644.2015235111478</v>
+      <c r="C163" s="9">
+        <v>644.20327309949823</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
       </c>
-      <c r="E163" s="1">
-        <v>0</v>
+      <c r="E163" s="9">
+        <v>5.8272035396102488</v>
       </c>
       <c r="F163" s="3">
         <v>7</v>
@@ -5233,20 +5231,20 @@
       </c>
     </row>
     <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>795.49350682696718</v>
       </c>
-      <c r="C164" s="6">
-        <v>646.02505292291266</v>
+      <c r="C164" s="9">
+        <v>646.02217781633419</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
       </c>
-      <c r="E164" s="1">
-        <v>0</v>
+      <c r="E164" s="9">
+        <v>6.0301317861258044</v>
       </c>
       <c r="F164" s="3">
         <v>7</v>
@@ -5262,20 +5260,20 @@
       </c>
     </row>
     <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="7">
+      <c r="B165" s="6">
         <v>780.6478603889725</v>
       </c>
-      <c r="C165" s="6">
-        <v>644.2015235111478</v>
+      <c r="C165" s="9">
+        <v>644.20317942531562</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
       </c>
-      <c r="E165" s="1">
-        <v>0</v>
+      <c r="E165" s="9">
+        <v>6.3149343380011542</v>
       </c>
       <c r="F165" s="3">
         <v>7</v>
@@ -5291,20 +5289,20 @@
       </c>
     </row>
     <row r="166" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="7">
+      <c r="B166" s="6">
         <v>767.15181817261373</v>
       </c>
-      <c r="C166" s="6">
-        <v>646.02505292291266</v>
+      <c r="C166" s="9">
+        <v>646.01725859433316</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
       </c>
-      <c r="E166" s="1">
-        <v>0</v>
+      <c r="E166" s="9">
+        <v>6.3523123946644846</v>
       </c>
       <c r="F166" s="3">
         <v>7</v>
@@ -5320,20 +5318,20 @@
       </c>
     </row>
     <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="7">
+      <c r="B167" s="6">
         <v>750.95656751298304</v>
       </c>
-      <c r="C167" s="6">
-        <v>646.02505292291266</v>
+      <c r="C167" s="9">
+        <v>646.01639258389616</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
       </c>
-      <c r="E167" s="1">
-        <v>0</v>
+      <c r="E167" s="9">
+        <v>5.7319663663955165</v>
       </c>
       <c r="F167" s="3">
         <v>7</v>
@@ -5349,20 +5347,20 @@
       </c>
     </row>
     <row r="168" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="7">
+      <c r="B168" s="6">
         <v>736.11092107498825</v>
       </c>
-      <c r="C168" s="6">
-        <v>647.8485823346773</v>
+      <c r="C168" s="9">
+        <v>647.83297266286093</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
       </c>
-      <c r="E168" s="1">
-        <v>0</v>
+      <c r="E168" s="9">
+        <v>5.9877848189655181</v>
       </c>
       <c r="F168" s="3">
         <v>7</v>
@@ -5378,20 +5376,20 @@
       </c>
     </row>
     <row r="169" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="7">
+      <c r="B169" s="6">
         <v>706.41962819899891</v>
       </c>
-      <c r="C169" s="6">
-        <v>644.2015235111478</v>
+      <c r="C169" s="9">
+        <v>644.19485748009799</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
       </c>
-      <c r="E169" s="1">
-        <v>0</v>
+      <c r="E169" s="9">
+        <v>5.6698850377150789</v>
       </c>
       <c r="F169" s="3">
         <v>7</v>
@@ -5407,20 +5405,20 @@
       </c>
     </row>
     <row r="170" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="7">
+      <c r="B170" s="6">
         <v>687.52516909609653</v>
       </c>
-      <c r="C170" s="6">
-        <v>644.2015235111478</v>
+      <c r="C170" s="9">
+        <v>644.19519171356558</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
       </c>
-      <c r="E170" s="1">
-        <v>0</v>
+      <c r="E170" s="9">
+        <v>5.9592702097928916</v>
       </c>
       <c r="F170" s="3">
         <v>7</v>
@@ -5436,20 +5434,20 @@
       </c>
     </row>
     <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="7">
+      <c r="B171" s="6">
         <v>674.02912687973765</v>
       </c>
-      <c r="C171" s="6">
-        <v>644.2015235111478</v>
+      <c r="C171" s="9">
+        <v>644.19499121545925</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
       </c>
-      <c r="E171" s="1">
-        <v>0</v>
+      <c r="E171" s="9">
+        <v>5.9828394057774519</v>
       </c>
       <c r="F171" s="3">
         <v>7</v>
@@ -5465,20 +5463,20 @@
       </c>
     </row>
     <row r="172" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A172" s="6">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="7">
+      <c r="B172" s="6">
         <v>659.18348044174286</v>
       </c>
-      <c r="C172" s="6">
-        <v>646.02505292291266</v>
+      <c r="C172" s="9">
+        <v>646.00983830359871</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
       </c>
-      <c r="E172" s="1">
-        <v>0</v>
+      <c r="E172" s="9">
+        <v>6.0442070656448124</v>
       </c>
       <c r="F172" s="3">
         <v>7</v>
@@ -5494,20 +5492,20 @@
       </c>
     </row>
     <row r="173" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A173" s="6">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="7">
+      <c r="B173" s="6">
         <v>642.98822978211228</v>
       </c>
-      <c r="C173" s="6">
-        <v>644.2015235111478</v>
+      <c r="C173" s="9">
+        <v>644.19486152409252</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
       </c>
-      <c r="E173" s="1">
-        <v>0</v>
+      <c r="E173" s="9">
+        <v>6.4117320298056448</v>
       </c>
       <c r="F173" s="3">
         <v>7</v>
@@ -5523,20 +5521,20 @@
       </c>
     </row>
     <row r="174" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A174" s="6">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="7">
+      <c r="B174" s="6">
         <v>597.10168624649214</v>
       </c>
-      <c r="C174" s="6">
-        <v>646.02505292291266</v>
+      <c r="C174" s="9">
+        <v>646.00696942294041</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
       </c>
-      <c r="E174" s="1">
-        <v>0</v>
+      <c r="E174" s="9">
+        <v>5.727928904015136</v>
       </c>
       <c r="F174" s="3">
         <v>7</v>
@@ -5552,20 +5550,20 @@
       </c>
     </row>
     <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A175" s="6">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="7">
+      <c r="B175" s="6">
         <v>580.90643558686156</v>
       </c>
-      <c r="C175" s="6">
-        <v>640.55446468761852</v>
+      <c r="C175" s="9">
+        <v>640.55645740527268</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
       </c>
-      <c r="E175" s="1">
-        <v>0</v>
+      <c r="E175" s="9">
+        <v>6.2878815286865057</v>
       </c>
       <c r="F175" s="3">
         <v>7</v>
@@ -5581,20 +5579,20 @@
       </c>
     </row>
     <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A176" s="6">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="7">
+      <c r="B176" s="6">
         <v>567.41039337050279</v>
       </c>
-      <c r="C176" s="6">
-        <v>642.37799409938316</v>
+      <c r="C176" s="9">
+        <v>642.37222899387314</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
       </c>
-      <c r="E176" s="1">
-        <v>0</v>
+      <c r="E176" s="9">
+        <v>6.0145800962839102</v>
       </c>
       <c r="F176" s="3">
         <v>7</v>
@@ -5610,20 +5608,20 @@
       </c>
     </row>
     <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A177" s="6">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="7">
+      <c r="B177" s="6">
         <v>553.9143511541439</v>
       </c>
-      <c r="C177" s="6">
-        <v>642.37799409938316</v>
+      <c r="C177" s="9">
+        <v>642.37145577301555</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
       </c>
-      <c r="E177" s="1">
-        <v>0</v>
+      <c r="E177" s="9">
+        <v>6.1741329298651122</v>
       </c>
       <c r="F177" s="3">
         <v>7</v>
@@ -5639,20 +5637,20 @@
       </c>
     </row>
     <row r="178" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A178" s="6">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="7">
+      <c r="B178" s="6">
         <v>536.36949627287743</v>
       </c>
-      <c r="C178" s="6">
-        <v>640.55446468761852</v>
+      <c r="C178" s="9">
+        <v>640.55668558504715</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
       </c>
-      <c r="E178" s="1">
-        <v>0</v>
+      <c r="E178" s="9">
+        <v>6.3378805717461555</v>
       </c>
       <c r="F178" s="3">
         <v>7</v>
@@ -5668,20 +5666,20 @@
       </c>
     </row>
     <row r="179" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A179" s="6">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="7">
+      <c r="B179" s="6">
         <v>459.44205563963203</v>
       </c>
-      <c r="C179" s="6">
-        <v>640.55446468761852</v>
+      <c r="C179" s="9">
+        <v>640.55138854120821</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
       </c>
-      <c r="E179" s="1">
-        <v>0</v>
+      <c r="E179" s="9">
+        <v>5.9453626390042951</v>
       </c>
       <c r="F179" s="3">
         <v>7</v>
@@ -5697,20 +5695,20 @@
       </c>
     </row>
     <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A180" s="6">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="7">
+      <c r="B180" s="6">
         <v>447.29561764490904</v>
       </c>
-      <c r="C180" s="6">
-        <v>640.55446468761852</v>
+      <c r="C180" s="9">
+        <v>640.55044856164466</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
       </c>
-      <c r="E180" s="1">
-        <v>0</v>
+      <c r="E180" s="9">
+        <v>5.825656408561275</v>
       </c>
       <c r="F180" s="3">
         <v>7</v>
@@ -5726,20 +5724,20 @@
       </c>
     </row>
     <row r="181" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A181" s="6">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="7">
+      <c r="B181" s="6">
         <v>431.10036698527836</v>
       </c>
-      <c r="C181" s="6">
-        <v>638.73093527585388</v>
+      <c r="C181" s="9">
+        <v>638.73667887959607</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
       </c>
-      <c r="E181" s="1">
-        <v>0</v>
+      <c r="E181" s="9">
+        <v>6.2689942543172581</v>
       </c>
       <c r="F181" s="3">
         <v>7</v>
@@ -5754,873 +5752,873 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A182" s="8">
+    <row r="182" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="9">
+      <c r="B182" s="8">
         <v>979.03968096944755</v>
       </c>
-      <c r="C182" s="8">
-        <v>790.08387645232438</v>
+      <c r="C182" s="9">
+        <v>790.07518198956711</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
       </c>
-      <c r="E182" s="1">
-        <v>0</v>
-      </c>
-      <c r="F182" s="8">
+      <c r="E182" s="9">
+        <v>5.8682840675046721</v>
+      </c>
+      <c r="F182" s="7">
         <v>8</v>
       </c>
-      <c r="G182" s="8">
+      <c r="G182" s="7">
         <v>20</v>
       </c>
       <c r="H182">
         <v>350.000024</v>
       </c>
-      <c r="I182" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A183" s="8">
+      <c r="I182" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B183" s="8">
         <v>947.99548976560129</v>
       </c>
-      <c r="C183" s="8">
-        <v>786.99317172095891</v>
+      <c r="C183" s="9">
+        <v>786.99422281605973</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
       </c>
-      <c r="E183" s="1">
-        <v>0</v>
-      </c>
-      <c r="F183" s="8">
+      <c r="E183" s="9">
+        <v>6.6417848047731356</v>
+      </c>
+      <c r="F183" s="7">
         <v>8</v>
       </c>
-      <c r="G183" s="8">
+      <c r="G183" s="7">
         <v>20</v>
       </c>
       <c r="H183">
         <v>342.02119699999997</v>
       </c>
-      <c r="I183" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A184" s="8">
+      <c r="I183" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="9">
+      <c r="B184" s="8">
         <v>934.49944754924252</v>
       </c>
-      <c r="C184" s="8">
-        <v>788.79740452519161</v>
+      <c r="C184" s="9">
+        <v>788.78601516818742</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
       </c>
-      <c r="E184" s="1">
-        <v>0</v>
-      </c>
-      <c r="F184" s="8">
+      <c r="E184" s="9">
+        <v>5.8959589685960028</v>
+      </c>
+      <c r="F184" s="7">
         <v>8</v>
       </c>
-      <c r="G184" s="8">
+      <c r="G184" s="7">
         <v>20</v>
       </c>
       <c r="H184">
         <v>333.89049799999998</v>
       </c>
-      <c r="I184" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A185" s="8">
+      <c r="I184" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="9">
+      <c r="B185" s="8">
         <v>918.30419688961194</v>
       </c>
-      <c r="C185" s="8">
-        <v>785.18893891672622</v>
+      <c r="C185" s="9">
+        <v>785.19084572402346</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
       </c>
-      <c r="E185" s="1">
-        <v>0</v>
-      </c>
-      <c r="F185" s="8">
+      <c r="E185" s="9">
+        <v>6.0692026394203475</v>
+      </c>
+      <c r="F185" s="7">
         <v>8</v>
       </c>
-      <c r="G185" s="8">
+      <c r="G185" s="7">
         <v>20</v>
       </c>
       <c r="H185">
         <v>325.61242600000003</v>
       </c>
-      <c r="I185" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A186" s="8">
+      <c r="I185" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="9">
+      <c r="B186" s="8">
         <v>903.45855045161716</v>
       </c>
-      <c r="C186" s="8">
-        <v>786.99317172095891</v>
+      <c r="C186" s="9">
+        <v>786.98735015781847</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
       </c>
-      <c r="E186" s="1">
-        <v>0</v>
-      </c>
-      <c r="F186" s="8">
+      <c r="E186" s="9">
+        <v>6.3211556052751661</v>
+      </c>
+      <c r="F186" s="7">
         <v>8</v>
       </c>
-      <c r="G186" s="8">
+      <c r="G186" s="7">
         <v>20</v>
       </c>
       <c r="H186">
         <v>317.19049799999999</v>
       </c>
-      <c r="I186" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A187" s="8">
+      <c r="I186" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A187" s="7">
         <v>186</v>
       </c>
-      <c r="B187" s="9">
+      <c r="B187" s="8">
         <v>889.96250823525827</v>
       </c>
-      <c r="C187" s="8">
-        <v>788.79740452519161</v>
+      <c r="C187" s="9">
+        <v>788.7808667782482</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
       </c>
-      <c r="E187" s="1">
-        <v>0</v>
-      </c>
-      <c r="F187" s="8">
+      <c r="E187" s="9">
+        <v>6.2131468929833433</v>
+      </c>
+      <c r="F187" s="7">
         <v>8</v>
       </c>
-      <c r="G187" s="8">
+      <c r="G187" s="7">
         <v>20</v>
       </c>
       <c r="H187">
         <v>308.63055600000001</v>
       </c>
-      <c r="I187" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A188" s="8">
+      <c r="I187" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A188" s="7">
         <v>187</v>
       </c>
-      <c r="B188" s="9">
+      <c r="B188" s="8">
         <v>857.57200691599712</v>
       </c>
-      <c r="C188" s="8">
-        <v>785.18893891672622</v>
+      <c r="C188" s="9">
+        <v>785.18468029105463</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
       </c>
-      <c r="E188" s="1">
-        <v>0</v>
-      </c>
-      <c r="F188" s="8">
+      <c r="E188" s="9">
+        <v>5.9610703800337195</v>
+      </c>
+      <c r="F188" s="7">
         <v>8</v>
       </c>
-      <c r="G188" s="8">
+      <c r="G188" s="7">
         <v>20</v>
       </c>
       <c r="H188">
         <v>299.93727799999999</v>
       </c>
-      <c r="I188" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A189" s="8">
+      <c r="I188" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A189" s="7">
         <v>188</v>
       </c>
-      <c r="B189" s="9">
+      <c r="B189" s="8">
         <v>842.72689465738972</v>
       </c>
-      <c r="C189" s="8">
-        <v>783.38470611249363</v>
+      <c r="C189" s="9">
+        <v>783.3857390957595</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
       </c>
-      <c r="E189" s="1">
-        <v>0</v>
-      </c>
-      <c r="F189" s="8">
+      <c r="E189" s="9">
+        <v>6.3046450914251464</v>
+      </c>
+      <c r="F189" s="7">
         <v>8</v>
       </c>
-      <c r="G189" s="8">
+      <c r="G189" s="7">
         <v>20</v>
       </c>
       <c r="H189">
         <v>291.11581999999999</v>
       </c>
-      <c r="I189" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A190" s="8">
+      <c r="I189" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A190" s="7">
         <v>189</v>
       </c>
-      <c r="B190" s="9">
+      <c r="B190" s="8">
         <v>827.88124821939493</v>
       </c>
-      <c r="C190" s="8">
-        <v>786.99317172095925</v>
+      <c r="C190" s="9">
+        <v>786.97967831607491</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
       </c>
-      <c r="E190" s="1">
-        <v>0</v>
-      </c>
-      <c r="F190" s="8">
+      <c r="E190" s="9">
+        <v>6.0759251828698835</v>
+      </c>
+      <c r="F190" s="7">
         <v>8</v>
       </c>
-      <c r="G190" s="8">
+      <c r="G190" s="7">
         <v>20</v>
       </c>
       <c r="H190">
         <v>282.17324600000001</v>
       </c>
-      <c r="I190" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A191" s="8">
+      <c r="I190" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A191" s="7">
         <v>190</v>
       </c>
-      <c r="B191" s="9">
+      <c r="B191" s="8">
         <v>811.68599755976436</v>
       </c>
-      <c r="C191" s="8">
-        <v>785.18893891672656</v>
+      <c r="C191" s="9">
+        <v>785.17936759990278</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
       </c>
-      <c r="E191" s="1">
-        <v>0</v>
-      </c>
-      <c r="F191" s="8">
+      <c r="E191" s="9">
+        <v>6.3053439014213639</v>
+      </c>
+      <c r="F191" s="7">
         <v>8</v>
       </c>
-      <c r="G191" s="8">
+      <c r="G191" s="7">
         <v>20</v>
       </c>
       <c r="H191">
         <v>273.11551600000001</v>
       </c>
-      <c r="I191" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A192" s="8">
+      <c r="I191" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A192" s="7">
         <v>191</v>
       </c>
-      <c r="B192" s="9">
+      <c r="B192" s="8">
         <v>795.49074690013367</v>
       </c>
-      <c r="C192" s="8">
-        <v>783.38470611249363</v>
+      <c r="C192" s="9">
+        <v>783.38368029881019</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
       </c>
-      <c r="E192" s="1">
-        <v>0</v>
-      </c>
-      <c r="F192" s="8">
+      <c r="E192" s="9">
+        <v>5.8594331036838163</v>
+      </c>
+      <c r="F192" s="7">
         <v>8</v>
       </c>
-      <c r="G192" s="8">
+      <c r="G192" s="7">
         <v>20</v>
       </c>
       <c r="H192">
         <v>263.949275</v>
       </c>
-      <c r="I192" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A193" s="8">
+      <c r="I192" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A193" s="7">
         <v>192</v>
       </c>
-      <c r="B193" s="9">
+      <c r="B193" s="8">
         <v>768.49866246741612</v>
       </c>
-      <c r="C193" s="8">
-        <v>781.58047330826093</v>
+      <c r="C193" s="9">
+        <v>781.57937383392243</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
       </c>
-      <c r="E193" s="1">
-        <v>0</v>
-      </c>
-      <c r="F193" s="8">
+      <c r="E193" s="9">
+        <v>5.7789053884956489</v>
+      </c>
+      <c r="F193" s="7">
         <v>8</v>
       </c>
-      <c r="G193" s="8">
+      <c r="G193" s="7">
         <v>20</v>
       </c>
       <c r="H193">
         <v>254.68179599999999</v>
       </c>
-      <c r="I193" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A194" s="8">
+      <c r="I193" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A194" s="7">
         <v>193</v>
       </c>
-      <c r="B194" s="9">
+      <c r="B194" s="8">
         <v>750.95380758614954</v>
       </c>
-      <c r="C194" s="8">
-        <v>785.18893891672656</v>
+      <c r="C194" s="9">
+        <v>785.17638039829797</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
       </c>
-      <c r="E194" s="1">
-        <v>0</v>
-      </c>
-      <c r="F194" s="8">
+      <c r="E194" s="9">
+        <v>6.3732372921166123</v>
+      </c>
+      <c r="F194" s="7">
         <v>8</v>
       </c>
-      <c r="G194" s="8">
+      <c r="G194" s="7">
         <v>20</v>
       </c>
       <c r="H194">
         <v>245.320797</v>
       </c>
-      <c r="I194" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A195" s="8">
+      <c r="I194" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A195" s="7">
         <v>194</v>
       </c>
-      <c r="B195" s="9">
+      <c r="B195" s="8">
         <v>736.10816114815486</v>
       </c>
-      <c r="C195" s="8">
-        <v>781.58047330826093</v>
+      <c r="C195" s="9">
+        <v>781.57881002329111</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
       </c>
-      <c r="E195" s="1">
-        <v>0</v>
-      </c>
-      <c r="F195" s="8">
+      <c r="E195" s="9">
+        <v>6.0567741243947166</v>
+      </c>
+      <c r="F195" s="7">
         <v>8</v>
       </c>
-      <c r="G195" s="8">
+      <c r="G195" s="7">
         <v>20</v>
       </c>
       <c r="H195">
         <v>235.87411599999999</v>
       </c>
-      <c r="I195" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A196" s="8">
+      <c r="I195" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A196" s="7">
         <v>195</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B196" s="8">
         <v>721.26251471016008</v>
       </c>
-      <c r="C196" s="8">
-        <v>781.58047330826093</v>
+      <c r="C196" s="9">
+        <v>781.57706983367291</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
       </c>
-      <c r="E196" s="1">
-        <v>0</v>
-      </c>
-      <c r="F196" s="8">
+      <c r="E196" s="9">
+        <v>5.660877159125925</v>
+      </c>
+      <c r="F196" s="7">
         <v>8</v>
       </c>
-      <c r="G196" s="8">
+      <c r="G196" s="7">
         <v>20</v>
       </c>
       <c r="H196">
         <v>226.349369</v>
       </c>
-      <c r="I196" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A197" s="8">
+      <c r="I196" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A197" s="7">
         <v>196</v>
       </c>
-      <c r="B197" s="9">
+      <c r="B197" s="8">
         <v>688.87201339089893</v>
       </c>
-      <c r="C197" s="8">
-        <v>781.58047330826093</v>
+      <c r="C197" s="9">
+        <v>781.57618354788872</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
       </c>
-      <c r="E197" s="1">
-        <v>0</v>
-      </c>
-      <c r="F197" s="8">
+      <c r="E197" s="9">
+        <v>6.4368731159559216</v>
+      </c>
+      <c r="F197" s="7">
         <v>8</v>
       </c>
-      <c r="G197" s="8">
+      <c r="G197" s="7">
         <v>20</v>
       </c>
       <c r="H197">
         <v>216.75528600000001</v>
       </c>
-      <c r="I197" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A198" s="8">
+      <c r="I197" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A198" s="7">
         <v>197</v>
       </c>
-      <c r="B198" s="9">
+      <c r="B198" s="8">
         <v>674.02636695290414</v>
       </c>
-      <c r="C198" s="8">
-        <v>785.18893891672656</v>
+      <c r="C198" s="9">
+        <v>785.16880195006922</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
       </c>
-      <c r="E198" s="1">
-        <v>0</v>
-      </c>
-      <c r="F198" s="8">
+      <c r="E198" s="9">
+        <v>6.5677424235309703</v>
+      </c>
+      <c r="F198" s="7">
         <v>8</v>
       </c>
-      <c r="G198" s="8">
+      <c r="G198" s="7">
         <v>20</v>
       </c>
       <c r="H198">
         <v>207.10028700000001</v>
       </c>
-      <c r="I198" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A199" s="8">
+      <c r="I198" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A199" s="7">
         <v>198</v>
       </c>
-      <c r="B199" s="9">
+      <c r="B199" s="8">
         <v>659.18072051490935</v>
       </c>
-      <c r="C199" s="8">
-        <v>781.58047330826093</v>
+      <c r="C199" s="9">
+        <v>781.57285837837242</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
       </c>
-      <c r="E199" s="1">
-        <v>0</v>
-      </c>
-      <c r="F199" s="8">
+      <c r="E199" s="9">
+        <v>6.1686938441393453</v>
+      </c>
+      <c r="F199" s="7">
         <v>8</v>
       </c>
-      <c r="G199" s="8">
+      <c r="G199" s="7">
         <v>20</v>
       </c>
       <c r="H199">
         <v>197.39288099999999</v>
       </c>
-      <c r="I199" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A200" s="8">
+      <c r="I199" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A200" s="7">
         <v>199</v>
       </c>
-      <c r="B200" s="9">
+      <c r="B200" s="8">
         <v>644.33507407691468</v>
       </c>
-      <c r="C200" s="8">
-        <v>779.77624050402801</v>
+      <c r="C200" s="9">
+        <v>779.77398162530005</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
       </c>
-      <c r="E200" s="1">
-        <v>0</v>
-      </c>
-      <c r="F200" s="8">
+      <c r="E200" s="9">
+        <v>5.8843566356625052</v>
+      </c>
+      <c r="F200" s="7">
         <v>8</v>
       </c>
-      <c r="G200" s="8">
+      <c r="G200" s="7">
         <v>20</v>
       </c>
       <c r="H200">
         <v>187.641516</v>
       </c>
-      <c r="I200" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A201" s="8">
+      <c r="I200" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A201" s="7">
         <v>200</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B201" s="8">
         <v>629.48942763892001</v>
       </c>
-      <c r="C201" s="8">
-        <v>781.58047330826093</v>
+      <c r="C201" s="9">
+        <v>781.56918911626133</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
       </c>
-      <c r="E201" s="1">
-        <v>0</v>
-      </c>
-      <c r="F201" s="8">
+      <c r="E201" s="9">
+        <v>5.8495402488702402</v>
+      </c>
+      <c r="F201" s="7">
         <v>8</v>
       </c>
-      <c r="G201" s="8">
+      <c r="G201" s="7">
         <v>20</v>
       </c>
       <c r="H201">
         <v>177.85565600000001</v>
       </c>
-      <c r="I201" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A202" s="8">
+      <c r="I201" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A202" s="7">
         <v>201</v>
       </c>
-      <c r="B202" s="9">
+      <c r="B202" s="8">
         <v>611.94457275765353</v>
       </c>
-      <c r="C202" s="8">
-        <v>779.77624050402801</v>
+      <c r="C202" s="9">
+        <v>779.77262383960954</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
       </c>
-      <c r="E202" s="1">
-        <v>0</v>
-      </c>
-      <c r="F202" s="8">
+      <c r="E202" s="9">
+        <v>5.8793542086988788</v>
+      </c>
+      <c r="F202" s="7">
         <v>8</v>
       </c>
-      <c r="G202" s="8">
+      <c r="G202" s="7">
         <v>20</v>
       </c>
       <c r="H202">
         <v>168.04382200000001</v>
       </c>
-      <c r="I202" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A203" s="8">
+      <c r="I202" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A203" s="7">
         <v>202</v>
       </c>
-      <c r="B203" s="9">
+      <c r="B203" s="8">
         <v>598.44853054129464</v>
       </c>
-      <c r="C203" s="8">
-        <v>779.77624050402801</v>
+      <c r="C203" s="9">
+        <v>779.77288190632942</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
       </c>
-      <c r="E203" s="1">
-        <v>0</v>
-      </c>
-      <c r="F203" s="8">
+      <c r="E203" s="9">
+        <v>6.2567037358911541</v>
+      </c>
+      <c r="F203" s="7">
         <v>8</v>
       </c>
-      <c r="G203" s="8">
+      <c r="G203" s="7">
         <v>20</v>
       </c>
       <c r="H203">
         <v>158.21461400000001</v>
       </c>
-      <c r="I203" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A204" s="8">
+      <c r="I203" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A204" s="7">
         <v>203</v>
       </c>
-      <c r="B204" s="9">
+      <c r="B204" s="8">
         <v>583.60288410329986</v>
       </c>
-      <c r="C204" s="8">
-        <v>777.97200769979531</v>
+      <c r="C204" s="9">
+        <v>777.97357335873528</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
       </c>
-      <c r="E204" s="1">
-        <v>0</v>
-      </c>
-      <c r="F204" s="8">
+      <c r="E204" s="9">
+        <v>6.1174479265186212</v>
+      </c>
+      <c r="F204" s="7">
         <v>8</v>
       </c>
-      <c r="G204" s="8">
+      <c r="G204" s="7">
         <v>20</v>
       </c>
       <c r="H204">
         <v>148.37740400000001</v>
       </c>
-      <c r="I204" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A205" s="8">
+      <c r="I204" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A205" s="7">
         <v>204</v>
       </c>
-      <c r="B205" s="9">
+      <c r="B205" s="8">
         <v>567.40763344366928</v>
       </c>
-      <c r="C205" s="8">
-        <v>779.77624050402801</v>
+      <c r="C205" s="9">
+        <v>779.77157231077024</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
       </c>
-      <c r="E205" s="1">
-        <v>0</v>
-      </c>
-      <c r="F205" s="8">
+      <c r="E205" s="9">
+        <v>6.1186922564846791</v>
+      </c>
+      <c r="F205" s="7">
         <v>8</v>
       </c>
-      <c r="G205" s="8">
+      <c r="G205" s="7">
         <v>20</v>
       </c>
       <c r="H205">
         <v>138.540685</v>
       </c>
-      <c r="I205" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A206" s="8">
+      <c r="I205" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A206" s="7">
         <v>205</v>
       </c>
-      <c r="B206" s="9">
+      <c r="B206" s="8">
         <v>552.56198700567461</v>
       </c>
-      <c r="C206" s="8">
-        <v>779.77624050402801</v>
+      <c r="C206" s="9">
+        <v>779.77064004742158</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
       </c>
-      <c r="E206" s="1">
-        <v>0</v>
-      </c>
-      <c r="F206" s="8">
+      <c r="E206" s="9">
+        <v>6.1174553905991162</v>
+      </c>
+      <c r="F206" s="7">
         <v>8</v>
       </c>
-      <c r="G206" s="8">
+      <c r="G206" s="7">
         <v>20</v>
       </c>
       <c r="H206">
         <v>128.71271400000001</v>
       </c>
-      <c r="I206" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A207" s="8">
+      <c r="I206" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A207" s="7">
         <v>206</v>
       </c>
-      <c r="B207" s="9">
+      <c r="B207" s="8">
         <v>506.67544347005446</v>
       </c>
-      <c r="C207" s="8">
-        <v>779.77624050402801</v>
+      <c r="C207" s="9">
+        <v>779.76719501208606</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
       </c>
-      <c r="E207" s="1">
-        <v>0</v>
-      </c>
-      <c r="F207" s="8">
+      <c r="E207" s="9">
+        <v>5.6759386317215128</v>
+      </c>
+      <c r="F207" s="7">
         <v>8</v>
       </c>
-      <c r="G207" s="8">
+      <c r="G207" s="7">
         <v>20</v>
       </c>
       <c r="H207">
         <v>118.902579</v>
       </c>
-      <c r="I207" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A208" s="8">
+      <c r="I207" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A208" s="7">
         <v>207</v>
       </c>
-      <c r="B208" s="9">
+      <c r="B208" s="8">
         <v>460.78889993443443</v>
       </c>
-      <c r="C208" s="8">
-        <v>777.97200769979531</v>
+      <c r="C208" s="9">
+        <v>777.96798065164433</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
       </c>
-      <c r="E208" s="1">
-        <v>0</v>
-      </c>
-      <c r="F208" s="8">
+      <c r="E208" s="9">
+        <v>5.6063389052922403</v>
+      </c>
+      <c r="F208" s="7">
         <v>8</v>
       </c>
-      <c r="G208" s="8">
+      <c r="G208" s="7">
         <v>20</v>
       </c>
       <c r="H208">
         <v>109.11838</v>
       </c>
-      <c r="I208" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A209" s="8">
+      <c r="I208" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A209" s="7">
         <v>208</v>
       </c>
-      <c r="B209" s="9">
+      <c r="B209" s="8">
         <v>429.74800283680906</v>
       </c>
-      <c r="C209" s="8">
-        <v>777.97200769979531</v>
+      <c r="C209" s="9">
+        <v>777.96672978871482</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
       </c>
-      <c r="E209" s="1">
-        <v>0</v>
-      </c>
-      <c r="F209" s="8">
+      <c r="E209" s="9">
+        <v>6.0165451487445898</v>
+      </c>
+      <c r="F209" s="7">
         <v>8</v>
       </c>
-      <c r="G209" s="8">
+      <c r="G209" s="7">
         <v>20</v>
       </c>
       <c r="H209">
         <v>99.367991000000004</v>
       </c>
-      <c r="I209" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A210" s="8">
+      <c r="I209" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A210" s="7">
         <v>209</v>
       </c>
-      <c r="B210" s="9">
+      <c r="B210" s="8">
         <v>413.55275217717849</v>
       </c>
-      <c r="C210" s="8">
-        <v>776.16777489556239</v>
+      <c r="C210" s="9">
+        <v>776.17070384700844</v>
       </c>
       <c r="D210" s="1">
         <v>1</v>
       </c>
-      <c r="E210" s="1">
-        <v>0</v>
-      </c>
-      <c r="F210" s="8">
+      <c r="E210" s="9">
+        <v>5.7320981146950682</v>
+      </c>
+      <c r="F210" s="7">
         <v>8</v>
       </c>
-      <c r="G210" s="8">
+      <c r="G210" s="7">
         <v>20</v>
       </c>
       <c r="H210">
         <v>89.659206999999995</v>
       </c>
-      <c r="I210" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="8">
+      <c r="I210" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="7">
         <v>210</v>
       </c>
-      <c r="B211" s="9">
+      <c r="B211" s="8">
         <v>369.01581286319424</v>
       </c>
-      <c r="C211" s="8">
-        <v>776.16777489556239</v>
+      <c r="C211" s="9">
+        <v>776.16884380864724</v>
       </c>
       <c r="D211" s="1">
         <v>1</v>
       </c>
-      <c r="E211" s="1">
-        <v>0</v>
-      </c>
-      <c r="F211" s="8">
+      <c r="E211" s="9">
+        <v>5.8295269038400583</v>
+      </c>
+      <c r="F211" s="7">
         <v>8</v>
       </c>
-      <c r="G211" s="8">
+      <c r="G211" s="7">
         <v>20</v>
       </c>
       <c r="H211">
         <v>80.000005999999999</v>
       </c>
-      <c r="I211" s="8">
+      <c r="I211" s="7">
         <v>1</v>
       </c>
     </row>
@@ -6631,14 +6629,14 @@
       <c r="B212" s="2">
         <v>506.67544347005446</v>
       </c>
-      <c r="C212" s="1">
-        <v>501.92438865217605</v>
+      <c r="C212" s="9">
+        <v>501.92318758476324</v>
       </c>
       <c r="D212" s="1">
         <v>1</v>
       </c>
-      <c r="E212" s="1">
-        <v>0</v>
+      <c r="E212" s="9">
+        <v>5.3778945719584463</v>
       </c>
       <c r="F212" s="1">
         <v>9</v>
@@ -6660,14 +6658,14 @@
       <c r="B213" s="2">
         <v>490.48019281042389</v>
       </c>
-      <c r="C213" s="1">
-        <v>503.72862145640886</v>
+      <c r="C213" s="9">
+        <v>503.72048700187725</v>
       </c>
       <c r="D213" s="1">
         <v>1</v>
       </c>
-      <c r="E213" s="1">
-        <v>0</v>
+      <c r="E213" s="9">
+        <v>5.4019007735936135</v>
       </c>
       <c r="F213" s="1">
         <v>9</v>
@@ -6689,14 +6687,14 @@
       <c r="B214" s="2">
         <v>475.63454637242921</v>
       </c>
-      <c r="C214" s="1">
-        <v>501.92438865217605</v>
+      <c r="C214" s="9">
+        <v>501.92430384398256</v>
       </c>
       <c r="D214" s="1">
         <v>1</v>
       </c>
-      <c r="E214" s="1">
-        <v>0</v>
+      <c r="E214" s="9">
+        <v>5.5798509226049609</v>
       </c>
       <c r="F214" s="1">
         <v>9</v>
@@ -6718,14 +6716,14 @@
       <c r="B215" s="2">
         <v>460.78889993443443</v>
       </c>
-      <c r="C215" s="1">
-        <v>503.72862145640886</v>
+      <c r="C215" s="9">
+        <v>503.72065036883498</v>
       </c>
       <c r="D215" s="1">
         <v>1</v>
       </c>
-      <c r="E215" s="1">
-        <v>0</v>
+      <c r="E215" s="9">
+        <v>5.4018524890901833</v>
       </c>
       <c r="F215" s="1">
         <v>9</v>
@@ -6747,14 +6745,14 @@
       <c r="B216" s="2">
         <v>445.94325349643975</v>
       </c>
-      <c r="C216" s="1">
-        <v>501.92438865217605</v>
+      <c r="C216" s="9">
+        <v>501.92323354381358</v>
       </c>
       <c r="D216" s="1">
         <v>1</v>
       </c>
-      <c r="E216" s="1">
-        <v>0</v>
+      <c r="E216" s="9">
+        <v>5.4206189584703788</v>
       </c>
       <c r="F216" s="1">
         <v>9</v>
@@ -6776,14 +6774,14 @@
       <c r="B217" s="2">
         <v>429.74800283680906</v>
       </c>
-      <c r="C217" s="1">
-        <v>503.72862145640886</v>
+      <c r="C217" s="9">
+        <v>503.71979770638166</v>
       </c>
       <c r="D217" s="1">
         <v>1</v>
       </c>
-      <c r="E217" s="1">
-        <v>0</v>
+      <c r="E217" s="9">
+        <v>5.2449272968782514</v>
       </c>
       <c r="F217" s="1">
         <v>9</v>
@@ -6805,14 +6803,14 @@
       <c r="B218" s="2">
         <v>414.65013273548414</v>
       </c>
-      <c r="C218" s="1">
-        <v>501.67460317460313</v>
+      <c r="C218" s="9">
+        <v>501.67256604436318</v>
       </c>
       <c r="D218" s="1">
         <v>1</v>
       </c>
-      <c r="E218" s="1">
-        <v>0</v>
+      <c r="E218" s="9">
+        <v>5.3933504829981027</v>
       </c>
       <c r="F218" s="1">
         <v>9</v>
@@ -6834,14 +6832,14 @@
       <c r="B219" s="2">
         <v>399.80448629748935</v>
       </c>
-      <c r="C219" s="1">
-        <v>503.47883597883595</v>
+      <c r="C219" s="9">
+        <v>503.47062217807036</v>
       </c>
       <c r="D219" s="1">
         <v>1</v>
       </c>
-      <c r="E219" s="1">
-        <v>0</v>
+      <c r="E219" s="9">
+        <v>5.2711677121629013</v>
       </c>
       <c r="F219" s="1">
         <v>9</v>
@@ -6863,14 +6861,14 @@
       <c r="B220" s="2">
         <v>384.95883985949467</v>
       </c>
-      <c r="C220" s="1">
-        <v>503.47883597883595</v>
+      <c r="C220" s="9">
+        <v>503.46717774659498</v>
       </c>
       <c r="D220" s="1">
         <v>1</v>
       </c>
-      <c r="E220" s="1">
-        <v>0</v>
+      <c r="E220" s="9">
+        <v>4.9618180728369854</v>
       </c>
       <c r="F220" s="1">
         <v>9</v>
@@ -6892,14 +6890,14 @@
       <c r="B221" s="2">
         <v>353.91794276186931</v>
       </c>
-      <c r="C221" s="1">
-        <v>501.67460317460313</v>
+      <c r="C221" s="9">
+        <v>501.67246921719936</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
       </c>
-      <c r="E221" s="1">
-        <v>0</v>
+      <c r="E221" s="9">
+        <v>5.4657207142338695</v>
       </c>
       <c r="F221" s="1">
         <v>9</v>
@@ -6921,14 +6919,14 @@
       <c r="B222" s="2">
         <v>337.72269210223874</v>
       </c>
-      <c r="C222" s="1">
-        <v>501.67460317460313</v>
+      <c r="C222" s="9">
+        <v>501.67056482830787</v>
       </c>
       <c r="D222" s="1">
         <v>1</v>
       </c>
-      <c r="E222" s="1">
-        <v>0</v>
+      <c r="E222" s="9">
+        <v>5.4582782030028767</v>
       </c>
       <c r="F222" s="1">
         <v>9</v>
@@ -6950,14 +6948,14 @@
       <c r="B223" s="2">
         <v>322.87704566424395</v>
       </c>
-      <c r="C223" s="1">
-        <v>501.67460317460313</v>
+      <c r="C223" s="9">
+        <v>501.67040836636045</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
       </c>
-      <c r="E223" s="1">
-        <v>0</v>
+      <c r="E223" s="9">
+        <v>5.39970381994139</v>
       </c>
       <c r="F223" s="1">
         <v>9</v>
@@ -6979,14 +6977,14 @@
       <c r="B224" s="2">
         <v>309.38100344788518</v>
       </c>
-      <c r="C224" s="1">
-        <v>503.47883597883595</v>
+      <c r="C224" s="9">
+        <v>503.46860298798299</v>
       </c>
       <c r="D224" s="1">
         <v>1</v>
       </c>
-      <c r="E224" s="1">
-        <v>0</v>
+      <c r="E224" s="9">
+        <v>5.5207371154542111</v>
       </c>
       <c r="F224" s="1">
         <v>9</v>
@@ -7008,14 +7006,14 @@
       <c r="B225" s="2">
         <v>293.18575278825449</v>
       </c>
-      <c r="C225" s="1">
-        <v>501.67460317460313</v>
+      <c r="C225" s="9">
+        <v>501.67007416064178</v>
       </c>
       <c r="D225" s="1">
         <v>1</v>
       </c>
-      <c r="E225" s="1">
-        <v>0</v>
+      <c r="E225" s="9">
+        <v>5.3821958331051896</v>
       </c>
       <c r="F225" s="1">
         <v>9</v>
@@ -7037,14 +7035,14 @@
       <c r="B226" s="2">
         <v>262.14485569062924</v>
       </c>
-      <c r="C226" s="1">
-        <v>503.47883597883595</v>
+      <c r="C226" s="9">
+        <v>503.46831436736011</v>
       </c>
       <c r="D226" s="1">
         <v>1</v>
       </c>
-      <c r="E226" s="1">
-        <v>0</v>
+      <c r="E226" s="9">
+        <v>5.4314183765185184</v>
       </c>
       <c r="F226" s="1">
         <v>9</v>
@@ -7066,14 +7064,14 @@
       <c r="B227" s="2">
         <v>245.94960503099853</v>
       </c>
-      <c r="C227" s="1">
-        <v>503.47883597883595</v>
+      <c r="C227" s="9">
+        <v>503.46807055766533</v>
       </c>
       <c r="D227" s="1">
         <v>1</v>
       </c>
-      <c r="E227" s="1">
-        <v>0</v>
+      <c r="E227" s="9">
+        <v>5.3585748539093219</v>
       </c>
       <c r="F227" s="1">
         <v>9</v>
@@ -7095,14 +7093,14 @@
       <c r="B228" s="2">
         <v>231.10395859300385</v>
       </c>
-      <c r="C228" s="1">
-        <v>501.67460317460313</v>
+      <c r="C228" s="9">
+        <v>501.6795162137721</v>
       </c>
       <c r="D228" s="1">
         <v>1</v>
       </c>
-      <c r="E228" s="1">
-        <v>0</v>
+      <c r="E228" s="9">
+        <v>6.4432533202811291</v>
       </c>
       <c r="F228" s="1">
         <v>9</v>
@@ -7124,14 +7122,14 @@
       <c r="B229" s="2">
         <v>204.11187416028619</v>
       </c>
-      <c r="C229" s="1">
-        <v>499.87037037037032</v>
+      <c r="C229" s="9">
+        <v>499.87062939355053</v>
       </c>
       <c r="D229" s="1">
         <v>1</v>
       </c>
-      <c r="E229" s="1">
-        <v>0</v>
+      <c r="E229" s="9">
+        <v>5.0043032715505298</v>
       </c>
       <c r="F229" s="1">
         <v>9</v>
@@ -7153,14 +7151,14 @@
       <c r="B230" s="2">
         <v>169.02216439775324</v>
       </c>
-      <c r="C230" s="1">
-        <v>501.67460317460313</v>
+      <c r="C230" s="9">
+        <v>501.66992186634684</v>
       </c>
       <c r="D230" s="1">
         <v>1</v>
       </c>
-      <c r="E230" s="1">
-        <v>0</v>
+      <c r="E230" s="9">
+        <v>5.5964567164637566</v>
       </c>
       <c r="F230" s="1">
         <v>9</v>
@@ -7182,14 +7180,14 @@
       <c r="B231" s="2">
         <v>154.17651795975846</v>
       </c>
-      <c r="C231" s="1">
-        <v>501.67460317460313</v>
+      <c r="C231" s="9">
+        <v>501.66596050694591</v>
       </c>
       <c r="D231" s="1">
         <v>1</v>
       </c>
-      <c r="E231" s="1">
-        <v>0</v>
+      <c r="E231" s="9">
+        <v>5.6428937479769923</v>
       </c>
       <c r="F231" s="1">
         <v>9</v>
@@ -7211,14 +7209,14 @@
       <c r="B232" s="2">
         <v>137.98126730012788</v>
       </c>
-      <c r="C232" s="1">
-        <v>503.47883597883595</v>
+      <c r="C232" s="9">
+        <v>503.47329066969519</v>
       </c>
       <c r="D232" s="1">
         <v>1</v>
       </c>
-      <c r="E232" s="1">
-        <v>0</v>
+      <c r="E232" s="9">
+        <v>6.7298629549725097</v>
       </c>
       <c r="F232" s="1">
         <v>9</v>
@@ -7240,14 +7238,14 @@
       <c r="B233" s="2">
         <v>124.485225083769</v>
       </c>
-      <c r="C233" s="1">
-        <v>501.67460317460313</v>
+      <c r="C233" s="9">
+        <v>501.66754768577653</v>
       </c>
       <c r="D233" s="1">
         <v>1</v>
       </c>
-      <c r="E233" s="1">
-        <v>0</v>
+      <c r="E233" s="9">
+        <v>5.4923708762984642</v>
       </c>
       <c r="F233" s="1">
         <v>9</v>
@@ -7269,14 +7267,14 @@
       <c r="B234" s="2">
         <v>109.63957864577432</v>
       </c>
-      <c r="C234" s="1">
-        <v>499.87037037037032</v>
+      <c r="C234" s="9">
+        <v>499.87220203404206</v>
       </c>
       <c r="D234" s="1">
         <v>1</v>
       </c>
-      <c r="E234" s="1">
-        <v>0</v>
+      <c r="E234" s="9">
+        <v>5.9341931710759352</v>
       </c>
       <c r="F234" s="1">
         <v>9</v>
@@ -7298,14 +7296,14 @@
       <c r="B235" s="2">
         <v>93.444327986143747</v>
       </c>
-      <c r="C235" s="1">
-        <v>501.67460317460313</v>
+      <c r="C235" s="9">
+        <v>501.66828810484424</v>
       </c>
       <c r="D235" s="1">
         <v>1</v>
       </c>
-      <c r="E235" s="1">
-        <v>0</v>
+      <c r="E235" s="9">
+        <v>5.9169043336416145</v>
       </c>
       <c r="F235" s="1">
         <v>9</v>
@@ -7327,14 +7325,14 @@
       <c r="B236" s="2">
         <v>77.24907732651306</v>
       </c>
-      <c r="C236" s="1">
-        <v>501.67460317460313</v>
+      <c r="C236" s="9">
+        <v>501.66942848438896</v>
       </c>
       <c r="D236" s="1">
         <v>1</v>
       </c>
-      <c r="E236" s="1">
-        <v>0</v>
+      <c r="E236" s="9">
+        <v>6.0134272091649148</v>
       </c>
       <c r="F236" s="1">
         <v>9</v>
@@ -7356,14 +7354,14 @@
       <c r="B237" s="2">
         <v>65.102639331790186</v>
       </c>
-      <c r="C237" s="1">
-        <v>501.67460317460313</v>
+      <c r="C237" s="9">
+        <v>501.67230936863018</v>
       </c>
       <c r="D237" s="1">
         <v>1</v>
       </c>
-      <c r="E237" s="1">
-        <v>0</v>
+      <c r="E237" s="9">
+        <v>5.6725189986838114</v>
       </c>
       <c r="F237" s="1">
         <v>9</v>
@@ -7385,14 +7383,14 @@
       <c r="B238" s="2">
         <v>47.557784450523606</v>
       </c>
-      <c r="C238" s="1">
-        <v>501.67460317460313</v>
+      <c r="C238" s="9">
+        <v>501.6711485753716</v>
       </c>
       <c r="D238" s="1">
         <v>1</v>
       </c>
-      <c r="E238" s="1">
-        <v>0</v>
+      <c r="E238" s="9">
+        <v>5.6521217090810776</v>
       </c>
       <c r="F238" s="1">
         <v>9</v>
@@ -7414,14 +7412,14 @@
       <c r="B239" s="2">
         <v>31.362533790893032</v>
       </c>
-      <c r="C239" s="1">
-        <v>501.67460317460313</v>
+      <c r="C239" s="9">
+        <v>501.66956918250082</v>
       </c>
       <c r="D239" s="1">
         <v>1</v>
       </c>
-      <c r="E239" s="1">
-        <v>0</v>
+      <c r="E239" s="9">
+        <v>5.5948904347972617</v>
       </c>
       <c r="F239" s="1">
         <v>9</v>
@@ -7437,20 +7435,20 @@
       </c>
     </row>
     <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A240" s="6">
+      <c r="A240" s="5">
         <v>239</v>
       </c>
-      <c r="B240" s="7">
+      <c r="B240" s="6">
         <v>305.33219078297748</v>
       </c>
-      <c r="C240" s="6">
-        <v>640.60052910052912</v>
+      <c r="C240" s="9">
+        <v>640.59256146233827</v>
       </c>
       <c r="D240" s="1">
         <v>1</v>
       </c>
-      <c r="E240" s="1">
-        <v>0</v>
+      <c r="E240" s="9">
+        <v>5.7715492243526567</v>
       </c>
       <c r="F240" s="3">
         <v>10</v>
@@ -7466,20 +7464,20 @@
       </c>
     </row>
     <row r="241" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A241" s="6">
+      <c r="A241" s="5">
         <v>240</v>
       </c>
-      <c r="B241" s="7">
+      <c r="B241" s="6">
         <v>293.18575278825449</v>
       </c>
-      <c r="C241" s="6">
-        <v>640.60052910052912</v>
+      <c r="C241" s="9">
+        <v>640.59280063854101</v>
       </c>
       <c r="D241" s="1">
         <v>1</v>
       </c>
-      <c r="E241" s="1">
-        <v>0</v>
+      <c r="E241" s="9">
+        <v>5.7394498834851566</v>
       </c>
       <c r="F241" s="3">
         <v>10</v>
@@ -7495,20 +7493,20 @@
       </c>
     </row>
     <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A242" s="6">
+      <c r="A242" s="5">
         <v>241</v>
       </c>
-      <c r="B242" s="7">
+      <c r="B242" s="6">
         <v>278.34010635025982</v>
       </c>
-      <c r="C242" s="6">
-        <v>638.79629629629619</v>
+      <c r="C242" s="9">
+        <v>638.79370634175837</v>
       </c>
       <c r="D242" s="1">
         <v>1</v>
       </c>
-      <c r="E242" s="1">
-        <v>0</v>
+      <c r="E242" s="9">
+        <v>5.5011044982070612</v>
       </c>
       <c r="F242" s="3">
         <v>10</v>
@@ -7524,20 +7522,20 @@
       </c>
     </row>
     <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A243" s="6">
+      <c r="A243" s="5">
         <v>242</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <v>247.29920925263443</v>
       </c>
-      <c r="C243" s="4">
-        <v>638.79629629629619</v>
+      <c r="C243" s="9">
+        <v>638.79364070489567</v>
       </c>
       <c r="D243" s="1">
         <v>1</v>
       </c>
-      <c r="E243" s="1">
-        <v>0</v>
+      <c r="E243" s="9">
+        <v>5.5092646710446038</v>
       </c>
       <c r="F243" s="3">
         <v>10</v>
@@ -7553,20 +7551,20 @@
       </c>
     </row>
     <row r="244" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A244" s="6">
+      <c r="A244" s="5">
         <v>243</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="4">
         <v>231.10395859300385</v>
       </c>
-      <c r="C244" s="4">
-        <v>638.79629629629619</v>
+      <c r="C244" s="9">
+        <v>638.79426713806481</v>
       </c>
       <c r="D244" s="1">
         <v>1</v>
       </c>
-      <c r="E244" s="1">
-        <v>0</v>
+      <c r="E244" s="9">
+        <v>5.4265902977597555</v>
       </c>
       <c r="F244" s="3">
         <v>10</v>
@@ -7582,20 +7580,20 @@
       </c>
     </row>
     <row r="245" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A245" s="6">
+      <c r="A245" s="5">
         <v>244</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="4">
         <v>201.41266571701439</v>
       </c>
-      <c r="C245" s="4">
-        <v>640.60052910052912</v>
+      <c r="C245" s="9">
+        <v>640.59113343903152</v>
       </c>
       <c r="D245" s="1">
         <v>1</v>
       </c>
-      <c r="E245" s="1">
-        <v>0</v>
+      <c r="E245" s="9">
+        <v>5.6711298676549227</v>
       </c>
       <c r="F245" s="3">
         <v>10</v>
@@ -7611,20 +7609,20 @@
       </c>
     </row>
     <row r="246" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A246" s="6">
+      <c r="A246" s="5">
         <v>245</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <v>185.21741505738382</v>
       </c>
-      <c r="C246" s="4">
-        <v>638.79629629629619</v>
+      <c r="C246" s="9">
+        <v>638.79277210533894</v>
       </c>
       <c r="D246" s="1">
         <v>1</v>
       </c>
-      <c r="E246" s="1">
-        <v>0</v>
+      <c r="E246" s="9">
+        <v>5.7789993425115274</v>
       </c>
       <c r="F246" s="3">
         <v>10</v>
@@ -7640,20 +7638,20 @@
       </c>
     </row>
     <row r="247" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A247" s="6">
+      <c r="A247" s="5">
         <v>246</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="4">
         <v>171.72137284102493</v>
       </c>
-      <c r="C247" s="4">
-        <v>636.99206349206349</v>
+      <c r="C247" s="9">
+        <v>636.99675428604303</v>
       </c>
       <c r="D247" s="1">
         <v>1</v>
       </c>
-      <c r="E247" s="1">
-        <v>0</v>
+      <c r="E247" s="9">
+        <v>6.1804886773361227</v>
       </c>
       <c r="F247" s="3">
         <v>10</v>
@@ -7669,20 +7667,20 @@
       </c>
     </row>
     <row r="248" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="6">
+      <c r="A248" s="5">
         <v>247</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="4">
         <v>155.52612218139436</v>
       </c>
-      <c r="C248" s="4">
-        <v>636.99206349206349</v>
+      <c r="C248" s="9">
+        <v>636.9959904587987</v>
       </c>
       <c r="D248" s="1">
         <v>1</v>
       </c>
-      <c r="E248" s="1">
-        <v>0</v>
+      <c r="E248" s="9">
+        <v>5.8377725474749003</v>
       </c>
       <c r="F248" s="3">
         <v>10</v>
@@ -7698,20 +7696,20 @@
       </c>
     </row>
     <row r="249" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="6">
+      <c r="A249" s="5">
         <v>248</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="4">
         <v>140.68047574339968</v>
       </c>
-      <c r="C249" s="4">
-        <v>636.99206349206349</v>
+      <c r="C249" s="9">
+        <v>636.99489653405033</v>
       </c>
       <c r="D249" s="1">
         <v>1</v>
       </c>
-      <c r="E249" s="1">
-        <v>0</v>
+      <c r="E249" s="9">
+        <v>5.6435713608848106</v>
       </c>
       <c r="F249" s="3">
         <v>10</v>
@@ -7727,20 +7725,20 @@
       </c>
     </row>
     <row r="250" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A250" s="6">
+      <c r="A250" s="5">
         <v>249</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="4">
         <v>123.13562086213309</v>
       </c>
-      <c r="C250" s="4">
-        <v>638.79629629629619</v>
+      <c r="C250" s="9">
+        <v>638.80275579545503</v>
       </c>
       <c r="D250" s="1">
         <v>1</v>
       </c>
-      <c r="E250" s="1">
-        <v>0</v>
+      <c r="E250" s="9">
+        <v>7.8723049625028194</v>
       </c>
       <c r="F250" s="3">
         <v>10</v>
@@ -7756,20 +7754,20 @@
       </c>
     </row>
     <row r="251" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A251" s="6">
+      <c r="A251" s="5">
         <v>250</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="4">
         <v>108.28997442413842</v>
       </c>
-      <c r="C251" s="4">
-        <v>642.40476190476181</v>
+      <c r="C251" s="9">
+        <v>642.38865090639899</v>
       </c>
       <c r="D251" s="1">
         <v>1</v>
       </c>
-      <c r="E251" s="1">
-        <v>0</v>
+      <c r="E251" s="9">
+        <v>5.9707437822222706</v>
       </c>
       <c r="F251" s="3">
         <v>10</v>
@@ -7785,20 +7783,20 @@
       </c>
     </row>
     <row r="252" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A252" s="6">
+      <c r="A252" s="5">
         <v>251</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252" s="4">
         <v>92.094723764507847</v>
       </c>
-      <c r="C252" s="4">
-        <v>640.60052910052912</v>
+      <c r="C252" s="9">
+        <v>640.59270347946028</v>
       </c>
       <c r="D252" s="1">
         <v>1</v>
       </c>
-      <c r="E252" s="1">
-        <v>0</v>
+      <c r="E252" s="9">
+        <v>6.0683030117858445</v>
       </c>
       <c r="F252" s="3">
         <v>10</v>
@@ -7814,20 +7812,20 @@
       </c>
     </row>
     <row r="253" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A253" s="6">
+      <c r="A253" s="5">
         <v>252</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253" s="4">
         <v>78.59868154814896</v>
       </c>
-      <c r="C253" s="4">
-        <v>640.60052910052912</v>
+      <c r="C253" s="9">
+        <v>640.59550443499882</v>
       </c>
       <c r="D253" s="1">
         <v>1</v>
       </c>
-      <c r="E253" s="1">
-        <v>0</v>
+      <c r="E253" s="9">
+        <v>5.636508895398082</v>
       </c>
       <c r="F253" s="3">
         <v>10</v>
@@ -7843,20 +7841,20 @@
       </c>
     </row>
     <row r="254" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A254" s="6">
+      <c r="A254" s="5">
         <v>253</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254" s="4">
         <v>63.753035110154293</v>
       </c>
-      <c r="C254" s="4">
-        <v>640.60052910052912</v>
+      <c r="C254" s="9">
+        <v>640.59243809711177</v>
       </c>
       <c r="D254" s="1">
         <v>1</v>
       </c>
-      <c r="E254" s="1">
-        <v>0</v>
+      <c r="E254" s="9">
+        <v>5.8575224303801061</v>
       </c>
       <c r="F254" s="3">
         <v>10</v>
@@ -7872,20 +7870,20 @@
       </c>
     </row>
     <row r="255" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="6">
+      <c r="A255" s="5">
         <v>254</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="4">
         <v>47.557784450523606</v>
       </c>
-      <c r="C255" s="4">
-        <v>640.60052910052912</v>
+      <c r="C255" s="9">
+        <v>640.59474782344512</v>
       </c>
       <c r="D255" s="1">
         <v>1</v>
       </c>
-      <c r="E255" s="1">
-        <v>0</v>
+      <c r="E255" s="9">
+        <v>5.8502842012484706</v>
       </c>
       <c r="F255" s="3">
         <v>10</v>
@@ -7907,14 +7905,14 @@
       <c r="B256" s="2">
         <v>355.26754698350521</v>
       </c>
-      <c r="C256" s="1">
-        <v>777.72222222222229</v>
+      <c r="C256" s="9">
+        <v>777.71665778683484</v>
       </c>
       <c r="D256" s="1">
         <v>1</v>
       </c>
-      <c r="E256" s="1">
-        <v>0</v>
+      <c r="E256" s="9">
+        <v>5.6976068478811683</v>
       </c>
       <c r="F256" s="1">
         <v>11</v>
@@ -7936,14 +7934,14 @@
       <c r="B257" s="2">
         <v>339.07229632387464</v>
       </c>
-      <c r="C257" s="1">
-        <v>777.72222222222229</v>
+      <c r="C257" s="9">
+        <v>777.71841374719054</v>
       </c>
       <c r="D257" s="1">
         <v>1</v>
       </c>
-      <c r="E257" s="1">
-        <v>0</v>
+      <c r="E257" s="9">
+        <v>6.3839157319957822</v>
       </c>
       <c r="F257" s="1">
         <v>11</v>
@@ -7965,14 +7963,14 @@
       <c r="B258" s="2">
         <v>324.22664988587985</v>
       </c>
-      <c r="C258" s="1">
-        <v>777.72222222222229</v>
+      <c r="C258" s="9">
+        <v>777.71580391042164</v>
       </c>
       <c r="D258" s="1">
         <v>1</v>
       </c>
-      <c r="E258" s="1">
-        <v>0</v>
+      <c r="E258" s="9">
+        <v>5.9094504599408202</v>
       </c>
       <c r="F258" s="1">
         <v>11</v>
@@ -7994,14 +7992,14 @@
       <c r="B259" s="2">
         <v>308.03139922624928</v>
       </c>
-      <c r="C259" s="1">
-        <v>779.52645502645498</v>
+      <c r="C259" s="9">
+        <v>779.51470090977762</v>
       </c>
       <c r="D259" s="1">
         <v>1</v>
       </c>
-      <c r="E259" s="1">
-        <v>0</v>
+      <c r="E259" s="9">
+        <v>6.076710449704759</v>
       </c>
       <c r="F259" s="1">
         <v>11</v>
@@ -8023,14 +8021,14 @@
       <c r="B260" s="2">
         <v>291.8361485666187</v>
       </c>
-      <c r="C260" s="1">
-        <v>777.72222222222229</v>
+      <c r="C260" s="9">
+        <v>777.71877401702875</v>
       </c>
       <c r="D260" s="1">
         <v>1</v>
       </c>
-      <c r="E260" s="1">
-        <v>0</v>
+      <c r="E260" s="9">
+        <v>6.5585635197443448</v>
       </c>
       <c r="F260" s="1">
         <v>11</v>
@@ -8052,14 +8050,14 @@
       <c r="B261" s="2">
         <v>279.69327176781007</v>
       </c>
-      <c r="C261" s="1">
-        <v>779.52645502645498</v>
+      <c r="C261" s="9">
+        <v>779.51469828976826</v>
       </c>
       <c r="D261" s="1">
         <v>1</v>
       </c>
-      <c r="E261" s="1">
-        <v>0</v>
+      <c r="E261" s="9">
+        <v>6.5465882170138618</v>
       </c>
       <c r="F261" s="1">
         <v>11</v>
@@ -8081,14 +8079,14 @@
       <c r="B262" s="2">
         <v>260.7988126649077</v>
       </c>
-      <c r="C262" s="1">
-        <v>775.91798941798936</v>
+      <c r="C262" s="9">
+        <v>775.91737093363042</v>
       </c>
       <c r="D262" s="1">
         <v>1</v>
       </c>
-      <c r="E262" s="1">
-        <v>0</v>
+      <c r="E262" s="9">
+        <v>5.783531080313165</v>
       </c>
       <c r="F262" s="1">
         <v>11</v>
@@ -8110,14 +8108,14 @@
       <c r="B263" s="2">
         <v>231.10751978891824</v>
       </c>
-      <c r="C263" s="1">
-        <v>777.72222222222229</v>
+      <c r="C263" s="9">
+        <v>777.71716796370481</v>
       </c>
       <c r="D263" s="1">
         <v>1</v>
       </c>
-      <c r="E263" s="1">
-        <v>0</v>
+      <c r="E263" s="9">
+        <v>6.4461217646722799</v>
       </c>
       <c r="F263" s="1">
         <v>11</v>
@@ -8139,14 +8137,14 @@
       <c r="B264" s="2">
         <v>217.61147757255935</v>
       </c>
-      <c r="C264" s="1">
-        <v>775.91798941798936</v>
+      <c r="C264" s="9">
+        <v>775.91813253171802</v>
       </c>
       <c r="D264" s="1">
         <v>1</v>
       </c>
-      <c r="E264" s="1">
-        <v>0</v>
+      <c r="E264" s="9">
+        <v>5.8914720201506556</v>
       </c>
       <c r="F264" s="1">
         <v>11</v>
@@ -8168,14 +8166,14 @@
       <c r="B265" s="2">
         <v>155.52968337730874</v>
       </c>
-      <c r="C265" s="1">
-        <v>779.52645502645498</v>
+      <c r="C265" s="9">
+        <v>779.51490851294409</v>
       </c>
       <c r="D265" s="1">
         <v>1</v>
       </c>
-      <c r="E265" s="1">
-        <v>0</v>
+      <c r="E265" s="9">
+        <v>6.279410557871512</v>
       </c>
       <c r="F265" s="1">
         <v>11</v>
@@ -8197,14 +8195,14 @@
       <c r="B266" s="2">
         <v>139.33443271767806</v>
       </c>
-      <c r="C266" s="1">
-        <v>779.52645502645498</v>
+      <c r="C266" s="9">
+        <v>779.51525683659736</v>
       </c>
       <c r="D266" s="1">
         <v>1</v>
       </c>
-      <c r="E266" s="1">
-        <v>0</v>
+      <c r="E266" s="9">
+        <v>6.7599207025426722</v>
       </c>
       <c r="F266" s="1">
         <v>11</v>
@@ -8226,14 +8224,14 @@
       <c r="B267" s="2">
         <v>124.48878627968338</v>
       </c>
-      <c r="C267" s="1">
-        <v>777.72222222222229</v>
+      <c r="C267" s="9">
+        <v>777.71765735006977</v>
       </c>
       <c r="D267" s="1">
         <v>1</v>
       </c>
-      <c r="E267" s="1">
-        <v>0</v>
+      <c r="E267" s="9">
+        <v>5.9355742424420823</v>
       </c>
       <c r="F267" s="1">
         <v>11</v>
@@ -8255,14 +8253,14 @@
       <c r="B268" s="2">
         <v>108.29353562005281</v>
       </c>
-      <c r="C268" s="1">
-        <v>777.72222222222229</v>
+      <c r="C268" s="9">
+        <v>777.7182089155948</v>
       </c>
       <c r="D268" s="1">
         <v>1</v>
       </c>
-      <c r="E268" s="1">
-        <v>0</v>
+      <c r="E268" s="9">
+        <v>6.3858045694537342</v>
       </c>
       <c r="F268" s="1">
         <v>11</v>
@@ -8284,14 +8282,14 @@
       <c r="B269" s="2">
         <v>81.301451187335033</v>
       </c>
-      <c r="C269" s="1">
-        <v>783.1349206349206</v>
+      <c r="C269" s="9">
+        <v>783.10988573585234</v>
       </c>
       <c r="D269" s="1">
         <v>1</v>
       </c>
-      <c r="E269" s="1">
-        <v>0</v>
+      <c r="E269" s="9">
+        <v>6.7188447885446552</v>
       </c>
       <c r="F269" s="1">
         <v>11</v>
@@ -8313,14 +8311,14 @@
       <c r="B270" s="2">
         <v>62.77249933216666</v>
       </c>
-      <c r="C270" s="1">
-        <v>777.7675857217688</v>
+      <c r="C270" s="9">
+        <v>777.76588196497175</v>
       </c>
       <c r="D270" s="1">
         <v>1</v>
       </c>
-      <c r="E270" s="1">
-        <v>0</v>
+      <c r="E270" s="9">
+        <v>6.9733606100418841</v>
       </c>
       <c r="F270" s="1">
         <v>11</v>
@@ -8342,14 +8340,14 @@
       <c r="B271" s="2">
         <v>47.357692666748555</v>
       </c>
-      <c r="C271" s="1">
-        <v>779.81280246098095</v>
+      <c r="C271" s="9">
+        <v>779.80371449360143</v>
       </c>
       <c r="D271" s="1">
         <v>1</v>
       </c>
-      <c r="E271" s="1">
-        <v>0</v>
+      <c r="E271" s="9">
+        <v>6.6377035100619537</v>
       </c>
       <c r="F271" s="1">
         <v>11</v>

--- a/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
+++ b/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\Documents\test-open\Doppler\270ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE493D91-44E2-4E83-A66C-34611CAEF9AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695630D7-A06E-4DF8-AD5E-58E320357BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7D1A221-8E2E-4AB0-B486-D617078FF2BE}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E811F4-564C-477F-B01D-DCC0A23183EF}">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -543,7 +543,7 @@
         <v>237.32579837796641</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>59718809.600000255</v>
       </c>
       <c r="E2" s="9">
         <v>6.0869975702923362</v>
@@ -569,10 +569,10 @@
         <v>960.12137203166219</v>
       </c>
       <c r="C3" s="9">
-        <v>237.32146161795174</v>
+        <v>237.32146161795197</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>75560210.599999383</v>
       </c>
       <c r="E3" s="9">
         <v>6.7599802573405867</v>
@@ -601,7 +601,7 @@
         <v>235.52445497339443</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>182974349.40000096</v>
       </c>
       <c r="E4" s="9">
         <v>6.1627855385750792</v>
@@ -630,7 +630,7 @@
         <v>239.11764594069109</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>363479702.19999808</v>
       </c>
       <c r="E5" s="9">
         <v>5.8520681593229371</v>
@@ -659,7 +659,7 @@
         <v>235.51802686623023</v>
       </c>
       <c r="D6" s="1">
-        <v>1</v>
+        <v>529453933.80000204</v>
       </c>
       <c r="E6" s="9">
         <v>5.7194928522284849</v>
@@ -688,7 +688,7 @@
         <v>237.31561021096718</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>646514979.20000577</v>
       </c>
       <c r="E7" s="9">
         <v>5.8709179010895367</v>
@@ -717,7 +717,7 @@
         <v>235.51857208289277</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>636572660</v>
       </c>
       <c r="E8" s="9">
         <v>5.7315190102841793</v>
@@ -746,7 +746,7 @@
         <v>233.71981104332474</v>
       </c>
       <c r="D9" s="1">
-        <v>1</v>
+        <v>736333969.39999616</v>
       </c>
       <c r="E9" s="9">
         <v>5.7680114766595416</v>
@@ -775,7 +775,7 @@
         <v>235.5155862277129</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>871792623.20000684</v>
       </c>
       <c r="E10" s="9">
         <v>5.7179088128275941</v>
@@ -801,10 +801,10 @@
         <v>823.81134564643821</v>
       </c>
       <c r="C11" s="9">
-        <v>235.51347776099806</v>
+        <v>235.51347776099794</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>872195038.79999328</v>
       </c>
       <c r="E11" s="9">
         <v>5.5527989842995344</v>
@@ -833,7 +833,7 @@
         <v>233.71706579846557</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>796834625.79999352</v>
       </c>
       <c r="E12" s="9">
         <v>5.4871379198604382</v>
@@ -862,7 +862,7 @@
         <v>231.91601101096239</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>817564880</v>
       </c>
       <c r="E13" s="9">
         <v>5.3877207457341116</v>
@@ -891,7 +891,7 @@
         <v>231.91406709098771</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>629426539</v>
       </c>
       <c r="E14" s="9">
         <v>5.3013715419820757</v>
@@ -920,7 +920,7 @@
         <v>230.11545640196152</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>904821104.39999604</v>
       </c>
       <c r="E15" s="9">
         <v>5.399237608619968</v>
@@ -949,7 +949,7 @@
         <v>231.9128351645237</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>946024333.20000696</v>
       </c>
       <c r="E16" s="9">
         <v>5.1275132322049606</v>
@@ -978,7 +978,7 @@
         <v>231.91021106867549</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>580971628</v>
       </c>
       <c r="E17" s="9">
         <v>5.2817202357814432</v>
@@ -1007,7 +1007,7 @@
         <v>230.11295960937309</v>
       </c>
       <c r="D18" s="1">
-        <v>1</v>
+        <v>532468294.09091097</v>
       </c>
       <c r="E18" s="9">
         <v>4.9617863111505862</v>
@@ -1036,7 +1036,7 @@
         <v>230.11344085977782</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>522632970.2857182</v>
       </c>
       <c r="E19" s="9">
         <v>4.8439279803030022</v>
@@ -1065,7 +1065,7 @@
         <v>231.90953289555603</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>469205022.90908903</v>
       </c>
       <c r="E20" s="9">
         <v>5.0745468402272706</v>
@@ -1094,7 +1094,7 @@
         <v>230.10957270244091</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>777853505.7272687</v>
       </c>
       <c r="E21" s="9">
         <v>4.8062949281594092</v>
@@ -1123,7 +1123,7 @@
         <v>230.10834445449905</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>856321547.60000396</v>
       </c>
       <c r="E22" s="9">
         <v>4.769780975965543</v>
@@ -1152,7 +1152,7 @@
         <v>231.90586369085293</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>772637306.18182158</v>
       </c>
       <c r="E23" s="9">
         <v>4.6903228140630544</v>
@@ -1181,7 +1181,7 @@
         <v>231.90526851767106</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>847305638.8181783</v>
       </c>
       <c r="E24" s="9">
         <v>4.5905680715753512</v>
@@ -1207,10 +1207,10 @@
         <v>611.92348284960462</v>
       </c>
       <c r="C25" s="9">
-        <v>228.30931547938667</v>
+        <v>228.30931547938678</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>819488573.66666126</v>
       </c>
       <c r="E25" s="9">
         <v>4.729907236096099</v>
@@ -1239,7 +1239,7 @@
         <v>230.10533585709595</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>948441961.66666079</v>
       </c>
       <c r="E26" s="9">
         <v>4.3892627635174479</v>
@@ -1265,10 +1265,10 @@
         <v>582.23218997361494</v>
       </c>
       <c r="C27" s="9">
-        <v>228.30713562833148</v>
+        <v>228.30713562833159</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>752038661.33333862</v>
       </c>
       <c r="E27" s="9">
         <v>5.0648721772163565</v>
@@ -1297,7 +1297,7 @@
         <v>226.50892759957685</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>830852141.45455337</v>
       </c>
       <c r="E28" s="9">
         <v>4.4703809477953067</v>
@@ -1326,7 +1326,7 @@
         <v>228.30484080909184</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>404796095.1176458</v>
       </c>
       <c r="E29" s="9">
         <v>5.2402549199387281</v>
@@ -1355,7 +1355,7 @@
         <v>226.50741369970967</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>568613783.27272987</v>
       </c>
       <c r="E30" s="9">
         <v>4.3615448902297986</v>
@@ -1384,7 +1384,7 @@
         <v>228.30508287810824</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>523080734.88888657</v>
       </c>
       <c r="E31" s="9">
         <v>4.3881196234682882</v>
@@ -1413,7 +1413,7 @@
         <v>226.5065334901368</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>392699998.09091091</v>
       </c>
       <c r="E32" s="9">
         <v>4.3240228745561682</v>
@@ -1442,7 +1442,7 @@
         <v>226.50477782126961</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>217427663.38461411</v>
       </c>
       <c r="E33" s="9">
         <v>4.9999057766571982</v>
@@ -1471,7 +1471,7 @@
         <v>228.30225725107937</v>
       </c>
       <c r="D34" s="1">
-        <v>1</v>
+        <v>544991719.79999661</v>
       </c>
       <c r="E34" s="9">
         <v>4.2576680052762272</v>
@@ -1500,7 +1500,7 @@
         <v>226.50392070919372</v>
       </c>
       <c r="D35" s="1">
-        <v>1</v>
+        <v>655395157.23077214</v>
       </c>
       <c r="E35" s="9">
         <v>4.2628817052710097</v>
@@ -1529,7 +1529,7 @@
         <v>226.50285411899767</v>
       </c>
       <c r="D36" s="1">
-        <v>1</v>
+        <v>607552566.22222638</v>
       </c>
       <c r="E36" s="9">
         <v>4.319724315208969</v>
@@ -1558,7 +1558,7 @@
         <v>228.29965043958953</v>
       </c>
       <c r="D37" s="1">
-        <v>1</v>
+        <v>655584065</v>
       </c>
       <c r="E37" s="9">
         <v>4.1250355851898624</v>
@@ -1587,7 +1587,7 @@
         <v>226.50055228271367</v>
       </c>
       <c r="D38" s="1">
-        <v>1</v>
+        <v>410800607</v>
       </c>
       <c r="E38" s="9">
         <v>4.5214045427923413</v>
@@ -1616,7 +1616,7 @@
         <v>228.29864651943842</v>
       </c>
       <c r="D39" s="1">
-        <v>1</v>
+        <v>821487383.72726858</v>
       </c>
       <c r="E39" s="9">
         <v>4.133334606768206</v>
@@ -1645,7 +1645,7 @@
         <v>224.70277109134065</v>
       </c>
       <c r="D40" s="1">
-        <v>1</v>
+        <v>724833004.6666615</v>
       </c>
       <c r="E40" s="9">
         <v>4.3425983691894992</v>
@@ -1674,7 +1674,7 @@
         <v>224.70182049413802</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>835127889.72726846</v>
       </c>
       <c r="E41" s="9">
         <v>4.2344146856334994</v>
@@ -1703,7 +1703,7 @@
         <v>226.49886645080301</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>725982054.6666615</v>
       </c>
       <c r="E42" s="9">
         <v>4.354676856530264</v>
@@ -1729,10 +1729,10 @@
         <v>337.95382585751997</v>
       </c>
       <c r="C43" s="9">
-        <v>222.90327721739266</v>
+        <v>222.90327721739254</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>825311515.44445205</v>
       </c>
       <c r="E43" s="9">
         <v>4.2663055359840421</v>
@@ -1758,10 +1758,10 @@
         <v>324.45778364116109</v>
       </c>
       <c r="C44" s="9">
-        <v>226.49349197757851</v>
+        <v>226.4934919775784</v>
       </c>
       <c r="D44" s="1">
-        <v>1</v>
+        <v>212239577.54545543</v>
       </c>
       <c r="E44" s="9">
         <v>10.352165798982782</v>
@@ -1790,7 +1790,7 @@
         <v>225.1711145232324</v>
       </c>
       <c r="D45" s="1">
-        <v>1</v>
+        <v>789645395</v>
       </c>
       <c r="E45" s="9">
         <v>4.2813932469823399</v>
@@ -1819,7 +1819,7 @@
         <v>226.98678756863455</v>
       </c>
       <c r="D46" s="1">
-        <v>1</v>
+        <v>891789627.39999604</v>
       </c>
       <c r="E46" s="9">
         <v>4.3591635513598392</v>
@@ -1848,7 +1848,7 @@
         <v>225.16964249432965</v>
       </c>
       <c r="D47" s="1">
-        <v>1</v>
+        <v>859356740.72726846</v>
       </c>
       <c r="E47" s="9">
         <v>4.3900103231106078</v>
@@ -1877,7 +1877,7 @@
         <v>225.1656980524275</v>
       </c>
       <c r="D48" s="1">
-        <v>1</v>
+        <v>220511271.77777839</v>
       </c>
       <c r="E48" s="9">
         <v>7.8387610462924098</v>
@@ -1906,7 +1906,7 @@
         <v>225.17061077125084</v>
       </c>
       <c r="D49" s="1">
-        <v>1</v>
+        <v>745212886.90908897</v>
       </c>
       <c r="E49" s="9">
         <v>4.4449774526720791</v>
@@ -1935,7 +1935,7 @@
         <v>223.35253525271548</v>
       </c>
       <c r="D50" s="1">
-        <v>1</v>
+        <v>1009970065.3333392</v>
       </c>
       <c r="E50" s="9">
         <v>4.7898703319096176</v>
@@ -1964,7 +1964,7 @@
         <v>223.35106432596956</v>
       </c>
       <c r="D51" s="1">
-        <v>1</v>
+        <v>975949690.53332889</v>
       </c>
       <c r="E51" s="9">
         <v>4.6598336634621962</v>
@@ -1993,7 +1993,7 @@
         <v>223.35040702673496</v>
       </c>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>608894238.45455205</v>
       </c>
       <c r="E52" s="9">
         <v>4.9547155755982368</v>
@@ -2022,7 +2022,7 @@
         <v>225.16798832155246</v>
       </c>
       <c r="D53" s="1">
-        <v>1</v>
+        <v>585795701.20000505</v>
       </c>
       <c r="E53" s="9">
         <v>4.8434235248811364</v>
@@ -2048,10 +2048,10 @@
         <v>157.10686015831129</v>
       </c>
       <c r="C54" s="9">
-        <v>221.53459642891687</v>
+        <v>221.53459642891698</v>
       </c>
       <c r="D54" s="1">
-        <v>1</v>
+        <v>772251512.57143569</v>
       </c>
       <c r="E54" s="9">
         <v>4.8358132750765117</v>
@@ -2080,7 +2080,7 @@
         <v>225.16718219622362</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>654227644.18182147</v>
       </c>
       <c r="E55" s="9">
         <v>4.8010053660134338</v>
@@ -2109,7 +2109,7 @@
         <v>225.16849366097915</v>
       </c>
       <c r="D56" s="1">
-        <v>1</v>
+        <v>501374036.15384191</v>
       </c>
       <c r="E56" s="9">
         <v>5.1307644004070339</v>
@@ -2135,10 +2135,10 @@
         <v>92.325857519788883</v>
       </c>
       <c r="C57" s="9">
-        <v>223.35014410900601</v>
+        <v>223.3501441090059</v>
       </c>
       <c r="D57" s="1">
-        <v>1</v>
+        <v>608497874.45455194</v>
       </c>
       <c r="E57" s="9">
         <v>5.2495996036891786</v>
@@ -2167,7 +2167,7 @@
         <v>225.16878904855082</v>
       </c>
       <c r="D58" s="1">
-        <v>1</v>
+        <v>553962103.72727168</v>
       </c>
       <c r="E58" s="9">
         <v>5.1617792857872891</v>
@@ -2196,7 +2196,7 @@
         <v>225.16815331510043</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>682599375.36364186</v>
       </c>
       <c r="E59" s="9">
         <v>4.9606856034550129</v>
@@ -2225,7 +2225,7 @@
         <v>223.35075262007319</v>
       </c>
       <c r="D60" s="1">
-        <v>1</v>
+        <v>475801207.54545552</v>
       </c>
       <c r="E60" s="9">
         <v>5.2894599859748821</v>
@@ -2254,7 +2254,7 @@
         <v>223.35074092797061</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>318211570</v>
       </c>
       <c r="E61" s="9">
         <v>5.5953949290118272</v>
@@ -2282,8 +2282,8 @@
       <c r="C62" s="9">
         <v>374.69984475021965</v>
       </c>
-      <c r="D62" s="1">
-        <v>1</v>
+      <c r="D62" s="9">
+        <v>245201658.19999832</v>
       </c>
       <c r="E62" s="9">
         <v>5.7798756180648878</v>
@@ -2311,8 +2311,8 @@
       <c r="C63" s="9">
         <v>371.06706506215232</v>
       </c>
-      <c r="D63" s="1">
-        <v>1</v>
+      <c r="D63" s="9">
+        <v>333052410.39999712</v>
       </c>
       <c r="E63" s="9">
         <v>6.2725639630022147</v>
@@ -2340,8 +2340,8 @@
       <c r="C64" s="9">
         <v>372.88132790003681</v>
       </c>
-      <c r="D64" s="1">
-        <v>1</v>
+      <c r="D64" s="9">
+        <v>359518211.399997</v>
       </c>
       <c r="E64" s="9">
         <v>6.1355239721793096</v>
@@ -2369,8 +2369,8 @@
       <c r="C65" s="9">
         <v>374.69578342121486</v>
       </c>
-      <c r="D65" s="1">
-        <v>1</v>
+      <c r="D65" s="9">
+        <v>427194761</v>
       </c>
       <c r="E65" s="9">
         <v>6.0240596567397127</v>
@@ -2398,8 +2398,8 @@
       <c r="C66" s="9">
         <v>372.88104795121092</v>
       </c>
-      <c r="D66" s="1">
-        <v>1</v>
+      <c r="D66" s="9">
+        <v>395640393.60000318</v>
       </c>
       <c r="E66" s="9">
         <v>5.7173318623101519</v>
@@ -2427,8 +2427,8 @@
       <c r="C67" s="9">
         <v>372.87695855875461</v>
       </c>
-      <c r="D67" s="1">
-        <v>1</v>
+      <c r="D67" s="9">
+        <v>446669569</v>
       </c>
       <c r="E67" s="9">
         <v>5.7943726607357249</v>
@@ -2456,8 +2456,8 @@
       <c r="C68" s="9">
         <v>369.23932978624896</v>
       </c>
-      <c r="D68" s="1">
-        <v>1</v>
+      <c r="D68" s="9">
+        <v>484175191.19999802</v>
       </c>
       <c r="E68" s="9">
         <v>5.791463441393935</v>
@@ -2485,8 +2485,8 @@
       <c r="C69" s="9">
         <v>371.05415204384133</v>
       </c>
-      <c r="D69" s="1">
-        <v>1</v>
+      <c r="D69" s="9">
+        <v>540189712.20000279</v>
       </c>
       <c r="E69" s="9">
         <v>5.6130365933281263</v>
@@ -2514,8 +2514,8 @@
       <c r="C70" s="9">
         <v>371.05388610368516</v>
       </c>
-      <c r="D70" s="1">
-        <v>1</v>
+      <c r="D70" s="9">
+        <v>387273167.39999688</v>
       </c>
       <c r="E70" s="9">
         <v>5.8549663828433527</v>
@@ -2543,8 +2543,8 @@
       <c r="C71" s="9">
         <v>369.23627363765888</v>
       </c>
-      <c r="D71" s="1">
-        <v>1</v>
+      <c r="D71" s="9">
+        <v>431349549</v>
       </c>
       <c r="E71" s="9">
         <v>5.6796060153216237</v>
@@ -2572,8 +2572,8 @@
       <c r="C72" s="9">
         <v>371.05178678809489</v>
       </c>
-      <c r="D72" s="1">
-        <v>1</v>
+      <c r="D72" s="9">
+        <v>507027602</v>
       </c>
       <c r="E72" s="9">
         <v>5.5363273705678484</v>
@@ -2601,8 +2601,8 @@
       <c r="C73" s="9">
         <v>369.23373531419281</v>
       </c>
-      <c r="D73" s="1">
-        <v>1</v>
+      <c r="D73" s="9">
+        <v>595208155.20000517</v>
       </c>
       <c r="E73" s="9">
         <v>5.475213428436164</v>
@@ -2630,8 +2630,8 @@
       <c r="C74" s="9">
         <v>369.23270844614319</v>
       </c>
-      <c r="D74" s="1">
-        <v>1</v>
+      <c r="D74" s="9">
+        <v>579307018.79999506</v>
       </c>
       <c r="E74" s="9">
         <v>5.5180620916790737</v>
@@ -2659,8 +2659,8 @@
       <c r="C75" s="9">
         <v>371.05016058297019</v>
       </c>
-      <c r="D75" s="1">
-        <v>1</v>
+      <c r="D75" s="9">
+        <v>535274100.80000198</v>
       </c>
       <c r="E75" s="9">
         <v>5.3349980173594576</v>
@@ -2688,8 +2688,8 @@
       <c r="C76" s="9">
         <v>369.23260284807463</v>
       </c>
-      <c r="D76" s="1">
-        <v>1</v>
+      <c r="D76" s="9">
+        <v>360624902.60000306</v>
       </c>
       <c r="E76" s="9">
         <v>5.4905714404893233</v>
@@ -2717,8 +2717,8 @@
       <c r="C77" s="9">
         <v>371.04272885455032</v>
       </c>
-      <c r="D77" s="1">
-        <v>1</v>
+      <c r="D77" s="9">
+        <v>313396412.1999982</v>
       </c>
       <c r="E77" s="9">
         <v>5.309448341199948</v>
@@ -2746,8 +2746,8 @@
       <c r="C78" s="9">
         <v>369.22695800258055</v>
       </c>
-      <c r="D78" s="1">
-        <v>1</v>
+      <c r="D78" s="9">
+        <v>502976201.39999652</v>
       </c>
       <c r="E78" s="9">
         <v>5.2301206169022443</v>
@@ -2775,8 +2775,8 @@
       <c r="C79" s="9">
         <v>367.41017452641233</v>
       </c>
-      <c r="D79" s="1">
-        <v>1</v>
+      <c r="D79" s="9">
+        <v>636715315</v>
       </c>
       <c r="E79" s="9">
         <v>5.3682306851111097</v>
@@ -2804,8 +2804,8 @@
       <c r="C80" s="9">
         <v>369.22738837214399</v>
       </c>
-      <c r="D80" s="1">
-        <v>1</v>
+      <c r="D80" s="9">
+        <v>563076995.20000458</v>
       </c>
       <c r="E80" s="9">
         <v>5.1708676052962304</v>
@@ -2833,8 +2833,8 @@
       <c r="C81" s="9">
         <v>369.2232780448627</v>
       </c>
-      <c r="D81" s="1">
-        <v>1</v>
+      <c r="D81" s="9">
+        <v>509960914.39999652</v>
       </c>
       <c r="E81" s="9">
         <v>5.1301963838657718</v>
@@ -2862,8 +2862,8 @@
       <c r="C82" s="9">
         <v>367.4077794019712</v>
       </c>
-      <c r="D82" s="1">
-        <v>1</v>
+      <c r="D82" s="9">
+        <v>509593410.19999802</v>
       </c>
       <c r="E82" s="9">
         <v>5.2146467180145626</v>
@@ -2891,8 +2891,8 @@
       <c r="C83" s="9">
         <v>367.40674235112965</v>
       </c>
-      <c r="D83" s="1">
-        <v>1</v>
+      <c r="D83" s="9">
+        <v>585049782.81817865</v>
       </c>
       <c r="E83" s="9">
         <v>5.2340266715081496</v>
@@ -2920,8 +2920,8 @@
       <c r="C84" s="9">
         <v>369.22194020482618</v>
       </c>
-      <c r="D84" s="1">
-        <v>1</v>
+      <c r="D84" s="9">
+        <v>681965010.63635814</v>
       </c>
       <c r="E84" s="9">
         <v>5.0129618654645727</v>
@@ -2949,8 +2949,8 @@
       <c r="C85" s="9">
         <v>367.40478033651561</v>
       </c>
-      <c r="D85" s="1">
-        <v>1</v>
+      <c r="D85" s="9">
+        <v>538061232.72727442</v>
       </c>
       <c r="E85" s="9">
         <v>5.0549288776286962</v>
@@ -2978,8 +2978,8 @@
       <c r="C86" s="9">
         <v>365.58948435285913</v>
       </c>
-      <c r="D86" s="1">
-        <v>1</v>
+      <c r="D86" s="9">
+        <v>324612736</v>
       </c>
       <c r="E86" s="9">
         <v>5.6687383591670155</v>
@@ -3005,10 +3005,10 @@
         <v>595.72823218997405</v>
       </c>
       <c r="C87" s="9">
-        <v>367.40329313058305</v>
-      </c>
-      <c r="D87" s="1">
-        <v>1</v>
+        <v>367.40329313058317</v>
+      </c>
+      <c r="D87" s="9">
+        <v>506617988.90908909</v>
       </c>
       <c r="E87" s="9">
         <v>4.9871832082213556</v>
@@ -3036,8 +3036,8 @@
       <c r="C88" s="9">
         <v>365.58623327378052</v>
       </c>
-      <c r="D88" s="1">
-        <v>1</v>
+      <c r="D88" s="9">
+        <v>432875786</v>
       </c>
       <c r="E88" s="9">
         <v>4.9872093427561754</v>
@@ -3065,8 +3065,8 @@
       <c r="C89" s="9">
         <v>365.58440591936085</v>
       </c>
-      <c r="D89" s="1">
-        <v>1</v>
+      <c r="D89" s="9">
+        <v>373811991.90908915</v>
       </c>
       <c r="E89" s="9">
         <v>4.9690535909390388</v>
@@ -3094,8 +3094,8 @@
       <c r="C90" s="9">
         <v>365.58396758224353</v>
       </c>
-      <c r="D90" s="1">
-        <v>1</v>
+      <c r="D90" s="9">
+        <v>430725631.63636577</v>
       </c>
       <c r="E90" s="9">
         <v>4.5544159825435839</v>
@@ -3123,8 +3123,8 @@
       <c r="C91" s="9">
         <v>367.40020667366446</v>
       </c>
-      <c r="D91" s="1">
-        <v>1</v>
+      <c r="D91" s="9">
+        <v>240723344.09091067</v>
       </c>
       <c r="E91" s="9">
         <v>5.259484628119985</v>
@@ -3152,8 +3152,8 @@
       <c r="C92" s="9">
         <v>367.40139110980897</v>
       </c>
-      <c r="D92" s="1">
-        <v>1</v>
+      <c r="D92" s="9">
+        <v>120237072</v>
       </c>
       <c r="E92" s="9">
         <v>4.841843713329034</v>
@@ -3181,8 +3181,8 @@
       <c r="C93" s="9">
         <v>363.76594273370461</v>
       </c>
-      <c r="D93" s="1">
-        <v>1</v>
+      <c r="D93" s="9">
+        <v>205301701</v>
       </c>
       <c r="E93" s="9">
         <v>4.9398785779138459</v>
@@ -3210,8 +3210,8 @@
       <c r="C94" s="9">
         <v>365.58236343472174</v>
       </c>
-      <c r="D94" s="1">
-        <v>1</v>
+      <c r="D94" s="9">
+        <v>348777677</v>
       </c>
       <c r="E94" s="9">
         <v>4.8403399296662686</v>
@@ -3239,8 +3239,8 @@
       <c r="C95" s="9">
         <v>367.40224590316336</v>
       </c>
-      <c r="D95" s="1">
-        <v>1</v>
+      <c r="D95" s="9">
+        <v>309219350.81817937</v>
       </c>
       <c r="E95" s="9">
         <v>5.6398803681206875</v>
@@ -3268,8 +3268,8 @@
       <c r="C96" s="9">
         <v>365.5826097198036</v>
       </c>
-      <c r="D96" s="1">
-        <v>1</v>
+      <c r="D96" s="9">
+        <v>291609188</v>
       </c>
       <c r="E96" s="9">
         <v>5.2618242816127312</v>
@@ -3297,8 +3297,8 @@
       <c r="C97" s="9">
         <v>365.58093788747908</v>
       </c>
-      <c r="D97" s="1">
-        <v>1</v>
+      <c r="D97" s="9">
+        <v>371376850.81817913</v>
       </c>
       <c r="E97" s="9">
         <v>4.9861190708302026</v>
@@ -3326,8 +3326,8 @@
       <c r="C98" s="9">
         <v>365.5792770093027</v>
       </c>
-      <c r="D98" s="1">
-        <v>1</v>
+      <c r="D98" s="9">
+        <v>369726449.77777421</v>
       </c>
       <c r="E98" s="9">
         <v>4.8824420348010511</v>
@@ -3355,8 +3355,8 @@
       <c r="C99" s="9">
         <v>363.76472844502257</v>
       </c>
-      <c r="D99" s="1">
-        <v>1</v>
+      <c r="D99" s="9">
+        <v>339757708.81817925</v>
       </c>
       <c r="E99" s="9">
         <v>5.2103151942116677</v>
@@ -3384,8 +3384,8 @@
       <c r="C100" s="9">
         <v>367.3983490349101</v>
       </c>
-      <c r="D100" s="1">
-        <v>1</v>
+      <c r="D100" s="9">
+        <v>334099266.57142723</v>
       </c>
       <c r="E100" s="9">
         <v>5.1321809606823754</v>
@@ -3413,8 +3413,8 @@
       <c r="C101" s="9">
         <v>365.57841340564937</v>
       </c>
-      <c r="D101" s="1">
-        <v>1</v>
+      <c r="D101" s="9">
+        <v>515744709.42857283</v>
       </c>
       <c r="E101" s="9">
         <v>4.9744376049580854</v>
@@ -3442,8 +3442,8 @@
       <c r="C102" s="9">
         <v>365.57785889245918</v>
       </c>
-      <c r="D102" s="1">
-        <v>1</v>
+      <c r="D102" s="9">
+        <v>534983304.81817871</v>
       </c>
       <c r="E102" s="9">
         <v>5.0601008230031788</v>
@@ -3471,8 +3471,8 @@
       <c r="C103" s="9">
         <v>367.39231789135863</v>
       </c>
-      <c r="D103" s="1">
-        <v>1</v>
+      <c r="D103" s="9">
+        <v>521065111.36363411</v>
       </c>
       <c r="E103" s="9">
         <v>4.5227988950966287</v>
@@ -3500,8 +3500,8 @@
       <c r="C104" s="9">
         <v>365.57673812087808</v>
       </c>
-      <c r="D104" s="1">
-        <v>1</v>
+      <c r="D104" s="9">
+        <v>646447512.36364162</v>
       </c>
       <c r="E104" s="9">
         <v>5.1700891707414982</v>
@@ -3529,8 +3529,8 @@
       <c r="C105" s="9">
         <v>363.75948614872357</v>
       </c>
-      <c r="D105" s="1">
-        <v>1</v>
+      <c r="D105" s="9">
+        <v>567160859.18182135</v>
       </c>
       <c r="E105" s="9">
         <v>5.2453316589665508</v>
@@ -3558,8 +3558,8 @@
       <c r="C106" s="9">
         <v>363.7588659918805</v>
       </c>
-      <c r="D106" s="1">
-        <v>1</v>
+      <c r="D106" s="9">
+        <v>593714722.45455158</v>
       </c>
       <c r="E106" s="9">
         <v>5.1998829896178247</v>
@@ -3587,8 +3587,8 @@
       <c r="C107" s="9">
         <v>361.93987459553398</v>
       </c>
-      <c r="D107" s="1">
-        <v>1</v>
+      <c r="D107" s="9">
+        <v>533315895.7777738</v>
       </c>
       <c r="E107" s="9">
         <v>4.852440035006957</v>
@@ -3616,8 +3616,8 @@
       <c r="C108" s="9">
         <v>360.12166594511507</v>
       </c>
-      <c r="D108" s="1">
-        <v>1</v>
+      <c r="D108" s="9">
+        <v>402478009.54545546</v>
       </c>
       <c r="E108" s="9">
         <v>5.0418770611114763</v>
@@ -3645,8 +3645,8 @@
       <c r="C109" s="9">
         <v>363.75983239870004</v>
       </c>
-      <c r="D109" s="1">
-        <v>1</v>
+      <c r="D109" s="9">
+        <v>641775682.69231451</v>
       </c>
       <c r="E109" s="9">
         <v>5.2332657241841165</v>
@@ -3674,8 +3674,8 @@
       <c r="C110" s="9">
         <v>361.94178438087727</v>
       </c>
-      <c r="D110" s="1">
-        <v>1</v>
+      <c r="D110" s="9">
+        <v>591662537.45455158</v>
       </c>
       <c r="E110" s="9">
         <v>5.3182965598797187</v>
@@ -3703,8 +3703,8 @@
       <c r="C111" s="9">
         <v>361.9415331593641</v>
       </c>
-      <c r="D111" s="1">
-        <v>1</v>
+      <c r="D111" s="9">
+        <v>287742946.18182027</v>
       </c>
       <c r="E111" s="9">
         <v>5.807930730603454</v>
@@ -3732,8 +3732,8 @@
       <c r="C112" s="9">
         <v>361.93997526177907</v>
       </c>
-      <c r="D112" s="1">
-        <v>1</v>
+      <c r="D112" s="9">
+        <v>559568542.09091091</v>
       </c>
       <c r="E112" s="9">
         <v>5.1825236064842537</v>
@@ -3761,8 +3761,8 @@
       <c r="C113" s="9">
         <v>360.12387770573605</v>
       </c>
-      <c r="D113" s="1">
-        <v>1</v>
+      <c r="D113" s="9">
+        <v>444526584.09091091</v>
       </c>
       <c r="E113" s="9">
         <v>5.8859040578235993</v>
@@ -3790,8 +3790,8 @@
       <c r="C114" s="9">
         <v>361.93686273769492</v>
       </c>
-      <c r="D114" s="1">
-        <v>1</v>
+      <c r="D114" s="9">
+        <v>492116771.45454454</v>
       </c>
       <c r="E114" s="9">
         <v>5.1495823375013563</v>
@@ -3819,8 +3819,8 @@
       <c r="C115" s="9">
         <v>365.57297654146339</v>
       </c>
-      <c r="D115" s="1">
-        <v>1</v>
+      <c r="D115" s="9">
+        <v>416625489</v>
       </c>
       <c r="E115" s="9">
         <v>5.5000531090649227</v>
@@ -3848,8 +3848,8 @@
       <c r="C116" s="9">
         <v>363.75803496553783</v>
       </c>
-      <c r="D116" s="1">
-        <v>1</v>
+      <c r="D116" s="9">
+        <v>312777797</v>
       </c>
       <c r="E116" s="9">
         <v>5.6533462198931037</v>
@@ -3877,8 +3877,8 @@
       <c r="C117" s="9">
         <v>361.94298885984392</v>
       </c>
-      <c r="D117" s="1">
-        <v>1</v>
+      <c r="D117" s="9">
+        <v>366473246.09091085</v>
       </c>
       <c r="E117" s="9">
         <v>5.6849071742262414</v>
@@ -3906,8 +3906,8 @@
       <c r="C118" s="9">
         <v>363.76037477542195</v>
       </c>
-      <c r="D118" s="1">
-        <v>1</v>
+      <c r="D118" s="9">
+        <v>334158627.09091079</v>
       </c>
       <c r="E118" s="9">
         <v>5.7589793705646342</v>
@@ -3935,8 +3935,8 @@
       <c r="C119" s="9">
         <v>363.75986432157845</v>
       </c>
-      <c r="D119" s="1">
-        <v>1</v>
+      <c r="D119" s="9">
+        <v>373493976</v>
       </c>
       <c r="E119" s="9">
         <v>5.6220556573730178</v>
@@ -3964,8 +3964,8 @@
       <c r="C120" s="9">
         <v>365.5770942480159</v>
       </c>
-      <c r="D120" s="1">
-        <v>1</v>
+      <c r="D120" s="9">
+        <v>336092839.18182075</v>
       </c>
       <c r="E120" s="9">
         <v>5.4706787669299715</v>
@@ -3993,8 +3993,8 @@
       <c r="C121" s="9">
         <v>361.94060915156695</v>
       </c>
-      <c r="D121" s="1">
-        <v>1</v>
+      <c r="D121" s="9">
+        <v>312377606.72727579</v>
       </c>
       <c r="E121" s="9">
         <v>5.3551671703472392</v>
@@ -4022,8 +4022,8 @@
       <c r="C122" s="9">
         <v>515.10480172481221</v>
       </c>
-      <c r="D122" s="1">
-        <v>1</v>
+      <c r="D122" s="9">
+        <v>168225684</v>
       </c>
       <c r="E122" s="9">
         <v>6.1445441215461294</v>
@@ -4051,8 +4051,8 @@
       <c r="C123" s="9">
         <v>511.46765276464544</v>
       </c>
-      <c r="D123" s="1">
-        <v>1</v>
+      <c r="D123" s="9">
+        <v>235873827.81818265</v>
       </c>
       <c r="E123" s="9">
         <v>6.0744617923413182</v>
@@ -4080,8 +4080,8 @@
       <c r="C124" s="9">
         <v>511.4669010778382</v>
       </c>
-      <c r="D124" s="1">
-        <v>1</v>
+      <c r="D124" s="9">
+        <v>293519588.45454478</v>
       </c>
       <c r="E124" s="9">
         <v>5.8475021019389732</v>
@@ -4109,8 +4109,8 @@
       <c r="C125" s="9">
         <v>511.46483277812126</v>
       </c>
-      <c r="D125" s="1">
-        <v>1</v>
+      <c r="D125" s="9">
+        <v>318577947.54545522</v>
       </c>
       <c r="E125" s="9">
         <v>5.9062229073728894</v>
@@ -4138,8 +4138,8 @@
       <c r="C126" s="9">
         <v>511.46134288317205</v>
       </c>
-      <c r="D126" s="1">
-        <v>1</v>
+      <c r="D126" s="9">
+        <v>328538052.54545522</v>
       </c>
       <c r="E126" s="9">
         <v>5.7822011506912405</v>
@@ -4167,8 +4167,8 @@
       <c r="C127" s="9">
         <v>511.46271658022931</v>
       </c>
-      <c r="D127" s="1">
-        <v>1</v>
+      <c r="D127" s="9">
+        <v>376935611.72727549</v>
       </c>
       <c r="E127" s="9">
         <v>5.9040918271876093</v>
@@ -4196,8 +4196,8 @@
       <c r="C128" s="9">
         <v>509.64424726973732</v>
       </c>
-      <c r="D128" s="1">
-        <v>1</v>
+      <c r="D128" s="9">
+        <v>354820125.19999856</v>
       </c>
       <c r="E128" s="9">
         <v>5.9692814195965465</v>
@@ -4223,10 +4223,10 @@
         <v>873.74670184696618</v>
       </c>
       <c r="C129" s="9">
-        <v>507.82251106330602</v>
-      </c>
-      <c r="D129" s="1">
-        <v>1</v>
+        <v>507.82251106330614</v>
+      </c>
+      <c r="D129" s="9">
+        <v>365069462.36363506</v>
       </c>
       <c r="E129" s="9">
         <v>6.0785929344791656</v>
@@ -4254,8 +4254,8 @@
       <c r="C130" s="9">
         <v>509.64015676978067</v>
       </c>
-      <c r="D130" s="1">
-        <v>1</v>
+      <c r="D130" s="9">
+        <v>385074833.54545528</v>
       </c>
       <c r="E130" s="9">
         <v>5.7763422872356429</v>
@@ -4283,8 +4283,8 @@
       <c r="C131" s="9">
         <v>509.63980252673218</v>
       </c>
-      <c r="D131" s="1">
-        <v>1</v>
+      <c r="D131" s="9">
+        <v>326480684.54545522</v>
       </c>
       <c r="E131" s="9">
         <v>5.8778744709153283</v>
@@ -4312,8 +4312,8 @@
       <c r="C132" s="9">
         <v>509.63927722258984</v>
       </c>
-      <c r="D132" s="1">
-        <v>1</v>
+      <c r="D132" s="9">
+        <v>313520198.6363647</v>
       </c>
       <c r="E132" s="9">
         <v>5.890021999984822</v>
@@ -4341,8 +4341,8 @@
       <c r="C133" s="9">
         <v>509.63809188696098</v>
       </c>
-      <c r="D133" s="1">
-        <v>1</v>
+      <c r="D133" s="9">
+        <v>374425042.45454472</v>
       </c>
       <c r="E133" s="9">
         <v>5.8852139952195346</v>
@@ -4370,8 +4370,8 @@
       <c r="C134" s="9">
         <v>507.82044215047949</v>
       </c>
-      <c r="D134" s="1">
-        <v>1</v>
+      <c r="D134" s="9">
+        <v>388369318.63636506</v>
       </c>
       <c r="E134" s="9">
         <v>5.8148516969506439</v>
@@ -4399,8 +4399,8 @@
       <c r="C135" s="9">
         <v>509.63534153553076</v>
       </c>
-      <c r="D135" s="1">
-        <v>1</v>
+      <c r="D135" s="9">
+        <v>403688699.1999985</v>
       </c>
       <c r="E135" s="9">
         <v>5.7067577667764899</v>
@@ -4428,8 +4428,8 @@
       <c r="C136" s="9">
         <v>507.81706577895432</v>
       </c>
-      <c r="D136" s="1">
-        <v>1</v>
+      <c r="D136" s="9">
+        <v>341459300.45454472</v>
       </c>
       <c r="E136" s="9">
         <v>5.5812059232808009</v>
@@ -4457,8 +4457,8 @@
       <c r="C137" s="9">
         <v>505.99770154874057</v>
       </c>
-      <c r="D137" s="1">
-        <v>1</v>
+      <c r="D137" s="9">
+        <v>354303300.36363506</v>
       </c>
       <c r="E137" s="9">
         <v>5.4790088696307233</v>
@@ -4486,8 +4486,8 @@
       <c r="C138" s="9">
         <v>507.42994470830195</v>
       </c>
-      <c r="D138" s="1">
-        <v>1</v>
+      <c r="D138" s="9">
+        <v>285163752</v>
       </c>
       <c r="E138" s="9">
         <v>5.8280229705181963</v>
@@ -4515,8 +4515,8 @@
       <c r="C139" s="9">
         <v>503.79391923631533</v>
       </c>
-      <c r="D139" s="1">
-        <v>1</v>
+      <c r="D139" s="9">
+        <v>260203030.80000135</v>
       </c>
       <c r="E139" s="9">
         <v>5.7462403154205877</v>
@@ -4544,8 +4544,8 @@
       <c r="C140" s="9">
         <v>505.6092845986733</v>
       </c>
-      <c r="D140" s="1">
-        <v>1</v>
+      <c r="D140" s="9">
+        <v>232140342.27272764</v>
       </c>
       <c r="E140" s="9">
         <v>5.6900558209867134</v>
@@ -4573,8 +4573,8 @@
       <c r="C141" s="9">
         <v>507.4259247048343</v>
       </c>
-      <c r="D141" s="1">
-        <v>1</v>
+      <c r="D141" s="9">
+        <v>254329995.27272764</v>
       </c>
       <c r="E141" s="9">
         <v>5.4505521913121449</v>
@@ -4602,8 +4602,8 @@
       <c r="C142" s="9">
         <v>505.6073889492186</v>
       </c>
-      <c r="D142" s="1">
-        <v>1</v>
+      <c r="D142" s="9">
+        <v>245016204.36363792</v>
       </c>
       <c r="E142" s="9">
         <v>5.4714257683079035</v>
@@ -4631,8 +4631,8 @@
       <c r="C143" s="9">
         <v>505.60713743009535</v>
       </c>
-      <c r="D143" s="1">
-        <v>1</v>
+      <c r="D143" s="9">
+        <v>274148444.09091038</v>
       </c>
       <c r="E143" s="9">
         <v>5.5561214401047447</v>
@@ -4660,8 +4660,8 @@
       <c r="C144" s="9">
         <v>503.78908724623773</v>
       </c>
-      <c r="D144" s="1">
-        <v>1</v>
+      <c r="D144" s="9">
+        <v>214112131.90908974</v>
       </c>
       <c r="E144" s="9">
         <v>5.5383593004783362</v>
@@ -4689,8 +4689,8 @@
       <c r="C145" s="9">
         <v>503.78861184228151</v>
       </c>
-      <c r="D145" s="1">
-        <v>1</v>
+      <c r="D145" s="9">
+        <v>157018661</v>
       </c>
       <c r="E145" s="9">
         <v>5.3146106205185566</v>
@@ -4718,8 +4718,8 @@
       <c r="C146" s="9">
         <v>505.60432985684884</v>
       </c>
-      <c r="D146" s="1">
-        <v>1</v>
+      <c r="D146" s="9">
+        <v>89356171.181818813</v>
       </c>
       <c r="E146" s="9">
         <v>5.4819254653852463</v>
@@ -4747,8 +4747,8 @@
       <c r="C147" s="9">
         <v>503.78677445327128</v>
       </c>
-      <c r="D147" s="1">
-        <v>1</v>
+      <c r="D147" s="9">
+        <v>70445611</v>
       </c>
       <c r="E147" s="9">
         <v>5.4811575786477267</v>
@@ -4776,8 +4776,8 @@
       <c r="C148" s="9">
         <v>503.78489596972361</v>
       </c>
-      <c r="D148" s="1">
-        <v>1</v>
+      <c r="D148" s="9">
+        <v>76628887</v>
       </c>
       <c r="E148" s="9">
         <v>5.3291813206343335</v>
@@ -4803,10 +4803,10 @@
         <v>552.564746932508</v>
       </c>
       <c r="C149" s="9">
-        <v>503.78375951234875</v>
-      </c>
-      <c r="D149" s="1">
-        <v>1</v>
+        <v>503.78375951234887</v>
+      </c>
+      <c r="D149" s="9">
+        <v>63283263.799999647</v>
       </c>
       <c r="E149" s="9">
         <v>5.3872203735684616</v>
@@ -4834,8 +4834,8 @@
       <c r="C150" s="9">
         <v>503.7829278961176</v>
       </c>
-      <c r="D150" s="1">
-        <v>1</v>
+      <c r="D150" s="9">
+        <v>50125290.909090549</v>
       </c>
       <c r="E150" s="9">
         <v>5.2425747785742089</v>
@@ -4863,8 +4863,8 @@
       <c r="C151" s="9">
         <v>501.96482859112973</v>
       </c>
-      <c r="D151" s="1">
-        <v>1</v>
+      <c r="D151" s="9">
+        <v>53839362.363636196</v>
       </c>
       <c r="E151" s="9">
         <v>5.1413708639784996</v>
@@ -4892,8 +4892,8 @@
       <c r="C152" s="9">
         <v>649.67044848296143</v>
       </c>
-      <c r="D152" s="1">
-        <v>1</v>
+      <c r="D152" s="9">
+        <v>29383877.600000169</v>
       </c>
       <c r="E152" s="9">
         <v>5.8327627476879362</v>
@@ -4921,8 +4921,8 @@
       <c r="C153" s="9">
         <v>649.67028565427142</v>
       </c>
-      <c r="D153" s="1">
-        <v>1</v>
+      <c r="D153" s="9">
+        <v>55695372.636363804</v>
       </c>
       <c r="E153" s="9">
         <v>5.7919899526010559</v>
@@ -4950,8 +4950,8 @@
       <c r="C154" s="9">
         <v>651.48445055304649</v>
       </c>
-      <c r="D154" s="1">
-        <v>1</v>
+      <c r="D154" s="9">
+        <v>109361311</v>
       </c>
       <c r="E154" s="9">
         <v>5.9182770619013301</v>
@@ -4979,8 +4979,8 @@
       <c r="C155" s="9">
         <v>651.48991934678463</v>
       </c>
-      <c r="D155" s="1">
-        <v>1</v>
+      <c r="D155" s="9">
+        <v>80662320.799999624</v>
       </c>
       <c r="E155" s="9">
         <v>7.4327272048532844</v>
@@ -5008,8 +5008,8 @@
       <c r="C156" s="9">
         <v>649.66472348634795</v>
       </c>
-      <c r="D156" s="1">
-        <v>1</v>
+      <c r="D156" s="9">
+        <v>257780882.45454478</v>
       </c>
       <c r="E156" s="9">
         <v>5.9178623728870754</v>
@@ -5037,8 +5037,8 @@
       <c r="C157" s="9">
         <v>646.03098671670966</v>
       </c>
-      <c r="D157" s="1">
-        <v>1</v>
+      <c r="D157" s="9">
+        <v>292750757</v>
       </c>
       <c r="E157" s="9">
         <v>6.2076929932944083</v>
@@ -5066,8 +5066,8 @@
       <c r="C158" s="9">
         <v>647.84635528910837</v>
       </c>
-      <c r="D158" s="1">
-        <v>1</v>
+      <c r="D158" s="9">
+        <v>393719372.60000235</v>
       </c>
       <c r="E158" s="9">
         <v>5.8486026887289055</v>
@@ -5095,8 +5095,8 @@
       <c r="C159" s="9">
         <v>646.02846505095874</v>
       </c>
-      <c r="D159" s="1">
-        <v>1</v>
+      <c r="D159" s="9">
+        <v>426849820.45454472</v>
       </c>
       <c r="E159" s="9">
         <v>5.9782212421251506</v>
@@ -5124,8 +5124,8 @@
       <c r="C160" s="9">
         <v>649.66129453791666</v>
       </c>
-      <c r="D160" s="1">
-        <v>1</v>
+      <c r="D160" s="9">
+        <v>450255660</v>
       </c>
       <c r="E160" s="9">
         <v>5.9928580459318104</v>
@@ -5153,8 +5153,8 @@
       <c r="C161" s="9">
         <v>647.83906875552282</v>
       </c>
-      <c r="D161" s="1">
-        <v>1</v>
+      <c r="D161" s="9">
+        <v>411043957.8000015</v>
       </c>
       <c r="E161" s="9">
         <v>6.2935168645417319</v>
@@ -5182,8 +5182,8 @@
       <c r="C162" s="9">
         <v>646.02267582378488</v>
       </c>
-      <c r="D162" s="1">
-        <v>1</v>
+      <c r="D162" s="9">
+        <v>627968913.18182063</v>
       </c>
       <c r="E162" s="9">
         <v>5.9682843504328602</v>
@@ -5211,8 +5211,8 @@
       <c r="C163" s="9">
         <v>644.20327309949823</v>
       </c>
-      <c r="D163" s="1">
-        <v>1</v>
+      <c r="D163" s="9">
+        <v>649712188.60000288</v>
       </c>
       <c r="E163" s="9">
         <v>5.8272035396102488</v>
@@ -5240,8 +5240,8 @@
       <c r="C164" s="9">
         <v>646.02217781633419</v>
       </c>
-      <c r="D164" s="1">
-        <v>1</v>
+      <c r="D164" s="9">
+        <v>589661765.09091055</v>
       </c>
       <c r="E164" s="9">
         <v>6.0301317861258044</v>
@@ -5269,8 +5269,8 @@
       <c r="C165" s="9">
         <v>644.20317942531562</v>
       </c>
-      <c r="D165" s="1">
-        <v>1</v>
+      <c r="D165" s="9">
+        <v>455125751.19999844</v>
       </c>
       <c r="E165" s="9">
         <v>6.3149343380011542</v>
@@ -5296,10 +5296,10 @@
         <v>767.15181817261373</v>
       </c>
       <c r="C166" s="9">
-        <v>646.01725859433316</v>
-      </c>
-      <c r="D166" s="1">
-        <v>1</v>
+        <v>646.01725859433338</v>
+      </c>
+      <c r="D166" s="9">
+        <v>458040047.18182033</v>
       </c>
       <c r="E166" s="9">
         <v>6.3523123946644846</v>
@@ -5327,8 +5327,8 @@
       <c r="C167" s="9">
         <v>646.01639258389616</v>
       </c>
-      <c r="D167" s="1">
-        <v>1</v>
+      <c r="D167" s="9">
+        <v>663295729.90908945</v>
       </c>
       <c r="E167" s="9">
         <v>5.7319663663955165</v>
@@ -5356,8 +5356,8 @@
       <c r="C168" s="9">
         <v>647.83297266286093</v>
       </c>
-      <c r="D168" s="1">
-        <v>1</v>
+      <c r="D168" s="9">
+        <v>536744202.60000271</v>
       </c>
       <c r="E168" s="9">
         <v>5.9877848189655181</v>
@@ -5385,8 +5385,8 @@
       <c r="C169" s="9">
         <v>644.19485748009799</v>
       </c>
-      <c r="D169" s="1">
-        <v>1</v>
+      <c r="D169" s="9">
+        <v>553681996</v>
       </c>
       <c r="E169" s="9">
         <v>5.6698850377150789</v>
@@ -5414,8 +5414,8 @@
       <c r="C170" s="9">
         <v>644.19519171356558</v>
       </c>
-      <c r="D170" s="1">
-        <v>1</v>
+      <c r="D170" s="9">
+        <v>683261849.72727025</v>
       </c>
       <c r="E170" s="9">
         <v>5.9592702097928916</v>
@@ -5443,8 +5443,8 @@
       <c r="C171" s="9">
         <v>644.19499121545925</v>
       </c>
-      <c r="D171" s="1">
-        <v>1</v>
+      <c r="D171" s="9">
+        <v>607923233</v>
       </c>
       <c r="E171" s="9">
         <v>5.9828394057774519</v>
@@ -5472,8 +5472,8 @@
       <c r="C172" s="9">
         <v>646.00983830359871</v>
       </c>
-      <c r="D172" s="1">
-        <v>1</v>
+      <c r="D172" s="9">
+        <v>579241569.45454967</v>
       </c>
       <c r="E172" s="9">
         <v>6.0442070656448124</v>
@@ -5501,8 +5501,8 @@
       <c r="C173" s="9">
         <v>644.19486152409252</v>
       </c>
-      <c r="D173" s="1">
-        <v>1</v>
+      <c r="D173" s="9">
+        <v>340226988.45454472</v>
       </c>
       <c r="E173" s="9">
         <v>6.4117320298056448</v>
@@ -5528,10 +5528,10 @@
         <v>597.10168624649214</v>
       </c>
       <c r="C174" s="9">
-        <v>646.00696942294041</v>
-      </c>
-      <c r="D174" s="1">
-        <v>1</v>
+        <v>646.00696942294064</v>
+      </c>
+      <c r="D174" s="9">
+        <v>514462709.27272409</v>
       </c>
       <c r="E174" s="9">
         <v>5.727928904015136</v>
@@ -5559,8 +5559,8 @@
       <c r="C175" s="9">
         <v>640.55645740527268</v>
       </c>
-      <c r="D175" s="1">
-        <v>1</v>
+      <c r="D175" s="9">
+        <v>399738386.81817979</v>
       </c>
       <c r="E175" s="9">
         <v>6.2878815286865057</v>
@@ -5588,8 +5588,8 @@
       <c r="C176" s="9">
         <v>642.37222899387314</v>
       </c>
-      <c r="D176" s="1">
-        <v>1</v>
+      <c r="D176" s="9">
+        <v>478528449.81817961</v>
       </c>
       <c r="E176" s="9">
         <v>6.0145800962839102</v>
@@ -5617,8 +5617,8 @@
       <c r="C177" s="9">
         <v>642.37145577301555</v>
       </c>
-      <c r="D177" s="1">
-        <v>1</v>
+      <c r="D177" s="9">
+        <v>351562263.27272469</v>
       </c>
       <c r="E177" s="9">
         <v>6.1741329298651122</v>
@@ -5646,8 +5646,8 @@
       <c r="C178" s="9">
         <v>640.55668558504715</v>
       </c>
-      <c r="D178" s="1">
-        <v>1</v>
+      <c r="D178" s="9">
+        <v>273342681.19999862</v>
       </c>
       <c r="E178" s="9">
         <v>6.3378805717461555</v>
@@ -5675,8 +5675,8 @@
       <c r="C179" s="9">
         <v>640.55138854120821</v>
       </c>
-      <c r="D179" s="1">
-        <v>1</v>
+      <c r="D179" s="9">
+        <v>232983695.19999874</v>
       </c>
       <c r="E179" s="9">
         <v>5.9453626390042951</v>
@@ -5704,8 +5704,8 @@
       <c r="C180" s="9">
         <v>640.55044856164466</v>
       </c>
-      <c r="D180" s="1">
-        <v>1</v>
+      <c r="D180" s="9">
+        <v>280543881.39999849</v>
       </c>
       <c r="E180" s="9">
         <v>5.825656408561275</v>
@@ -5733,8 +5733,8 @@
       <c r="C181" s="9">
         <v>638.73667887959607</v>
       </c>
-      <c r="D181" s="1">
-        <v>1</v>
+      <c r="D181" s="9">
+        <v>222396121.59999922</v>
       </c>
       <c r="E181" s="9">
         <v>6.2689942543172581</v>
@@ -5762,8 +5762,8 @@
       <c r="C182" s="9">
         <v>790.07518198956711</v>
       </c>
-      <c r="D182" s="1">
-        <v>1</v>
+      <c r="D182" s="9">
+        <v>471636350.81817967</v>
       </c>
       <c r="E182" s="9">
         <v>5.8682840675046721</v>
@@ -5791,8 +5791,8 @@
       <c r="C183" s="9">
         <v>786.99422281605973</v>
       </c>
-      <c r="D183" s="1">
-        <v>1</v>
+      <c r="D183" s="9">
+        <v>389006650.60000229</v>
       </c>
       <c r="E183" s="9">
         <v>6.6417848047731356</v>
@@ -5820,8 +5820,8 @@
       <c r="C184" s="9">
         <v>788.78601516818742</v>
       </c>
-      <c r="D184" s="1">
-        <v>1</v>
+      <c r="D184" s="9">
+        <v>669692711.90908945</v>
       </c>
       <c r="E184" s="9">
         <v>5.8959589685960028</v>
@@ -5849,8 +5849,8 @@
       <c r="C185" s="9">
         <v>785.19084572402346</v>
       </c>
-      <c r="D185" s="1">
-        <v>1</v>
+      <c r="D185" s="9">
+        <v>692014699.54544938</v>
       </c>
       <c r="E185" s="9">
         <v>6.0692026394203475</v>
@@ -5878,8 +5878,8 @@
       <c r="C186" s="9">
         <v>786.98735015781847</v>
       </c>
-      <c r="D186" s="1">
-        <v>1</v>
+      <c r="D186" s="9">
+        <v>679613474.39999712</v>
       </c>
       <c r="E186" s="9">
         <v>6.3211556052751661</v>
@@ -5907,8 +5907,8 @@
       <c r="C187" s="9">
         <v>788.7808667782482</v>
       </c>
-      <c r="D187" s="1">
-        <v>1</v>
+      <c r="D187" s="9">
+        <v>629112920</v>
       </c>
       <c r="E187" s="9">
         <v>6.2131468929833433</v>
@@ -5936,8 +5936,8 @@
       <c r="C188" s="9">
         <v>785.18468029105463</v>
       </c>
-      <c r="D188" s="1">
-        <v>1</v>
+      <c r="D188" s="9">
+        <v>668332174.39999712</v>
       </c>
       <c r="E188" s="9">
         <v>5.9610703800337195</v>
@@ -5965,8 +5965,8 @@
       <c r="C189" s="9">
         <v>783.3857390957595</v>
       </c>
-      <c r="D189" s="1">
-        <v>1</v>
+      <c r="D189" s="9">
+        <v>622433626.60000277</v>
       </c>
       <c r="E189" s="9">
         <v>6.3046450914251464</v>
@@ -5994,8 +5994,8 @@
       <c r="C190" s="9">
         <v>786.97967831607491</v>
       </c>
-      <c r="D190" s="1">
-        <v>1</v>
+      <c r="D190" s="9">
+        <v>955204252.09091067</v>
       </c>
       <c r="E190" s="9">
         <v>6.0759251828698835</v>
@@ -6023,8 +6023,8 @@
       <c r="C191" s="9">
         <v>785.17936759990278</v>
       </c>
-      <c r="D191" s="1">
-        <v>1</v>
+      <c r="D191" s="9">
+        <v>853059869.79999506</v>
       </c>
       <c r="E191" s="9">
         <v>6.3053439014213639</v>
@@ -6052,8 +6052,8 @@
       <c r="C192" s="9">
         <v>783.38368029881019</v>
       </c>
-      <c r="D192" s="1">
-        <v>1</v>
+      <c r="D192" s="9">
+        <v>976896566.72726941</v>
       </c>
       <c r="E192" s="9">
         <v>5.8594331036838163</v>
@@ -6081,8 +6081,8 @@
       <c r="C193" s="9">
         <v>781.57937383392243</v>
       </c>
-      <c r="D193" s="1">
-        <v>1</v>
+      <c r="D193" s="9">
+        <v>664917425.7999959</v>
       </c>
       <c r="E193" s="9">
         <v>5.7789053884956489</v>
@@ -6110,8 +6110,8 @@
       <c r="C194" s="9">
         <v>785.17638039829797</v>
       </c>
-      <c r="D194" s="1">
-        <v>1</v>
+      <c r="D194" s="9">
+        <v>679322593.39999712</v>
       </c>
       <c r="E194" s="9">
         <v>6.3732372921166123</v>
@@ -6139,8 +6139,8 @@
       <c r="C195" s="9">
         <v>781.57881002329111</v>
       </c>
-      <c r="D195" s="1">
-        <v>1</v>
+      <c r="D195" s="9">
+        <v>814980956.5454489</v>
       </c>
       <c r="E195" s="9">
         <v>6.0567741243947166</v>
@@ -6168,8 +6168,8 @@
       <c r="C196" s="9">
         <v>781.57706983367291</v>
       </c>
-      <c r="D196" s="1">
-        <v>1</v>
+      <c r="D196" s="9">
+        <v>738390738.90908945</v>
       </c>
       <c r="E196" s="9">
         <v>5.660877159125925</v>
@@ -6197,8 +6197,8 @@
       <c r="C197" s="9">
         <v>781.57618354788872</v>
       </c>
-      <c r="D197" s="1">
-        <v>1</v>
+      <c r="D197" s="9">
+        <v>400440242.8000015</v>
       </c>
       <c r="E197" s="9">
         <v>6.4368731159559216</v>
@@ -6226,8 +6226,8 @@
       <c r="C198" s="9">
         <v>785.16880195006922</v>
       </c>
-      <c r="D198" s="1">
-        <v>1</v>
+      <c r="D198" s="9">
+        <v>613588182.09091055</v>
       </c>
       <c r="E198" s="9">
         <v>6.5677424235309703</v>
@@ -6255,8 +6255,8 @@
       <c r="C199" s="9">
         <v>781.57285837837242</v>
       </c>
-      <c r="D199" s="1">
-        <v>1</v>
+      <c r="D199" s="9">
+        <v>826619540.72726977</v>
       </c>
       <c r="E199" s="9">
         <v>6.1686938441393453</v>
@@ -6284,8 +6284,8 @@
       <c r="C200" s="9">
         <v>779.77398162530005</v>
       </c>
-      <c r="D200" s="1">
-        <v>1</v>
+      <c r="D200" s="9">
+        <v>998347233.39999688</v>
       </c>
       <c r="E200" s="9">
         <v>5.8843566356625052</v>
@@ -6313,8 +6313,8 @@
       <c r="C201" s="9">
         <v>781.56918911626133</v>
       </c>
-      <c r="D201" s="1">
-        <v>1</v>
+      <c r="D201" s="9">
+        <v>845999730.33333731</v>
       </c>
       <c r="E201" s="9">
         <v>5.8495402488702402</v>
@@ -6342,8 +6342,8 @@
       <c r="C202" s="9">
         <v>779.77262383960954</v>
       </c>
-      <c r="D202" s="1">
-        <v>1</v>
+      <c r="D202" s="9">
+        <v>837203480.3636409</v>
       </c>
       <c r="E202" s="9">
         <v>5.8793542086988788</v>
@@ -6371,8 +6371,8 @@
       <c r="C203" s="9">
         <v>779.77288190632942</v>
       </c>
-      <c r="D203" s="1">
-        <v>1</v>
+      <c r="D203" s="9">
+        <v>744949763.79999554</v>
       </c>
       <c r="E203" s="9">
         <v>6.2567037358911541</v>
@@ -6400,8 +6400,8 @@
       <c r="C204" s="9">
         <v>777.97357335873528</v>
       </c>
-      <c r="D204" s="1">
-        <v>1</v>
+      <c r="D204" s="9">
+        <v>779298791.09091055</v>
       </c>
       <c r="E204" s="9">
         <v>6.1174479265186212</v>
@@ -6429,8 +6429,8 @@
       <c r="C205" s="9">
         <v>779.77157231077024</v>
       </c>
-      <c r="D205" s="1">
-        <v>1</v>
+      <c r="D205" s="9">
+        <v>861272873.90908933</v>
       </c>
       <c r="E205" s="9">
         <v>6.1186922564846791</v>
@@ -6458,8 +6458,8 @@
       <c r="C206" s="9">
         <v>779.77064004742158</v>
       </c>
-      <c r="D206" s="1">
-        <v>1</v>
+      <c r="D206" s="9">
+        <v>586596169</v>
       </c>
       <c r="E206" s="9">
         <v>6.1174553905991162</v>
@@ -6487,8 +6487,8 @@
       <c r="C207" s="9">
         <v>779.76719501208606</v>
       </c>
-      <c r="D207" s="1">
-        <v>1</v>
+      <c r="D207" s="9">
+        <v>566325786.79999685</v>
       </c>
       <c r="E207" s="9">
         <v>5.6759386317215128</v>
@@ -6516,8 +6516,8 @@
       <c r="C208" s="9">
         <v>777.96798065164433</v>
       </c>
-      <c r="D208" s="1">
-        <v>1</v>
+      <c r="D208" s="9">
+        <v>584045534.39999723</v>
       </c>
       <c r="E208" s="9">
         <v>5.6063389052922403</v>
@@ -6545,8 +6545,8 @@
       <c r="C209" s="9">
         <v>777.96672978871482</v>
       </c>
-      <c r="D209" s="1">
-        <v>1</v>
+      <c r="D209" s="9">
+        <v>600396243</v>
       </c>
       <c r="E209" s="9">
         <v>6.0165451487445898</v>
@@ -6574,8 +6574,8 @@
       <c r="C210" s="9">
         <v>776.17070384700844</v>
       </c>
-      <c r="D210" s="1">
-        <v>1</v>
+      <c r="D210" s="9">
+        <v>456886111.19999844</v>
       </c>
       <c r="E210" s="9">
         <v>5.7320981146950682</v>
@@ -6603,8 +6603,8 @@
       <c r="C211" s="9">
         <v>776.16884380864724</v>
       </c>
-      <c r="D211" s="1">
-        <v>1</v>
+      <c r="D211" s="9">
+        <v>634473285.20000398</v>
       </c>
       <c r="E211" s="9">
         <v>5.8295269038400583</v>
@@ -6632,8 +6632,8 @@
       <c r="C212" s="9">
         <v>501.92318758476324</v>
       </c>
-      <c r="D212" s="1">
-        <v>1</v>
+      <c r="D212" s="9">
+        <v>162323036.3636376</v>
       </c>
       <c r="E212" s="9">
         <v>5.3778945719584463</v>
@@ -6661,8 +6661,8 @@
       <c r="C213" s="9">
         <v>503.72048700187725</v>
       </c>
-      <c r="D213" s="1">
-        <v>1</v>
+      <c r="D213" s="9">
+        <v>282376440.45454478</v>
       </c>
       <c r="E213" s="9">
         <v>5.4019007735936135</v>
@@ -6690,8 +6690,8 @@
       <c r="C214" s="9">
         <v>501.92430384398256</v>
       </c>
-      <c r="D214" s="1">
-        <v>1</v>
+      <c r="D214" s="9">
+        <v>255776806.36363795</v>
       </c>
       <c r="E214" s="9">
         <v>5.5798509226049609</v>
@@ -6719,8 +6719,8 @@
       <c r="C215" s="9">
         <v>503.72065036883498</v>
       </c>
-      <c r="D215" s="1">
-        <v>1</v>
+      <c r="D215" s="9">
+        <v>279135547.1818195</v>
       </c>
       <c r="E215" s="9">
         <v>5.4018524890901833</v>
@@ -6748,8 +6748,8 @@
       <c r="C216" s="9">
         <v>501.92323354381358</v>
       </c>
-      <c r="D216" s="1">
-        <v>1</v>
+      <c r="D216" s="9">
+        <v>283299954</v>
       </c>
       <c r="E216" s="9">
         <v>5.4206189584703788</v>
@@ -6777,8 +6777,8 @@
       <c r="C217" s="9">
         <v>503.71979770638166</v>
       </c>
-      <c r="D217" s="1">
-        <v>1</v>
+      <c r="D217" s="9">
+        <v>442964186.45454472</v>
       </c>
       <c r="E217" s="9">
         <v>5.2449272968782514</v>
@@ -6806,8 +6806,8 @@
       <c r="C218" s="9">
         <v>501.67256604436318</v>
       </c>
-      <c r="D218" s="1">
-        <v>1</v>
+      <c r="D218" s="9">
+        <v>403780995</v>
       </c>
       <c r="E218" s="9">
         <v>5.3933504829981027</v>
@@ -6835,8 +6835,8 @@
       <c r="C219" s="9">
         <v>503.47062217807036</v>
       </c>
-      <c r="D219" s="1">
-        <v>1</v>
+      <c r="D219" s="9">
+        <v>365151468.27272451</v>
       </c>
       <c r="E219" s="9">
         <v>5.2711677121629013</v>
@@ -6864,8 +6864,8 @@
       <c r="C220" s="9">
         <v>503.46717774659498</v>
       </c>
-      <c r="D220" s="1">
-        <v>1</v>
+      <c r="D220" s="9">
+        <v>344122580.54545528</v>
       </c>
       <c r="E220" s="9">
         <v>4.9618180728369854</v>
@@ -6893,8 +6893,8 @@
       <c r="C221" s="9">
         <v>501.67246921719936</v>
       </c>
-      <c r="D221" s="1">
-        <v>1</v>
+      <c r="D221" s="9">
+        <v>362221197.27272451</v>
       </c>
       <c r="E221" s="9">
         <v>5.4657207142338695</v>
@@ -6922,8 +6922,8 @@
       <c r="C222" s="9">
         <v>501.67056482830787</v>
       </c>
-      <c r="D222" s="1">
-        <v>1</v>
+      <c r="D222" s="9">
+        <v>536796547.27272427</v>
       </c>
       <c r="E222" s="9">
         <v>5.4582782030028767</v>
@@ -6951,8 +6951,8 @@
       <c r="C223" s="9">
         <v>501.67040836636045</v>
       </c>
-      <c r="D223" s="1">
-        <v>1</v>
+      <c r="D223" s="9">
+        <v>451098713.81817961</v>
       </c>
       <c r="E223" s="9">
         <v>5.39970381994139</v>
@@ -6980,8 +6980,8 @@
       <c r="C224" s="9">
         <v>503.46860298798299</v>
       </c>
-      <c r="D224" s="1">
-        <v>1</v>
+      <c r="D224" s="9">
+        <v>436765792.81817967</v>
       </c>
       <c r="E224" s="9">
         <v>5.5207371154542111</v>
@@ -7009,8 +7009,8 @@
       <c r="C225" s="9">
         <v>501.67007416064178</v>
       </c>
-      <c r="D225" s="1">
-        <v>1</v>
+      <c r="D225" s="9">
+        <v>460959705.81817955</v>
       </c>
       <c r="E225" s="9">
         <v>5.3821958331051896</v>
@@ -7038,8 +7038,8 @@
       <c r="C226" s="9">
         <v>503.46831436736011</v>
       </c>
-      <c r="D226" s="1">
-        <v>1</v>
+      <c r="D226" s="9">
+        <v>328784776.45454472</v>
       </c>
       <c r="E226" s="9">
         <v>5.4314183765185184</v>
@@ -7067,8 +7067,8 @@
       <c r="C227" s="9">
         <v>503.46807055766533</v>
       </c>
-      <c r="D227" s="1">
-        <v>1</v>
+      <c r="D227" s="9">
+        <v>279931314.27272522</v>
       </c>
       <c r="E227" s="9">
         <v>5.3585748539093219</v>
@@ -7096,8 +7096,8 @@
       <c r="C228" s="9">
         <v>501.6795162137721</v>
       </c>
-      <c r="D228" s="1">
-        <v>1</v>
+      <c r="D228" s="9">
+        <v>108433343</v>
       </c>
       <c r="E228" s="9">
         <v>6.4432533202811291</v>
@@ -7125,8 +7125,8 @@
       <c r="C229" s="9">
         <v>499.87062939355053</v>
       </c>
-      <c r="D229" s="1">
-        <v>1</v>
+      <c r="D229" s="9">
+        <v>339556640.72727537</v>
       </c>
       <c r="E229" s="9">
         <v>5.0043032715505298</v>
@@ -7154,8 +7154,8 @@
       <c r="C230" s="9">
         <v>501.66992186634684</v>
       </c>
-      <c r="D230" s="1">
-        <v>1</v>
+      <c r="D230" s="9">
+        <v>357595203.8000015</v>
       </c>
       <c r="E230" s="9">
         <v>5.5964567164637566</v>
@@ -7183,8 +7183,8 @@
       <c r="C231" s="9">
         <v>501.66596050694591</v>
       </c>
-      <c r="D231" s="1">
-        <v>1</v>
+      <c r="D231" s="9">
+        <v>214371315.66666561</v>
       </c>
       <c r="E231" s="9">
         <v>5.6428937479769923</v>
@@ -7212,8 +7212,8 @@
       <c r="C232" s="9">
         <v>503.47329066969519</v>
       </c>
-      <c r="D232" s="1">
-        <v>1</v>
+      <c r="D232" s="9">
+        <v>106396730</v>
       </c>
       <c r="E232" s="9">
         <v>6.7298629549725097</v>
@@ -7241,8 +7241,8 @@
       <c r="C233" s="9">
         <v>501.66754768577653</v>
       </c>
-      <c r="D233" s="1">
-        <v>1</v>
+      <c r="D233" s="9">
+        <v>332764160.66666842</v>
       </c>
       <c r="E233" s="9">
         <v>5.4923708762984642</v>
@@ -7270,8 +7270,8 @@
       <c r="C234" s="9">
         <v>499.87220203404206</v>
       </c>
-      <c r="D234" s="1">
-        <v>1</v>
+      <c r="D234" s="9">
+        <v>211493723.54545522</v>
       </c>
       <c r="E234" s="9">
         <v>5.9341931710759352</v>
@@ -7299,8 +7299,8 @@
       <c r="C235" s="9">
         <v>501.66828810484424</v>
       </c>
-      <c r="D235" s="1">
-        <v>1</v>
+      <c r="D235" s="9">
+        <v>256336717.81818271</v>
       </c>
       <c r="E235" s="9">
         <v>5.9169043336416145</v>
@@ -7328,8 +7328,8 @@
       <c r="C236" s="9">
         <v>501.66942848438896</v>
       </c>
-      <c r="D236" s="1">
-        <v>1</v>
+      <c r="D236" s="9">
+        <v>187994486.0909102</v>
       </c>
       <c r="E236" s="9">
         <v>6.0134272091649148</v>
@@ -7357,8 +7357,8 @@
       <c r="C237" s="9">
         <v>501.67230936863018</v>
       </c>
-      <c r="D237" s="1">
-        <v>1</v>
+      <c r="D237" s="9">
+        <v>226286770.72727236</v>
       </c>
       <c r="E237" s="9">
         <v>5.6725189986838114</v>
@@ -7386,8 +7386,8 @@
       <c r="C238" s="9">
         <v>501.6711485753716</v>
       </c>
-      <c r="D238" s="1">
-        <v>1</v>
+      <c r="D238" s="9">
+        <v>238215448.66666552</v>
       </c>
       <c r="E238" s="9">
         <v>5.6521217090810776</v>
@@ -7415,8 +7415,8 @@
       <c r="C239" s="9">
         <v>501.66956918250082</v>
       </c>
-      <c r="D239" s="1">
-        <v>1</v>
+      <c r="D239" s="9">
+        <v>206874026.09091026</v>
       </c>
       <c r="E239" s="9">
         <v>5.5948904347972617</v>
@@ -7444,8 +7444,8 @@
       <c r="C240" s="9">
         <v>640.59256146233827</v>
       </c>
-      <c r="D240" s="1">
-        <v>1</v>
+      <c r="D240" s="9">
+        <v>601445676.20000374</v>
       </c>
       <c r="E240" s="9">
         <v>5.7715492243526567</v>
@@ -7473,8 +7473,8 @@
       <c r="C241" s="9">
         <v>640.59280063854101</v>
       </c>
-      <c r="D241" s="1">
-        <v>1</v>
+      <c r="D241" s="9">
+        <v>589613355.39999712</v>
       </c>
       <c r="E241" s="9">
         <v>5.7394498834851566</v>
@@ -7502,8 +7502,8 @@
       <c r="C242" s="9">
         <v>638.79370634175837</v>
       </c>
-      <c r="D242" s="1">
-        <v>1</v>
+      <c r="D242" s="9">
+        <v>582530860.39999723</v>
       </c>
       <c r="E242" s="9">
         <v>5.5011044982070612</v>
@@ -7531,8 +7531,8 @@
       <c r="C243" s="9">
         <v>638.79364070489567</v>
       </c>
-      <c r="D243" s="1">
-        <v>1</v>
+      <c r="D243" s="9">
+        <v>670533088.81817925</v>
       </c>
       <c r="E243" s="9">
         <v>5.5092646710446038</v>
@@ -7560,8 +7560,8 @@
       <c r="C244" s="9">
         <v>638.79426713806481</v>
       </c>
-      <c r="D244" s="1">
-        <v>1</v>
+      <c r="D244" s="9">
+        <v>543942648.7692287</v>
       </c>
       <c r="E244" s="9">
         <v>5.4265902977597555</v>
@@ -7589,8 +7589,8 @@
       <c r="C245" s="9">
         <v>640.59113343903152</v>
       </c>
-      <c r="D245" s="1">
-        <v>1</v>
+      <c r="D245" s="9">
+        <v>674547919.36364043</v>
       </c>
       <c r="E245" s="9">
         <v>5.6711298676549227</v>
@@ -7618,8 +7618,8 @@
       <c r="C246" s="9">
         <v>638.79277210533894</v>
       </c>
-      <c r="D246" s="1">
-        <v>1</v>
+      <c r="D246" s="9">
+        <v>540806312.27272749</v>
       </c>
       <c r="E246" s="9">
         <v>5.7789993425115274</v>
@@ -7647,8 +7647,8 @@
       <c r="C247" s="9">
         <v>636.99675428604303</v>
       </c>
-      <c r="D247" s="1">
-        <v>1</v>
+      <c r="D247" s="9">
+        <v>418479679</v>
       </c>
       <c r="E247" s="9">
         <v>6.1804886773361227</v>
@@ -7676,8 +7676,8 @@
       <c r="C248" s="9">
         <v>636.9959904587987</v>
       </c>
-      <c r="D248" s="1">
-        <v>1</v>
+      <c r="D248" s="9">
+        <v>432210905.90908945</v>
       </c>
       <c r="E248" s="9">
         <v>5.8377725474749003</v>
@@ -7705,8 +7705,8 @@
       <c r="C249" s="9">
         <v>636.99489653405033</v>
       </c>
-      <c r="D249" s="1">
-        <v>1</v>
+      <c r="D249" s="9">
+        <v>451637467</v>
       </c>
       <c r="E249" s="9">
         <v>5.6435713608848106</v>
@@ -7732,10 +7732,10 @@
         <v>123.13562086213309</v>
       </c>
       <c r="C250" s="9">
-        <v>638.80275579545503</v>
-      </c>
-      <c r="D250" s="1">
-        <v>1</v>
+        <v>638.8027557954548</v>
+      </c>
+      <c r="D250" s="9">
+        <v>198778147.81818259</v>
       </c>
       <c r="E250" s="9">
         <v>7.8723049625028194</v>
@@ -7763,8 +7763,8 @@
       <c r="C251" s="9">
         <v>642.38865090639899</v>
       </c>
-      <c r="D251" s="1">
-        <v>1</v>
+      <c r="D251" s="9">
+        <v>233933196.18181732</v>
       </c>
       <c r="E251" s="9">
         <v>5.9707437822222706</v>
@@ -7792,8 +7792,8 @@
       <c r="C252" s="9">
         <v>640.59270347946028</v>
       </c>
-      <c r="D252" s="1">
-        <v>1</v>
+      <c r="D252" s="9">
+        <v>204295869.90908977</v>
       </c>
       <c r="E252" s="9">
         <v>6.0683030117858445</v>
@@ -7821,8 +7821,8 @@
       <c r="C253" s="9">
         <v>640.59550443499882</v>
       </c>
-      <c r="D253" s="1">
-        <v>1</v>
+      <c r="D253" s="9">
+        <v>98399427.181818843</v>
       </c>
       <c r="E253" s="9">
         <v>5.636508895398082</v>
@@ -7850,8 +7850,8 @@
       <c r="C254" s="9">
         <v>640.59243809711177</v>
       </c>
-      <c r="D254" s="1">
-        <v>1</v>
+      <c r="D254" s="9">
+        <v>78040907.363636196</v>
       </c>
       <c r="E254" s="9">
         <v>5.8575224303801061</v>
@@ -7879,8 +7879,8 @@
       <c r="C255" s="9">
         <v>640.59474782344512</v>
       </c>
-      <c r="D255" s="1">
-        <v>1</v>
+      <c r="D255" s="9">
+        <v>56815758.181818031</v>
       </c>
       <c r="E255" s="9">
         <v>5.8502842012484706</v>
@@ -7908,8 +7908,8 @@
       <c r="C256" s="9">
         <v>777.71665778683484</v>
       </c>
-      <c r="D256" s="1">
-        <v>1</v>
+      <c r="D256" s="9">
+        <v>597605234.39999723</v>
       </c>
       <c r="E256" s="9">
         <v>5.6976068478811683</v>
@@ -7937,8 +7937,8 @@
       <c r="C257" s="9">
         <v>777.71841374719054</v>
       </c>
-      <c r="D257" s="1">
-        <v>1</v>
+      <c r="D257" s="9">
+        <v>318683188.27272487</v>
       </c>
       <c r="E257" s="9">
         <v>6.3839157319957822</v>
@@ -7966,8 +7966,8 @@
       <c r="C258" s="9">
         <v>777.71580391042164</v>
       </c>
-      <c r="D258" s="1">
-        <v>1</v>
+      <c r="D258" s="9">
+        <v>566609017.60000277</v>
       </c>
       <c r="E258" s="9">
         <v>5.9094504599408202</v>
@@ -7995,8 +7995,8 @@
       <c r="C259" s="9">
         <v>779.51470090977762</v>
       </c>
-      <c r="D259" s="1">
-        <v>1</v>
+      <c r="D259" s="9">
+        <v>776683665.399997</v>
       </c>
       <c r="E259" s="9">
         <v>6.076710449704759</v>
@@ -8024,8 +8024,8 @@
       <c r="C260" s="9">
         <v>777.71877401702875</v>
       </c>
-      <c r="D260" s="1">
-        <v>1</v>
+      <c r="D260" s="9">
+        <v>533101182.81817949</v>
       </c>
       <c r="E260" s="9">
         <v>6.5585635197443448</v>
@@ -8053,8 +8053,8 @@
       <c r="C261" s="9">
         <v>779.51469828976826</v>
       </c>
-      <c r="D261" s="1">
-        <v>1</v>
+      <c r="D261" s="9">
+        <v>601463868.39999712</v>
       </c>
       <c r="E261" s="9">
         <v>6.5465882170138618</v>
@@ -8082,8 +8082,8 @@
       <c r="C262" s="9">
         <v>775.91737093363042</v>
       </c>
-      <c r="D262" s="1">
-        <v>1</v>
+      <c r="D262" s="9">
+        <v>655351018</v>
       </c>
       <c r="E262" s="9">
         <v>5.783531080313165</v>
@@ -8111,8 +8111,8 @@
       <c r="C263" s="9">
         <v>777.71716796370481</v>
       </c>
-      <c r="D263" s="1">
-        <v>1</v>
+      <c r="D263" s="9">
+        <v>712466065.9230727</v>
       </c>
       <c r="E263" s="9">
         <v>6.4461217646722799</v>
@@ -8140,8 +8140,8 @@
       <c r="C264" s="9">
         <v>775.91813253171802</v>
       </c>
-      <c r="D264" s="1">
-        <v>1</v>
+      <c r="D264" s="9">
+        <v>746394239</v>
       </c>
       <c r="E264" s="9">
         <v>5.8914720201506556</v>
@@ -8167,10 +8167,10 @@
         <v>155.52968337730874</v>
       </c>
       <c r="C265" s="9">
-        <v>779.51490851294409</v>
-      </c>
-      <c r="D265" s="1">
-        <v>1</v>
+        <v>779.51490851294432</v>
+      </c>
+      <c r="D265" s="9">
+        <v>544400494.20000219</v>
       </c>
       <c r="E265" s="9">
         <v>6.279410557871512</v>
@@ -8198,8 +8198,8 @@
       <c r="C266" s="9">
         <v>779.51525683659736</v>
       </c>
-      <c r="D266" s="1">
-        <v>1</v>
+      <c r="D266" s="9">
+        <v>529430966.66666889</v>
       </c>
       <c r="E266" s="9">
         <v>6.7599207025426722</v>
@@ -8227,8 +8227,8 @@
       <c r="C267" s="9">
         <v>777.71765735006977</v>
       </c>
-      <c r="D267" s="1">
-        <v>1</v>
+      <c r="D267" s="9">
+        <v>592723907.36363983</v>
       </c>
       <c r="E267" s="9">
         <v>5.9355742424420823</v>
@@ -8256,8 +8256,8 @@
       <c r="C268" s="9">
         <v>777.7182089155948</v>
       </c>
-      <c r="D268" s="1">
-        <v>1</v>
+      <c r="D268" s="9">
+        <v>420714734.54545528</v>
       </c>
       <c r="E268" s="9">
         <v>6.3858045694537342</v>
@@ -8283,10 +8283,10 @@
         <v>81.301451187335033</v>
       </c>
       <c r="C269" s="9">
-        <v>783.10988573585234</v>
-      </c>
-      <c r="D269" s="1">
-        <v>1</v>
+        <v>783.10988573585212</v>
+      </c>
+      <c r="D269" s="9">
+        <v>346886778.90908957</v>
       </c>
       <c r="E269" s="9">
         <v>6.7188447885446552</v>
@@ -8314,8 +8314,8 @@
       <c r="C270" s="9">
         <v>777.76588196497175</v>
       </c>
-      <c r="D270" s="1">
-        <v>1</v>
+      <c r="D270" s="9">
+        <v>327158229.36363518</v>
       </c>
       <c r="E270" s="9">
         <v>6.9733606100418841</v>
@@ -8343,8 +8343,8 @@
       <c r="C271" s="9">
         <v>779.80371449360143</v>
       </c>
-      <c r="D271" s="1">
-        <v>1</v>
+      <c r="D271" s="9">
+        <v>287193412.42857242</v>
       </c>
       <c r="E271" s="9">
         <v>6.6377035100619537</v>

--- a/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
+++ b/Doppler/270ch/Doppler270ch_Ar_dial4820.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\Documents\test-open\Doppler\270ch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurib\test-open\Doppler\270ch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695630D7-A06E-4DF8-AD5E-58E320357BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253C84BF-9BBC-4AB3-A2DD-5D6A80297902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7D1A221-8E2E-4AB0-B486-D617078FF2BE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12615" xr2:uid="{F7D1A221-8E2E-4AB0-B486-D617078FF2BE}"/>
   </bookViews>
   <sheets>
     <sheet name="230917" sheetId="1" r:id="rId1"/>
@@ -497,13 +497,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E811F4-564C-477F-B01D-DCC0A23183EF}">
   <dimension ref="A1:I271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G278" sqref="G278"/>
+    <sheetView tabSelected="1" topLeftCell="A266" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E271"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.899999999999999" x14ac:dyDescent="0.8"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.8">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -540,13 +540,13 @@
         <v>973.61741424802108</v>
       </c>
       <c r="C2" s="9">
-        <v>237.32579837796641</v>
+        <v>237.32289988694379</v>
       </c>
       <c r="D2" s="1">
         <v>59718809.600000255</v>
       </c>
       <c r="E2" s="9">
-        <v>6.0869975702923362</v>
+        <v>4.9643699439631481</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -569,13 +569,13 @@
         <v>960.12137203166219</v>
       </c>
       <c r="C3" s="9">
-        <v>237.32146161795197</v>
+        <v>237.31893681274505</v>
       </c>
       <c r="D3" s="1">
         <v>75560210.599999383</v>
       </c>
       <c r="E3" s="9">
-        <v>6.7599802573405867</v>
+        <v>5.3879579789099656</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -590,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -598,13 +598,13 @@
         <v>945.27572559366763</v>
       </c>
       <c r="C4" s="9">
-        <v>235.52445497339443</v>
+        <v>235.52851555313975</v>
       </c>
       <c r="D4" s="1">
         <v>182974349.40000096</v>
       </c>
       <c r="E4" s="9">
-        <v>6.1627855385750792</v>
+        <v>5.0138658396736249</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -627,13 +627,13 @@
         <v>930.43007915567318</v>
       </c>
       <c r="C5" s="9">
-        <v>239.11764594069109</v>
+        <v>239.12050110559005</v>
       </c>
       <c r="D5" s="1">
         <v>363479702.19999808</v>
       </c>
       <c r="E5" s="9">
-        <v>5.8520681593229371</v>
+        <v>4.6244186591767749</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -656,13 +656,13 @@
         <v>900.73878627968361</v>
       </c>
       <c r="C6" s="9">
-        <v>235.51802686623023</v>
+        <v>235.51672029510291</v>
       </c>
       <c r="D6" s="1">
         <v>529453933.80000204</v>
       </c>
       <c r="E6" s="9">
-        <v>5.7194928522284849</v>
+        <v>4.337585755664632</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -677,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -685,13 +685,13 @@
         <v>884.54353562005304</v>
       </c>
       <c r="C7" s="9">
-        <v>237.31561021096718</v>
+        <v>237.314349557029</v>
       </c>
       <c r="D7" s="1">
         <v>646514979.20000577</v>
       </c>
       <c r="E7" s="9">
-        <v>5.8709179010895367</v>
+        <v>4.7928427814684964</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -714,13 +714,13 @@
         <v>866.99868073878656</v>
       </c>
       <c r="C8" s="9">
-        <v>235.51857208289277</v>
+        <v>235.51695012751259</v>
       </c>
       <c r="D8" s="1">
         <v>636572660</v>
       </c>
       <c r="E8" s="9">
-        <v>5.7315190102841793</v>
+        <v>4.3694592167213173</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -743,13 +743,13 @@
         <v>852.15303430079177</v>
       </c>
       <c r="C9" s="9">
-        <v>233.71981104332474</v>
+        <v>233.72171631212257</v>
       </c>
       <c r="D9" s="1">
         <v>736333969.39999616</v>
       </c>
       <c r="E9" s="9">
-        <v>5.7680114766595416</v>
+        <v>4.1614268023924126</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -772,13 +772,13 @@
         <v>837.3073878627971</v>
       </c>
       <c r="C10" s="9">
-        <v>235.5155862277129</v>
+        <v>235.51845894135124</v>
       </c>
       <c r="D10" s="1">
         <v>871792623.20000684</v>
       </c>
       <c r="E10" s="9">
-        <v>5.7179088128275941</v>
+        <v>4.2596847559361857</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -801,13 +801,13 @@
         <v>823.81134564643821</v>
       </c>
       <c r="C11" s="9">
-        <v>235.51347776099794</v>
+        <v>235.51042661144652</v>
       </c>
       <c r="D11" s="1">
         <v>872195038.79999328</v>
       </c>
       <c r="E11" s="9">
-        <v>5.5527989842995344</v>
+        <v>4.5044701366604567</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -822,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -830,13 +830,13 @@
         <v>806.26649076517185</v>
       </c>
       <c r="C12" s="9">
-        <v>233.71706579846557</v>
+        <v>233.71821033872368</v>
       </c>
       <c r="D12" s="1">
         <v>796834625.79999352</v>
       </c>
       <c r="E12" s="9">
-        <v>5.4871379198604382</v>
+        <v>3.925749115457295</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -851,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -859,13 +859,13 @@
         <v>792.77044854881296</v>
       </c>
       <c r="C13" s="9">
-        <v>231.91601101096239</v>
+        <v>231.91468358116219</v>
       </c>
       <c r="D13" s="1">
         <v>817564880</v>
       </c>
       <c r="E13" s="9">
-        <v>5.3877207457341116</v>
+        <v>4.4507908482702589</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -888,13 +888,13 @@
         <v>777.92480211081829</v>
       </c>
       <c r="C14" s="9">
-        <v>231.91406709098771</v>
+        <v>231.91632603614846</v>
       </c>
       <c r="D14" s="1">
         <v>629426539</v>
       </c>
       <c r="E14" s="9">
-        <v>5.3013715419820757</v>
+        <v>3.814710604906804</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -917,13 +917,13 @@
         <v>763.07915567282339</v>
       </c>
       <c r="C15" s="9">
-        <v>230.11545640196152</v>
+        <v>230.11610948643204</v>
       </c>
       <c r="D15" s="1">
         <v>904821104.39999604</v>
       </c>
       <c r="E15" s="9">
-        <v>5.399237608619968</v>
+        <v>4.4577189457693382</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -946,13 +946,13 @@
         <v>746.88390501319293</v>
       </c>
       <c r="C16" s="9">
-        <v>231.9128351645237</v>
+        <v>231.91335709573809</v>
       </c>
       <c r="D16" s="1">
         <v>946024333.20000696</v>
       </c>
       <c r="E16" s="9">
-        <v>5.1275132322049606</v>
+        <v>3.7964443028873256</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -975,13 +975,13 @@
         <v>733.38786279683404</v>
       </c>
       <c r="C17" s="9">
-        <v>231.91021106867549</v>
+        <v>231.91002225364821</v>
       </c>
       <c r="D17" s="1">
         <v>580971628</v>
       </c>
       <c r="E17" s="9">
-        <v>5.2817202357814432</v>
+        <v>3.86951830563273</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -1004,13 +1004,13 @@
         <v>717.19261213720324</v>
       </c>
       <c r="C18" s="9">
-        <v>230.11295960937309</v>
+        <v>230.11514437599453</v>
       </c>
       <c r="D18" s="1">
         <v>532468294.09091097</v>
       </c>
       <c r="E18" s="9">
-        <v>4.9617863111505862</v>
+        <v>3.6553494418119339</v>
       </c>
       <c r="F18" s="7">
         <v>2</v>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -1033,13 +1033,13 @@
         <v>702.34696569920868</v>
       </c>
       <c r="C19" s="9">
-        <v>230.11344085977782</v>
+        <v>230.11533584346114</v>
       </c>
       <c r="D19" s="1">
         <v>522632970.2857182</v>
       </c>
       <c r="E19" s="9">
-        <v>4.8439279803030022</v>
+        <v>3.5929260265508858</v>
       </c>
       <c r="F19" s="7">
         <v>2</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -1062,13 +1062,13 @@
         <v>686.15171503957811</v>
       </c>
       <c r="C20" s="9">
-        <v>231.90953289555603</v>
+        <v>231.9097554756496</v>
       </c>
       <c r="D20" s="1">
         <v>469205022.90908903</v>
       </c>
       <c r="E20" s="9">
-        <v>5.0745468402272706</v>
+        <v>3.5413373309474787</v>
       </c>
       <c r="F20" s="7">
         <v>2</v>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -1091,13 +1091,13 @@
         <v>672.65567282321922</v>
       </c>
       <c r="C21" s="9">
-        <v>230.10957270244091</v>
+        <v>230.11147641489458</v>
       </c>
       <c r="D21" s="1">
         <v>777853505.7272687</v>
       </c>
       <c r="E21" s="9">
-        <v>4.8062949281594092</v>
+        <v>3.5420976000259832</v>
       </c>
       <c r="F21" s="7">
         <v>2</v>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -1120,13 +1120,13 @@
         <v>655.11081794195275</v>
       </c>
       <c r="C22" s="9">
-        <v>230.10834445449905</v>
+        <v>230.10859597719354</v>
       </c>
       <c r="D22" s="1">
         <v>856321547.60000396</v>
       </c>
       <c r="E22" s="9">
-        <v>4.769780975965543</v>
+        <v>3.5599292213542308</v>
       </c>
       <c r="F22" s="7">
         <v>2</v>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -1149,13 +1149,13 @@
         <v>640.26517150395784</v>
       </c>
       <c r="C23" s="9">
-        <v>231.90586369085293</v>
+        <v>231.9060372992609</v>
       </c>
       <c r="D23" s="1">
         <v>772637306.18182158</v>
       </c>
       <c r="E23" s="9">
-        <v>4.6903228140630544</v>
+        <v>3.4937642672711968</v>
       </c>
       <c r="F23" s="7">
         <v>2</v>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A24" s="7">
         <v>23</v>
       </c>
@@ -1178,13 +1178,13 @@
         <v>625.4195250659634</v>
       </c>
       <c r="C24" s="9">
-        <v>231.90526851767106</v>
+        <v>231.90585517883267</v>
       </c>
       <c r="D24" s="1">
         <v>847305638.8181783</v>
       </c>
       <c r="E24" s="9">
-        <v>4.5905680715753512</v>
+        <v>3.496235335313719</v>
       </c>
       <c r="F24" s="7">
         <v>2</v>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A25" s="7">
         <v>24</v>
       </c>
@@ -1207,13 +1207,13 @@
         <v>611.92348284960462</v>
       </c>
       <c r="C25" s="9">
-        <v>228.30931547938678</v>
+        <v>228.31239235833516</v>
       </c>
       <c r="D25" s="1">
         <v>819488573.66666126</v>
       </c>
       <c r="E25" s="9">
-        <v>4.729907236096099</v>
+        <v>3.8367866792680685</v>
       </c>
       <c r="F25" s="7">
         <v>2</v>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -1236,13 +1236,13 @@
         <v>595.72823218997382</v>
       </c>
       <c r="C26" s="9">
-        <v>230.10533585709595</v>
+        <v>230.1074599801517</v>
       </c>
       <c r="D26" s="1">
         <v>948441961.66666079</v>
       </c>
       <c r="E26" s="9">
-        <v>4.3892627635174479</v>
+        <v>3.2222738016011641</v>
       </c>
       <c r="F26" s="7">
         <v>2</v>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A27" s="7">
         <v>26</v>
       </c>
@@ -1265,13 +1265,13 @@
         <v>582.23218997361494</v>
       </c>
       <c r="C27" s="9">
-        <v>228.30713562833159</v>
+        <v>228.31037091233145</v>
       </c>
       <c r="D27" s="1">
         <v>752038661.33333862</v>
       </c>
       <c r="E27" s="9">
-        <v>5.0648721772163565</v>
+        <v>3.5329036135016638</v>
       </c>
       <c r="F27" s="7">
         <v>2</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A28" s="7">
         <v>27</v>
       </c>
@@ -1294,13 +1294,13 @@
         <v>566.03693931398425</v>
       </c>
       <c r="C28" s="9">
-        <v>226.50892759957685</v>
+        <v>226.50755643102968</v>
       </c>
       <c r="D28" s="1">
         <v>830852141.45455337</v>
       </c>
       <c r="E28" s="9">
-        <v>4.4703809477953067</v>
+        <v>3.5505015419362431</v>
       </c>
       <c r="F28" s="7">
         <v>2</v>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -1323,13 +1323,13 @@
         <v>548.49208443271777</v>
       </c>
       <c r="C29" s="9">
-        <v>228.30484080909184</v>
+        <v>228.30422323062203</v>
       </c>
       <c r="D29" s="1">
         <v>404796095.1176458</v>
       </c>
       <c r="E29" s="9">
-        <v>5.2402549199387281</v>
+        <v>3.7339507173233248</v>
       </c>
       <c r="F29" s="7">
         <v>2</v>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A30" s="7">
         <v>29</v>
       </c>
@@ -1352,13 +1352,13 @@
         <v>534.996042216359</v>
       </c>
       <c r="C30" s="9">
-        <v>226.50741369970967</v>
+        <v>226.50679920711707</v>
       </c>
       <c r="D30" s="1">
         <v>568613783.27272987</v>
       </c>
       <c r="E30" s="9">
-        <v>4.3615448902297986</v>
+        <v>3.2363317635026179</v>
       </c>
       <c r="F30" s="7">
         <v>2</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A31" s="7">
         <v>30</v>
       </c>
@@ -1381,13 +1381,13 @@
         <v>520.15039577836433</v>
       </c>
       <c r="C31" s="9">
-        <v>228.30508287810824</v>
+        <v>228.30445151960339</v>
       </c>
       <c r="D31" s="1">
         <v>523080734.88888657</v>
       </c>
       <c r="E31" s="9">
-        <v>4.3881196234682882</v>
+        <v>3.4364329822267612</v>
       </c>
       <c r="F31" s="7">
         <v>2</v>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -1410,13 +1410,13 @@
         <v>503.95514511873364</v>
       </c>
       <c r="C32" s="9">
-        <v>226.5065334901368</v>
+        <v>226.50657283747171</v>
       </c>
       <c r="D32" s="1">
         <v>392699998.09091091</v>
       </c>
       <c r="E32" s="9">
-        <v>4.3240228745561682</v>
+        <v>3.4555955451428306</v>
       </c>
       <c r="F32" s="7">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -1439,13 +1439,13 @@
         <v>490.45910290237487</v>
       </c>
       <c r="C33" s="9">
-        <v>226.50477782126961</v>
+        <v>226.50532240131508</v>
       </c>
       <c r="D33" s="1">
         <v>217427663.38461411</v>
       </c>
       <c r="E33" s="9">
-        <v>4.9999057766571982</v>
+        <v>4.468455549891023</v>
       </c>
       <c r="F33" s="7">
         <v>2</v>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1468,13 +1468,13 @@
         <v>474.26385224274418</v>
       </c>
       <c r="C34" s="9">
-        <v>228.30225725107937</v>
+        <v>228.30269589559794</v>
       </c>
       <c r="D34" s="1">
         <v>544991719.79999661</v>
       </c>
       <c r="E34" s="9">
-        <v>4.2576680052762272</v>
+        <v>3.9870013889912417</v>
       </c>
       <c r="F34" s="1">
         <v>3</v>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1497,13 +1497,13 @@
         <v>460.7678100263854</v>
       </c>
       <c r="C35" s="9">
-        <v>226.50392070919372</v>
+        <v>226.50453666885858</v>
       </c>
       <c r="D35" s="1">
         <v>655395157.23077214</v>
       </c>
       <c r="E35" s="9">
-        <v>4.2628817052710097</v>
+        <v>3.9285302522724623</v>
       </c>
       <c r="F35" s="1">
         <v>3</v>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1526,13 +1526,13 @@
         <v>444.57255936675472</v>
       </c>
       <c r="C36" s="9">
-        <v>226.50285411899767</v>
+        <v>226.50300969338957</v>
       </c>
       <c r="D36" s="1">
         <v>607552566.22222638</v>
       </c>
       <c r="E36" s="9">
-        <v>4.319724315208969</v>
+        <v>4.0140741869903671</v>
       </c>
       <c r="F36" s="1">
         <v>3</v>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1555,13 +1555,13 @@
         <v>429.72691292876004</v>
       </c>
       <c r="C37" s="9">
-        <v>228.29965043958953</v>
+        <v>228.29982410429182</v>
       </c>
       <c r="D37" s="1">
         <v>655584065</v>
       </c>
       <c r="E37" s="9">
-        <v>4.1250355851898624</v>
+        <v>3.834388928011168</v>
       </c>
       <c r="F37" s="1">
         <v>3</v>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1584,13 +1584,13 @@
         <v>414.88126649076537</v>
       </c>
       <c r="C38" s="9">
-        <v>226.50055228271367</v>
+        <v>226.50105159695283</v>
       </c>
       <c r="D38" s="1">
         <v>410800607</v>
       </c>
       <c r="E38" s="9">
-        <v>4.5214045427923413</v>
+        <v>4.0691483066988745</v>
       </c>
       <c r="F38" s="1">
         <v>3</v>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1613,13 +1613,13 @@
         <v>400.03562005277058</v>
       </c>
       <c r="C39" s="9">
-        <v>228.29864651943842</v>
+        <v>228.29900736642492</v>
       </c>
       <c r="D39" s="1">
         <v>821487383.72726858</v>
       </c>
       <c r="E39" s="9">
-        <v>4.133334606768206</v>
+        <v>3.8654177565208707</v>
       </c>
       <c r="F39" s="1">
         <v>3</v>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1642,13 +1642,13 @@
         <v>385.18997361477591</v>
       </c>
       <c r="C40" s="9">
-        <v>224.70277109134065</v>
+        <v>224.70343164782287</v>
       </c>
       <c r="D40" s="1">
         <v>724833004.6666615</v>
       </c>
       <c r="E40" s="9">
-        <v>4.3425983691894992</v>
+        <v>3.9513880557366821</v>
       </c>
       <c r="F40" s="1">
         <v>3</v>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1671,13 +1671,13 @@
         <v>368.99472295514522</v>
       </c>
       <c r="C41" s="9">
-        <v>224.70182049413802</v>
+        <v>224.70197268964057</v>
       </c>
       <c r="D41" s="1">
         <v>835127889.72726846</v>
       </c>
       <c r="E41" s="9">
-        <v>4.2344146856334994</v>
+        <v>3.8782057070778309</v>
       </c>
       <c r="F41" s="1">
         <v>3</v>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1700,13 +1700,13 @@
         <v>352.79947229551465</v>
       </c>
       <c r="C42" s="9">
-        <v>226.49886645080301</v>
+        <v>226.49883171456133</v>
       </c>
       <c r="D42" s="1">
         <v>725982054.6666615</v>
       </c>
       <c r="E42" s="9">
-        <v>4.354676856530264</v>
+        <v>3.3047415758340737</v>
       </c>
       <c r="F42" s="1">
         <v>3</v>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1729,13 +1729,13 @@
         <v>337.95382585751997</v>
       </c>
       <c r="C43" s="9">
-        <v>222.90327721739254</v>
+        <v>222.90368328529064</v>
       </c>
       <c r="D43" s="1">
         <v>825311515.44445205</v>
       </c>
       <c r="E43" s="9">
-        <v>4.2663055359840421</v>
+        <v>3.194409498893469</v>
       </c>
       <c r="F43" s="1">
         <v>3</v>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1758,13 +1758,13 @@
         <v>324.45778364116109</v>
       </c>
       <c r="C44" s="9">
-        <v>226.4934919775784</v>
+        <v>226.48933381563131</v>
       </c>
       <c r="D44" s="1">
         <v>212239577.54545543</v>
       </c>
       <c r="E44" s="9">
-        <v>10.352165798982782</v>
+        <v>8.2355901775103053</v>
       </c>
       <c r="F44" s="1">
         <v>3</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -1787,13 +1787,13 @@
         <v>309.61213720316641</v>
       </c>
       <c r="C45" s="9">
-        <v>225.1711145232324</v>
+        <v>225.17152479692697</v>
       </c>
       <c r="D45" s="1">
         <v>789645395</v>
       </c>
       <c r="E45" s="9">
-        <v>4.2813932469823399</v>
+        <v>3.9412607488832663</v>
       </c>
       <c r="F45" s="1">
         <v>3</v>
@@ -1808,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -1816,13 +1816,13 @@
         <v>293.41688654353584</v>
       </c>
       <c r="C46" s="9">
-        <v>226.98678756863455</v>
+        <v>226.98792093348948</v>
       </c>
       <c r="D46" s="1">
         <v>891789627.39999604</v>
       </c>
       <c r="E46" s="9">
-        <v>4.3591635513598392</v>
+        <v>3.4656309183409166</v>
       </c>
       <c r="F46" s="1">
         <v>3</v>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -1845,13 +1845,13 @@
         <v>277.22163588390515</v>
       </c>
       <c r="C47" s="9">
-        <v>225.16964249432965</v>
+        <v>225.16896619348381</v>
       </c>
       <c r="D47" s="1">
         <v>859356740.72726846</v>
       </c>
       <c r="E47" s="9">
-        <v>4.3900103231106078</v>
+        <v>3.2892071692225597</v>
       </c>
       <c r="F47" s="1">
         <v>3</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -1874,13 +1874,13 @@
         <v>263.72559366754615</v>
       </c>
       <c r="C48" s="9">
-        <v>225.1656980524275</v>
+        <v>225.16509484810945</v>
       </c>
       <c r="D48" s="1">
         <v>220511271.77777839</v>
       </c>
       <c r="E48" s="9">
-        <v>7.8387610462924098</v>
+        <v>5.171606161273159</v>
       </c>
       <c r="F48" s="1">
         <v>3</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -1903,13 +1903,13 @@
         <v>232.68469656992099</v>
       </c>
       <c r="C49" s="9">
-        <v>225.17061077125084</v>
+        <v>225.17036462246824</v>
       </c>
       <c r="D49" s="1">
         <v>745212886.90908897</v>
       </c>
       <c r="E49" s="9">
-        <v>4.4449774526720791</v>
+        <v>4.1983820869465749</v>
       </c>
       <c r="F49" s="1">
         <v>3</v>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -1932,13 +1932,13 @@
         <v>216.48944591029033</v>
       </c>
       <c r="C50" s="9">
-        <v>223.35253525271548</v>
+        <v>223.35444908963632</v>
       </c>
       <c r="D50" s="1">
         <v>1009970065.3333392</v>
       </c>
       <c r="E50" s="9">
-        <v>4.7898703319096176</v>
+        <v>3.6318276825521325</v>
       </c>
       <c r="F50" s="1">
         <v>3</v>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -1961,13 +1961,13 @@
         <v>200.29419525065987</v>
       </c>
       <c r="C51" s="9">
-        <v>223.35106432596956</v>
+        <v>223.35146913353799</v>
       </c>
       <c r="D51" s="1">
         <v>975949690.53332889</v>
       </c>
       <c r="E51" s="9">
-        <v>4.6598336634621962</v>
+        <v>3.3564684407458829</v>
       </c>
       <c r="F51" s="1">
         <v>3</v>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -1990,13 +1990,13 @@
         <v>186.79815303430098</v>
       </c>
       <c r="C52" s="9">
-        <v>223.35040702673496</v>
+        <v>223.34932472882997</v>
       </c>
       <c r="D52" s="1">
         <v>608894238.45455205</v>
       </c>
       <c r="E52" s="9">
-        <v>4.9547155755982368</v>
+        <v>4.0725904443270409</v>
       </c>
       <c r="F52" s="1">
         <v>3</v>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2019,13 +2019,13 @@
         <v>170.60290237467029</v>
       </c>
       <c r="C53" s="9">
-        <v>225.16798832155246</v>
+        <v>225.16824949081138</v>
       </c>
       <c r="D53" s="1">
         <v>585795701.20000505</v>
       </c>
       <c r="E53" s="9">
-        <v>4.8434235248811364</v>
+        <v>3.5492783094608114</v>
       </c>
       <c r="F53" s="1">
         <v>3</v>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2048,13 +2048,13 @@
         <v>157.10686015831129</v>
       </c>
       <c r="C54" s="9">
-        <v>221.53459642891698</v>
+        <v>221.53491187494967</v>
       </c>
       <c r="D54" s="1">
         <v>772251512.57143569</v>
       </c>
       <c r="E54" s="9">
-        <v>4.8358132750765117</v>
+        <v>4.392367518101044</v>
       </c>
       <c r="F54" s="1">
         <v>3</v>
@@ -2069,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2077,13 +2077,13 @@
         <v>123.36675461741436</v>
       </c>
       <c r="C55" s="9">
-        <v>225.16718219622362</v>
+        <v>225.16557994459572</v>
       </c>
       <c r="D55" s="1">
         <v>654227644.18182147</v>
       </c>
       <c r="E55" s="9">
-        <v>4.8010053660134338</v>
+        <v>3.6048999629078717</v>
       </c>
       <c r="F55" s="1">
         <v>3</v>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2106,13 +2106,13 @@
         <v>108.52110817941946</v>
       </c>
       <c r="C56" s="9">
-        <v>225.16849366097915</v>
+        <v>225.1684669910768</v>
       </c>
       <c r="D56" s="1">
         <v>501374036.15384191</v>
       </c>
       <c r="E56" s="9">
-        <v>5.1307644004070339</v>
+        <v>4.0108334267850569</v>
       </c>
       <c r="F56" s="1">
         <v>3</v>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2135,13 +2135,13 @@
         <v>92.325857519788883</v>
       </c>
       <c r="C57" s="9">
-        <v>223.3501441090059</v>
+        <v>223.3488172841129</v>
       </c>
       <c r="D57" s="1">
         <v>608497874.45455194</v>
       </c>
       <c r="E57" s="9">
-        <v>5.2495996036891786</v>
+        <v>3.7924277604632644</v>
       </c>
       <c r="F57" s="1">
         <v>3</v>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2164,13 +2164,13 @@
         <v>78.829815303429996</v>
       </c>
       <c r="C58" s="9">
-        <v>225.16878904855082</v>
+        <v>225.16836005307857</v>
       </c>
       <c r="D58" s="1">
         <v>553962103.72727168</v>
       </c>
       <c r="E58" s="9">
-        <v>5.1617792857872891</v>
+        <v>3.7308851567548373</v>
       </c>
       <c r="F58" s="1">
         <v>3</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2193,13 +2193,13 @@
         <v>63.984168865435322</v>
       </c>
       <c r="C59" s="9">
-        <v>225.16815331510043</v>
+        <v>225.16677837937232</v>
       </c>
       <c r="D59" s="1">
         <v>682599375.36364186</v>
       </c>
       <c r="E59" s="9">
-        <v>4.9606856034550129</v>
+        <v>4.5133817285818525</v>
       </c>
       <c r="F59" s="1">
         <v>3</v>
@@ -2214,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2222,13 +2222,13 @@
         <v>47.788918205804748</v>
       </c>
       <c r="C60" s="9">
-        <v>223.35075262007319</v>
+        <v>223.35136304630646</v>
       </c>
       <c r="D60" s="1">
         <v>475801207.54545552</v>
       </c>
       <c r="E60" s="9">
-        <v>5.2894599859748821</v>
+        <v>3.7754592445767856</v>
       </c>
       <c r="F60" s="1">
         <v>3</v>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2251,13 +2251,13 @@
         <v>35.642480211081875</v>
       </c>
       <c r="C61" s="9">
-        <v>223.35074092797061</v>
+        <v>223.34921779276272</v>
       </c>
       <c r="D61" s="1">
         <v>318211570</v>
       </c>
       <c r="E61" s="9">
-        <v>5.5953949290118272</v>
+        <v>4.43003994819097</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
@@ -2272,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A62" s="7">
         <v>61</v>
       </c>
@@ -2280,13 +2280,13 @@
         <v>992.51187335092402</v>
       </c>
       <c r="C62" s="9">
-        <v>374.69984475021965</v>
+        <v>374.69988834597143</v>
       </c>
       <c r="D62" s="9">
         <v>245201658.19999832</v>
       </c>
       <c r="E62" s="9">
-        <v>5.7798756180648878</v>
+        <v>5.5280923591914437</v>
       </c>
       <c r="F62" s="7">
         <v>4</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A63" s="7">
         <v>62</v>
       </c>
@@ -2309,13 +2309,13 @@
         <v>974.96701846965743</v>
       </c>
       <c r="C63" s="9">
-        <v>371.06706506215232</v>
+        <v>371.06694613799675</v>
       </c>
       <c r="D63" s="9">
         <v>333052410.39999712</v>
       </c>
       <c r="E63" s="9">
-        <v>6.2725639630022147</v>
+        <v>5.956670244423413</v>
       </c>
       <c r="F63" s="7">
         <v>4</v>
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A64" s="7">
         <v>63</v>
       </c>
@@ -2338,13 +2338,13 @@
         <v>961.47097625329866</v>
       </c>
       <c r="C64" s="9">
-        <v>372.88132790003681</v>
+        <v>372.88194147440186</v>
       </c>
       <c r="D64" s="9">
         <v>359518211.399997</v>
       </c>
       <c r="E64" s="9">
-        <v>6.1355239721793096</v>
+        <v>6.0582879763423074</v>
       </c>
       <c r="F64" s="7">
         <v>4</v>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A65" s="7">
         <v>64</v>
       </c>
@@ -2367,13 +2367,13 @@
         <v>946.62532981530399</v>
       </c>
       <c r="C65" s="9">
-        <v>374.69578342121486</v>
+        <v>374.69344881120708</v>
       </c>
       <c r="D65" s="9">
         <v>427194761</v>
       </c>
       <c r="E65" s="9">
-        <v>6.0240596567397127</v>
+        <v>4.7895020829950727</v>
       </c>
       <c r="F65" s="7">
         <v>4</v>
@@ -2388,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A66" s="7">
         <v>65</v>
       </c>
@@ -2396,13 +2396,13 @@
         <v>930.43007915567341</v>
       </c>
       <c r="C66" s="9">
-        <v>372.88104795121092</v>
+        <v>372.88072532054946</v>
       </c>
       <c r="D66" s="9">
         <v>395640393.60000318</v>
       </c>
       <c r="E66" s="9">
-        <v>5.7173318623101519</v>
+        <v>5.5574774761280485</v>
       </c>
       <c r="F66" s="7">
         <v>4</v>
@@ -2417,7 +2417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A67" s="7">
         <v>66</v>
       </c>
@@ -2425,13 +2425,13 @@
         <v>899.38918205804794</v>
       </c>
       <c r="C67" s="9">
-        <v>372.87695855875461</v>
+        <v>372.87679947563981</v>
       </c>
       <c r="D67" s="9">
         <v>446669569</v>
       </c>
       <c r="E67" s="9">
-        <v>5.7943726607357249</v>
+        <v>5.4818691639910853</v>
       </c>
       <c r="F67" s="7">
         <v>4</v>
@@ -2446,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A68" s="7">
         <v>67</v>
       </c>
@@ -2454,13 +2454,13 @@
         <v>885.89313984168916</v>
       </c>
       <c r="C68" s="9">
-        <v>369.23932978624896</v>
+        <v>369.23917602574681</v>
       </c>
       <c r="D68" s="9">
         <v>484175191.19999802</v>
       </c>
       <c r="E68" s="9">
-        <v>5.791463441393935</v>
+        <v>5.4414798354368541</v>
       </c>
       <c r="F68" s="7">
         <v>4</v>
@@ -2475,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A69" s="7">
         <v>68</v>
       </c>
@@ -2483,13 +2483,13 @@
         <v>871.04749340369449</v>
       </c>
       <c r="C69" s="9">
-        <v>371.05415204384133</v>
+        <v>371.05335581256702</v>
       </c>
       <c r="D69" s="9">
         <v>540189712.20000279</v>
       </c>
       <c r="E69" s="9">
-        <v>5.6130365933281263</v>
+        <v>5.2719795719403564</v>
       </c>
       <c r="F69" s="7">
         <v>4</v>
@@ -2504,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A70" s="7">
         <v>69</v>
       </c>
@@ -2512,13 +2512,13 @@
         <v>856.2018469656997</v>
       </c>
       <c r="C70" s="9">
-        <v>371.05388610368516</v>
+        <v>371.05227908405845</v>
       </c>
       <c r="D70" s="9">
         <v>387273167.39999688</v>
       </c>
       <c r="E70" s="9">
-        <v>5.8549663828433527</v>
+        <v>4.7070856993188688</v>
       </c>
       <c r="F70" s="7">
         <v>4</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -2541,13 +2541,13 @@
         <v>840.0065963060689</v>
       </c>
       <c r="C71" s="9">
-        <v>369.23627363765888</v>
+        <v>369.23766447080527</v>
       </c>
       <c r="D71" s="9">
         <v>431349549</v>
       </c>
       <c r="E71" s="9">
-        <v>5.6796060153216237</v>
+        <v>4.0864262911531473</v>
       </c>
       <c r="F71" s="7">
         <v>4</v>
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A72" s="7">
         <v>71</v>
       </c>
@@ -2570,13 +2570,13 @@
         <v>825.16094986807434</v>
       </c>
       <c r="C72" s="9">
-        <v>371.05178678809489</v>
+        <v>371.05364478072113</v>
       </c>
       <c r="D72" s="9">
         <v>507027602</v>
       </c>
       <c r="E72" s="9">
-        <v>5.5363273705678484</v>
+        <v>4.2116072372545155</v>
       </c>
       <c r="F72" s="7">
         <v>4</v>
@@ -2591,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A73" s="7">
         <v>72</v>
       </c>
@@ -2599,13 +2599,13 @@
         <v>808.96569920844365</v>
       </c>
       <c r="C73" s="9">
-        <v>369.23373531419281</v>
+        <v>369.23418441773299</v>
       </c>
       <c r="D73" s="9">
         <v>595208155.20000517</v>
       </c>
       <c r="E73" s="9">
-        <v>5.475213428436164</v>
+        <v>4.0808174329994582</v>
       </c>
       <c r="F73" s="7">
         <v>4</v>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A74" s="7">
         <v>73</v>
       </c>
@@ -2628,13 +2628,13 @@
         <v>794.12005277044886</v>
       </c>
       <c r="C74" s="9">
-        <v>369.23270844614319</v>
+        <v>369.23139686606316</v>
       </c>
       <c r="D74" s="9">
         <v>579307018.79999506</v>
       </c>
       <c r="E74" s="9">
-        <v>5.5180620916790737</v>
+        <v>4.0531921878048385</v>
       </c>
       <c r="F74" s="7">
         <v>4</v>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A75" s="7">
         <v>74</v>
       </c>
@@ -2657,13 +2657,13 @@
         <v>777.92480211081829</v>
       </c>
       <c r="C75" s="9">
-        <v>371.05016058297019</v>
+        <v>371.0508775156818</v>
       </c>
       <c r="D75" s="9">
         <v>535274100.80000198</v>
       </c>
       <c r="E75" s="9">
-        <v>5.3349980173594576</v>
+        <v>3.9538465275848083</v>
       </c>
       <c r="F75" s="7">
         <v>4</v>
@@ -2678,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A76" s="7">
         <v>75</v>
       </c>
@@ -2686,13 +2686,13 @@
         <v>763.07915567282362</v>
       </c>
       <c r="C76" s="9">
-        <v>369.23260284807463</v>
+        <v>369.23376277517104</v>
       </c>
       <c r="D76" s="9">
         <v>360624902.60000306</v>
       </c>
       <c r="E76" s="9">
-        <v>5.4905714404893233</v>
+        <v>4.3590119638554246</v>
       </c>
       <c r="F76" s="7">
         <v>4</v>
@@ -2707,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A77" s="7">
         <v>76</v>
       </c>
@@ -2715,13 +2715,13 @@
         <v>749.58311345646484</v>
       </c>
       <c r="C77" s="9">
-        <v>371.04272885455032</v>
+        <v>371.04314374481635</v>
       </c>
       <c r="D77" s="9">
         <v>313396412.1999982</v>
       </c>
       <c r="E77" s="9">
-        <v>5.309448341199948</v>
+        <v>3.8560972152560442</v>
       </c>
       <c r="F77" s="7">
         <v>4</v>
@@ -2736,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -2744,13 +2744,13 @@
         <v>734.73746701847017</v>
       </c>
       <c r="C78" s="9">
-        <v>369.22695800258055</v>
+        <v>369.22691309002892</v>
       </c>
       <c r="D78" s="9">
         <v>502976201.39999652</v>
       </c>
       <c r="E78" s="9">
-        <v>5.2301206169022443</v>
+        <v>3.8933502898072203</v>
       </c>
       <c r="F78" s="7">
         <v>4</v>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A79" s="7">
         <v>78</v>
       </c>
@@ -2773,13 +2773,13 @@
         <v>717.19261213720347</v>
       </c>
       <c r="C79" s="9">
-        <v>367.41017452641233</v>
+        <v>367.41038441546777</v>
       </c>
       <c r="D79" s="9">
         <v>636715315</v>
       </c>
       <c r="E79" s="9">
-        <v>5.3682306851111097</v>
+        <v>4.946445753486632</v>
       </c>
       <c r="F79" s="7">
         <v>4</v>
@@ -2794,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A80" s="7">
         <v>79</v>
       </c>
@@ -2802,13 +2802,13 @@
         <v>702.34696569920879</v>
       </c>
       <c r="C80" s="9">
-        <v>369.22738837214399</v>
+        <v>369.227378227641</v>
       </c>
       <c r="D80" s="9">
         <v>563076995.20000458</v>
       </c>
       <c r="E80" s="9">
-        <v>5.1708676052962304</v>
+        <v>4.6940837309391634</v>
       </c>
       <c r="F80" s="7">
         <v>4</v>
@@ -2823,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A81" s="7">
         <v>80</v>
       </c>
@@ -2831,13 +2831,13 @@
         <v>688.85092348284979</v>
       </c>
       <c r="C81" s="9">
-        <v>369.2232780448627</v>
+        <v>369.2230904336385</v>
       </c>
       <c r="D81" s="9">
         <v>509960914.39999652</v>
       </c>
       <c r="E81" s="9">
-        <v>5.1301963838657718</v>
+        <v>3.7867389103947446</v>
       </c>
       <c r="F81" s="7">
         <v>4</v>
@@ -2852,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A82" s="7">
         <v>81</v>
       </c>
@@ -2860,13 +2860,13 @@
         <v>674.00527704485535</v>
       </c>
       <c r="C82" s="9">
-        <v>367.4077794019712</v>
+        <v>367.40757738717309</v>
       </c>
       <c r="D82" s="9">
         <v>509593410.19999802</v>
       </c>
       <c r="E82" s="9">
-        <v>5.2146467180145626</v>
+        <v>4.770875004779688</v>
       </c>
       <c r="F82" s="7">
         <v>4</v>
@@ -2881,7 +2881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A83" s="7">
         <v>82</v>
       </c>
@@ -2889,13 +2889,13 @@
         <v>656.46042216358876</v>
       </c>
       <c r="C83" s="9">
-        <v>367.40674235112965</v>
+        <v>367.4076716288821</v>
       </c>
       <c r="D83" s="9">
         <v>585049782.81817865</v>
       </c>
       <c r="E83" s="9">
-        <v>5.2340266715081496</v>
+        <v>4.7755191575385485</v>
       </c>
       <c r="F83" s="7">
         <v>4</v>
@@ -2910,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A84" s="7">
         <v>83</v>
       </c>
@@ -2918,13 +2918,13 @@
         <v>642.96437994722987</v>
       </c>
       <c r="C84" s="9">
-        <v>369.22194020482618</v>
+        <v>369.22228697358798</v>
       </c>
       <c r="D84" s="9">
         <v>681965010.63635814</v>
       </c>
       <c r="E84" s="9">
-        <v>5.0129618654645727</v>
+        <v>4.6463700906796293</v>
       </c>
       <c r="F84" s="7">
         <v>4</v>
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -2947,13 +2947,13 @@
         <v>628.1187335092352</v>
       </c>
       <c r="C85" s="9">
-        <v>367.40478033651561</v>
+        <v>367.40517561568561</v>
       </c>
       <c r="D85" s="9">
         <v>538061232.72727442</v>
       </c>
       <c r="E85" s="9">
-        <v>5.0549288776286962</v>
+        <v>4.6325263020241589</v>
       </c>
       <c r="F85" s="7">
         <v>4</v>
@@ -2968,7 +2968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A86" s="7">
         <v>85</v>
       </c>
@@ -2976,13 +2976,13 @@
         <v>609.22427440633271</v>
       </c>
       <c r="C86" s="9">
-        <v>365.58948435285913</v>
+        <v>365.5908463503913</v>
       </c>
       <c r="D86" s="9">
         <v>324612736</v>
       </c>
       <c r="E86" s="9">
-        <v>5.6687383591670155</v>
+        <v>5.0849784742980937</v>
       </c>
       <c r="F86" s="7">
         <v>4</v>
@@ -2997,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A87" s="7">
         <v>86</v>
       </c>
@@ -3005,13 +3005,13 @@
         <v>595.72823218997405</v>
       </c>
       <c r="C87" s="9">
-        <v>367.40329313058317</v>
+        <v>367.40318313396358</v>
       </c>
       <c r="D87" s="9">
         <v>506617988.90908909</v>
       </c>
       <c r="E87" s="9">
-        <v>4.9871832082213556</v>
+        <v>4.3686186185364368</v>
       </c>
       <c r="F87" s="7">
         <v>4</v>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A88" s="7">
         <v>87</v>
       </c>
@@ -3034,13 +3034,13 @@
         <v>582.23218997361505</v>
       </c>
       <c r="C88" s="9">
-        <v>365.58623327378052</v>
+        <v>365.58633310994458</v>
       </c>
       <c r="D88" s="9">
         <v>432875786</v>
       </c>
       <c r="E88" s="9">
-        <v>4.9872093427561754</v>
+        <v>4.817858851153102</v>
       </c>
       <c r="F88" s="7">
         <v>4</v>
@@ -3055,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A89" s="7">
         <v>88</v>
       </c>
@@ -3063,13 +3063,13 @@
         <v>566.03693931398448</v>
       </c>
       <c r="C89" s="9">
-        <v>365.58440591936085</v>
+        <v>365.58446579448662</v>
       </c>
       <c r="D89" s="9">
         <v>373811991.90908915</v>
       </c>
       <c r="E89" s="9">
-        <v>4.9690535909390388</v>
+        <v>4.8675838108204488</v>
       </c>
       <c r="F89" s="7">
         <v>4</v>
@@ -3084,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A90" s="7">
         <v>89</v>
       </c>
@@ -3092,13 +3092,13 @@
         <v>551.19129287598969</v>
       </c>
       <c r="C90" s="9">
-        <v>365.58396758224353</v>
+        <v>365.58392688089646</v>
       </c>
       <c r="D90" s="9">
         <v>430725631.63636577</v>
       </c>
       <c r="E90" s="9">
-        <v>4.5544159825435839</v>
+        <v>4.2754210945792783</v>
       </c>
       <c r="F90" s="7">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -3121,13 +3121,13 @@
         <v>537.69525065963103</v>
       </c>
       <c r="C91" s="9">
-        <v>367.40020667366446</v>
+        <v>367.39979267436968</v>
       </c>
       <c r="D91" s="9">
         <v>240723344.09091067</v>
       </c>
       <c r="E91" s="9">
-        <v>5.259484628119985</v>
+        <v>4.835112453654971</v>
       </c>
       <c r="F91" s="7">
         <v>4</v>
@@ -3142,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3150,13 +3150,13 @@
         <v>506.65435356200567</v>
       </c>
       <c r="C92" s="9">
-        <v>367.40139110980897</v>
+        <v>367.40136530200175</v>
       </c>
       <c r="D92" s="9">
         <v>120237072</v>
       </c>
       <c r="E92" s="9">
-        <v>4.841843713329034</v>
+        <v>4.8010559566702975</v>
       </c>
       <c r="F92" s="1">
         <v>5</v>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3179,13 +3179,13 @@
         <v>489.10949868073908</v>
       </c>
       <c r="C93" s="9">
-        <v>363.76594273370461</v>
+        <v>363.76625188447383</v>
       </c>
       <c r="D93" s="9">
         <v>205301701</v>
       </c>
       <c r="E93" s="9">
-        <v>4.9398785779138459</v>
+        <v>4.7927446581541213</v>
       </c>
       <c r="F93" s="1">
         <v>5</v>
@@ -3200,7 +3200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3208,13 +3208,13 @@
         <v>476.96306068601609</v>
       </c>
       <c r="C94" s="9">
-        <v>365.58236343472174</v>
+        <v>365.58236954965844</v>
       </c>
       <c r="D94" s="9">
         <v>348777677</v>
       </c>
       <c r="E94" s="9">
-        <v>4.8403399296662686</v>
+        <v>4.7721301284393416</v>
       </c>
       <c r="F94" s="1">
         <v>5</v>
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3237,13 +3237,13 @@
         <v>460.76781002638552</v>
       </c>
       <c r="C95" s="9">
-        <v>367.40224590316336</v>
+        <v>367.40214108426642</v>
       </c>
       <c r="D95" s="9">
         <v>309219350.81817937</v>
       </c>
       <c r="E95" s="9">
-        <v>5.6398803681206875</v>
+        <v>5.1886367274113612</v>
       </c>
       <c r="F95" s="1">
         <v>5</v>
@@ -3258,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3266,13 +3266,13 @@
         <v>443.22295514511904</v>
       </c>
       <c r="C96" s="9">
-        <v>365.5826097198036</v>
+        <v>365.58244696357349</v>
       </c>
       <c r="D96" s="9">
         <v>291609188</v>
       </c>
       <c r="E96" s="9">
-        <v>5.2618242816127312</v>
+        <v>4.8167492239573937</v>
       </c>
       <c r="F96" s="1">
         <v>5</v>
@@ -3287,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3295,13 +3295,13 @@
         <v>431.07651715039606</v>
       </c>
       <c r="C97" s="9">
-        <v>365.58093788747908</v>
+        <v>365.58038176652406</v>
       </c>
       <c r="D97" s="9">
         <v>371376850.81817913</v>
       </c>
       <c r="E97" s="9">
-        <v>4.9861190708302026</v>
+        <v>4.5606567608551432</v>
       </c>
       <c r="F97" s="1">
         <v>5</v>
@@ -3316,7 +3316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3324,13 +3324,13 @@
         <v>414.88126649076537</v>
       </c>
       <c r="C98" s="9">
-        <v>365.5792770093027</v>
+        <v>365.57920050575751</v>
       </c>
       <c r="D98" s="9">
         <v>369726449.77777421</v>
       </c>
       <c r="E98" s="9">
-        <v>4.8824420348010511</v>
+        <v>4.5353480418072971</v>
       </c>
       <c r="F98" s="1">
         <v>5</v>
@@ -3345,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3353,13 +3353,13 @@
         <v>398.6860158311348</v>
       </c>
       <c r="C99" s="9">
-        <v>363.76472844502257</v>
+        <v>363.76505776310012</v>
       </c>
       <c r="D99" s="9">
         <v>339757708.81817925</v>
       </c>
       <c r="E99" s="9">
-        <v>5.2103151942116677</v>
+        <v>5.0822424763534837</v>
       </c>
       <c r="F99" s="1">
         <v>5</v>
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3382,13 +3382,13 @@
         <v>368.99472295514533</v>
       </c>
       <c r="C100" s="9">
-        <v>367.3983490349101</v>
+        <v>367.39842430064652</v>
       </c>
       <c r="D100" s="9">
         <v>334099266.57142723</v>
       </c>
       <c r="E100" s="9">
-        <v>5.1321809606823754</v>
+        <v>4.7230474870631971</v>
       </c>
       <c r="F100" s="1">
         <v>5</v>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3411,13 +3411,13 @@
         <v>352.79947229551476</v>
       </c>
       <c r="C101" s="9">
-        <v>365.57841340564937</v>
+        <v>365.57858244803242</v>
       </c>
       <c r="D101" s="9">
         <v>515744709.42857283</v>
       </c>
       <c r="E101" s="9">
-        <v>4.9744376049580854</v>
+        <v>4.6059516060159105</v>
       </c>
       <c r="F101" s="1">
         <v>5</v>
@@ -3432,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3440,13 +3440,13 @@
         <v>339.30343007915587</v>
       </c>
       <c r="C102" s="9">
-        <v>365.57785889245918</v>
+        <v>365.57833290658289</v>
       </c>
       <c r="D102" s="9">
         <v>534983304.81817871</v>
       </c>
       <c r="E102" s="9">
-        <v>5.0601008230031788</v>
+        <v>4.8458474656914099</v>
       </c>
       <c r="F102" s="1">
         <v>5</v>
@@ -3461,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3469,13 +3469,13 @@
         <v>323.1081794195253</v>
       </c>
       <c r="C103" s="9">
-        <v>367.39231789135863</v>
+        <v>367.39292500306203</v>
       </c>
       <c r="D103" s="9">
         <v>521065111.36363411</v>
       </c>
       <c r="E103" s="9">
-        <v>4.5227988950966287</v>
+        <v>4.2524374270592045</v>
       </c>
       <c r="F103" s="1">
         <v>5</v>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3498,13 +3498,13 @@
         <v>308.2625329815304</v>
       </c>
       <c r="C104" s="9">
-        <v>365.57673812087808</v>
+        <v>365.57632759810974</v>
       </c>
       <c r="D104" s="9">
         <v>646447512.36364162</v>
       </c>
       <c r="E104" s="9">
-        <v>5.1700891707414982</v>
+        <v>4.8548850036569586</v>
       </c>
       <c r="F104" s="1">
         <v>5</v>
@@ -3519,7 +3519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3527,13 +3527,13 @@
         <v>292.06728232189994</v>
       </c>
       <c r="C105" s="9">
-        <v>363.75948614872357</v>
+        <v>363.75932435255277</v>
       </c>
       <c r="D105" s="9">
         <v>567160859.18182135</v>
       </c>
       <c r="E105" s="9">
-        <v>5.2453316589665508</v>
+        <v>4.8226696422193047</v>
       </c>
       <c r="F105" s="1">
         <v>5</v>
@@ -3548,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3556,13 +3556,13 @@
         <v>278.57124010554105</v>
       </c>
       <c r="C106" s="9">
-        <v>363.7588659918805</v>
+        <v>363.75870420208969</v>
       </c>
       <c r="D106" s="9">
         <v>593714722.45455158</v>
       </c>
       <c r="E106" s="9">
-        <v>5.1998829896178247</v>
+        <v>4.8301117145879058</v>
       </c>
       <c r="F106" s="1">
         <v>5</v>
@@ -3577,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3585,13 +3585,13 @@
         <v>262.37598944591036</v>
       </c>
       <c r="C107" s="9">
-        <v>361.93987459553398</v>
+        <v>361.94118286113485</v>
       </c>
       <c r="D107" s="9">
         <v>533315895.7777738</v>
       </c>
       <c r="E107" s="9">
-        <v>4.852440035006957</v>
+        <v>3.5506780162096923</v>
       </c>
       <c r="F107" s="1">
         <v>5</v>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3614,13 +3614,13 @@
         <v>246.18073878627976</v>
       </c>
       <c r="C108" s="9">
-        <v>360.12166594511507</v>
+        <v>360.12383509834649</v>
       </c>
       <c r="D108" s="9">
         <v>402478009.54545546</v>
       </c>
       <c r="E108" s="9">
-        <v>5.0418770611114763</v>
+        <v>3.659759678402517</v>
       </c>
       <c r="F108" s="1">
         <v>5</v>
@@ -3635,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3643,13 +3643,13 @@
         <v>231.33509234828509</v>
       </c>
       <c r="C109" s="9">
-        <v>363.75983239870004</v>
+        <v>363.76017783598968</v>
       </c>
       <c r="D109" s="9">
         <v>641775682.69231451</v>
       </c>
       <c r="E109" s="9">
-        <v>5.2332657241841165</v>
+        <v>4.8029193147980793</v>
       </c>
       <c r="F109" s="1">
         <v>5</v>
@@ -3664,7 +3664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3672,13 +3672,13 @@
         <v>216.48944591029044</v>
       </c>
       <c r="C110" s="9">
-        <v>361.94178438087727</v>
+        <v>361.9409747499177</v>
       </c>
       <c r="D110" s="9">
         <v>591662537.45455158</v>
       </c>
       <c r="E110" s="9">
-        <v>5.3182965598797187</v>
+        <v>4.9773473162330859</v>
       </c>
       <c r="F110" s="1">
         <v>5</v>
@@ -3693,7 +3693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3701,13 +3701,13 @@
         <v>184.09894459102907</v>
       </c>
       <c r="C111" s="9">
-        <v>361.9415331593641</v>
+        <v>361.94108129986137</v>
       </c>
       <c r="D111" s="9">
         <v>287742946.18182027</v>
       </c>
       <c r="E111" s="9">
-        <v>5.807930730603454</v>
+        <v>5.5576978685006733</v>
       </c>
       <c r="F111" s="1">
         <v>5</v>
@@ -3722,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3730,13 +3730,13 @@
         <v>170.60290237467041</v>
       </c>
       <c r="C112" s="9">
-        <v>361.93997526177907</v>
+        <v>361.94034379182187</v>
       </c>
       <c r="D112" s="9">
         <v>559568542.09091091</v>
       </c>
       <c r="E112" s="9">
-        <v>5.1825236064842537</v>
+        <v>4.7043690665826077</v>
       </c>
       <c r="F112" s="1">
         <v>5</v>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3759,13 +3759,13 @@
         <v>153.05804749340371</v>
       </c>
       <c r="C113" s="9">
-        <v>360.12387770573605</v>
+        <v>360.12407983309197</v>
       </c>
       <c r="D113" s="9">
         <v>444526584.09091091</v>
       </c>
       <c r="E113" s="9">
-        <v>5.8859040578235993</v>
+        <v>5.3824288502322517</v>
       </c>
       <c r="F113" s="1">
         <v>5</v>
@@ -3780,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3788,13 +3788,13 @@
         <v>138.21240105540892</v>
       </c>
       <c r="C114" s="9">
-        <v>361.93686273769492</v>
+        <v>361.9374364405154</v>
       </c>
       <c r="D114" s="9">
         <v>492116771.45454454</v>
       </c>
       <c r="E114" s="9">
-        <v>5.1495823375013563</v>
+        <v>3.8235203885465743</v>
       </c>
       <c r="F114" s="1">
         <v>5</v>
@@ -3809,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3817,13 +3817,13 @@
         <v>123.36675461741424</v>
       </c>
       <c r="C115" s="9">
-        <v>365.57297654146339</v>
+        <v>365.57244708022665</v>
       </c>
       <c r="D115" s="9">
         <v>416625489</v>
       </c>
       <c r="E115" s="9">
-        <v>5.5000531090649227</v>
+        <v>5.0777680157041116</v>
       </c>
       <c r="F115" s="1">
         <v>5</v>
@@ -3838,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3846,13 +3846,13 @@
         <v>108.52110817941946</v>
       </c>
       <c r="C116" s="9">
-        <v>363.75803496553783</v>
+        <v>363.75795397766808</v>
       </c>
       <c r="D116" s="9">
         <v>312777797</v>
       </c>
       <c r="E116" s="9">
-        <v>5.6533462198931037</v>
+        <v>5.0975956698393547</v>
       </c>
       <c r="F116" s="1">
         <v>5</v>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3875,13 +3875,13 @@
         <v>93.675461741424897</v>
       </c>
       <c r="C117" s="9">
-        <v>361.94298885984392</v>
+        <v>361.9428316177715</v>
       </c>
       <c r="D117" s="9">
         <v>366473246.09091085</v>
       </c>
       <c r="E117" s="9">
-        <v>5.6849071742262414</v>
+        <v>5.4299406049575181</v>
       </c>
       <c r="F117" s="1">
         <v>5</v>
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3904,13 +3904,13 @@
         <v>77.480211081794323</v>
       </c>
       <c r="C118" s="9">
-        <v>363.76037477542195</v>
+        <v>363.76058888183468</v>
       </c>
       <c r="D118" s="9">
         <v>334158627.09091079</v>
       </c>
       <c r="E118" s="9">
-        <v>5.7589793705646342</v>
+        <v>5.298666030710832</v>
       </c>
       <c r="F118" s="1">
         <v>5</v>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3933,13 +3933,13 @@
         <v>63.984168865435322</v>
       </c>
       <c r="C119" s="9">
-        <v>363.75986432157845</v>
+        <v>363.75927660215791</v>
       </c>
       <c r="D119" s="9">
         <v>373493976</v>
       </c>
       <c r="E119" s="9">
-        <v>5.6220556573730178</v>
+        <v>5.097825325609187</v>
       </c>
       <c r="F119" s="1">
         <v>5</v>
@@ -3954,7 +3954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3962,13 +3962,13 @@
         <v>49.138522427440648</v>
       </c>
       <c r="C120" s="9">
-        <v>365.5770942480159</v>
+        <v>365.57655388338219</v>
       </c>
       <c r="D120" s="9">
         <v>336092839.18182075</v>
       </c>
       <c r="E120" s="9">
-        <v>5.4706787669299715</v>
+        <v>4.9954625738463054</v>
       </c>
       <c r="F120" s="1">
         <v>5</v>
@@ -3983,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3991,13 +3991,13 @@
         <v>32.943271767810074</v>
       </c>
       <c r="C121" s="9">
-        <v>361.94060915156695</v>
+        <v>361.94091211629143</v>
       </c>
       <c r="D121" s="9">
         <v>312377606.72727579</v>
       </c>
       <c r="E121" s="9">
-        <v>5.3551671703472392</v>
+        <v>4.9046464065570881</v>
       </c>
       <c r="F121" s="1">
         <v>5</v>
@@ -4012,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A122" s="7">
         <v>121</v>
       </c>
@@ -4020,13 +4020,13 @@
         <v>976.31662269129322</v>
       </c>
       <c r="C122" s="9">
-        <v>515.10480172481221</v>
+        <v>515.10477007040402</v>
       </c>
       <c r="D122" s="9">
         <v>168225684</v>
       </c>
       <c r="E122" s="9">
-        <v>6.1445441215461294</v>
+        <v>6.1278236064479765</v>
       </c>
       <c r="F122" s="7">
         <v>6</v>
@@ -4041,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A123" s="7">
         <v>122</v>
       </c>
@@ -4049,13 +4049,13 @@
         <v>962.82058047493456</v>
       </c>
       <c r="C123" s="9">
-        <v>511.46765276464544</v>
+        <v>511.46748091675033</v>
       </c>
       <c r="D123" s="9">
         <v>235873827.81818265</v>
       </c>
       <c r="E123" s="9">
-        <v>6.0744617923413182</v>
+        <v>6.0205552355261283</v>
       </c>
       <c r="F123" s="7">
         <v>6</v>
@@ -4070,7 +4070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A124" s="7">
         <v>123</v>
       </c>
@@ -4078,13 +4078,13 @@
         <v>946.62532981530387</v>
       </c>
       <c r="C124" s="9">
-        <v>511.4669010778382</v>
+        <v>511.46688739993249</v>
       </c>
       <c r="D124" s="9">
         <v>293519588.45454478</v>
       </c>
       <c r="E124" s="9">
-        <v>5.8475021019389732</v>
+        <v>5.8200730187767622</v>
       </c>
       <c r="F124" s="7">
         <v>6</v>
@@ -4099,7 +4099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A125" s="7">
         <v>124</v>
       </c>
@@ -4107,13 +4107,13 @@
         <v>933.1292875989451</v>
       </c>
       <c r="C125" s="9">
-        <v>511.46483277812126</v>
+        <v>511.46473867353586</v>
       </c>
       <c r="D125" s="9">
         <v>318577947.54545522</v>
       </c>
       <c r="E125" s="9">
-        <v>5.9062229073728894</v>
+        <v>5.8731304461877496</v>
       </c>
       <c r="F125" s="7">
         <v>6</v>
@@ -4128,7 +4128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A126" s="7">
         <v>125</v>
       </c>
@@ -4136,13 +4136,13 @@
         <v>918.28364116095042</v>
       </c>
       <c r="C126" s="9">
-        <v>511.46134288317205</v>
+        <v>511.46123556946452</v>
       </c>
       <c r="D126" s="9">
         <v>328538052.54545522</v>
       </c>
       <c r="E126" s="9">
-        <v>5.7822011506912405</v>
+        <v>5.7417761144541366</v>
       </c>
       <c r="F126" s="7">
         <v>6</v>
@@ -4157,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A127" s="7">
         <v>126</v>
       </c>
@@ -4165,13 +4165,13 @@
         <v>900.73878627968384</v>
       </c>
       <c r="C127" s="9">
-        <v>511.46271658022931</v>
+        <v>511.46263839362894</v>
       </c>
       <c r="D127" s="9">
         <v>376935611.72727549</v>
       </c>
       <c r="E127" s="9">
-        <v>5.9040918271876093</v>
+        <v>5.8653188922528656</v>
       </c>
       <c r="F127" s="7">
         <v>6</v>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A128" s="7">
         <v>127</v>
       </c>
@@ -4194,13 +4194,13 @@
         <v>885.89313984168916</v>
       </c>
       <c r="C128" s="9">
-        <v>509.64424726973732</v>
+        <v>509.64420542850553</v>
       </c>
       <c r="D128" s="9">
         <v>354820125.19999856</v>
       </c>
       <c r="E128" s="9">
-        <v>5.9692814195965465</v>
+        <v>5.9304661680734654</v>
       </c>
       <c r="F128" s="7">
         <v>6</v>
@@ -4215,7 +4215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A129" s="7">
         <v>128</v>
       </c>
@@ -4223,13 +4223,13 @@
         <v>873.74670184696618</v>
       </c>
       <c r="C129" s="9">
-        <v>507.82251106330614</v>
+        <v>507.82234147003885</v>
       </c>
       <c r="D129" s="9">
         <v>365069462.36363506</v>
       </c>
       <c r="E129" s="9">
-        <v>6.0785929344791656</v>
+        <v>6.0198794169393546</v>
       </c>
       <c r="F129" s="7">
         <v>6</v>
@@ -4244,7 +4244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A130" s="7">
         <v>129</v>
       </c>
@@ -4252,13 +4252,13 @@
         <v>856.20184696569959</v>
       </c>
       <c r="C130" s="9">
-        <v>509.64015676978067</v>
+        <v>509.64009830053647</v>
       </c>
       <c r="D130" s="9">
         <v>385074833.54545528</v>
       </c>
       <c r="E130" s="9">
-        <v>5.7763422872356429</v>
+        <v>5.7118589717702113</v>
       </c>
       <c r="F130" s="7">
         <v>6</v>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A131" s="7">
         <v>130</v>
       </c>
@@ -4281,13 +4281,13 @@
         <v>841.35620052770491</v>
       </c>
       <c r="C131" s="9">
-        <v>509.63980252673218</v>
+        <v>509.639767976906</v>
       </c>
       <c r="D131" s="9">
         <v>326480684.54545522</v>
       </c>
       <c r="E131" s="9">
-        <v>5.8778744709153283</v>
+        <v>5.6674189167052917</v>
       </c>
       <c r="F131" s="7">
         <v>6</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A132" s="7">
         <v>131</v>
       </c>
@@ -4310,13 +4310,13 @@
         <v>825.16094986807434</v>
       </c>
       <c r="C132" s="9">
-        <v>509.63927722258984</v>
+        <v>509.63869203614593</v>
       </c>
       <c r="D132" s="9">
         <v>313520198.6363647</v>
       </c>
       <c r="E132" s="9">
-        <v>5.890021999984822</v>
+        <v>5.4518930627974109</v>
       </c>
       <c r="F132" s="7">
         <v>6</v>
@@ -4331,7 +4331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A133" s="7">
         <v>132</v>
       </c>
@@ -4339,13 +4339,13 @@
         <v>808.96569920844365</v>
       </c>
       <c r="C133" s="9">
-        <v>509.63809188696098</v>
+        <v>509.63831942382456</v>
       </c>
       <c r="D133" s="9">
         <v>374425042.45454472</v>
       </c>
       <c r="E133" s="9">
-        <v>5.8852139952195346</v>
+        <v>5.672872871381899</v>
       </c>
       <c r="F133" s="7">
         <v>6</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A134" s="7">
         <v>133</v>
       </c>
@@ -4368,13 +4368,13 @@
         <v>794.12005277044909</v>
       </c>
       <c r="C134" s="9">
-        <v>507.82044215047949</v>
+        <v>507.82038942541919</v>
       </c>
       <c r="D134" s="9">
         <v>388369318.63636506</v>
       </c>
       <c r="E134" s="9">
-        <v>5.8148516969506439</v>
+        <v>5.7813837480304837</v>
       </c>
       <c r="F134" s="7">
         <v>6</v>
@@ -4389,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A135" s="7">
         <v>134</v>
       </c>
@@ -4397,13 +4397,13 @@
         <v>779.27440633245419</v>
       </c>
       <c r="C135" s="9">
-        <v>509.63534153553076</v>
+        <v>509.63528387884355</v>
       </c>
       <c r="D135" s="9">
         <v>403688699.1999985</v>
       </c>
       <c r="E135" s="9">
-        <v>5.7067577667764899</v>
+        <v>5.6676261658640392</v>
       </c>
       <c r="F135" s="7">
         <v>6</v>
@@ -4418,7 +4418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A136" s="7">
         <v>135</v>
       </c>
@@ -4426,13 +4426,13 @@
         <v>763.07915567282362</v>
       </c>
       <c r="C136" s="9">
-        <v>507.81706577895432</v>
+        <v>507.81704750887968</v>
       </c>
       <c r="D136" s="9">
         <v>341459300.45454472</v>
       </c>
       <c r="E136" s="9">
-        <v>5.5812059232808009</v>
+        <v>5.536975204529381</v>
       </c>
       <c r="F136" s="7">
         <v>6</v>
@@ -4447,7 +4447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A137" s="7">
         <v>136</v>
       </c>
@@ -4455,13 +4455,13 @@
         <v>749.58311345646484</v>
       </c>
       <c r="C137" s="9">
-        <v>505.99770154874057</v>
+        <v>505.99764963956386</v>
       </c>
       <c r="D137" s="9">
         <v>354303300.36363506</v>
       </c>
       <c r="E137" s="9">
-        <v>5.4790088696307233</v>
+        <v>5.4443069964093862</v>
       </c>
       <c r="F137" s="7">
         <v>6</v>
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A138" s="7">
         <v>137</v>
       </c>
@@ -4484,13 +4484,13 @@
         <v>733.41171263171645</v>
       </c>
       <c r="C138" s="9">
-        <v>507.42994470830195</v>
+        <v>507.42993373843512</v>
       </c>
       <c r="D138" s="9">
         <v>285163752</v>
       </c>
       <c r="E138" s="9">
-        <v>5.8280229705181963</v>
+        <v>5.800701319753367</v>
       </c>
       <c r="F138" s="7">
         <v>6</v>
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -4513,13 +4513,13 @@
         <v>719.91567041535768</v>
       </c>
       <c r="C139" s="9">
-        <v>503.79391923631533</v>
+        <v>503.79386162401886</v>
       </c>
       <c r="D139" s="9">
         <v>260203030.80000135</v>
       </c>
       <c r="E139" s="9">
-        <v>5.7462403154205877</v>
+        <v>5.714836392327717</v>
       </c>
       <c r="F139" s="7">
         <v>6</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A140" s="7">
         <v>139</v>
       </c>
@@ -4542,13 +4542,13 @@
         <v>705.07002397736301</v>
       </c>
       <c r="C140" s="9">
-        <v>505.6092845986733</v>
+        <v>505.60919137321821</v>
       </c>
       <c r="D140" s="9">
         <v>232140342.27272764</v>
       </c>
       <c r="E140" s="9">
-        <v>5.6900558209867134</v>
+        <v>5.6414692953383341</v>
       </c>
       <c r="F140" s="7">
         <v>6</v>
@@ -4563,7 +4563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A141" s="7">
         <v>140</v>
       </c>
@@ -4571,13 +4571,13 @@
         <v>688.87477331773243</v>
       </c>
       <c r="C141" s="9">
-        <v>507.4259247048343</v>
+        <v>507.42590206002308</v>
       </c>
       <c r="D141" s="9">
         <v>254329995.27272764</v>
       </c>
       <c r="E141" s="9">
-        <v>5.4505521913121449</v>
+        <v>5.4298320240591016</v>
       </c>
       <c r="F141" s="7">
         <v>6</v>
@@ -4592,7 +4592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A142" s="7">
         <v>141</v>
       </c>
@@ -4600,13 +4600,13 @@
         <v>675.37873110137343</v>
       </c>
       <c r="C142" s="9">
-        <v>505.6073889492186</v>
+        <v>505.60734829970977</v>
       </c>
       <c r="D142" s="9">
         <v>245016204.36363792</v>
       </c>
       <c r="E142" s="9">
-        <v>5.4714257683079035</v>
+        <v>5.43767889530797</v>
       </c>
       <c r="F142" s="7">
         <v>6</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A143" s="7">
         <v>142</v>
       </c>
@@ -4629,13 +4629,13 @@
         <v>659.18348044174286</v>
       </c>
       <c r="C143" s="9">
-        <v>505.60713743009535</v>
+        <v>505.60711604507321</v>
       </c>
       <c r="D143" s="9">
         <v>274148444.09091038</v>
       </c>
       <c r="E143" s="9">
-        <v>5.5561214401047447</v>
+        <v>5.5171842017909416</v>
       </c>
       <c r="F143" s="7">
         <v>6</v>
@@ -4650,7 +4650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -4658,13 +4658,13 @@
         <v>644.33783400374818</v>
       </c>
       <c r="C144" s="9">
-        <v>503.78908724623773</v>
+        <v>503.78903218275343</v>
       </c>
       <c r="D144" s="9">
         <v>214112131.90908974</v>
       </c>
       <c r="E144" s="9">
-        <v>5.5383593004783362</v>
+        <v>5.4991351914330311</v>
       </c>
       <c r="F144" s="7">
         <v>6</v>
@@ -4679,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -4687,13 +4687,13 @@
         <v>629.49218756575351</v>
       </c>
       <c r="C145" s="9">
-        <v>503.78861184228151</v>
+        <v>503.78860736876595</v>
       </c>
       <c r="D145" s="9">
         <v>157018661</v>
       </c>
       <c r="E145" s="9">
-        <v>5.3146106205185566</v>
+        <v>5.2933085876628372</v>
       </c>
       <c r="F145" s="7">
         <v>6</v>
@@ -4708,7 +4708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -4716,13 +4716,13 @@
         <v>597.10168624649214</v>
       </c>
       <c r="C146" s="9">
-        <v>505.60432985684884</v>
+        <v>505.60432431490665</v>
       </c>
       <c r="D146" s="9">
         <v>89356171.181818813</v>
       </c>
       <c r="E146" s="9">
-        <v>5.4819254653852463</v>
+        <v>5.4777009974105697</v>
       </c>
       <c r="F146" s="7">
         <v>6</v>
@@ -4737,7 +4737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -4745,13 +4745,13 @@
         <v>579.55683136522566</v>
       </c>
       <c r="C147" s="9">
-        <v>503.78677445327128</v>
+        <v>503.78677548982603</v>
       </c>
       <c r="D147" s="9">
         <v>70445611</v>
       </c>
       <c r="E147" s="9">
-        <v>5.4811575786477267</v>
+        <v>5.4785654077506987</v>
       </c>
       <c r="F147" s="7">
         <v>6</v>
@@ -4766,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -4774,13 +4774,13 @@
         <v>566.06078914886689</v>
       </c>
       <c r="C148" s="9">
-        <v>503.78489596972361</v>
+        <v>503.78489553651082</v>
       </c>
       <c r="D148" s="9">
         <v>76628887</v>
       </c>
       <c r="E148" s="9">
-        <v>5.3291813206343335</v>
+        <v>5.3276630206284672</v>
       </c>
       <c r="F148" s="7">
         <v>6</v>
@@ -4795,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -4803,13 +4803,13 @@
         <v>552.564746932508</v>
       </c>
       <c r="C149" s="9">
-        <v>503.78375951234887</v>
+        <v>503.78375181011586</v>
       </c>
       <c r="D149" s="9">
         <v>63283263.799999647</v>
       </c>
       <c r="E149" s="9">
-        <v>5.3872203735684616</v>
+        <v>5.3825296708727963</v>
       </c>
       <c r="F149" s="7">
         <v>6</v>
@@ -4824,7 +4824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -4832,13 +4832,13 @@
         <v>537.71910049451333</v>
       </c>
       <c r="C150" s="9">
-        <v>503.7829278961176</v>
+        <v>503.78292919408307</v>
       </c>
       <c r="D150" s="9">
         <v>50125290.909090549</v>
       </c>
       <c r="E150" s="9">
-        <v>5.2425747785742089</v>
+        <v>5.2374687989678925</v>
       </c>
       <c r="F150" s="7">
         <v>6</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -4861,13 +4861,13 @@
         <v>521.52384983488264</v>
       </c>
       <c r="C151" s="9">
-        <v>501.96482859112973</v>
+        <v>501.96483758484294</v>
       </c>
       <c r="D151" s="9">
         <v>53839362.363636196</v>
       </c>
       <c r="E151" s="9">
-        <v>5.1413708639784996</v>
+        <v>5.135496058233298</v>
       </c>
       <c r="F151" s="7">
         <v>6</v>
@@ -4882,7 +4882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -4890,13 +4890,13 @@
         <v>993.88532740744222</v>
       </c>
       <c r="C152" s="9">
-        <v>649.67044848296143</v>
+        <v>649.67044651095341</v>
       </c>
       <c r="D152" s="9">
         <v>29383877.600000169</v>
       </c>
       <c r="E152" s="9">
-        <v>5.8327627476879362</v>
+        <v>5.8305869742637224</v>
       </c>
       <c r="F152" s="3">
         <v>7</v>
@@ -4911,7 +4911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -4919,13 +4919,13 @@
         <v>979.03968096944755</v>
       </c>
       <c r="C153" s="9">
-        <v>649.67028565427142</v>
+        <v>649.670278143877</v>
       </c>
       <c r="D153" s="9">
         <v>55695372.636363804</v>
       </c>
       <c r="E153" s="9">
-        <v>5.7919899526010559</v>
+        <v>5.7889929199501999</v>
       </c>
       <c r="F153" s="3">
         <v>7</v>
@@ -4940,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -4948,13 +4948,13 @@
         <v>947.99878387182218</v>
       </c>
       <c r="C154" s="9">
-        <v>651.48445055304649</v>
+        <v>651.48439854997343</v>
       </c>
       <c r="D154" s="9">
         <v>109361311</v>
       </c>
       <c r="E154" s="9">
-        <v>5.9182770619013301</v>
+        <v>5.8962133731322375</v>
       </c>
       <c r="F154" s="3">
         <v>7</v>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -4977,13 +4977,13 @@
         <v>931.80353321219161</v>
       </c>
       <c r="C155" s="9">
-        <v>651.48991934678463</v>
+        <v>651.4900000031447</v>
       </c>
       <c r="D155" s="9">
         <v>80662320.799999624</v>
       </c>
       <c r="E155" s="9">
-        <v>7.4327272048532844</v>
+        <v>7.4166306244106019</v>
       </c>
       <c r="F155" s="3">
         <v>7</v>
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -5006,13 +5006,13 @@
         <v>916.95788677419682</v>
       </c>
       <c r="C156" s="9">
-        <v>649.66472348634795</v>
+        <v>649.66461914238641</v>
       </c>
       <c r="D156" s="9">
         <v>257780882.45454478</v>
       </c>
       <c r="E156" s="9">
-        <v>5.9178623728870754</v>
+        <v>5.874254166098944</v>
       </c>
       <c r="F156" s="3">
         <v>7</v>
@@ -5027,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -5035,13 +5035,13 @@
         <v>903.46184455783805</v>
       </c>
       <c r="C157" s="9">
-        <v>646.03098671670966</v>
+        <v>646.03098628121495</v>
       </c>
       <c r="D157" s="9">
         <v>292750757</v>
       </c>
       <c r="E157" s="9">
-        <v>6.2076929932944083</v>
+        <v>6.1744548376868238</v>
       </c>
       <c r="F157" s="3">
         <v>7</v>
@@ -5056,7 +5056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -5064,13 +5064,13 @@
         <v>887.26659389820736</v>
       </c>
       <c r="C158" s="9">
-        <v>647.84635528910837</v>
+        <v>647.84585442347486</v>
       </c>
       <c r="D158" s="9">
         <v>393719372.60000235</v>
       </c>
       <c r="E158" s="9">
-        <v>5.8486026887289055</v>
+        <v>5.3844400214513168</v>
       </c>
       <c r="F158" s="3">
         <v>7</v>
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -5093,13 +5093,13 @@
         <v>871.07134323857679</v>
       </c>
       <c r="C159" s="9">
-        <v>646.02846505095874</v>
+        <v>646.02831772874936</v>
       </c>
       <c r="D159" s="9">
         <v>426849820.45454472</v>
       </c>
       <c r="E159" s="9">
-        <v>5.9782212421251506</v>
+        <v>5.5993759876388829</v>
       </c>
       <c r="F159" s="3">
         <v>7</v>
@@ -5114,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -5122,13 +5122,13 @@
         <v>856.225696800582</v>
       </c>
       <c r="C160" s="9">
-        <v>649.66129453791666</v>
+        <v>649.66056684738999</v>
       </c>
       <c r="D160" s="9">
         <v>450255660</v>
       </c>
       <c r="E160" s="9">
-        <v>5.9928580459318104</v>
+        <v>5.5741265187327267</v>
       </c>
       <c r="F160" s="3">
         <v>7</v>
@@ -5143,7 +5143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -5151,13 +5151,13 @@
         <v>842.72965458422323</v>
       </c>
       <c r="C161" s="9">
-        <v>647.83906875552282</v>
+        <v>647.83912926495657</v>
       </c>
       <c r="D161" s="9">
         <v>411043957.8000015</v>
       </c>
       <c r="E161" s="9">
-        <v>6.2935168645417319</v>
+        <v>5.9798640870816255</v>
       </c>
       <c r="F161" s="3">
         <v>7</v>
@@ -5172,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -5180,13 +5180,13 @@
         <v>825.18479970295675</v>
       </c>
       <c r="C162" s="9">
-        <v>646.02267582378488</v>
+        <v>646.02227351660611</v>
       </c>
       <c r="D162" s="9">
         <v>627968913.18182063</v>
       </c>
       <c r="E162" s="9">
-        <v>5.9682843504328602</v>
+        <v>5.5315020670783035</v>
       </c>
       <c r="F162" s="3">
         <v>7</v>
@@ -5201,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -5209,13 +5209,13 @@
         <v>811.68875748659786</v>
       </c>
       <c r="C163" s="9">
-        <v>644.20327309949823</v>
+        <v>644.20335239584244</v>
       </c>
       <c r="D163" s="9">
         <v>649712188.60000288</v>
       </c>
       <c r="E163" s="9">
-        <v>5.8272035396102488</v>
+        <v>5.3483090619170595</v>
       </c>
       <c r="F163" s="3">
         <v>7</v>
@@ -5230,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -5238,13 +5238,13 @@
         <v>795.49350682696718</v>
       </c>
       <c r="C164" s="9">
-        <v>646.02217781633419</v>
+        <v>646.02127481195146</v>
       </c>
       <c r="D164" s="9">
         <v>589661765.09091055</v>
       </c>
       <c r="E164" s="9">
-        <v>6.0301317861258044</v>
+        <v>5.7763733430483839</v>
       </c>
       <c r="F164" s="3">
         <v>7</v>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -5267,13 +5267,13 @@
         <v>780.6478603889725</v>
       </c>
       <c r="C165" s="9">
-        <v>644.20317942531562</v>
+        <v>644.20318027235419</v>
       </c>
       <c r="D165" s="9">
         <v>455125751.19999844</v>
       </c>
       <c r="E165" s="9">
-        <v>6.3149343380011542</v>
+        <v>5.9350326866199481</v>
       </c>
       <c r="F165" s="3">
         <v>7</v>
@@ -5288,7 +5288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -5296,13 +5296,13 @@
         <v>767.15181817261373</v>
       </c>
       <c r="C166" s="9">
-        <v>646.01725859433338</v>
+        <v>646.015503615792</v>
       </c>
       <c r="D166" s="9">
         <v>458040047.18182033</v>
       </c>
       <c r="E166" s="9">
-        <v>6.3523123946644846</v>
+        <v>5.5832387892742812</v>
       </c>
       <c r="F166" s="3">
         <v>7</v>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -5325,13 +5325,13 @@
         <v>750.95656751298304</v>
       </c>
       <c r="C167" s="9">
-        <v>646.01639258389616</v>
+        <v>646.01561036868168</v>
       </c>
       <c r="D167" s="9">
         <v>663295729.90908945</v>
       </c>
       <c r="E167" s="9">
-        <v>5.7319663663955165</v>
+        <v>5.3258676797501705</v>
       </c>
       <c r="F167" s="3">
         <v>7</v>
@@ -5346,7 +5346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -5354,13 +5354,13 @@
         <v>736.11092107498825</v>
       </c>
       <c r="C168" s="9">
-        <v>647.83297266286093</v>
+        <v>647.83306503708616</v>
       </c>
       <c r="D168" s="9">
         <v>536744202.60000271</v>
       </c>
       <c r="E168" s="9">
-        <v>5.9877848189655181</v>
+        <v>5.4734290845788154</v>
       </c>
       <c r="F168" s="3">
         <v>7</v>
@@ -5375,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -5383,13 +5383,13 @@
         <v>706.41962819899891</v>
       </c>
       <c r="C169" s="9">
-        <v>644.19485748009799</v>
+        <v>644.19437221178794</v>
       </c>
       <c r="D169" s="9">
         <v>553681996</v>
       </c>
       <c r="E169" s="9">
-        <v>5.6698850377150789</v>
+        <v>5.1591104998106649</v>
       </c>
       <c r="F169" s="3">
         <v>7</v>
@@ -5404,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -5412,13 +5412,13 @@
         <v>687.52516909609653</v>
       </c>
       <c r="C170" s="9">
-        <v>644.19519171356558</v>
+        <v>644.1945143128786</v>
       </c>
       <c r="D170" s="9">
         <v>683261849.72727025</v>
       </c>
       <c r="E170" s="9">
-        <v>5.9592702097928916</v>
+        <v>5.4844235896330211</v>
       </c>
       <c r="F170" s="3">
         <v>7</v>
@@ -5433,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -5441,13 +5441,13 @@
         <v>674.02912687973765</v>
       </c>
       <c r="C171" s="9">
-        <v>644.19499121545925</v>
+        <v>644.19532350712723</v>
       </c>
       <c r="D171" s="9">
         <v>607923233</v>
       </c>
       <c r="E171" s="9">
-        <v>5.9828394057774519</v>
+        <v>5.5938235272218666</v>
       </c>
       <c r="F171" s="3">
         <v>7</v>
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -5470,13 +5470,13 @@
         <v>659.18348044174286</v>
       </c>
       <c r="C172" s="9">
-        <v>646.00983830359871</v>
+        <v>646.00908188643928</v>
       </c>
       <c r="D172" s="9">
         <v>579241569.45454967</v>
       </c>
       <c r="E172" s="9">
-        <v>6.0442070656448124</v>
+        <v>5.6953309384279542</v>
       </c>
       <c r="F172" s="3">
         <v>7</v>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -5499,13 +5499,13 @@
         <v>642.98822978211228</v>
       </c>
       <c r="C173" s="9">
-        <v>644.19486152409252</v>
+        <v>644.1950709784511</v>
       </c>
       <c r="D173" s="9">
         <v>340226988.45454472</v>
       </c>
       <c r="E173" s="9">
-        <v>6.4117320298056448</v>
+        <v>6.1047855787495573</v>
       </c>
       <c r="F173" s="3">
         <v>7</v>
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -5528,13 +5528,13 @@
         <v>597.10168624649214</v>
       </c>
       <c r="C174" s="9">
-        <v>646.00696942294064</v>
+        <v>646.00651936256588</v>
       </c>
       <c r="D174" s="9">
         <v>514462709.27272409</v>
       </c>
       <c r="E174" s="9">
-        <v>5.727928904015136</v>
+        <v>5.5967965162268856</v>
       </c>
       <c r="F174" s="3">
         <v>7</v>
@@ -5549,7 +5549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -5557,13 +5557,13 @@
         <v>580.90643558686156</v>
       </c>
       <c r="C175" s="9">
-        <v>640.55645740527268</v>
+        <v>640.55533643602428</v>
       </c>
       <c r="D175" s="9">
         <v>399738386.81817979</v>
       </c>
       <c r="E175" s="9">
-        <v>6.2878815286865057</v>
+        <v>5.8144438328617181</v>
       </c>
       <c r="F175" s="3">
         <v>7</v>
@@ -5578,7 +5578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -5586,13 +5586,13 @@
         <v>567.41039337050279</v>
       </c>
       <c r="C176" s="9">
-        <v>642.37222899387314</v>
+        <v>642.37125378051508</v>
       </c>
       <c r="D176" s="9">
         <v>478528449.81817961</v>
       </c>
       <c r="E176" s="9">
-        <v>6.0145800962839102</v>
+        <v>5.5703774527315959</v>
       </c>
       <c r="F176" s="3">
         <v>7</v>
@@ -5607,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -5615,13 +5615,13 @@
         <v>553.9143511541439</v>
       </c>
       <c r="C177" s="9">
-        <v>642.37145577301555</v>
+        <v>642.37065587013342</v>
       </c>
       <c r="D177" s="9">
         <v>351562263.27272469</v>
       </c>
       <c r="E177" s="9">
-        <v>6.1741329298651122</v>
+        <v>6.0252805143153481</v>
       </c>
       <c r="F177" s="3">
         <v>7</v>
@@ -5636,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -5644,13 +5644,13 @@
         <v>536.36949627287743</v>
       </c>
       <c r="C178" s="9">
-        <v>640.55668558504715</v>
+        <v>640.55696763785443</v>
       </c>
       <c r="D178" s="9">
         <v>273342681.19999862</v>
       </c>
       <c r="E178" s="9">
-        <v>6.3378805717461555</v>
+        <v>6.2055923312285577</v>
       </c>
       <c r="F178" s="3">
         <v>7</v>
@@ -5665,7 +5665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -5673,13 +5673,13 @@
         <v>459.44205563963203</v>
       </c>
       <c r="C179" s="9">
-        <v>640.55138854120821</v>
+        <v>640.55068870463163</v>
       </c>
       <c r="D179" s="9">
         <v>232983695.19999874</v>
       </c>
       <c r="E179" s="9">
-        <v>5.9453626390042951</v>
+        <v>5.4993521373234895</v>
       </c>
       <c r="F179" s="3">
         <v>7</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -5702,13 +5702,13 @@
         <v>447.29561764490904</v>
       </c>
       <c r="C180" s="9">
-        <v>640.55044856164466</v>
+        <v>640.55087092732572</v>
       </c>
       <c r="D180" s="9">
         <v>280543881.39999849</v>
       </c>
       <c r="E180" s="9">
-        <v>5.825656408561275</v>
+        <v>5.7622211858040639</v>
       </c>
       <c r="F180" s="3">
         <v>7</v>
@@ -5723,7 +5723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -5731,13 +5731,13 @@
         <v>431.10036698527836</v>
       </c>
       <c r="C181" s="9">
-        <v>638.73667887959607</v>
+        <v>638.73690705515844</v>
       </c>
       <c r="D181" s="9">
         <v>222396121.59999922</v>
       </c>
       <c r="E181" s="9">
-        <v>6.2689942543172581</v>
+        <v>6.1558707579835241</v>
       </c>
       <c r="F181" s="3">
         <v>7</v>
@@ -5752,7 +5752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -5760,13 +5760,13 @@
         <v>979.03968096944755</v>
       </c>
       <c r="C182" s="9">
-        <v>790.07518198956711</v>
+        <v>790.07472019880413</v>
       </c>
       <c r="D182" s="9">
         <v>471636350.81817967</v>
       </c>
       <c r="E182" s="9">
-        <v>5.8682840675046721</v>
+        <v>5.4301436565810803</v>
       </c>
       <c r="F182" s="7">
         <v>8</v>
@@ -5781,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -5789,13 +5789,13 @@
         <v>947.99548976560129</v>
       </c>
       <c r="C183" s="9">
-        <v>786.99422281605973</v>
+        <v>786.99399736720136</v>
       </c>
       <c r="D183" s="9">
         <v>389006650.60000229</v>
       </c>
       <c r="E183" s="9">
-        <v>6.6417848047731356</v>
+        <v>6.0986335039377471</v>
       </c>
       <c r="F183" s="7">
         <v>8</v>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -5818,13 +5818,13 @@
         <v>934.49944754924252</v>
       </c>
       <c r="C184" s="9">
-        <v>788.78601516818742</v>
+        <v>788.78518445056477</v>
       </c>
       <c r="D184" s="9">
         <v>669692711.90908945</v>
       </c>
       <c r="E184" s="9">
-        <v>5.8959589685960028</v>
+        <v>5.4047145396880829</v>
       </c>
       <c r="F184" s="7">
         <v>8</v>
@@ -5839,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -5847,13 +5847,13 @@
         <v>918.30419688961194</v>
       </c>
       <c r="C185" s="9">
-        <v>785.19084572402346</v>
+        <v>785.19002038718475</v>
       </c>
       <c r="D185" s="9">
         <v>692014699.54544938</v>
       </c>
       <c r="E185" s="9">
-        <v>6.0692026394203475</v>
+        <v>5.6704525417213949</v>
       </c>
       <c r="F185" s="7">
         <v>8</v>
@@ -5868,7 +5868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -5876,13 +5876,13 @@
         <v>903.45855045161716</v>
       </c>
       <c r="C186" s="9">
-        <v>786.98735015781847</v>
+        <v>786.98674952661793</v>
       </c>
       <c r="D186" s="9">
         <v>679613474.39999712</v>
       </c>
       <c r="E186" s="9">
-        <v>6.3211556052751661</v>
+        <v>5.9399884591139758</v>
       </c>
       <c r="F186" s="7">
         <v>8</v>
@@ -5897,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -5905,13 +5905,13 @@
         <v>889.96250823525827</v>
       </c>
       <c r="C187" s="9">
-        <v>788.7808667782482</v>
+        <v>788.78035010072279</v>
       </c>
       <c r="D187" s="9">
         <v>629112920</v>
       </c>
       <c r="E187" s="9">
-        <v>6.2131468929833433</v>
+        <v>5.5717261982890065</v>
       </c>
       <c r="F187" s="7">
         <v>8</v>
@@ -5926,7 +5926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A188" s="7">
         <v>187</v>
       </c>
@@ -5934,13 +5934,13 @@
         <v>857.57200691599712</v>
       </c>
       <c r="C188" s="9">
-        <v>785.18468029105463</v>
+        <v>785.18343286375978</v>
       </c>
       <c r="D188" s="9">
         <v>668332174.39999712</v>
       </c>
       <c r="E188" s="9">
-        <v>5.9610703800337195</v>
+        <v>5.5264000602910235</v>
       </c>
       <c r="F188" s="7">
         <v>8</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A189" s="7">
         <v>188</v>
       </c>
@@ -5963,13 +5963,13 @@
         <v>842.72689465738972</v>
       </c>
       <c r="C189" s="9">
-        <v>783.3857390957595</v>
+        <v>783.3850995450872</v>
       </c>
       <c r="D189" s="9">
         <v>622433626.60000277</v>
       </c>
       <c r="E189" s="9">
-        <v>6.3046450914251464</v>
+        <v>5.8849250039034269</v>
       </c>
       <c r="F189" s="7">
         <v>8</v>
@@ -5984,7 +5984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A190" s="7">
         <v>189</v>
       </c>
@@ -5992,13 +5992,13 @@
         <v>827.88124821939493</v>
       </c>
       <c r="C190" s="9">
-        <v>786.97967831607491</v>
+        <v>786.97915538208747</v>
       </c>
       <c r="D190" s="9">
         <v>955204252.09091067</v>
       </c>
       <c r="E190" s="9">
-        <v>6.0759251828698835</v>
+        <v>5.5653360722486998</v>
       </c>
       <c r="F190" s="7">
         <v>8</v>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A191" s="7">
         <v>190</v>
       </c>
@@ -6021,13 +6021,13 @@
         <v>811.68599755976436</v>
       </c>
       <c r="C191" s="9">
-        <v>785.17936759990278</v>
+        <v>785.17949448131765</v>
       </c>
       <c r="D191" s="9">
         <v>853059869.79999506</v>
       </c>
       <c r="E191" s="9">
-        <v>6.3053439014213639</v>
+        <v>5.8728578857256517</v>
       </c>
       <c r="F191" s="7">
         <v>8</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A192" s="7">
         <v>191</v>
       </c>
@@ -6050,13 +6050,13 @@
         <v>795.49074690013367</v>
       </c>
       <c r="C192" s="9">
-        <v>783.38368029881019</v>
+        <v>783.38314263144764</v>
       </c>
       <c r="D192" s="9">
         <v>976896566.72726941</v>
       </c>
       <c r="E192" s="9">
-        <v>5.8594331036838163</v>
+        <v>4.4246756521274673</v>
       </c>
       <c r="F192" s="7">
         <v>8</v>
@@ -6071,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A193" s="7">
         <v>192</v>
       </c>
@@ -6079,13 +6079,13 @@
         <v>768.49866246741612</v>
       </c>
       <c r="C193" s="9">
-        <v>781.57937383392243</v>
+        <v>781.57879160113123</v>
       </c>
       <c r="D193" s="9">
         <v>664917425.7999959</v>
       </c>
       <c r="E193" s="9">
-        <v>5.7789053884956489</v>
+        <v>5.3361220625251242</v>
       </c>
       <c r="F193" s="7">
         <v>8</v>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A194" s="7">
         <v>193</v>
       </c>
@@ -6108,13 +6108,13 @@
         <v>750.95380758614954</v>
       </c>
       <c r="C194" s="9">
-        <v>785.17638039829797</v>
+        <v>785.17415722077101</v>
       </c>
       <c r="D194" s="9">
         <v>679322593.39999712</v>
       </c>
       <c r="E194" s="9">
-        <v>6.3732372921166123</v>
+        <v>4.7969080952864065</v>
       </c>
       <c r="F194" s="7">
         <v>8</v>
@@ -6129,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A195" s="7">
         <v>194</v>
       </c>
@@ -6137,13 +6137,13 @@
         <v>736.10816114815486</v>
       </c>
       <c r="C195" s="9">
-        <v>781.57881002329111</v>
+        <v>781.57573461042568</v>
       </c>
       <c r="D195" s="9">
         <v>814980956.5454489</v>
       </c>
       <c r="E195" s="9">
-        <v>6.0567741243947166</v>
+        <v>4.419554929436349</v>
       </c>
       <c r="F195" s="7">
         <v>8</v>
@@ -6158,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A196" s="7">
         <v>195</v>
       </c>
@@ -6166,13 +6166,13 @@
         <v>721.26251471016008</v>
       </c>
       <c r="C196" s="9">
-        <v>781.57706983367291</v>
+        <v>781.57757881635587</v>
       </c>
       <c r="D196" s="9">
         <v>738390738.90908945</v>
       </c>
       <c r="E196" s="9">
-        <v>5.660877159125925</v>
+        <v>4.1579824653659641</v>
       </c>
       <c r="F196" s="7">
         <v>8</v>
@@ -6187,7 +6187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A197" s="7">
         <v>196</v>
       </c>
@@ -6195,13 +6195,13 @@
         <v>688.87201339089893</v>
       </c>
       <c r="C197" s="9">
-        <v>781.57618354788872</v>
+        <v>781.57491006021371</v>
       </c>
       <c r="D197" s="9">
         <v>400440242.8000015</v>
       </c>
       <c r="E197" s="9">
-        <v>6.4368731159559216</v>
+        <v>4.7955724672096256</v>
       </c>
       <c r="F197" s="7">
         <v>8</v>
@@ -6216,7 +6216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A198" s="7">
         <v>197</v>
       </c>
@@ -6224,13 +6224,13 @@
         <v>674.02636695290414</v>
       </c>
       <c r="C198" s="9">
-        <v>785.16880195006922</v>
+        <v>785.1691591311959</v>
       </c>
       <c r="D198" s="9">
         <v>613588182.09091055</v>
       </c>
       <c r="E198" s="9">
-        <v>6.5677424235309703</v>
+        <v>4.9458043925026578</v>
       </c>
       <c r="F198" s="7">
         <v>8</v>
@@ -6245,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A199" s="7">
         <v>198</v>
       </c>
@@ -6253,13 +6253,13 @@
         <v>659.18072051490935</v>
       </c>
       <c r="C199" s="9">
-        <v>781.57285837837242</v>
+        <v>781.57388339992792</v>
       </c>
       <c r="D199" s="9">
         <v>826619540.72726977</v>
       </c>
       <c r="E199" s="9">
-        <v>6.1686938441393453</v>
+        <v>4.451362239680674</v>
       </c>
       <c r="F199" s="7">
         <v>8</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A200" s="7">
         <v>199</v>
       </c>
@@ -6282,13 +6282,13 @@
         <v>644.33507407691468</v>
       </c>
       <c r="C200" s="9">
-        <v>779.77398162530005</v>
+        <v>779.77100858474694</v>
       </c>
       <c r="D200" s="9">
         <v>998347233.39999688</v>
       </c>
       <c r="E200" s="9">
-        <v>5.8843566356625052</v>
+        <v>4.494513647267695</v>
       </c>
       <c r="F200" s="7">
         <v>8</v>
@@ -6303,7 +6303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A201" s="7">
         <v>200</v>
       </c>
@@ -6311,13 +6311,13 @@
         <v>629.48942763892001</v>
       </c>
       <c r="C201" s="9">
-        <v>781.56918911626133</v>
+        <v>781.56762522026349</v>
       </c>
       <c r="D201" s="9">
         <v>845999730.33333731</v>
       </c>
       <c r="E201" s="9">
-        <v>5.8495402488702402</v>
+        <v>4.3227029577316891</v>
       </c>
       <c r="F201" s="7">
         <v>8</v>
@@ -6332,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A202" s="7">
         <v>201</v>
       </c>
@@ -6340,13 +6340,13 @@
         <v>611.94457275765353</v>
       </c>
       <c r="C202" s="9">
-        <v>779.77262383960954</v>
+        <v>779.77300102541665</v>
       </c>
       <c r="D202" s="9">
         <v>837203480.3636409</v>
       </c>
       <c r="E202" s="9">
-        <v>5.8793542086988788</v>
+        <v>4.177806022416636</v>
       </c>
       <c r="F202" s="7">
         <v>8</v>
@@ -6361,7 +6361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A203" s="7">
         <v>202</v>
       </c>
@@ -6369,13 +6369,13 @@
         <v>598.44853054129464</v>
       </c>
       <c r="C203" s="9">
-        <v>779.77288190632942</v>
+        <v>779.77287415300987</v>
       </c>
       <c r="D203" s="9">
         <v>744949763.79999554</v>
       </c>
       <c r="E203" s="9">
-        <v>6.2567037358911541</v>
+        <v>4.674685975286307</v>
       </c>
       <c r="F203" s="7">
         <v>8</v>
@@ -6390,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A204" s="7">
         <v>203</v>
       </c>
@@ -6398,13 +6398,13 @@
         <v>583.60288410329986</v>
       </c>
       <c r="C204" s="9">
-        <v>777.97357335873528</v>
+        <v>777.97253525297435</v>
       </c>
       <c r="D204" s="9">
         <v>779298791.09091055</v>
       </c>
       <c r="E204" s="9">
-        <v>6.1174479265186212</v>
+        <v>4.6701052501418863</v>
       </c>
       <c r="F204" s="7">
         <v>8</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A205" s="7">
         <v>204</v>
       </c>
@@ -6427,13 +6427,13 @@
         <v>567.40763344366928</v>
       </c>
       <c r="C205" s="9">
-        <v>779.77157231077024</v>
+        <v>779.77101331580582</v>
       </c>
       <c r="D205" s="9">
         <v>861272873.90908933</v>
       </c>
       <c r="E205" s="9">
-        <v>6.1186922564846791</v>
+        <v>5.6744886662821905</v>
       </c>
       <c r="F205" s="7">
         <v>8</v>
@@ -6448,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A206" s="7">
         <v>205</v>
       </c>
@@ -6456,13 +6456,13 @@
         <v>552.56198700567461</v>
       </c>
       <c r="C206" s="9">
-        <v>779.77064004742158</v>
+        <v>779.77016512954731</v>
       </c>
       <c r="D206" s="9">
         <v>586596169</v>
       </c>
       <c r="E206" s="9">
-        <v>6.1174553905991162</v>
+        <v>5.634917766181549</v>
       </c>
       <c r="F206" s="7">
         <v>8</v>
@@ -6477,7 +6477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A207" s="7">
         <v>206</v>
       </c>
@@ -6485,13 +6485,13 @@
         <v>506.67544347005446</v>
       </c>
       <c r="C207" s="9">
-        <v>779.76719501208606</v>
+        <v>779.76628532516145</v>
       </c>
       <c r="D207" s="9">
         <v>566325786.79999685</v>
       </c>
       <c r="E207" s="9">
-        <v>5.6759386317215128</v>
+        <v>4.500413597400966</v>
       </c>
       <c r="F207" s="7">
         <v>8</v>
@@ -6506,7 +6506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A208" s="7">
         <v>207</v>
       </c>
@@ -6514,13 +6514,13 @@
         <v>460.78889993443443</v>
       </c>
       <c r="C208" s="9">
-        <v>777.96798065164433</v>
+        <v>777.9678078619653</v>
       </c>
       <c r="D208" s="9">
         <v>584045534.39999723</v>
       </c>
       <c r="E208" s="9">
-        <v>5.6063389052922403</v>
+        <v>5.2209079521794948</v>
       </c>
       <c r="F208" s="7">
         <v>8</v>
@@ -6535,7 +6535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A209" s="7">
         <v>208</v>
       </c>
@@ -6543,13 +6543,13 @@
         <v>429.74800283680906</v>
       </c>
       <c r="C209" s="9">
-        <v>777.96672978871482</v>
+        <v>777.96619196534778</v>
       </c>
       <c r="D209" s="9">
         <v>600396243</v>
       </c>
       <c r="E209" s="9">
-        <v>6.0165451487445898</v>
+        <v>5.6556747947396717</v>
       </c>
       <c r="F209" s="7">
         <v>8</v>
@@ -6564,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A210" s="7">
         <v>209</v>
       </c>
@@ -6572,13 +6572,13 @@
         <v>413.55275217717849</v>
       </c>
       <c r="C210" s="9">
-        <v>776.17070384700844</v>
+        <v>776.17068400872165</v>
       </c>
       <c r="D210" s="9">
         <v>456886111.19999844</v>
       </c>
       <c r="E210" s="9">
-        <v>5.7320981146950682</v>
+        <v>5.5787018071626377</v>
       </c>
       <c r="F210" s="7">
         <v>8</v>
@@ -6593,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A211" s="7">
         <v>210</v>
       </c>
@@ -6601,13 +6601,13 @@
         <v>369.01581286319424</v>
       </c>
       <c r="C211" s="9">
-        <v>776.16884380864724</v>
+        <v>776.16928258199152</v>
       </c>
       <c r="D211" s="9">
         <v>634473285.20000398</v>
       </c>
       <c r="E211" s="9">
-        <v>5.8295269038400583</v>
+        <v>5.5515283533365141</v>
       </c>
       <c r="F211" s="7">
         <v>8</v>
@@ -6622,7 +6622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -6630,13 +6630,13 @@
         <v>506.67544347005446</v>
       </c>
       <c r="C212" s="9">
-        <v>501.92318758476324</v>
+        <v>501.92321807453789</v>
       </c>
       <c r="D212" s="9">
         <v>162323036.3636376</v>
       </c>
       <c r="E212" s="9">
-        <v>5.3778945719584463</v>
+        <v>5.3353629011198453</v>
       </c>
       <c r="F212" s="1">
         <v>9</v>
@@ -6651,7 +6651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -6659,13 +6659,13 @@
         <v>490.48019281042389</v>
       </c>
       <c r="C213" s="9">
-        <v>503.72048700187725</v>
+        <v>503.72052824055061</v>
       </c>
       <c r="D213" s="9">
         <v>282376440.45454478</v>
       </c>
       <c r="E213" s="9">
-        <v>5.4019007735936135</v>
+        <v>5.3478902749625785</v>
       </c>
       <c r="F213" s="1">
         <v>9</v>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -6688,13 +6688,13 @@
         <v>475.63454637242921</v>
       </c>
       <c r="C214" s="9">
-        <v>501.92430384398256</v>
+        <v>501.92431217034493</v>
       </c>
       <c r="D214" s="9">
         <v>255776806.36363795</v>
       </c>
       <c r="E214" s="9">
-        <v>5.5798509226049609</v>
+        <v>5.5640281493403965</v>
       </c>
       <c r="F214" s="1">
         <v>9</v>
@@ -6709,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -6717,13 +6717,13 @@
         <v>460.78889993443443</v>
       </c>
       <c r="C215" s="9">
-        <v>503.72065036883498</v>
+        <v>503.72068347762058</v>
       </c>
       <c r="D215" s="9">
         <v>279135547.1818195</v>
       </c>
       <c r="E215" s="9">
-        <v>5.4018524890901833</v>
+        <v>5.3600200398892301</v>
       </c>
       <c r="F215" s="1">
         <v>9</v>
@@ -6738,7 +6738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -6746,13 +6746,13 @@
         <v>445.94325349643975</v>
       </c>
       <c r="C216" s="9">
-        <v>501.92323354381358</v>
+        <v>501.92352021398108</v>
       </c>
       <c r="D216" s="9">
         <v>283299954</v>
       </c>
       <c r="E216" s="9">
-        <v>5.4206189584703788</v>
+        <v>5.0815188617981839</v>
       </c>
       <c r="F216" s="1">
         <v>9</v>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -6775,13 +6775,13 @@
         <v>429.74800283680906</v>
       </c>
       <c r="C217" s="9">
-        <v>503.71979770638166</v>
+        <v>503.72018570873217</v>
       </c>
       <c r="D217" s="9">
         <v>442964186.45454472</v>
       </c>
       <c r="E217" s="9">
-        <v>5.2449272968782514</v>
+        <v>4.8970083588951718</v>
       </c>
       <c r="F217" s="1">
         <v>9</v>
@@ -6796,7 +6796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -6804,13 +6804,13 @@
         <v>414.65013273548414</v>
       </c>
       <c r="C218" s="9">
-        <v>501.67256604436318</v>
+        <v>501.67247469560141</v>
       </c>
       <c r="D218" s="9">
         <v>403780995</v>
       </c>
       <c r="E218" s="9">
-        <v>5.3933504829981027</v>
+        <v>4.9426806454525272</v>
       </c>
       <c r="F218" s="1">
         <v>9</v>
@@ -6825,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -6833,13 +6833,13 @@
         <v>399.80448629748935</v>
       </c>
       <c r="C219" s="9">
-        <v>503.47062217807036</v>
+        <v>503.47091819412776</v>
       </c>
       <c r="D219" s="9">
         <v>365151468.27272451</v>
       </c>
       <c r="E219" s="9">
-        <v>5.2711677121629013</v>
+        <v>5.0744656851522709</v>
       </c>
       <c r="F219" s="1">
         <v>9</v>
@@ -6854,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -6862,13 +6862,13 @@
         <v>384.95883985949467</v>
       </c>
       <c r="C220" s="9">
-        <v>503.46717774659498</v>
+        <v>503.46705736640808</v>
       </c>
       <c r="D220" s="9">
         <v>344122580.54545528</v>
       </c>
       <c r="E220" s="9">
-        <v>4.9618180728369854</v>
+        <v>4.7268621448233059</v>
       </c>
       <c r="F220" s="1">
         <v>9</v>
@@ -6883,7 +6883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -6891,13 +6891,13 @@
         <v>353.91794276186931</v>
       </c>
       <c r="C221" s="9">
-        <v>501.67246921719936</v>
+        <v>501.67238689364808</v>
       </c>
       <c r="D221" s="9">
         <v>362221197.27272451</v>
       </c>
       <c r="E221" s="9">
-        <v>5.4657207142338695</v>
+        <v>4.9725748566691399</v>
       </c>
       <c r="F221" s="1">
         <v>9</v>
@@ -6912,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -6920,13 +6920,13 @@
         <v>337.72269210223874</v>
       </c>
       <c r="C222" s="9">
-        <v>501.67056482830787</v>
+        <v>501.67077088288909</v>
       </c>
       <c r="D222" s="9">
         <v>536796547.27272427</v>
       </c>
       <c r="E222" s="9">
-        <v>5.4582782030028767</v>
+        <v>5.1604545223114018</v>
       </c>
       <c r="F222" s="1">
         <v>9</v>
@@ -6941,7 +6941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -6949,13 +6949,13 @@
         <v>322.87704566424395</v>
       </c>
       <c r="C223" s="9">
-        <v>501.67040836636045</v>
+        <v>501.67066799148085</v>
       </c>
       <c r="D223" s="9">
         <v>451098713.81817961</v>
       </c>
       <c r="E223" s="9">
-        <v>5.39970381994139</v>
+        <v>4.9582942973866526</v>
       </c>
       <c r="F223" s="1">
         <v>9</v>
@@ -6970,7 +6970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -6978,13 +6978,13 @@
         <v>309.38100344788518</v>
       </c>
       <c r="C224" s="9">
-        <v>503.46860298798299</v>
+        <v>503.46875748815444</v>
       </c>
       <c r="D224" s="9">
         <v>436765792.81817967</v>
       </c>
       <c r="E224" s="9">
-        <v>5.5207371154542111</v>
+        <v>5.2389385763094669</v>
       </c>
       <c r="F224" s="1">
         <v>9</v>
@@ -6999,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -7007,13 +7007,13 @@
         <v>293.18575278825449</v>
       </c>
       <c r="C225" s="9">
-        <v>501.67007416064178</v>
+        <v>501.67045202657994</v>
       </c>
       <c r="D225" s="9">
         <v>460959705.81817955</v>
       </c>
       <c r="E225" s="9">
-        <v>5.3821958331051896</v>
+        <v>5.0067162747631055</v>
       </c>
       <c r="F225" s="1">
         <v>9</v>
@@ -7028,7 +7028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -7036,13 +7036,13 @@
         <v>262.14485569062924</v>
       </c>
       <c r="C226" s="9">
-        <v>503.46831436736011</v>
+        <v>503.4684210137126</v>
       </c>
       <c r="D226" s="9">
         <v>328784776.45454472</v>
       </c>
       <c r="E226" s="9">
-        <v>5.4314183765185184</v>
+        <v>5.2128304421955631</v>
       </c>
       <c r="F226" s="1">
         <v>9</v>
@@ -7057,7 +7057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -7065,13 +7065,13 @@
         <v>245.94960503099853</v>
       </c>
       <c r="C227" s="9">
-        <v>503.46807055766533</v>
+        <v>503.4683744326876</v>
       </c>
       <c r="D227" s="9">
         <v>279931314.27272522</v>
       </c>
       <c r="E227" s="9">
-        <v>5.3585748539093219</v>
+        <v>4.9313987664711876</v>
       </c>
       <c r="F227" s="1">
         <v>9</v>
@@ -7086,7 +7086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -7094,13 +7094,13 @@
         <v>231.10395859300385</v>
       </c>
       <c r="C228" s="9">
-        <v>501.6795162137721</v>
+        <v>501.67990497503854</v>
       </c>
       <c r="D228" s="9">
         <v>108433343</v>
       </c>
       <c r="E228" s="9">
-        <v>6.4432533202811291</v>
+        <v>5.8615725526150104</v>
       </c>
       <c r="F228" s="1">
         <v>9</v>
@@ -7115,7 +7115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -7123,13 +7123,13 @@
         <v>204.11187416028619</v>
       </c>
       <c r="C229" s="9">
-        <v>499.87062939355053</v>
+        <v>499.87073489595082</v>
       </c>
       <c r="D229" s="9">
         <v>339556640.72727537</v>
       </c>
       <c r="E229" s="9">
-        <v>5.0043032715505298</v>
+        <v>4.9096886475258561</v>
       </c>
       <c r="F229" s="1">
         <v>9</v>
@@ -7144,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -7152,13 +7152,13 @@
         <v>169.02216439775324</v>
       </c>
       <c r="C230" s="9">
-        <v>501.66992186634684</v>
+        <v>501.67035507736466</v>
       </c>
       <c r="D230" s="9">
         <v>357595203.8000015</v>
       </c>
       <c r="E230" s="9">
-        <v>5.5964567164637566</v>
+        <v>5.2342617212343239</v>
       </c>
       <c r="F230" s="1">
         <v>9</v>
@@ -7173,7 +7173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -7181,13 +7181,13 @@
         <v>154.17651795975846</v>
       </c>
       <c r="C231" s="9">
-        <v>501.66596050694591</v>
+        <v>501.66508545012437</v>
       </c>
       <c r="D231" s="9">
         <v>214371315.66666561</v>
       </c>
       <c r="E231" s="9">
-        <v>5.6428937479769923</v>
+        <v>5.0393554673319647</v>
       </c>
       <c r="F231" s="1">
         <v>9</v>
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -7210,13 +7210,13 @@
         <v>137.98126730012788</v>
       </c>
       <c r="C232" s="9">
-        <v>503.47329066969519</v>
+        <v>503.47439035652633</v>
       </c>
       <c r="D232" s="9">
         <v>106396730</v>
       </c>
       <c r="E232" s="9">
-        <v>6.7298629549725097</v>
+        <v>6.3423342994396812</v>
       </c>
       <c r="F232" s="1">
         <v>9</v>
@@ -7231,7 +7231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -7239,13 +7239,13 @@
         <v>124.485225083769</v>
       </c>
       <c r="C233" s="9">
-        <v>501.66754768577653</v>
+        <v>501.66802485652613</v>
       </c>
       <c r="D233" s="9">
         <v>332764160.66666842</v>
       </c>
       <c r="E233" s="9">
-        <v>5.4923708762984642</v>
+        <v>5.3514644633116886</v>
       </c>
       <c r="F233" s="1">
         <v>9</v>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -7268,13 +7268,13 @@
         <v>109.63957864577432</v>
       </c>
       <c r="C234" s="9">
-        <v>499.87220203404206</v>
+        <v>499.87284615379792</v>
       </c>
       <c r="D234" s="9">
         <v>211493723.54545522</v>
       </c>
       <c r="E234" s="9">
-        <v>5.9341931710759352</v>
+        <v>5.4726610973687393</v>
       </c>
       <c r="F234" s="1">
         <v>9</v>
@@ -7289,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -7297,13 +7297,13 @@
         <v>93.444327986143747</v>
       </c>
       <c r="C235" s="9">
-        <v>501.66828810484424</v>
+        <v>501.66826298818671</v>
       </c>
       <c r="D235" s="9">
         <v>256336717.81818271</v>
       </c>
       <c r="E235" s="9">
-        <v>5.9169043336416145</v>
+        <v>5.5268873368473921</v>
       </c>
       <c r="F235" s="1">
         <v>9</v>
@@ -7318,7 +7318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -7326,13 +7326,13 @@
         <v>77.24907732651306</v>
       </c>
       <c r="C236" s="9">
-        <v>501.66942848438896</v>
+        <v>501.66900790542468</v>
       </c>
       <c r="D236" s="9">
         <v>187994486.0909102</v>
       </c>
       <c r="E236" s="9">
-        <v>6.0134272091649148</v>
+        <v>5.6011375418679208</v>
       </c>
       <c r="F236" s="1">
         <v>9</v>
@@ -7347,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -7355,13 +7355,13 @@
         <v>65.102639331790186</v>
       </c>
       <c r="C237" s="9">
-        <v>501.67230936863018</v>
+        <v>501.67218092353369</v>
       </c>
       <c r="D237" s="9">
         <v>226286770.72727236</v>
       </c>
       <c r="E237" s="9">
-        <v>5.6725189986838114</v>
+        <v>5.2783897503673929</v>
       </c>
       <c r="F237" s="1">
         <v>9</v>
@@ -7376,7 +7376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -7384,13 +7384,13 @@
         <v>47.557784450523606</v>
       </c>
       <c r="C238" s="9">
-        <v>501.6711485753716</v>
+        <v>501.67121655583765</v>
       </c>
       <c r="D238" s="9">
         <v>238215448.66666552</v>
       </c>
       <c r="E238" s="9">
-        <v>5.6521217090810776</v>
+        <v>5.2863509752789675</v>
       </c>
       <c r="F238" s="1">
         <v>9</v>
@@ -7405,7 +7405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -7413,13 +7413,13 @@
         <v>31.362533790893032</v>
       </c>
       <c r="C239" s="9">
-        <v>501.66956918250082</v>
+        <v>501.6687448874485</v>
       </c>
       <c r="D239" s="9">
         <v>206874026.09091026</v>
       </c>
       <c r="E239" s="9">
-        <v>5.5948904347972617</v>
+        <v>5.3469410615559445</v>
       </c>
       <c r="F239" s="1">
         <v>9</v>
@@ -7434,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -7442,13 +7442,13 @@
         <v>305.33219078297748</v>
       </c>
       <c r="C240" s="9">
-        <v>640.59256146233827</v>
+        <v>640.59386811748288</v>
       </c>
       <c r="D240" s="9">
         <v>601445676.20000374</v>
       </c>
       <c r="E240" s="9">
-        <v>5.7715492243526567</v>
+        <v>4.1727762571284126</v>
       </c>
       <c r="F240" s="3">
         <v>10</v>
@@ -7463,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -7471,13 +7471,13 @@
         <v>293.18575278825449</v>
       </c>
       <c r="C241" s="9">
-        <v>640.59280063854101</v>
+        <v>640.59190002204139</v>
       </c>
       <c r="D241" s="9">
         <v>589613355.39999712</v>
       </c>
       <c r="E241" s="9">
-        <v>5.7394498834851566</v>
+        <v>5.0719783228265269</v>
       </c>
       <c r="F241" s="3">
         <v>10</v>
@@ -7492,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -7500,13 +7500,13 @@
         <v>278.34010635025982</v>
       </c>
       <c r="C242" s="9">
-        <v>638.79370634175837</v>
+        <v>638.79443783143881</v>
       </c>
       <c r="D242" s="9">
         <v>582530860.39999723</v>
       </c>
       <c r="E242" s="9">
-        <v>5.5011044982070612</v>
+        <v>5.1330020471002396</v>
       </c>
       <c r="F242" s="3">
         <v>10</v>
@@ -7521,7 +7521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -7529,13 +7529,13 @@
         <v>247.29920925263443</v>
       </c>
       <c r="C243" s="9">
-        <v>638.79364070489567</v>
+        <v>638.79276491578378</v>
       </c>
       <c r="D243" s="9">
         <v>670533088.81817925</v>
       </c>
       <c r="E243" s="9">
-        <v>5.5092646710446038</v>
+        <v>5.1716382295498438</v>
       </c>
       <c r="F243" s="3">
         <v>10</v>
@@ -7550,7 +7550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -7558,13 +7558,13 @@
         <v>231.10395859300385</v>
       </c>
       <c r="C244" s="9">
-        <v>638.79426713806481</v>
+        <v>638.79588383533599</v>
       </c>
       <c r="D244" s="9">
         <v>543942648.7692287</v>
       </c>
       <c r="E244" s="9">
-        <v>5.4265902977597555</v>
+        <v>4.3733681386693277</v>
       </c>
       <c r="F244" s="3">
         <v>10</v>
@@ -7579,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -7587,13 +7587,13 @@
         <v>201.41266571701439</v>
       </c>
       <c r="C245" s="9">
-        <v>640.59113343903152</v>
+        <v>640.59072077980056</v>
       </c>
       <c r="D245" s="9">
         <v>674547919.36364043</v>
       </c>
       <c r="E245" s="9">
-        <v>5.6711298676549227</v>
+        <v>4.5274079354407171</v>
       </c>
       <c r="F245" s="3">
         <v>10</v>
@@ -7608,7 +7608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -7616,13 +7616,13 @@
         <v>185.21741505738382</v>
       </c>
       <c r="C246" s="9">
-        <v>638.79277210533894</v>
+        <v>638.79311705122666</v>
       </c>
       <c r="D246" s="9">
         <v>540806312.27272749</v>
       </c>
       <c r="E246" s="9">
-        <v>5.7789993425115274</v>
+        <v>4.2471673158886425</v>
       </c>
       <c r="F246" s="3">
         <v>10</v>
@@ -7637,7 +7637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -7645,13 +7645,13 @@
         <v>171.72137284102493</v>
       </c>
       <c r="C247" s="9">
-        <v>636.99675428604303</v>
+        <v>636.99651695701903</v>
       </c>
       <c r="D247" s="9">
         <v>418479679</v>
       </c>
       <c r="E247" s="9">
-        <v>6.1804886773361227</v>
+        <v>5.8064471579505765</v>
       </c>
       <c r="F247" s="3">
         <v>10</v>
@@ -7666,7 +7666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -7674,13 +7674,13 @@
         <v>155.52612218139436</v>
       </c>
       <c r="C248" s="9">
-        <v>636.9959904587987</v>
+        <v>636.99682059627537</v>
       </c>
       <c r="D248" s="9">
         <v>432210905.90908945</v>
       </c>
       <c r="E248" s="9">
-        <v>5.8377725474749003</v>
+        <v>5.4346014337894371</v>
       </c>
       <c r="F248" s="3">
         <v>10</v>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -7703,13 +7703,13 @@
         <v>140.68047574339968</v>
       </c>
       <c r="C249" s="9">
-        <v>636.99489653405033</v>
+        <v>636.99509661000627</v>
       </c>
       <c r="D249" s="9">
         <v>451637467</v>
       </c>
       <c r="E249" s="9">
-        <v>5.6435713608848106</v>
+        <v>5.1484527532391313</v>
       </c>
       <c r="F249" s="3">
         <v>10</v>
@@ -7724,7 +7724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -7732,13 +7732,13 @@
         <v>123.13562086213309</v>
       </c>
       <c r="C250" s="9">
-        <v>638.8027557954548</v>
+        <v>638.80711577006093</v>
       </c>
       <c r="D250" s="9">
         <v>198778147.81818259</v>
       </c>
       <c r="E250" s="9">
-        <v>7.8723049625028194</v>
+        <v>5.4267230991307667</v>
       </c>
       <c r="F250" s="3">
         <v>10</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -7761,13 +7761,13 @@
         <v>108.28997442413842</v>
       </c>
       <c r="C251" s="9">
-        <v>642.38865090639899</v>
+        <v>642.38919489621219</v>
       </c>
       <c r="D251" s="9">
         <v>233933196.18181732</v>
       </c>
       <c r="E251" s="9">
-        <v>5.9707437822222706</v>
+        <v>5.4889813372555043</v>
       </c>
       <c r="F251" s="3">
         <v>10</v>
@@ -7782,7 +7782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -7790,13 +7790,13 @@
         <v>92.094723764507847</v>
       </c>
       <c r="C252" s="9">
-        <v>640.59270347946028</v>
+        <v>640.59278058459779</v>
       </c>
       <c r="D252" s="9">
         <v>204295869.90908977</v>
       </c>
       <c r="E252" s="9">
-        <v>6.0683030117858445</v>
+        <v>5.9700614648703185</v>
       </c>
       <c r="F252" s="3">
         <v>10</v>
@@ -7811,7 +7811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -7819,13 +7819,13 @@
         <v>78.59868154814896</v>
       </c>
       <c r="C253" s="9">
-        <v>640.59550443499882</v>
+        <v>640.59544481719479</v>
       </c>
       <c r="D253" s="9">
         <v>98399427.181818843</v>
       </c>
       <c r="E253" s="9">
-        <v>5.636508895398082</v>
+        <v>5.5402122486070615</v>
       </c>
       <c r="F253" s="3">
         <v>10</v>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -7848,13 +7848,13 @@
         <v>63.753035110154293</v>
       </c>
       <c r="C254" s="9">
-        <v>640.59243809711177</v>
+        <v>640.59242615972187</v>
       </c>
       <c r="D254" s="9">
         <v>78040907.363636196</v>
       </c>
       <c r="E254" s="9">
-        <v>5.8575224303801061</v>
+        <v>5.8443347904368723</v>
       </c>
       <c r="F254" s="3">
         <v>10</v>
@@ -7869,7 +7869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -7877,13 +7877,13 @@
         <v>47.557784450523606</v>
       </c>
       <c r="C255" s="9">
-        <v>640.59474782344512</v>
+        <v>640.59474443494139</v>
       </c>
       <c r="D255" s="9">
         <v>56815758.181818031</v>
       </c>
       <c r="E255" s="9">
-        <v>5.8502842012484706</v>
+        <v>5.8468209299606588</v>
       </c>
       <c r="F255" s="3">
         <v>10</v>
@@ -7898,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -7906,13 +7906,13 @@
         <v>355.26754698350521</v>
       </c>
       <c r="C256" s="9">
-        <v>777.71665778683484</v>
+        <v>777.71631546499145</v>
       </c>
       <c r="D256" s="9">
         <v>597605234.39999723</v>
       </c>
       <c r="E256" s="9">
-        <v>5.6976068478811683</v>
+        <v>5.2986249918718062</v>
       </c>
       <c r="F256" s="1">
         <v>11</v>
@@ -7927,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -7935,13 +7935,13 @@
         <v>339.07229632387464</v>
       </c>
       <c r="C257" s="9">
-        <v>777.71841374719054</v>
+        <v>777.71873102210327</v>
       </c>
       <c r="D257" s="9">
         <v>318683188.27272487</v>
       </c>
       <c r="E257" s="9">
-        <v>6.3839157319957822</v>
+        <v>5.622377150798278</v>
       </c>
       <c r="F257" s="1">
         <v>11</v>
@@ -7956,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -7964,13 +7964,13 @@
         <v>324.22664988587985</v>
       </c>
       <c r="C258" s="9">
-        <v>777.71580391042164</v>
+        <v>777.7157350756637</v>
       </c>
       <c r="D258" s="9">
         <v>566609017.60000277</v>
       </c>
       <c r="E258" s="9">
-        <v>5.9094504599408202</v>
+        <v>5.4771481182838562</v>
       </c>
       <c r="F258" s="1">
         <v>11</v>
@@ -7985,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -7993,13 +7993,13 @@
         <v>308.03139922624928</v>
       </c>
       <c r="C259" s="9">
-        <v>779.51470090977762</v>
+        <v>779.51370267499385</v>
       </c>
       <c r="D259" s="9">
         <v>776683665.399997</v>
       </c>
       <c r="E259" s="9">
-        <v>6.076710449704759</v>
+        <v>4.6759215656033142</v>
       </c>
       <c r="F259" s="1">
         <v>11</v>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -8022,13 +8022,13 @@
         <v>291.8361485666187</v>
       </c>
       <c r="C260" s="9">
-        <v>777.71877401702875</v>
+        <v>777.71691446763305</v>
       </c>
       <c r="D260" s="9">
         <v>533101182.81817949</v>
       </c>
       <c r="E260" s="9">
-        <v>6.5585635197443448</v>
+        <v>5.1517482943065147</v>
       </c>
       <c r="F260" s="1">
         <v>11</v>
@@ -8043,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -8051,13 +8051,13 @@
         <v>279.69327176781007</v>
       </c>
       <c r="C261" s="9">
-        <v>779.51469828976826</v>
+        <v>779.51449252767418</v>
       </c>
       <c r="D261" s="9">
         <v>601463868.39999712</v>
       </c>
       <c r="E261" s="9">
-        <v>6.5465882170138618</v>
+        <v>6.1553139072617906</v>
       </c>
       <c r="F261" s="1">
         <v>11</v>
@@ -8072,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -8080,13 +8080,13 @@
         <v>260.7988126649077</v>
       </c>
       <c r="C262" s="9">
-        <v>775.91737093363042</v>
+        <v>775.91538367738974</v>
       </c>
       <c r="D262" s="9">
         <v>655351018</v>
       </c>
       <c r="E262" s="9">
-        <v>5.783531080313165</v>
+        <v>4.2163828016807505</v>
       </c>
       <c r="F262" s="1">
         <v>11</v>
@@ -8101,7 +8101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -8109,13 +8109,13 @@
         <v>231.10751978891824</v>
       </c>
       <c r="C263" s="9">
-        <v>777.71716796370481</v>
+        <v>777.71609468178656</v>
       </c>
       <c r="D263" s="9">
         <v>712466065.9230727</v>
       </c>
       <c r="E263" s="9">
-        <v>6.4461217646722799</v>
+        <v>4.8604832992213147</v>
       </c>
       <c r="F263" s="1">
         <v>11</v>
@@ -8130,7 +8130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -8138,13 +8138,13 @@
         <v>217.61147757255935</v>
       </c>
       <c r="C264" s="9">
-        <v>775.91813253171802</v>
+        <v>775.91818638077564</v>
       </c>
       <c r="D264" s="9">
         <v>746394239</v>
       </c>
       <c r="E264" s="9">
-        <v>5.8914720201506556</v>
+        <v>4.4199505844276938</v>
       </c>
       <c r="F264" s="1">
         <v>11</v>
@@ -8159,7 +8159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -8167,13 +8167,13 @@
         <v>155.52968337730874</v>
       </c>
       <c r="C265" s="9">
-        <v>779.51490851294432</v>
+        <v>779.51546367924277</v>
       </c>
       <c r="D265" s="9">
         <v>544400494.20000219</v>
       </c>
       <c r="E265" s="9">
-        <v>6.279410557871512</v>
+        <v>5.6775139401400088</v>
       </c>
       <c r="F265" s="1">
         <v>11</v>
@@ -8188,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -8196,13 +8196,13 @@
         <v>139.33443271767806</v>
       </c>
       <c r="C266" s="9">
-        <v>779.51525683659736</v>
+        <v>779.51392884069912</v>
       </c>
       <c r="D266" s="9">
         <v>529430966.66666889</v>
       </c>
       <c r="E266" s="9">
-        <v>6.7599207025426722</v>
+        <v>4.7121198935776887</v>
       </c>
       <c r="F266" s="1">
         <v>11</v>
@@ -8217,7 +8217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -8225,13 +8225,13 @@
         <v>124.48878627968338</v>
       </c>
       <c r="C267" s="9">
-        <v>777.71765735006977</v>
+        <v>777.71713040701877</v>
       </c>
       <c r="D267" s="9">
         <v>592723907.36363983</v>
       </c>
       <c r="E267" s="9">
-        <v>5.9355742424420823</v>
+        <v>5.4827114377935144</v>
       </c>
       <c r="F267" s="1">
         <v>11</v>
@@ -8246,7 +8246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -8254,13 +8254,13 @@
         <v>108.29353562005281</v>
       </c>
       <c r="C268" s="9">
-        <v>777.7182089155948</v>
+        <v>777.71849607137244</v>
       </c>
       <c r="D268" s="9">
         <v>420714734.54545528</v>
       </c>
       <c r="E268" s="9">
-        <v>6.3858045694537342</v>
+        <v>5.8965276601115484</v>
       </c>
       <c r="F268" s="1">
         <v>11</v>
@@ -8275,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -8283,13 +8283,13 @@
         <v>81.301451187335033</v>
       </c>
       <c r="C269" s="9">
-        <v>783.10988573585212</v>
+        <v>783.10872714370646</v>
       </c>
       <c r="D269" s="9">
         <v>346886778.90908957</v>
       </c>
       <c r="E269" s="9">
-        <v>6.7188447885446552</v>
+        <v>6.625908660714602</v>
       </c>
       <c r="F269" s="1">
         <v>11</v>
@@ -8304,7 +8304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -8312,13 +8312,13 @@
         <v>62.77249933216666</v>
       </c>
       <c r="C270" s="9">
-        <v>777.76588196497175</v>
+        <v>777.76658338684194</v>
       </c>
       <c r="D270" s="9">
         <v>327158229.36363518</v>
       </c>
       <c r="E270" s="9">
-        <v>6.9733606100418841</v>
+        <v>6.4632331847704165</v>
       </c>
       <c r="F270" s="1">
         <v>11</v>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.8">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -8341,13 +8341,13 @@
         <v>47.357692666748555</v>
       </c>
       <c r="C271" s="9">
-        <v>779.80371449360143</v>
+        <v>779.80329076575288</v>
       </c>
       <c r="D271" s="9">
         <v>287193412.42857242</v>
       </c>
       <c r="E271" s="9">
-        <v>6.6377035100619537</v>
+        <v>6.0222032002697716</v>
       </c>
       <c r="F271" s="1">
         <v>11</v>
